--- a/plot/system_evaluation/comparison.xlsx
+++ b/plot/system_evaluation/comparison.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuboluo/Documents/PycharmProjects/SmartSwitch/plot/system_evaluation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C30583E-6706-8D4E-90E2-3CB7C2D00BFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC00F643-B095-1D4A-B77D-9C3E35986E86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15860" activeTab="1" xr2:uid="{A33675B7-7F4F-C34D-AB6F-57998B81D61A}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15860" activeTab="2" xr2:uid="{A33675B7-7F4F-C34D-AB6F-57998B81D61A}"/>
   </bookViews>
   <sheets>
     <sheet name="accuracy" sheetId="1" r:id="rId1"/>
     <sheet name="memory" sheetId="2" r:id="rId2"/>
-    <sheet name="timeoverhead_backup" sheetId="3" state="hidden" r:id="rId3"/>
-    <sheet name="timeoverhead_msp" sheetId="4" r:id="rId4"/>
-    <sheet name="timeoverhead_pico" sheetId="6" r:id="rId5"/>
-    <sheet name="energyoverhead_msp" sheetId="8" r:id="rId6"/>
-    <sheet name="energyoverhead_pico" sheetId="9" r:id="rId7"/>
-    <sheet name="timeoverhead-task=5" sheetId="5" state="hidden" r:id="rId8"/>
+    <sheet name="breakdown" sheetId="10" r:id="rId3"/>
+    <sheet name="timeoverhead_backup" sheetId="3" state="hidden" r:id="rId4"/>
+    <sheet name="timeoverhead_msp" sheetId="4" r:id="rId5"/>
+    <sheet name="timeoverhead_pico" sheetId="6" r:id="rId6"/>
+    <sheet name="energyoverhead_msp" sheetId="8" r:id="rId7"/>
+    <sheet name="energyoverhead_pico" sheetId="9" r:id="rId8"/>
+    <sheet name="timeoverhead-task=5" sheetId="5" state="hidden" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="60">
   <si>
     <t>MNIST</t>
   </si>
@@ -171,9 +172,6 @@
     <t>YONO does not have the last four datasets</t>
   </si>
   <si>
-    <t>HHAR  only has 6 tasks, we use a mulitpler 1.667 to make it comparable to others who all have 10 tasks</t>
-  </si>
-  <si>
     <t>Total Execution time of running all tasks (s)</t>
   </si>
   <si>
@@ -206,6 +204,24 @@
   <si>
     <t>Antler</t>
   </si>
+  <si>
+    <t>Inference</t>
+  </si>
+  <si>
+    <t>Switching</t>
+  </si>
+  <si>
+    <t>Overhead breakdown - timeoverhead_msp</t>
+  </si>
+  <si>
+    <t>Overhead breakdown - energyoverhead_msp</t>
+  </si>
+  <si>
+    <t>Overhead breakdown - timeoverhead_pico</t>
+  </si>
+  <si>
+    <t>Overhead breakdown - energyoverhead_pico</t>
+  </si>
 </sst>
 </file>
 
@@ -237,7 +253,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -271,12 +287,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -319,19 +329,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -659,18 +669,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -678,7 +688,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
@@ -860,37 +870,37 @@
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="20">
+      <c r="B7" s="19">
         <v>99.6</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="19">
         <v>94.6</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="19">
         <v>98.4</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="19">
         <v>100</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="19">
         <v>98.4</v>
       </c>
-      <c r="G7" s="20">
+      <c r="G7" s="19">
         <v>99.7</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="19">
         <v>99.4</v>
       </c>
-      <c r="I7" s="20">
+      <c r="I7" s="19">
         <v>97.1</v>
       </c>
-      <c r="J7" s="20">
+      <c r="J7" s="19">
         <v>96.4</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8" s="3">
         <v>99.7</v>
@@ -921,18 +931,18 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
@@ -1061,24 +1071,24 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
@@ -1159,14 +1169,14 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1184,21 +1194,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37800737-DCBD-4E48-B8D1-0EDDFA6F61A2}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="132" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView zoomScale="132" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -1206,7 +1216,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>6</v>
@@ -1222,19 +1232,19 @@
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="23">
+      <c r="B3" s="20">
         <v>1195</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3" s="20">
         <v>587.5</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="20">
         <v>213.7</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3" s="20">
         <v>129.6</v>
       </c>
-      <c r="F3" s="23">
+      <c r="F3" s="20">
         <v>103.3</v>
       </c>
     </row>
@@ -1264,11 +1274,11 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="8"/>
@@ -1288,6 +1298,228 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{951637E0-D5A3-6945-9708-8015501B2B41}">
+  <dimension ref="A1:C23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="131" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="6">
+        <v>75.63</v>
+      </c>
+      <c r="C3" s="6">
+        <v>9.48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="6">
+        <v>61.83</v>
+      </c>
+      <c r="C4" s="6">
+        <v>9.44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="6">
+        <v>21.48</v>
+      </c>
+      <c r="C5" s="6">
+        <v>4.1900000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="6">
+        <v>12.77</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="6">
+        <v>10.24</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="6">
+        <v>3.61</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="6">
+        <v>438.83</v>
+      </c>
+      <c r="C15" s="6">
+        <v>99.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="6">
+        <v>340.62</v>
+      </c>
+      <c r="C16" s="6">
+        <v>99.08</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="6">
+        <v>118.02</v>
+      </c>
+      <c r="C17" s="6">
+        <v>43.97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="6">
+        <v>533.99</v>
+      </c>
+      <c r="C21" s="6">
+        <v>21.21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="6">
+        <v>428.73</v>
+      </c>
+      <c r="C22" s="6">
+        <v>21.12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="6">
+        <v>156</v>
+      </c>
+      <c r="C23" s="6">
+        <v>9.6199999999999992</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A19:C19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{803D7DDF-C6E5-DB46-8AC4-11520FE3D49F}">
   <dimension ref="A1:F40"/>
   <sheetViews>
@@ -1301,12 +1533,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
       <c r="E1" s="11" t="s">
         <v>27</v>
       </c>
@@ -1473,14 +1705,14 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
@@ -1646,14 +1878,14 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
@@ -1699,14 +1931,14 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
@@ -1775,12 +2007,12 @@
       <c r="A31" s="8"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="21" t="s">
+      <c r="A33" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
@@ -1797,14 +2029,14 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="21" t="s">
+      <c r="A37" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
@@ -1883,12 +2115,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A77F0FD-FF90-6947-BEE6-0880C6726156}">
-  <dimension ref="A1:L65"/>
+  <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView zoomScale="144" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView topLeftCell="A18" zoomScale="144" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1896,17 +2128,17 @@
     <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
       <c r="I1" s="11" t="s">
         <v>27</v>
       </c>
@@ -1914,13 +2146,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
@@ -1944,7 +2176,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1985,7 +2217,7 @@
         <v>110.905</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -2026,7 +2258,7 @@
         <v>110.977834375</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -2063,7 +2295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -2104,7 +2336,7 @@
         <v>121.23062937500001</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -2133,19 +2365,12 @@
         <v>54.059483125</v>
       </c>
       <c r="J7" s="3">
-        <f>K7/0.6</f>
-        <v>114.92034687500001</v>
-      </c>
-      <c r="K7" s="19">
-        <v>68.952208124999999</v>
-      </c>
-      <c r="L7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+        <v>114.92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8" s="6">
         <v>16.61</v>
@@ -2172,31 +2397,24 @@
         <v>13.257019124999999</v>
       </c>
       <c r="J8" s="3">
-        <f>K8/0.6</f>
-        <v>42.577836875000003</v>
-      </c>
-      <c r="K8" s="19">
-        <v>25.546702124999999</v>
-      </c>
-      <c r="L8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="s">
+        <v>42.58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
@@ -2228,7 +2446,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>1</v>
       </c>
@@ -2260,7 +2478,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>2</v>
       </c>
@@ -2292,7 +2510,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>3</v>
       </c>
@@ -2324,7 +2542,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>4</v>
       </c>
@@ -2356,7 +2574,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>5</v>
       </c>
@@ -2388,7 +2606,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>6</v>
       </c>
@@ -2420,7 +2638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -2460,22 +2678,26 @@
         <f t="shared" si="0"/>
         <v>11.0905</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="21" t="s">
+      <c r="K18" s="12">
+        <f>SUM(B18:J18)*J1/9</f>
+        <v>75.632111111111101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>30</v>
       </c>
@@ -2507,7 +2729,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>1</v>
       </c>
@@ -2548,7 +2770,7 @@
         <v>1.0282499999999999E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>2</v>
       </c>
@@ -2589,7 +2811,7 @@
         <v>2.9705000000000002E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>3</v>
       </c>
@@ -2630,7 +2852,7 @@
         <v>0.11790600000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>4</v>
       </c>
@@ -2671,7 +2893,7 @@
         <v>0.87835399999999997</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>5</v>
       </c>
@@ -2712,7 +2934,7 @@
         <v>5.5696875E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>6</v>
       </c>
@@ -2753,7 +2975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>20</v>
       </c>
@@ -2794,21 +3016,21 @@
         <v>1.0325629374999998</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="21" t="s">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
         <v>0</v>
@@ -2838,7 +3060,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>26</v>
       </c>
@@ -2878,20 +3100,24 @@
         <f>J55/B59*D59</f>
         <v>1.0325629375000001</v>
       </c>
+      <c r="K32">
+        <f>SUM(B32:J32)*J1/9</f>
+        <v>9.4826547916666684</v>
+      </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="21" t="s">
+      <c r="A35" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
@@ -3210,18 +3436,18 @@
       <c r="A46" s="8"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="21" t="s">
+      <c r="A47" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B47" s="21"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="21"/>
-      <c r="I47" s="21"/>
-      <c r="J47" s="21"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="22"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
@@ -3550,12 +3776,12 @@
       <c r="F56" s="14"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="21" t="s">
+      <c r="A58" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B58" s="21"/>
-      <c r="C58" s="21"/>
-      <c r="D58" s="21"/>
+      <c r="B58" s="22"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="22"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
@@ -3572,18 +3798,18 @@
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" s="21" t="s">
+      <c r="A62" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B62" s="21"/>
-      <c r="C62" s="21"/>
-      <c r="D62" s="21"/>
-      <c r="E62" s="21"/>
-      <c r="F62" s="21"/>
-      <c r="G62" s="21"/>
-      <c r="H62" s="21"/>
-      <c r="I62" s="21"/>
-      <c r="J62" s="21"/>
+      <c r="B62" s="22"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="22"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="22"/>
+      <c r="G62" s="22"/>
+      <c r="H62" s="22"/>
+      <c r="I62" s="22"/>
+      <c r="J62" s="22"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
@@ -3706,12 +3932,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4E9899-3E04-0747-82E9-ACEDBE639FB7}">
-  <dimension ref="A1:L65"/>
+  <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="144" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView topLeftCell="A22" zoomScale="144" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3719,17 +3945,17 @@
     <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
       <c r="I1" s="11" t="s">
         <v>27</v>
       </c>
@@ -3737,13 +3963,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
@@ -3767,7 +3993,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -3808,7 +4034,7 @@
         <v>10.08</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -3849,7 +4075,7 @@
         <v>10.083028125</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -3886,7 +4112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -3927,7 +4153,7 @@
         <v>10.509293124999999</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -3956,19 +4182,13 @@
         <v>8.4647443749999898</v>
       </c>
       <c r="J7" s="3">
-        <f>K7/0.6</f>
-        <v>9.8288656250000006</v>
-      </c>
-      <c r="K7" s="19">
-        <v>5.8973193750000004</v>
-      </c>
-      <c r="L7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+        <v>9.83</v>
+      </c>
+      <c r="K7" s="25"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8" s="6">
         <v>2.342035375</v>
@@ -3995,31 +4215,25 @@
         <v>2.0458563750000001</v>
       </c>
       <c r="J8" s="3">
-        <f>K8/0.6</f>
-        <v>3.5103622916666506</v>
-      </c>
-      <c r="K8" s="19">
-        <v>2.1062173749999902</v>
-      </c>
-      <c r="L8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="s">
+        <v>3.51</v>
+      </c>
+      <c r="K8" s="25"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
@@ -4051,7 +4265,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>1</v>
       </c>
@@ -4083,7 +4297,7 @@
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>2</v>
       </c>
@@ -4115,7 +4329,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>3</v>
       </c>
@@ -4147,7 +4361,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>4</v>
       </c>
@@ -4179,7 +4393,7 @@
         <v>9.9000000000000005E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>5</v>
       </c>
@@ -4211,7 +4425,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>6</v>
       </c>
@@ -4243,7 +4457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -4283,22 +4497,26 @@
         <f t="shared" si="0"/>
         <v>1.008</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="21" t="s">
+      <c r="K18" s="12">
+        <f>SUM(B18:J18)*J1/9</f>
+        <v>12.771111111111111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>30</v>
       </c>
@@ -4330,7 +4548,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>1</v>
       </c>
@@ -4371,7 +4589,7 @@
         <v>4.2749999999999996E-5</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>2</v>
       </c>
@@ -4412,7 +4630,7 @@
         <v>1.235E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>3</v>
       </c>
@@ -4453,7 +4671,7 @@
         <v>4.9020000000000001E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>4</v>
       </c>
@@ -4494,7 +4712,7 @@
         <v>3.6517999999999995E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>5</v>
       </c>
@@ -4535,7 +4753,7 @@
         <v>2.315625E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>6</v>
       </c>
@@ -4576,7 +4794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>20</v>
       </c>
@@ -4617,21 +4835,21 @@
         <v>4.292931249999999E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="21" t="s">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
         <v>0</v>
@@ -4661,7 +4879,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>26</v>
       </c>
@@ -4701,20 +4919,24 @@
         <f>J55/B59*D59</f>
         <v>4.2929312500000004E-2</v>
       </c>
+      <c r="K32">
+        <f>SUM(B32:J32)*J1/9</f>
+        <v>0.39424604166666666</v>
+      </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="21" t="s">
+      <c r="A35" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
@@ -5033,18 +5255,18 @@
       <c r="A46" s="8"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="21" t="s">
+      <c r="A47" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B47" s="21"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="21"/>
-      <c r="I47" s="21"/>
-      <c r="J47" s="21"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="22"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
@@ -5373,12 +5595,12 @@
       <c r="F56" s="14"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="21" t="s">
+      <c r="A58" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B58" s="21"/>
-      <c r="C58" s="21"/>
-      <c r="D58" s="21"/>
+      <c r="B58" s="22"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="22"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
@@ -5395,18 +5617,18 @@
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" s="21" t="s">
+      <c r="A62" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B62" s="21"/>
-      <c r="C62" s="21"/>
-      <c r="D62" s="21"/>
-      <c r="E62" s="21"/>
-      <c r="F62" s="21"/>
-      <c r="G62" s="21"/>
-      <c r="H62" s="21"/>
-      <c r="I62" s="21"/>
-      <c r="J62" s="21"/>
+      <c r="B62" s="22"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="22"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="22"/>
+      <c r="G62" s="22"/>
+      <c r="H62" s="22"/>
+      <c r="I62" s="22"/>
+      <c r="J62" s="22"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
@@ -5509,1826 +5731,6 @@
       <c r="J65" s="3">
         <f>J64/B59*D59</f>
         <v>3.0281250000000002E-4</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A58:D58"/>
-    <mergeCell ref="A62:J62"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="A47:J47"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13C6D9F3-393E-3E4E-A142-A12E5051E586}">
-  <dimension ref="A1:L65"/>
-  <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="144" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" s="11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="6">
-        <f>B18*J1</f>
-        <v>335.29999999999984</v>
-      </c>
-      <c r="C3" s="6">
-        <f>C18*J1</f>
-        <v>578.70000000000016</v>
-      </c>
-      <c r="D3" s="6">
-        <f>D18*J1</f>
-        <v>578.70000000000016</v>
-      </c>
-      <c r="E3" s="6">
-        <f>E18*J1</f>
-        <v>578.70000000000016</v>
-      </c>
-      <c r="F3" s="6">
-        <f>F18*J1</f>
-        <v>198.39999999999998</v>
-      </c>
-      <c r="G3" s="6">
-        <f>G18*J1</f>
-        <v>466.89999999999992</v>
-      </c>
-      <c r="H3" s="6">
-        <f>H18*J1</f>
-        <v>295.79999999999995</v>
-      </c>
-      <c r="I3" s="6">
-        <f>I18*J1</f>
-        <v>301.39999999999998</v>
-      </c>
-      <c r="J3" s="6">
-        <f>J18*J1</f>
-        <v>615.6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="6">
-        <f>B18*J1 +B65*J1</f>
-        <v>346.03630468749986</v>
-      </c>
-      <c r="C4" s="6">
-        <f>C18*J1 +C65*J1</f>
-        <v>580.22840625000015</v>
-      </c>
-      <c r="D4" s="6">
-        <f>D18*J1 +D65*J1</f>
-        <v>597.10830468750021</v>
-      </c>
-      <c r="E4" s="6">
-        <f>E18*J1 +E65*J1</f>
-        <v>587.13620312500018</v>
-      </c>
-      <c r="F4" s="6">
-        <f>F18*J1+F65*J1</f>
-        <v>199.92840624999997</v>
-      </c>
-      <c r="G4" s="6">
-        <f>G18*J1+G65*J1</f>
-        <v>476.10040624999993</v>
-      </c>
-      <c r="H4" s="6">
-        <f>H18*J1+H65*J1</f>
-        <v>305.00040624999997</v>
-      </c>
-      <c r="I4" s="6">
-        <f>I18*J1+I65*J1</f>
-        <v>303.70010156249998</v>
-      </c>
-      <c r="J4" s="6">
-        <f>J18*J1+J65*J1</f>
-        <v>616.36420312500002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="6">
-        <f>B18*J1 + 0.024*J1</f>
-        <v>335.53999999999985</v>
-      </c>
-      <c r="C5" s="6">
-        <f>C18*J1 + 0.024*J1</f>
-        <v>578.94000000000017</v>
-      </c>
-      <c r="D5" s="6">
-        <f>D18*J1 + 0.024*J1</f>
-        <v>578.94000000000017</v>
-      </c>
-      <c r="E5" s="6">
-        <f>E18*J1 + 0.024*J1</f>
-        <v>578.94000000000017</v>
-      </c>
-      <c r="F5" s="6">
-        <f>F18*J1 + 0.024*J1</f>
-        <v>198.64</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0</v>
-      </c>
-      <c r="I5" s="3">
-        <v>0</v>
-      </c>
-      <c r="J5" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="6">
-        <f>B18*J1 + B32*J1</f>
-        <v>433.30080937499986</v>
-      </c>
-      <c r="C6" s="6">
-        <f>C18*J1 + C32*J1</f>
-        <v>675.6039531250002</v>
-      </c>
-      <c r="D6" s="6">
-        <f>D18*J1 + D32*J1</f>
-        <v>675.6039531250002</v>
-      </c>
-      <c r="E6" s="6">
-        <f>E18*J1 + E32*J1</f>
-        <v>682.17610000000013</v>
-      </c>
-      <c r="F6" s="6">
-        <f>F18*J1 + F32*J1</f>
-        <v>304.78306874999998</v>
-      </c>
-      <c r="G6" s="6">
-        <f>G18*J1 + G32*J1</f>
-        <v>571.73967812499995</v>
-      </c>
-      <c r="H6" s="6">
-        <f>H18*J1 + H32*J1</f>
-        <v>391.81088437499994</v>
-      </c>
-      <c r="I6" s="6">
-        <f>I18*J1 + I32*J1</f>
-        <v>385.99878437500001</v>
-      </c>
-      <c r="J6" s="6">
-        <f>J18*J1 + J32*J1</f>
-        <v>723.94002812500003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="6">
-        <v>383.761059375</v>
-      </c>
-      <c r="C7" s="6">
-        <v>493.53265312500002</v>
-      </c>
-      <c r="D7" s="6">
-        <v>493.53265312500002</v>
-      </c>
-      <c r="E7" s="6">
-        <v>500.10480000000001</v>
-      </c>
-      <c r="F7" s="6">
-        <v>224.091893749999</v>
-      </c>
-      <c r="G7" s="3">
-        <v>490.88005312500002</v>
-      </c>
-      <c r="H7" s="3">
-        <v>353.39100937500001</v>
-      </c>
-      <c r="I7" s="3">
-        <v>342.37890937499998</v>
-      </c>
-      <c r="J7" s="3">
-        <f>K7/0.6</f>
-        <v>675.63214062500003</v>
-      </c>
-      <c r="K7" s="19">
-        <v>405.379284375</v>
-      </c>
-      <c r="L7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" s="6">
-        <v>110.773664374999</v>
-      </c>
-      <c r="C8" s="6">
-        <v>168.96757687499999</v>
-      </c>
-      <c r="D8" s="6">
-        <v>168.96757687499999</v>
-      </c>
-      <c r="E8" s="6">
-        <v>175.53972375000001</v>
-      </c>
-      <c r="F8" s="6">
-        <v>96.646223750000004</v>
-      </c>
-      <c r="G8" s="3">
-        <v>246.606518749999</v>
-      </c>
-      <c r="H8" s="3">
-        <v>141.940794375</v>
-      </c>
-      <c r="I8" s="3">
-        <v>93.105069374999999</v>
-      </c>
-      <c r="J8" s="3">
-        <f>K8/0.6</f>
-        <v>255.44362395833167</v>
-      </c>
-      <c r="K8" s="19">
-        <v>153.266174374999</v>
-      </c>
-      <c r="L8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="I11" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="J11" s="17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
-        <v>1</v>
-      </c>
-      <c r="B12" s="12">
-        <v>4.93</v>
-      </c>
-      <c r="C12" s="12">
-        <v>18.14</v>
-      </c>
-      <c r="D12" s="12">
-        <v>18.14</v>
-      </c>
-      <c r="E12" s="12">
-        <v>18.14</v>
-      </c>
-      <c r="F12" s="12">
-        <v>7.99</v>
-      </c>
-      <c r="G12" s="12">
-        <v>8.0500000000000007</v>
-      </c>
-      <c r="H12" s="12">
-        <v>3.83</v>
-      </c>
-      <c r="I12" s="12">
-        <v>4.3499999999999996</v>
-      </c>
-      <c r="J12" s="12">
-        <v>4.82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
-        <v>2</v>
-      </c>
-      <c r="B13" s="12">
-        <v>21.4</v>
-      </c>
-      <c r="C13" s="12">
-        <v>29.03</v>
-      </c>
-      <c r="D13" s="12">
-        <v>29.03</v>
-      </c>
-      <c r="E13" s="12">
-        <v>29.03</v>
-      </c>
-      <c r="F13" s="12">
-        <v>11.28</v>
-      </c>
-      <c r="G13" s="12">
-        <v>30.95</v>
-      </c>
-      <c r="H13" s="12">
-        <v>15.89</v>
-      </c>
-      <c r="I13" s="12">
-        <v>15.95</v>
-      </c>
-      <c r="J13" s="12">
-        <v>20.53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
-        <v>3</v>
-      </c>
-      <c r="B14" s="12">
-        <v>6.52</v>
-      </c>
-      <c r="C14" s="12">
-        <v>10.17</v>
-      </c>
-      <c r="D14" s="12">
-        <v>10.17</v>
-      </c>
-      <c r="E14" s="12">
-        <v>10.17</v>
-      </c>
-      <c r="F14" s="12">
-        <v>0.31</v>
-      </c>
-      <c r="G14" s="12">
-        <v>7.02</v>
-      </c>
-      <c r="H14" s="12">
-        <v>9.43</v>
-      </c>
-      <c r="I14" s="12">
-        <v>9.5299999999999994</v>
-      </c>
-      <c r="J14" s="12">
-        <v>27.52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
-        <v>4</v>
-      </c>
-      <c r="B15" s="12">
-        <v>0.37</v>
-      </c>
-      <c r="C15" s="12">
-        <v>0.27</v>
-      </c>
-      <c r="D15" s="12">
-        <v>0.27</v>
-      </c>
-      <c r="E15" s="12">
-        <v>0.27</v>
-      </c>
-      <c r="F15" s="12">
-        <v>0.24</v>
-      </c>
-      <c r="G15" s="12">
-        <v>0.37</v>
-      </c>
-      <c r="H15" s="12">
-        <v>0.32</v>
-      </c>
-      <c r="I15" s="12">
-        <v>0.31</v>
-      </c>
-      <c r="J15" s="12">
-        <v>8.69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
-        <v>5</v>
-      </c>
-      <c r="B16" s="12">
-        <v>0.26</v>
-      </c>
-      <c r="C16" s="12">
-        <v>0.24</v>
-      </c>
-      <c r="D16" s="12">
-        <v>0.24</v>
-      </c>
-      <c r="E16" s="12">
-        <v>0.24</v>
-      </c>
-      <c r="F16" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="G16" s="12">
-        <v>0.26</v>
-      </c>
-      <c r="H16" s="12">
-        <v>0.11</v>
-      </c>
-      <c r="I16" s="12">
-        <v>0</v>
-      </c>
-      <c r="J16" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
-        <v>6</v>
-      </c>
-      <c r="B17" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="C17" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="D17" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="E17" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="F17" s="12">
-        <v>0</v>
-      </c>
-      <c r="G17" s="12">
-        <v>0.04</v>
-      </c>
-      <c r="H17" s="12">
-        <v>0</v>
-      </c>
-      <c r="I17" s="12">
-        <v>0</v>
-      </c>
-      <c r="J17" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="12">
-        <f>SUM(B12:B17)</f>
-        <v>33.529999999999987</v>
-      </c>
-      <c r="C18" s="12">
-        <f t="shared" ref="C18:J18" si="0">SUM(C12:C17)</f>
-        <v>57.870000000000012</v>
-      </c>
-      <c r="D18" s="12">
-        <f t="shared" si="0"/>
-        <v>57.870000000000012</v>
-      </c>
-      <c r="E18" s="12">
-        <f t="shared" si="0"/>
-        <v>57.870000000000012</v>
-      </c>
-      <c r="F18" s="12">
-        <f t="shared" si="0"/>
-        <v>19.839999999999996</v>
-      </c>
-      <c r="G18" s="12">
-        <f t="shared" si="0"/>
-        <v>46.689999999999991</v>
-      </c>
-      <c r="H18" s="12">
-        <f t="shared" si="0"/>
-        <v>29.58</v>
-      </c>
-      <c r="I18" s="12">
-        <f t="shared" si="0"/>
-        <v>30.139999999999997</v>
-      </c>
-      <c r="J18" s="12">
-        <f t="shared" si="0"/>
-        <v>61.56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="H21" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="I21" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="J21" s="17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="4">
-        <v>1</v>
-      </c>
-      <c r="B22" s="16">
-        <f>B49/B59*D59</f>
-        <v>2.3975E-2</v>
-      </c>
-      <c r="C22" s="16">
-        <f>C49/B59*D59</f>
-        <v>6.7129999999999995E-2</v>
-      </c>
-      <c r="D22" s="16">
-        <f>D49/B59*D59</f>
-        <v>6.7129999999999995E-2</v>
-      </c>
-      <c r="E22" s="16">
-        <f>E49/B59*D59</f>
-        <v>6.7129999999999995E-2</v>
-      </c>
-      <c r="F22" s="16">
-        <f>F49/B59*D59</f>
-        <v>7.9117500000000007E-2</v>
-      </c>
-      <c r="G22" s="16">
-        <f>G49/B59*D59</f>
-        <v>3.5962500000000001E-2</v>
-      </c>
-      <c r="H22" s="16">
-        <f>H49/B59*D59</f>
-        <v>1.19875E-2</v>
-      </c>
-      <c r="I22" s="16">
-        <f>I49/B59*D59</f>
-        <v>1.19875E-2</v>
-      </c>
-      <c r="J22" s="16">
-        <f>J49/B59*D59</f>
-        <v>1.078875E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="4">
-        <v>2</v>
-      </c>
-      <c r="B23" s="16">
-        <f>B50/B59*D59</f>
-        <v>0.69527499999999998</v>
-      </c>
-      <c r="C23" s="16">
-        <f>C50/B59*D59</f>
-        <v>0.69527499999999998</v>
-      </c>
-      <c r="D23" s="16">
-        <f>D50/B59*D59</f>
-        <v>0.69527499999999998</v>
-      </c>
-      <c r="E23" s="16">
-        <f>E50/B59*D59</f>
-        <v>0.69527499999999998</v>
-      </c>
-      <c r="F23" s="16">
-        <f>F50/B59*D59</f>
-        <v>1.232315</v>
-      </c>
-      <c r="G23" s="16">
-        <f>G50/B59*D59</f>
-        <v>1.0405150000000001</v>
-      </c>
-      <c r="H23" s="16">
-        <f>H50/B59*D59</f>
-        <v>0.17501749999999999</v>
-      </c>
-      <c r="I23" s="16">
-        <f>I50/B59*D59</f>
-        <v>0.17501749999999999</v>
-      </c>
-      <c r="J23" s="16">
-        <f>J50/B59*D59</f>
-        <v>0.31167499999999998</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="4">
-        <v>3</v>
-      </c>
-      <c r="B24" s="16">
-        <f>B51/B59*D59</f>
-        <v>2.0786324999999999</v>
-      </c>
-      <c r="C24" s="16">
-        <f>C51/B59*D59</f>
-        <v>2.2518518749999998</v>
-      </c>
-      <c r="D24" s="16">
-        <f>D51/B59*D59</f>
-        <v>2.2518518749999998</v>
-      </c>
-      <c r="E24" s="16">
-        <f>E51/B59*D59</f>
-        <v>2.2518518749999998</v>
-      </c>
-      <c r="F24" s="16">
-        <f>F51/B59*D59</f>
-        <v>6.1567800000000004</v>
-      </c>
-      <c r="G24" s="16">
-        <f>G51/B59*D59</f>
-        <v>2.2518518749999998</v>
-      </c>
-      <c r="H24" s="16">
-        <f>H51/B59*D59</f>
-        <v>0.69527499999999998</v>
-      </c>
-      <c r="I24" s="16">
-        <f>I51/B59*D59</f>
-        <v>0.69527499999999998</v>
-      </c>
-      <c r="J24" s="16">
-        <f>J51/B59*D59</f>
-        <v>1.2371099999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="4">
-        <v>4</v>
-      </c>
-      <c r="B25" s="16">
-        <f>B52/B59*D59</f>
-        <v>1.87964</v>
-      </c>
-      <c r="C25" s="16">
-        <f>C52/B59*D59</f>
-        <v>4.0086199999999996</v>
-      </c>
-      <c r="D25" s="16">
-        <f>D52/B59*D59</f>
-        <v>4.0086199999999996</v>
-      </c>
-      <c r="E25" s="16">
-        <f>E52/B59*D59</f>
-        <v>4.0086199999999996</v>
-      </c>
-      <c r="F25" s="16">
-        <f>F52/B59*D59</f>
-        <v>2.4742199999999999</v>
-      </c>
-      <c r="G25" s="16">
-        <f>G52/B59*D59</f>
-        <v>2.03308</v>
-      </c>
-      <c r="H25" s="16">
-        <f>H52/B59*D59</f>
-        <v>7.3842999999999996</v>
-      </c>
-      <c r="I25" s="16">
-        <f>I52/B59*D59</f>
-        <v>7.3842999999999996</v>
-      </c>
-      <c r="J25" s="16">
-        <f>J52/B59*D59</f>
-        <v>9.2159899999999997</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="4">
-        <v>5</v>
-      </c>
-      <c r="B26" s="16">
-        <f>B53/B59*D59</f>
-        <v>4.9292600000000002</v>
-      </c>
-      <c r="C26" s="16">
-        <f>C53/B59*D59</f>
-        <v>2.4742199999999999</v>
-      </c>
-      <c r="D26" s="16">
-        <f>D53/B59*D59</f>
-        <v>2.4742199999999999</v>
-      </c>
-      <c r="E26" s="16">
-        <f>E53/B59*D59</f>
-        <v>2.4742199999999999</v>
-      </c>
-      <c r="F26" s="16">
-        <f>F53/B59*D59</f>
-        <v>0.69587437500000004</v>
-      </c>
-      <c r="G26" s="16">
-        <f>G53/B59*D59</f>
-        <v>4.9292600000000002</v>
-      </c>
-      <c r="H26" s="16">
-        <f>H53/B59*D59</f>
-        <v>1.2371099999999999</v>
-      </c>
-      <c r="I26" s="16">
-        <f>I53/B59*D59</f>
-        <v>0.1932984375</v>
-      </c>
-      <c r="J26" s="16">
-        <f>J53/B59*D59</f>
-        <v>5.84390625E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="4">
-        <v>6</v>
-      </c>
-      <c r="B27" s="16">
-        <f>B54/B59*D59</f>
-        <v>0.1932984375</v>
-      </c>
-      <c r="C27" s="16">
-        <f>C54/B59*D59</f>
-        <v>0.1932984375</v>
-      </c>
-      <c r="D27" s="16">
-        <f>D54/B59*D59</f>
-        <v>0.1932984375</v>
-      </c>
-      <c r="E27" s="16">
-        <f>E54/B59*D59</f>
-        <v>0.85051312499999998</v>
-      </c>
-      <c r="F27" s="16">
-        <f>F54/B59*D59</f>
-        <v>0</v>
-      </c>
-      <c r="G27" s="16">
-        <f>G54/B59*D59</f>
-        <v>0.1932984375</v>
-      </c>
-      <c r="H27" s="16">
-        <f>H54/B59*D59</f>
-        <v>9.7398437500000004E-2</v>
-      </c>
-      <c r="I27" s="16">
-        <f>I54/B59*D59</f>
-        <v>0</v>
-      </c>
-      <c r="J27" s="16">
-        <f>J54/B59*D59</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B28" s="16">
-        <f>SUM(B22:B27)</f>
-        <v>9.8000809375000006</v>
-      </c>
-      <c r="C28" s="16">
-        <f t="shared" ref="C28:I28" si="1">SUM(C22:C27)</f>
-        <v>9.6903953124999997</v>
-      </c>
-      <c r="D28" s="16">
-        <f t="shared" si="1"/>
-        <v>9.6903953124999997</v>
-      </c>
-      <c r="E28" s="16">
-        <f t="shared" si="1"/>
-        <v>10.34761</v>
-      </c>
-      <c r="F28" s="16">
-        <f t="shared" si="1"/>
-        <v>10.638306875</v>
-      </c>
-      <c r="G28" s="16">
-        <f>SUM(G22:G27)</f>
-        <v>10.4839678125</v>
-      </c>
-      <c r="H28" s="16">
-        <f t="shared" si="1"/>
-        <v>9.6010884374999996</v>
-      </c>
-      <c r="I28" s="16">
-        <f t="shared" si="1"/>
-        <v>8.4598784374999987</v>
-      </c>
-      <c r="J28" s="16">
-        <f>SUM(J22:J27)</f>
-        <v>10.8340028125</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G31" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="H31" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="I31" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="J31" s="17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B32" s="7">
-        <f>B55/B59*D59</f>
-        <v>9.8000809375000006</v>
-      </c>
-      <c r="C32" s="7">
-        <f>C55/B59*D59</f>
-        <v>9.6903953124999997</v>
-      </c>
-      <c r="D32" s="7">
-        <f>D55/B59*D59</f>
-        <v>9.6903953124999997</v>
-      </c>
-      <c r="E32" s="7">
-        <f>E55/B59*D59</f>
-        <v>10.34761</v>
-      </c>
-      <c r="F32" s="7">
-        <f>F55/B59*D59</f>
-        <v>10.638306875000001</v>
-      </c>
-      <c r="G32" s="7">
-        <f>G55/B59*D59</f>
-        <v>10.483967812500001</v>
-      </c>
-      <c r="H32" s="7">
-        <f>H55/B59*D59</f>
-        <v>9.6010884374999996</v>
-      </c>
-      <c r="I32" s="7">
-        <f>I55/B59*D59</f>
-        <v>8.4598784375000005</v>
-      </c>
-      <c r="J32" s="7">
-        <f>J55/B59*D59</f>
-        <v>10.834002812500001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G36" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="H36" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="I36" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="J36" s="17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="4">
-        <v>1</v>
-      </c>
-      <c r="B37" s="12">
-        <v>160</v>
-      </c>
-      <c r="C37" s="12">
-        <v>448</v>
-      </c>
-      <c r="D37" s="12">
-        <v>448</v>
-      </c>
-      <c r="E37" s="12">
-        <v>448</v>
-      </c>
-      <c r="F37" s="12">
-        <v>528</v>
-      </c>
-      <c r="G37" s="12">
-        <v>240</v>
-      </c>
-      <c r="H37" s="12">
-        <v>80</v>
-      </c>
-      <c r="I37" s="12">
-        <v>80</v>
-      </c>
-      <c r="J37" s="12">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="4">
-        <v>2</v>
-      </c>
-      <c r="B38" s="12">
-        <v>4640</v>
-      </c>
-      <c r="C38" s="12">
-        <v>4640</v>
-      </c>
-      <c r="D38" s="12">
-        <v>4640</v>
-      </c>
-      <c r="E38" s="12">
-        <v>4640</v>
-      </c>
-      <c r="F38" s="12">
-        <v>8224</v>
-      </c>
-      <c r="G38" s="12">
-        <v>6944</v>
-      </c>
-      <c r="H38" s="12">
-        <v>1168</v>
-      </c>
-      <c r="I38" s="12">
-        <v>1168</v>
-      </c>
-      <c r="J38" s="12">
-        <v>2080</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="4">
-        <v>3</v>
-      </c>
-      <c r="B39" s="12">
-        <v>13872</v>
-      </c>
-      <c r="C39" s="12">
-        <v>15028</v>
-      </c>
-      <c r="D39" s="12">
-        <v>15028</v>
-      </c>
-      <c r="E39" s="12">
-        <v>15028</v>
-      </c>
-      <c r="F39" s="12">
-        <v>41088</v>
-      </c>
-      <c r="G39" s="12">
-        <v>15028</v>
-      </c>
-      <c r="H39" s="12">
-        <v>4640</v>
-      </c>
-      <c r="I39" s="12">
-        <v>4640</v>
-      </c>
-      <c r="J39" s="12">
-        <v>8256</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="4">
-        <v>4</v>
-      </c>
-      <c r="B40" s="12">
-        <v>12544</v>
-      </c>
-      <c r="C40" s="12">
-        <v>26752</v>
-      </c>
-      <c r="D40" s="12">
-        <v>26752</v>
-      </c>
-      <c r="E40" s="12">
-        <v>26752</v>
-      </c>
-      <c r="F40" s="12">
-        <v>16512</v>
-      </c>
-      <c r="G40" s="12">
-        <v>13568</v>
-      </c>
-      <c r="H40" s="12">
-        <v>49280</v>
-      </c>
-      <c r="I40" s="12">
-        <v>49280</v>
-      </c>
-      <c r="J40" s="12">
-        <v>61504</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="4">
-        <v>5</v>
-      </c>
-      <c r="B41" s="12">
-        <v>32896</v>
-      </c>
-      <c r="C41" s="12">
-        <v>16512</v>
-      </c>
-      <c r="D41" s="12">
-        <v>16512</v>
-      </c>
-      <c r="E41" s="12">
-        <v>16512</v>
-      </c>
-      <c r="F41" s="12">
-        <v>4644</v>
-      </c>
-      <c r="G41" s="12">
-        <v>32896</v>
-      </c>
-      <c r="H41" s="12">
-        <v>8256</v>
-      </c>
-      <c r="I41" s="12">
-        <v>1290</v>
-      </c>
-      <c r="J41" s="12">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="4">
-        <v>6</v>
-      </c>
-      <c r="B42" s="12">
-        <v>1290</v>
-      </c>
-      <c r="C42" s="12">
-        <v>1290</v>
-      </c>
-      <c r="D42" s="12">
-        <v>1290</v>
-      </c>
-      <c r="E42" s="12">
-        <v>5676</v>
-      </c>
-      <c r="F42" s="12">
-        <v>0</v>
-      </c>
-      <c r="G42" s="12">
-        <v>1290</v>
-      </c>
-      <c r="H42" s="12">
-        <v>650</v>
-      </c>
-      <c r="I42" s="12">
-        <v>0</v>
-      </c>
-      <c r="J42" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B43" s="12">
-        <f>SUM(B37:B42)</f>
-        <v>65402</v>
-      </c>
-      <c r="C43" s="12">
-        <f t="shared" ref="C43:J43" si="2">SUM(C37:C42)</f>
-        <v>64670</v>
-      </c>
-      <c r="D43" s="12">
-        <f t="shared" si="2"/>
-        <v>64670</v>
-      </c>
-      <c r="E43" s="12">
-        <f t="shared" si="2"/>
-        <v>69056</v>
-      </c>
-      <c r="F43" s="12">
-        <f t="shared" si="2"/>
-        <v>70996</v>
-      </c>
-      <c r="G43" s="12">
-        <f t="shared" si="2"/>
-        <v>69966</v>
-      </c>
-      <c r="H43" s="12">
-        <f t="shared" si="2"/>
-        <v>64074</v>
-      </c>
-      <c r="I43" s="12">
-        <f t="shared" si="2"/>
-        <v>56458</v>
-      </c>
-      <c r="J43" s="12">
-        <f t="shared" si="2"/>
-        <v>72302</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B44" s="13">
-        <f>B43*2/1000</f>
-        <v>130.804</v>
-      </c>
-      <c r="C44" s="13">
-        <f t="shared" ref="C44:J44" si="3">C43*2/1000</f>
-        <v>129.34</v>
-      </c>
-      <c r="D44" s="13">
-        <f t="shared" si="3"/>
-        <v>129.34</v>
-      </c>
-      <c r="E44" s="13">
-        <f t="shared" si="3"/>
-        <v>138.11199999999999</v>
-      </c>
-      <c r="F44" s="13">
-        <f t="shared" si="3"/>
-        <v>141.99199999999999</v>
-      </c>
-      <c r="G44" s="13">
-        <f t="shared" si="3"/>
-        <v>139.93199999999999</v>
-      </c>
-      <c r="H44" s="13">
-        <f t="shared" si="3"/>
-        <v>128.148</v>
-      </c>
-      <c r="I44" s="13">
-        <f t="shared" si="3"/>
-        <v>112.916</v>
-      </c>
-      <c r="J44" s="13">
-        <f t="shared" si="3"/>
-        <v>144.60400000000001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="15"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="8"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B47" s="21"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="21"/>
-      <c r="I47" s="21"/>
-      <c r="J47" s="21"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G48" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="H48" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="I48" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="J48" s="17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="4">
-        <v>1</v>
-      </c>
-      <c r="B49" s="12">
-        <f>B37*2/1000</f>
-        <v>0.32</v>
-      </c>
-      <c r="C49" s="12">
-        <f t="shared" ref="C49:J49" si="4">C37*2/1000</f>
-        <v>0.89600000000000002</v>
-      </c>
-      <c r="D49" s="12">
-        <f t="shared" si="4"/>
-        <v>0.89600000000000002</v>
-      </c>
-      <c r="E49" s="12">
-        <f t="shared" si="4"/>
-        <v>0.89600000000000002</v>
-      </c>
-      <c r="F49" s="12">
-        <f t="shared" si="4"/>
-        <v>1.056</v>
-      </c>
-      <c r="G49" s="12">
-        <f t="shared" si="4"/>
-        <v>0.48</v>
-      </c>
-      <c r="H49" s="12">
-        <f t="shared" si="4"/>
-        <v>0.16</v>
-      </c>
-      <c r="I49" s="12">
-        <f t="shared" si="4"/>
-        <v>0.16</v>
-      </c>
-      <c r="J49" s="12">
-        <f t="shared" si="4"/>
-        <v>0.14399999999999999</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="4">
-        <v>2</v>
-      </c>
-      <c r="B50" s="12">
-        <f t="shared" ref="B50:J54" si="5">B38*2/1000</f>
-        <v>9.2799999999999994</v>
-      </c>
-      <c r="C50" s="12">
-        <f t="shared" si="5"/>
-        <v>9.2799999999999994</v>
-      </c>
-      <c r="D50" s="12">
-        <f t="shared" si="5"/>
-        <v>9.2799999999999994</v>
-      </c>
-      <c r="E50" s="12">
-        <f t="shared" si="5"/>
-        <v>9.2799999999999994</v>
-      </c>
-      <c r="F50" s="12">
-        <f t="shared" si="5"/>
-        <v>16.448</v>
-      </c>
-      <c r="G50" s="12">
-        <f t="shared" si="5"/>
-        <v>13.888</v>
-      </c>
-      <c r="H50" s="12">
-        <f t="shared" si="5"/>
-        <v>2.3359999999999999</v>
-      </c>
-      <c r="I50" s="12">
-        <f t="shared" si="5"/>
-        <v>2.3359999999999999</v>
-      </c>
-      <c r="J50" s="12">
-        <f t="shared" si="5"/>
-        <v>4.16</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="4">
-        <v>3</v>
-      </c>
-      <c r="B51" s="12">
-        <f t="shared" si="5"/>
-        <v>27.744</v>
-      </c>
-      <c r="C51" s="12">
-        <f t="shared" si="5"/>
-        <v>30.056000000000001</v>
-      </c>
-      <c r="D51" s="12">
-        <f t="shared" si="5"/>
-        <v>30.056000000000001</v>
-      </c>
-      <c r="E51" s="12">
-        <f t="shared" si="5"/>
-        <v>30.056000000000001</v>
-      </c>
-      <c r="F51" s="12">
-        <f t="shared" si="5"/>
-        <v>82.176000000000002</v>
-      </c>
-      <c r="G51" s="12">
-        <f t="shared" si="5"/>
-        <v>30.056000000000001</v>
-      </c>
-      <c r="H51" s="12">
-        <f t="shared" si="5"/>
-        <v>9.2799999999999994</v>
-      </c>
-      <c r="I51" s="12">
-        <f t="shared" si="5"/>
-        <v>9.2799999999999994</v>
-      </c>
-      <c r="J51" s="12">
-        <f t="shared" si="5"/>
-        <v>16.512</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" s="4">
-        <v>4</v>
-      </c>
-      <c r="B52" s="12">
-        <f t="shared" si="5"/>
-        <v>25.088000000000001</v>
-      </c>
-      <c r="C52" s="12">
-        <f t="shared" si="5"/>
-        <v>53.503999999999998</v>
-      </c>
-      <c r="D52" s="12">
-        <f t="shared" si="5"/>
-        <v>53.503999999999998</v>
-      </c>
-      <c r="E52" s="12">
-        <f t="shared" si="5"/>
-        <v>53.503999999999998</v>
-      </c>
-      <c r="F52" s="12">
-        <f t="shared" si="5"/>
-        <v>33.024000000000001</v>
-      </c>
-      <c r="G52" s="12">
-        <f t="shared" si="5"/>
-        <v>27.135999999999999</v>
-      </c>
-      <c r="H52" s="12">
-        <f t="shared" si="5"/>
-        <v>98.56</v>
-      </c>
-      <c r="I52" s="12">
-        <f t="shared" si="5"/>
-        <v>98.56</v>
-      </c>
-      <c r="J52" s="12">
-        <f t="shared" si="5"/>
-        <v>123.008</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="4">
-        <v>5</v>
-      </c>
-      <c r="B53" s="12">
-        <f t="shared" si="5"/>
-        <v>65.792000000000002</v>
-      </c>
-      <c r="C53" s="12">
-        <f t="shared" si="5"/>
-        <v>33.024000000000001</v>
-      </c>
-      <c r="D53" s="12">
-        <f t="shared" si="5"/>
-        <v>33.024000000000001</v>
-      </c>
-      <c r="E53" s="12">
-        <f t="shared" si="5"/>
-        <v>33.024000000000001</v>
-      </c>
-      <c r="F53" s="12">
-        <f t="shared" si="5"/>
-        <v>9.2880000000000003</v>
-      </c>
-      <c r="G53" s="12">
-        <f t="shared" si="5"/>
-        <v>65.792000000000002</v>
-      </c>
-      <c r="H53" s="12">
-        <f t="shared" si="5"/>
-        <v>16.512</v>
-      </c>
-      <c r="I53" s="12">
-        <f t="shared" si="5"/>
-        <v>2.58</v>
-      </c>
-      <c r="J53" s="12">
-        <f t="shared" si="5"/>
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="4">
-        <v>6</v>
-      </c>
-      <c r="B54" s="12">
-        <f t="shared" si="5"/>
-        <v>2.58</v>
-      </c>
-      <c r="C54" s="12">
-        <f t="shared" si="5"/>
-        <v>2.58</v>
-      </c>
-      <c r="D54" s="12">
-        <f t="shared" si="5"/>
-        <v>2.58</v>
-      </c>
-      <c r="E54" s="12">
-        <f t="shared" si="5"/>
-        <v>11.352</v>
-      </c>
-      <c r="F54" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G54" s="12">
-        <f t="shared" si="5"/>
-        <v>2.58</v>
-      </c>
-      <c r="H54" s="12">
-        <f t="shared" si="5"/>
-        <v>1.3</v>
-      </c>
-      <c r="I54" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J54" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B55" s="12">
-        <f>SUM(B49:B54)</f>
-        <v>130.804</v>
-      </c>
-      <c r="C55" s="12">
-        <f t="shared" ref="C55:F55" si="6">SUM(C49:C54)</f>
-        <v>129.34</v>
-      </c>
-      <c r="D55" s="12">
-        <f t="shared" si="6"/>
-        <v>129.34</v>
-      </c>
-      <c r="E55" s="12">
-        <f t="shared" si="6"/>
-        <v>138.11199999999999</v>
-      </c>
-      <c r="F55" s="12">
-        <f t="shared" si="6"/>
-        <v>141.99200000000002</v>
-      </c>
-      <c r="G55" s="12">
-        <f>SUM(G49:G54)</f>
-        <v>139.93200000000002</v>
-      </c>
-      <c r="H55" s="12">
-        <f t="shared" ref="H55:J55" si="7">SUM(H49:H54)</f>
-        <v>128.148</v>
-      </c>
-      <c r="I55" s="12">
-        <f t="shared" si="7"/>
-        <v>112.916</v>
-      </c>
-      <c r="J55" s="12">
-        <f t="shared" si="7"/>
-        <v>144.60400000000001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="B58" s="21"/>
-      <c r="C58" s="21"/>
-      <c r="D58" s="21"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B59" s="2">
-        <v>64</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D59" s="2">
-        <v>4.7949999999999999</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B62" s="21"/>
-      <c r="C62" s="21"/>
-      <c r="D62" s="21"/>
-      <c r="E62" s="21"/>
-      <c r="F62" s="21"/>
-      <c r="G62" s="21"/>
-      <c r="H62" s="21"/>
-      <c r="I62" s="21"/>
-      <c r="J62" s="21"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G63" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="H63" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="I63" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="J63" s="17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B64" s="6">
-        <v>14.33</v>
-      </c>
-      <c r="C64" s="6">
-        <v>2.04</v>
-      </c>
-      <c r="D64" s="6">
-        <v>24.57</v>
-      </c>
-      <c r="E64" s="6">
-        <v>11.26</v>
-      </c>
-      <c r="F64" s="6">
-        <v>2.04</v>
-      </c>
-      <c r="G64" s="3">
-        <v>12.28</v>
-      </c>
-      <c r="H64" s="3">
-        <v>12.28</v>
-      </c>
-      <c r="I64" s="3">
-        <v>3.07</v>
-      </c>
-      <c r="J64" s="3">
-        <v>1.02</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B65" s="9">
-        <f>B64/B59*D59</f>
-        <v>1.07363046875</v>
-      </c>
-      <c r="C65" s="9">
-        <f>C64/B59*D59</f>
-        <v>0.15284062500000001</v>
-      </c>
-      <c r="D65" s="9">
-        <f>D64/B59*D59</f>
-        <v>1.8408304687499999</v>
-      </c>
-      <c r="E65" s="9">
-        <f>E64/B59*D59</f>
-        <v>0.84362031250000002</v>
-      </c>
-      <c r="F65" s="9">
-        <f>F64/B59*D59</f>
-        <v>0.15284062500000001</v>
-      </c>
-      <c r="G65" s="9">
-        <f>G64/B59*D59</f>
-        <v>0.92004062499999995</v>
-      </c>
-      <c r="H65" s="3">
-        <f>H64/B59*D59</f>
-        <v>0.92004062499999995</v>
-      </c>
-      <c r="I65" s="3">
-        <f>I64/B59*D59</f>
-        <v>0.23001015624999999</v>
-      </c>
-      <c r="J65" s="3">
-        <f>J64/B59*D59</f>
-        <v>7.6420312500000004E-2</v>
       </c>
     </row>
   </sheetData>
@@ -7347,11 +5749,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7722315-F6D9-6E45-A3E1-A77E98ECE9F6}">
-  <dimension ref="A1:L65"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13C6D9F3-393E-3E4E-A142-A12E5051E586}">
+  <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView zoomScale="144" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView topLeftCell="A23" zoomScale="144" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7359,17 +5761,17 @@
     <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
       <c r="I1" s="11" t="s">
         <v>27</v>
       </c>
@@ -7377,13 +5779,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
@@ -7407,111 +5809,111 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="6">
         <f>B18*J1</f>
-        <v>411.70000000000005</v>
+        <v>335.29999999999984</v>
       </c>
       <c r="C3" s="6">
         <f>C18*J1</f>
-        <v>696.40000000000009</v>
+        <v>578.70000000000016</v>
       </c>
       <c r="D3" s="6">
         <f>D18*J1</f>
-        <v>696.40000000000009</v>
+        <v>578.70000000000016</v>
       </c>
       <c r="E3" s="6">
         <f>E18*J1</f>
-        <v>720.5</v>
+        <v>578.70000000000016</v>
       </c>
       <c r="F3" s="6">
         <f>F18*J1</f>
-        <v>523.69999999999993</v>
+        <v>198.39999999999998</v>
       </c>
       <c r="G3" s="6">
         <f>G18*J1</f>
-        <v>571.6</v>
+        <v>466.89999999999992</v>
       </c>
       <c r="H3" s="6">
         <f>H18*J1</f>
-        <v>385.3</v>
+        <v>295.79999999999995</v>
       </c>
       <c r="I3" s="6">
         <f>I18*J1</f>
-        <v>383.79999999999995</v>
+        <v>301.39999999999998</v>
       </c>
       <c r="J3" s="6">
         <f>J18*J1</f>
-        <v>416.50000000000006</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+        <v>615.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="6">
         <f>B18*J1 +B65*J1</f>
-        <v>413.98832187500005</v>
+        <v>346.03630468749986</v>
       </c>
       <c r="C4" s="6">
         <f>C18*J1 +C65*J1</f>
-        <v>696.72576250000009</v>
+        <v>580.22840625000015</v>
       </c>
       <c r="D4" s="6">
         <f>D18*J1 +D65*J1</f>
-        <v>700.3235218750001</v>
+        <v>597.10830468750021</v>
       </c>
       <c r="E4" s="6">
         <f>E18*J1 +E65*J1</f>
-        <v>722.29808125</v>
+        <v>587.13620312500018</v>
       </c>
       <c r="F4" s="6">
         <f>F18*J1+F65*J1</f>
-        <v>524.02576249999993</v>
+        <v>199.92840624999997</v>
       </c>
       <c r="G4" s="6">
         <f>G18*J1+G65*J1</f>
-        <v>573.56096250000007</v>
+        <v>476.10040624999993</v>
       </c>
       <c r="H4" s="6">
         <f>H18*J1+H65*J1</f>
-        <v>387.26096250000001</v>
+        <v>305.00040624999997</v>
       </c>
       <c r="I4" s="6">
         <f>I18*J1+I65*J1</f>
-        <v>384.29024062499997</v>
+        <v>303.70010156249998</v>
       </c>
       <c r="J4" s="6">
         <f>J18*J1+J65*J1</f>
-        <v>416.66288125000005</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+        <v>616.36420312500002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="6">
         <f>B18*J1 + 0.024*J1</f>
-        <v>411.94000000000005</v>
+        <v>335.53999999999985</v>
       </c>
       <c r="C5" s="6">
         <f>C18*J1 + 0.024*J1</f>
-        <v>696.6400000000001</v>
+        <v>578.94000000000017</v>
       </c>
       <c r="D5" s="6">
         <f>D18*J1 + 0.024*J1</f>
-        <v>696.6400000000001</v>
+        <v>578.94000000000017</v>
       </c>
       <c r="E5" s="6">
         <f>E18*J1 + 0.024*J1</f>
-        <v>720.74</v>
+        <v>578.94000000000017</v>
       </c>
       <c r="F5" s="6">
         <f>F18*J1 + 0.024*J1</f>
-        <v>523.93999999999994</v>
+        <v>198.64</v>
       </c>
       <c r="G5" s="3">
         <v>0</v>
@@ -7526,140 +5928,126 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="6">
         <f>B18*J1 + B32*J1</f>
-        <v>432.58776375000002</v>
+        <v>433.30080937499986</v>
       </c>
       <c r="C6" s="6">
         <f>C18*J1 + C32*J1</f>
-        <v>717.05398125000011</v>
+        <v>675.6039531250002</v>
       </c>
       <c r="D6" s="6">
         <f>D18*J1 + D32*J1</f>
-        <v>717.05398125000011</v>
+        <v>675.6039531250002</v>
       </c>
       <c r="E6" s="6">
         <f>E18*J1 + E32*J1</f>
-        <v>742.55475999999999</v>
+        <v>682.17610000000013</v>
       </c>
       <c r="F6" s="6">
         <f>F18*J1 + F32*J1</f>
-        <v>546.37434749999989</v>
+        <v>304.78306874999998</v>
       </c>
       <c r="G6" s="6">
         <f>G18*J1 + G32*J1</f>
-        <v>593.94539125000006</v>
+        <v>571.73967812499995</v>
       </c>
       <c r="H6" s="6">
         <f>H18*J1 + H32*J1</f>
-        <v>405.76363375</v>
+        <v>391.81088437499994</v>
       </c>
       <c r="I6" s="6">
         <f>I18*J1 + I32*J1</f>
-        <v>401.83127374999998</v>
+        <v>385.99878437500001</v>
       </c>
       <c r="J6" s="6">
         <f>J18*J1 + J32*J1</f>
-        <v>439.59145125000003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+        <v>723.94002812500003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="6">
-        <v>379.43666374999998</v>
+        <v>383.761059375</v>
       </c>
       <c r="C7" s="6">
-        <v>531.51090124999996</v>
+        <v>493.53265312500002</v>
       </c>
       <c r="D7" s="6">
-        <v>531.51090124999996</v>
+        <v>493.53265312500002</v>
       </c>
       <c r="E7" s="6">
-        <v>547.21167999999898</v>
+        <v>500.10480000000001</v>
       </c>
       <c r="F7" s="6">
-        <v>397.70571749999999</v>
+        <v>224.091893749999</v>
       </c>
       <c r="G7" s="3">
-        <v>516.76874124999995</v>
+        <v>490.88005312500002</v>
       </c>
       <c r="H7" s="3">
-        <v>368.63808375000002</v>
+        <v>353.39100937500001</v>
       </c>
       <c r="I7" s="3">
-        <v>364.305723749999</v>
+        <v>342.37890937499998</v>
       </c>
       <c r="J7" s="3">
-        <f t="shared" ref="J7:J8" si="0">K7/0.6</f>
-        <v>411.56845624999835</v>
-      </c>
-      <c r="K7" s="19">
-        <v>246.94107374999899</v>
-      </c>
-      <c r="L7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+        <v>675.63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8" s="6">
-        <v>99.625481749999906</v>
+        <v>110.773664374999</v>
       </c>
       <c r="C8" s="6">
-        <v>175.69336675</v>
+        <v>168.96757687499999</v>
       </c>
       <c r="D8" s="6">
-        <v>175.69336675</v>
+        <v>168.96757687499999</v>
       </c>
       <c r="E8" s="6">
-        <v>182.75414549999999</v>
+        <v>175.53972375000001</v>
       </c>
       <c r="F8" s="6">
-        <v>162.12954550000001</v>
+        <v>96.646223750000004</v>
       </c>
       <c r="G8" s="3">
-        <v>258.99036749999999</v>
+        <v>246.606518749999</v>
       </c>
       <c r="H8" s="3">
-        <v>147.81978974999899</v>
+        <v>141.940794375</v>
       </c>
       <c r="I8" s="3">
-        <v>88.572379749999996</v>
+        <v>93.105069374999999</v>
       </c>
       <c r="J8" s="3">
-        <f t="shared" si="0"/>
-        <v>147.69632958333332</v>
-      </c>
-      <c r="K8" s="19">
-        <v>88.617797749999994</v>
-      </c>
-      <c r="L8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+        <v>255.44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
@@ -7691,190 +6079,190 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>1</v>
       </c>
       <c r="B12" s="12">
-        <v>5.31</v>
+        <v>4.93</v>
       </c>
       <c r="C12" s="12">
-        <v>18.54</v>
+        <v>18.14</v>
       </c>
       <c r="D12" s="12">
-        <v>18.54</v>
+        <v>18.14</v>
       </c>
       <c r="E12" s="12">
-        <v>19.52</v>
+        <v>18.14</v>
       </c>
       <c r="F12" s="12">
-        <v>14.85</v>
+        <v>7.99</v>
       </c>
       <c r="G12" s="12">
-        <v>7.71</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="H12" s="12">
-        <v>3.71</v>
+        <v>3.83</v>
       </c>
       <c r="I12" s="12">
-        <v>3.75</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="J12" s="12">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+        <v>4.82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>2</v>
       </c>
       <c r="B13" s="12">
-        <v>26.29</v>
+        <v>21.4</v>
       </c>
       <c r="C13" s="12">
-        <v>37.49</v>
+        <v>29.03</v>
       </c>
       <c r="D13" s="12">
-        <v>37.49</v>
+        <v>29.03</v>
       </c>
       <c r="E13" s="12">
-        <v>37.549999999999997</v>
+        <v>29.03</v>
       </c>
       <c r="F13" s="12">
-        <v>33.450000000000003</v>
+        <v>11.28</v>
       </c>
       <c r="G13" s="12">
-        <v>39.020000000000003</v>
+        <v>30.95</v>
       </c>
       <c r="H13" s="12">
-        <v>20.07</v>
+        <v>15.89</v>
       </c>
       <c r="I13" s="12">
-        <v>20.18</v>
+        <v>15.95</v>
       </c>
       <c r="J13" s="12">
-        <v>15.63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+        <v>20.53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>3</v>
       </c>
       <c r="B14" s="12">
-        <v>6.3</v>
+        <v>6.52</v>
       </c>
       <c r="C14" s="12">
-        <v>10.71</v>
+        <v>10.17</v>
       </c>
       <c r="D14" s="12">
-        <v>10.71</v>
+        <v>10.17</v>
       </c>
       <c r="E14" s="12">
-        <v>11.93</v>
+        <v>10.17</v>
       </c>
       <c r="F14" s="12">
-        <v>2.84</v>
+        <v>0.31</v>
       </c>
       <c r="G14" s="12">
-        <v>7.11</v>
+        <v>7.02</v>
       </c>
       <c r="H14" s="12">
-        <v>10.71</v>
+        <v>9.43</v>
       </c>
       <c r="I14" s="12">
-        <v>11.03</v>
+        <v>9.5299999999999994</v>
       </c>
       <c r="J14" s="12">
-        <v>19.05</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+        <v>27.52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>4</v>
       </c>
       <c r="B15" s="12">
-        <v>0.92</v>
+        <v>0.37</v>
       </c>
       <c r="C15" s="12">
-        <v>1.68</v>
+        <v>0.27</v>
       </c>
       <c r="D15" s="12">
-        <v>1.68</v>
+        <v>0.27</v>
       </c>
       <c r="E15" s="12">
-        <v>1.83</v>
+        <v>0.27</v>
       </c>
       <c r="F15" s="12">
-        <v>1.1499999999999999</v>
+        <v>0.24</v>
       </c>
       <c r="G15" s="12">
-        <v>0.99</v>
+        <v>0.37</v>
       </c>
       <c r="H15" s="12">
-        <v>3.46</v>
+        <v>0.32</v>
       </c>
       <c r="I15" s="12">
-        <v>3.34</v>
+        <v>0.31</v>
       </c>
       <c r="J15" s="12">
-        <v>4.13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+        <v>8.69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>5</v>
       </c>
       <c r="B16" s="12">
-        <v>2.27</v>
+        <v>0.26</v>
       </c>
       <c r="C16" s="12">
-        <v>1.1399999999999999</v>
+        <v>0.24</v>
       </c>
       <c r="D16" s="12">
-        <v>1.1399999999999999</v>
+        <v>0.24</v>
       </c>
       <c r="E16" s="12">
-        <v>1.1399999999999999</v>
+        <v>0.24</v>
       </c>
       <c r="F16" s="12">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
       <c r="G16" s="12">
-        <v>2.25</v>
+        <v>0.26</v>
       </c>
       <c r="H16" s="12">
-        <v>0.54</v>
+        <v>0.11</v>
       </c>
       <c r="I16" s="12">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="J16" s="12">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>6</v>
       </c>
       <c r="B17" s="12">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="C17" s="12">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
       <c r="D17" s="12">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
       <c r="E17" s="12">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
       <c r="F17" s="12">
         <v>0</v>
       </c>
       <c r="G17" s="12">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="H17" s="12">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="I17" s="12">
         <v>0</v>
@@ -7883,62 +6271,66 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B18" s="12">
         <f>SUM(B12:B17)</f>
-        <v>41.17</v>
+        <v>33.529999999999987</v>
       </c>
       <c r="C18" s="12">
-        <f t="shared" ref="C18:J18" si="1">SUM(C12:C17)</f>
-        <v>69.640000000000015</v>
+        <f t="shared" ref="C18:J18" si="0">SUM(C12:C17)</f>
+        <v>57.870000000000012</v>
       </c>
       <c r="D18" s="12">
-        <f t="shared" si="1"/>
-        <v>69.640000000000015</v>
+        <f t="shared" si="0"/>
+        <v>57.870000000000012</v>
       </c>
       <c r="E18" s="12">
-        <f t="shared" si="1"/>
-        <v>72.05</v>
+        <f t="shared" si="0"/>
+        <v>57.870000000000012</v>
       </c>
       <c r="F18" s="12">
-        <f t="shared" si="1"/>
-        <v>52.37</v>
+        <f t="shared" si="0"/>
+        <v>19.839999999999996</v>
       </c>
       <c r="G18" s="12">
-        <f t="shared" si="1"/>
-        <v>57.160000000000004</v>
+        <f t="shared" si="0"/>
+        <v>46.689999999999991</v>
       </c>
       <c r="H18" s="12">
-        <f t="shared" si="1"/>
-        <v>38.53</v>
+        <f t="shared" si="0"/>
+        <v>29.58</v>
       </c>
       <c r="I18" s="12">
-        <f t="shared" si="1"/>
-        <v>38.379999999999995</v>
+        <f t="shared" si="0"/>
+        <v>30.139999999999997</v>
       </c>
       <c r="J18" s="12">
-        <f t="shared" si="1"/>
-        <v>41.650000000000006</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>61.56</v>
+      </c>
+      <c r="K18" s="12">
+        <f>SUM(B18:J18)*J1/9</f>
+        <v>438.83333333333331</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>30</v>
       </c>
@@ -7970,230 +6362,230 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>1</v>
       </c>
       <c r="B22" s="16">
         <f>B49/B59*D59</f>
-        <v>5.11E-3</v>
+        <v>2.3975E-2</v>
       </c>
       <c r="C22" s="16">
         <f>C49/B59*D59</f>
-        <v>1.4308000000000001E-2</v>
+        <v>6.7129999999999995E-2</v>
       </c>
       <c r="D22" s="16">
         <f>D49/B59*D59</f>
-        <v>1.4308000000000001E-2</v>
+        <v>6.7129999999999995E-2</v>
       </c>
       <c r="E22" s="16">
         <f>E49/B59*D59</f>
-        <v>1.4308000000000001E-2</v>
+        <v>6.7129999999999995E-2</v>
       </c>
       <c r="F22" s="16">
         <f>F49/B59*D59</f>
-        <v>1.6863E-2</v>
+        <v>7.9117500000000007E-2</v>
       </c>
       <c r="G22" s="16">
         <f>G49/B59*D59</f>
-        <v>7.6649999999999999E-3</v>
+        <v>3.5962500000000001E-2</v>
       </c>
       <c r="H22" s="16">
         <f>H49/B59*D59</f>
-        <v>2.555E-3</v>
+        <v>1.19875E-2</v>
       </c>
       <c r="I22" s="16">
         <f>I49/B59*D59</f>
-        <v>2.555E-3</v>
+        <v>1.19875E-2</v>
       </c>
       <c r="J22" s="16">
         <f>J49/B59*D59</f>
-        <v>2.2994999999999999E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1.078875E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>2</v>
       </c>
       <c r="B23" s="16">
         <f>B50/B59*D59</f>
-        <v>0.14818999999999999</v>
+        <v>0.69527499999999998</v>
       </c>
       <c r="C23" s="16">
         <f>C50/B59*D59</f>
-        <v>0.14818999999999999</v>
+        <v>0.69527499999999998</v>
       </c>
       <c r="D23" s="16">
         <f>D50/B59*D59</f>
-        <v>0.14818999999999999</v>
+        <v>0.69527499999999998</v>
       </c>
       <c r="E23" s="16">
         <f>E50/B59*D59</f>
-        <v>0.14818999999999999</v>
+        <v>0.69527499999999998</v>
       </c>
       <c r="F23" s="16">
         <f>F50/B59*D59</f>
-        <v>0.262654</v>
+        <v>1.232315</v>
       </c>
       <c r="G23" s="16">
         <f>G50/B59*D59</f>
-        <v>0.221774</v>
+        <v>1.0405150000000001</v>
       </c>
       <c r="H23" s="16">
         <f>H50/B59*D59</f>
-        <v>3.7302999999999996E-2</v>
+        <v>0.17501749999999999</v>
       </c>
       <c r="I23" s="16">
         <f>I50/B59*D59</f>
-        <v>3.7302999999999996E-2</v>
+        <v>0.17501749999999999</v>
       </c>
       <c r="J23" s="16">
         <f>J50/B59*D59</f>
-        <v>6.6430000000000003E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+        <v>0.31167499999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>3</v>
       </c>
       <c r="B24" s="16">
         <f>B51/B59*D59</f>
-        <v>0.44303700000000001</v>
+        <v>2.0786324999999999</v>
       </c>
       <c r="C24" s="16">
         <f>C51/B59*D59</f>
-        <v>0.47995675000000004</v>
+        <v>2.2518518749999998</v>
       </c>
       <c r="D24" s="16">
         <f>D51/B59*D59</f>
-        <v>0.47995675000000004</v>
+        <v>2.2518518749999998</v>
       </c>
       <c r="E24" s="16">
         <f>E51/B59*D59</f>
-        <v>0.47995675000000004</v>
+        <v>2.2518518749999998</v>
       </c>
       <c r="F24" s="16">
         <f>F51/B59*D59</f>
-        <v>1.3122480000000001</v>
+        <v>6.1567800000000004</v>
       </c>
       <c r="G24" s="16">
         <f>G51/B59*D59</f>
-        <v>0.47995675000000004</v>
+        <v>2.2518518749999998</v>
       </c>
       <c r="H24" s="16">
         <f>H51/B59*D59</f>
-        <v>0.14818999999999999</v>
+        <v>0.69527499999999998</v>
       </c>
       <c r="I24" s="16">
         <f>I51/B59*D59</f>
-        <v>0.14818999999999999</v>
+        <v>0.69527499999999998</v>
       </c>
       <c r="J24" s="16">
         <f>J51/B59*D59</f>
-        <v>0.26367600000000002</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1.2371099999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>4</v>
       </c>
       <c r="B25" s="16">
         <f>B52/B59*D59</f>
-        <v>0.40062400000000004</v>
+        <v>1.87964</v>
       </c>
       <c r="C25" s="16">
         <f>C52/B59*D59</f>
-        <v>0.85439199999999993</v>
+        <v>4.0086199999999996</v>
       </c>
       <c r="D25" s="16">
         <f>D52/B59*D59</f>
-        <v>0.85439199999999993</v>
+        <v>4.0086199999999996</v>
       </c>
       <c r="E25" s="16">
         <f>E52/B59*D59</f>
-        <v>0.85439199999999993</v>
+        <v>4.0086199999999996</v>
       </c>
       <c r="F25" s="16">
         <f>F52/B59*D59</f>
-        <v>0.52735200000000004</v>
+        <v>2.4742199999999999</v>
       </c>
       <c r="G25" s="16">
         <f>G52/B59*D59</f>
-        <v>0.43332799999999999</v>
+        <v>2.03308</v>
       </c>
       <c r="H25" s="16">
         <f>H52/B59*D59</f>
-        <v>1.5738800000000002</v>
+        <v>7.3842999999999996</v>
       </c>
       <c r="I25" s="16">
         <f>I52/B59*D59</f>
-        <v>1.5738800000000002</v>
+        <v>7.3842999999999996</v>
       </c>
       <c r="J25" s="16">
         <f>J52/B59*D59</f>
-        <v>1.9642839999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+        <v>9.2159899999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>5</v>
       </c>
       <c r="B26" s="16">
         <f>B53/B59*D59</f>
-        <v>1.050616</v>
+        <v>4.9292600000000002</v>
       </c>
       <c r="C26" s="16">
         <f>C53/B59*D59</f>
-        <v>0.52735200000000004</v>
+        <v>2.4742199999999999</v>
       </c>
       <c r="D26" s="16">
         <f>D53/B59*D59</f>
-        <v>0.52735200000000004</v>
+        <v>2.4742199999999999</v>
       </c>
       <c r="E26" s="16">
         <f>E53/B59*D59</f>
-        <v>0.52735200000000004</v>
+        <v>2.4742199999999999</v>
       </c>
       <c r="F26" s="16">
         <f>F53/B59*D59</f>
-        <v>0.14831775</v>
+        <v>0.69587437500000004</v>
       </c>
       <c r="G26" s="16">
         <f>G53/B59*D59</f>
-        <v>1.050616</v>
+        <v>4.9292600000000002</v>
       </c>
       <c r="H26" s="16">
         <f>H53/B59*D59</f>
-        <v>0.26367600000000002</v>
+        <v>1.2371099999999999</v>
       </c>
       <c r="I26" s="16">
         <f>I53/B59*D59</f>
-        <v>4.1199375000000003E-2</v>
+        <v>0.1932984375</v>
       </c>
       <c r="J26" s="16">
         <f>J53/B59*D59</f>
-        <v>1.2455625000000001E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+        <v>5.84390625E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>6</v>
       </c>
       <c r="B27" s="16">
         <f>B54/B59*D59</f>
-        <v>4.1199375000000003E-2</v>
+        <v>0.1932984375</v>
       </c>
       <c r="C27" s="16">
         <f>C54/B59*D59</f>
-        <v>4.1199375000000003E-2</v>
+        <v>0.1932984375</v>
       </c>
       <c r="D27" s="16">
         <f>D54/B59*D59</f>
-        <v>4.1199375000000003E-2</v>
+        <v>0.1932984375</v>
       </c>
       <c r="E27" s="16">
         <f>E54/B59*D59</f>
-        <v>0.18127725</v>
+        <v>0.85051312499999998</v>
       </c>
       <c r="F27" s="16">
         <f>F54/B59*D59</f>
@@ -8201,11 +6593,11 @@
       </c>
       <c r="G27" s="16">
         <f>G54/B59*D59</f>
-        <v>4.1199375000000003E-2</v>
+        <v>0.1932984375</v>
       </c>
       <c r="H27" s="16">
         <f>H54/B59*D59</f>
-        <v>2.0759375E-2</v>
+        <v>9.7398437500000004E-2</v>
       </c>
       <c r="I27" s="16">
         <f>I54/B59*D59</f>
@@ -8216,62 +6608,62 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B28" s="16">
         <f>SUM(B22:B27)</f>
-        <v>2.0887763750000001</v>
+        <v>9.8000809375000006</v>
       </c>
       <c r="C28" s="16">
-        <f t="shared" ref="C28:I28" si="2">SUM(C22:C27)</f>
-        <v>2.0653981250000002</v>
+        <f t="shared" ref="C28:I28" si="1">SUM(C22:C27)</f>
+        <v>9.6903953124999997</v>
       </c>
       <c r="D28" s="16">
-        <f t="shared" si="2"/>
-        <v>2.0653981250000002</v>
+        <f t="shared" si="1"/>
+        <v>9.6903953124999997</v>
       </c>
       <c r="E28" s="16">
-        <f t="shared" si="2"/>
-        <v>2.205476</v>
+        <f t="shared" si="1"/>
+        <v>10.34761</v>
       </c>
       <c r="F28" s="16">
-        <f t="shared" si="2"/>
-        <v>2.2674347500000001</v>
+        <f t="shared" si="1"/>
+        <v>10.638306875</v>
       </c>
       <c r="G28" s="16">
         <f>SUM(G22:G27)</f>
-        <v>2.234539125</v>
+        <v>10.4839678125</v>
       </c>
       <c r="H28" s="16">
-        <f t="shared" si="2"/>
-        <v>2.0463633750000003</v>
+        <f t="shared" si="1"/>
+        <v>9.6010884374999996</v>
       </c>
       <c r="I28" s="16">
-        <f t="shared" si="2"/>
-        <v>1.8031273750000001</v>
+        <f t="shared" si="1"/>
+        <v>8.4598784374999987</v>
       </c>
       <c r="J28" s="16">
         <f>SUM(J22:J27)</f>
-        <v>2.3091451249999997</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+        <v>10.8340028125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
         <v>0</v>
@@ -8301,60 +6693,64 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B32" s="7">
         <f>B55/B59*D59</f>
-        <v>2.0887763750000001</v>
+        <v>9.8000809375000006</v>
       </c>
       <c r="C32" s="7">
         <f>C55/B59*D59</f>
-        <v>2.0653981250000002</v>
+        <v>9.6903953124999997</v>
       </c>
       <c r="D32" s="7">
         <f>D55/B59*D59</f>
-        <v>2.0653981250000002</v>
+        <v>9.6903953124999997</v>
       </c>
       <c r="E32" s="7">
         <f>E55/B59*D59</f>
-        <v>2.205476</v>
+        <v>10.34761</v>
       </c>
       <c r="F32" s="7">
         <f>F55/B59*D59</f>
-        <v>2.2674347500000005</v>
+        <v>10.638306875000001</v>
       </c>
       <c r="G32" s="7">
         <f>G55/B59*D59</f>
-        <v>2.2345391250000004</v>
+        <v>10.483967812500001</v>
       </c>
       <c r="H32" s="7">
         <f>H55/B59*D59</f>
-        <v>2.0463633749999999</v>
+        <v>9.6010884374999996</v>
       </c>
       <c r="I32" s="7">
         <f>I55/B59*D59</f>
-        <v>1.8031273750000001</v>
+        <v>8.4598784375000005</v>
       </c>
       <c r="J32" s="7">
         <f>J55/B59*D59</f>
-        <v>2.3091451250000001</v>
+        <v>10.834002812500001</v>
+      </c>
+      <c r="K32">
+        <f>SUM(B32:J32)*J1/9</f>
+        <v>99.495251041666663</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="21" t="s">
+      <c r="A35" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
@@ -8589,35 +6985,35 @@
         <v>65402</v>
       </c>
       <c r="C43" s="12">
-        <f t="shared" ref="C43:J43" si="3">SUM(C37:C42)</f>
+        <f t="shared" ref="C43:J43" si="2">SUM(C37:C42)</f>
         <v>64670</v>
       </c>
       <c r="D43" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>64670</v>
       </c>
       <c r="E43" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>69056</v>
       </c>
       <c r="F43" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>70996</v>
       </c>
       <c r="G43" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>69966</v>
       </c>
       <c r="H43" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>64074</v>
       </c>
       <c r="I43" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>56458</v>
       </c>
       <c r="J43" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>72302</v>
       </c>
     </row>
@@ -8630,35 +7026,35 @@
         <v>130.804</v>
       </c>
       <c r="C44" s="13">
-        <f t="shared" ref="C44:J44" si="4">C43*2/1000</f>
+        <f t="shared" ref="C44:J44" si="3">C43*2/1000</f>
         <v>129.34</v>
       </c>
       <c r="D44" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>129.34</v>
       </c>
       <c r="E44" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>138.11199999999999</v>
       </c>
       <c r="F44" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>141.99199999999999</v>
       </c>
       <c r="G44" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>139.93199999999999</v>
       </c>
       <c r="H44" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>128.148</v>
       </c>
       <c r="I44" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>112.916</v>
       </c>
       <c r="J44" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>144.60400000000001</v>
       </c>
     </row>
@@ -8673,18 +7069,18 @@
       <c r="A46" s="8"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="21" t="s">
+      <c r="A47" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B47" s="21"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="21"/>
-      <c r="I47" s="21"/>
-      <c r="J47" s="21"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="22"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
@@ -8727,35 +7123,35 @@
         <v>0.32</v>
       </c>
       <c r="C49" s="12">
-        <f t="shared" ref="C49:J49" si="5">C37*2/1000</f>
+        <f t="shared" ref="C49:J49" si="4">C37*2/1000</f>
         <v>0.89600000000000002</v>
       </c>
       <c r="D49" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.89600000000000002</v>
       </c>
       <c r="E49" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.89600000000000002</v>
       </c>
       <c r="F49" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.056</v>
       </c>
       <c r="G49" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.48</v>
       </c>
       <c r="H49" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.16</v>
       </c>
       <c r="I49" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.16</v>
       </c>
       <c r="J49" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.14399999999999999</v>
       </c>
     </row>
@@ -8764,39 +7160,39 @@
         <v>2</v>
       </c>
       <c r="B50" s="12">
-        <f t="shared" ref="B50:J54" si="6">B38*2/1000</f>
+        <f t="shared" ref="B50:J54" si="5">B38*2/1000</f>
         <v>9.2799999999999994</v>
       </c>
       <c r="C50" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>9.2799999999999994</v>
       </c>
       <c r="D50" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>9.2799999999999994</v>
       </c>
       <c r="E50" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>9.2799999999999994</v>
       </c>
       <c r="F50" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>16.448</v>
       </c>
       <c r="G50" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>13.888</v>
       </c>
       <c r="H50" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2.3359999999999999</v>
       </c>
       <c r="I50" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2.3359999999999999</v>
       </c>
       <c r="J50" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4.16</v>
       </c>
     </row>
@@ -8805,39 +7201,39 @@
         <v>3</v>
       </c>
       <c r="B51" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>27.744</v>
       </c>
       <c r="C51" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>30.056000000000001</v>
       </c>
       <c r="D51" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>30.056000000000001</v>
       </c>
       <c r="E51" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>30.056000000000001</v>
       </c>
       <c r="F51" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>82.176000000000002</v>
       </c>
       <c r="G51" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>30.056000000000001</v>
       </c>
       <c r="H51" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>9.2799999999999994</v>
       </c>
       <c r="I51" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>9.2799999999999994</v>
       </c>
       <c r="J51" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>16.512</v>
       </c>
     </row>
@@ -8846,39 +7242,39 @@
         <v>4</v>
       </c>
       <c r="B52" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>25.088000000000001</v>
       </c>
       <c r="C52" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>53.503999999999998</v>
       </c>
       <c r="D52" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>53.503999999999998</v>
       </c>
       <c r="E52" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>53.503999999999998</v>
       </c>
       <c r="F52" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>33.024000000000001</v>
       </c>
       <c r="G52" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>27.135999999999999</v>
       </c>
       <c r="H52" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>98.56</v>
       </c>
       <c r="I52" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>98.56</v>
       </c>
       <c r="J52" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>123.008</v>
       </c>
     </row>
@@ -8887,39 +7283,39 @@
         <v>5</v>
       </c>
       <c r="B53" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>65.792000000000002</v>
       </c>
       <c r="C53" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>33.024000000000001</v>
       </c>
       <c r="D53" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>33.024000000000001</v>
       </c>
       <c r="E53" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>33.024000000000001</v>
       </c>
       <c r="F53" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>9.2880000000000003</v>
       </c>
       <c r="G53" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>65.792000000000002</v>
       </c>
       <c r="H53" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>16.512</v>
       </c>
       <c r="I53" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2.58</v>
       </c>
       <c r="J53" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.78</v>
       </c>
     </row>
@@ -8928,39 +7324,39 @@
         <v>6</v>
       </c>
       <c r="B54" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2.58</v>
       </c>
       <c r="C54" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2.58</v>
       </c>
       <c r="D54" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2.58</v>
       </c>
       <c r="E54" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>11.352</v>
       </c>
       <c r="F54" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G54" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2.58</v>
       </c>
       <c r="H54" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1.3</v>
       </c>
       <c r="I54" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J54" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8973,19 +7369,19 @@
         <v>130.804</v>
       </c>
       <c r="C55" s="12">
-        <f t="shared" ref="C55:F55" si="7">SUM(C49:C54)</f>
+        <f t="shared" ref="C55:F55" si="6">SUM(C49:C54)</f>
         <v>129.34</v>
       </c>
       <c r="D55" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>129.34</v>
       </c>
       <c r="E55" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>138.11199999999999</v>
       </c>
       <c r="F55" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>141.99200000000002</v>
       </c>
       <c r="G55" s="12">
@@ -8993,15 +7389,15 @@
         <v>139.93200000000002</v>
       </c>
       <c r="H55" s="12">
-        <f t="shared" ref="H55:J55" si="8">SUM(H49:H54)</f>
+        <f t="shared" ref="H55:J55" si="7">SUM(H49:H54)</f>
         <v>128.148</v>
       </c>
       <c r="I55" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>112.916</v>
       </c>
       <c r="J55" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>144.60400000000001</v>
       </c>
     </row>
@@ -9013,12 +7409,12 @@
       <c r="F56" s="14"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="B58" s="21"/>
-      <c r="C58" s="21"/>
-      <c r="D58" s="21"/>
+      <c r="A58" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B58" s="22"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="22"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
@@ -9028,25 +7424,25 @@
         <v>64</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D59" s="2">
-        <v>1.022</v>
+        <v>4.7949999999999999</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" s="21" t="s">
+      <c r="A62" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B62" s="21"/>
-      <c r="C62" s="21"/>
-      <c r="D62" s="21"/>
-      <c r="E62" s="21"/>
-      <c r="F62" s="21"/>
-      <c r="G62" s="21"/>
-      <c r="H62" s="21"/>
-      <c r="I62" s="21"/>
-      <c r="J62" s="21"/>
+      <c r="B62" s="22"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="22"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="22"/>
+      <c r="G62" s="22"/>
+      <c r="H62" s="22"/>
+      <c r="I62" s="22"/>
+      <c r="J62" s="22"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
@@ -9112,43 +7508,43 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B65" s="9">
         <f>B64/B59*D59</f>
-        <v>0.22883218750000001</v>
+        <v>1.07363046875</v>
       </c>
       <c r="C65" s="9">
         <f>C64/B59*D59</f>
-        <v>3.2576250000000001E-2</v>
+        <v>0.15284062500000001</v>
       </c>
       <c r="D65" s="9">
         <f>D64/B59*D59</f>
-        <v>0.3923521875</v>
+        <v>1.8408304687499999</v>
       </c>
       <c r="E65" s="9">
         <f>E64/B59*D59</f>
-        <v>0.17980812500000001</v>
+        <v>0.84362031250000002</v>
       </c>
       <c r="F65" s="9">
         <f>F64/B59*D59</f>
-        <v>3.2576250000000001E-2</v>
+        <v>0.15284062500000001</v>
       </c>
       <c r="G65" s="9">
         <f>G64/B59*D59</f>
-        <v>0.19609625</v>
+        <v>0.92004062499999995</v>
       </c>
       <c r="H65" s="3">
         <f>H64/B59*D59</f>
-        <v>0.19609625</v>
+        <v>0.92004062499999995</v>
       </c>
       <c r="I65" s="3">
         <f>I64/B59*D59</f>
-        <v>4.90240625E-2</v>
+        <v>0.23001015624999999</v>
       </c>
       <c r="J65" s="3">
         <f>J64/B59*D59</f>
-        <v>1.6288125000000001E-2</v>
+        <v>7.6420312500000004E-2</v>
       </c>
     </row>
   </sheetData>
@@ -9167,6 +7563,1824 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7722315-F6D9-6E45-A3E1-A77E98ECE9F6}">
+  <dimension ref="A1:L65"/>
+  <sheetViews>
+    <sheetView topLeftCell="A20" zoomScale="144" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="6">
+        <f>B18*J1</f>
+        <v>411.70000000000005</v>
+      </c>
+      <c r="C3" s="6">
+        <f>C18*J1</f>
+        <v>696.40000000000009</v>
+      </c>
+      <c r="D3" s="6">
+        <f>D18*J1</f>
+        <v>696.40000000000009</v>
+      </c>
+      <c r="E3" s="6">
+        <f>E18*J1</f>
+        <v>720.5</v>
+      </c>
+      <c r="F3" s="6">
+        <f>F18*J1</f>
+        <v>523.69999999999993</v>
+      </c>
+      <c r="G3" s="6">
+        <f>G18*J1</f>
+        <v>571.6</v>
+      </c>
+      <c r="H3" s="6">
+        <f>H18*J1</f>
+        <v>385.3</v>
+      </c>
+      <c r="I3" s="6">
+        <f>I18*J1</f>
+        <v>383.79999999999995</v>
+      </c>
+      <c r="J3" s="6">
+        <f>J18*J1</f>
+        <v>416.50000000000006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="6">
+        <f>B18*J1 +B65*J1</f>
+        <v>413.98832187500005</v>
+      </c>
+      <c r="C4" s="6">
+        <f>C18*J1 +C65*J1</f>
+        <v>696.72576250000009</v>
+      </c>
+      <c r="D4" s="6">
+        <f>D18*J1 +D65*J1</f>
+        <v>700.3235218750001</v>
+      </c>
+      <c r="E4" s="6">
+        <f>E18*J1 +E65*J1</f>
+        <v>722.29808125</v>
+      </c>
+      <c r="F4" s="6">
+        <f>F18*J1+F65*J1</f>
+        <v>524.02576249999993</v>
+      </c>
+      <c r="G4" s="6">
+        <f>G18*J1+G65*J1</f>
+        <v>573.56096250000007</v>
+      </c>
+      <c r="H4" s="6">
+        <f>H18*J1+H65*J1</f>
+        <v>387.26096250000001</v>
+      </c>
+      <c r="I4" s="6">
+        <f>I18*J1+I65*J1</f>
+        <v>384.29024062499997</v>
+      </c>
+      <c r="J4" s="6">
+        <f>J18*J1+J65*J1</f>
+        <v>416.66288125000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="6">
+        <f>B18*J1 + 0.024*J1</f>
+        <v>411.94000000000005</v>
+      </c>
+      <c r="C5" s="6">
+        <f>C18*J1 + 0.024*J1</f>
+        <v>696.6400000000001</v>
+      </c>
+      <c r="D5" s="6">
+        <f>D18*J1 + 0.024*J1</f>
+        <v>696.6400000000001</v>
+      </c>
+      <c r="E5" s="6">
+        <f>E18*J1 + 0.024*J1</f>
+        <v>720.74</v>
+      </c>
+      <c r="F5" s="6">
+        <f>F18*J1 + 0.024*J1</f>
+        <v>523.93999999999994</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="6">
+        <f>B18*J1 + B32*J1</f>
+        <v>432.58776375000002</v>
+      </c>
+      <c r="C6" s="6">
+        <f>C18*J1 + C32*J1</f>
+        <v>717.05398125000011</v>
+      </c>
+      <c r="D6" s="6">
+        <f>D18*J1 + D32*J1</f>
+        <v>717.05398125000011</v>
+      </c>
+      <c r="E6" s="6">
+        <f>E18*J1 + E32*J1</f>
+        <v>742.55475999999999</v>
+      </c>
+      <c r="F6" s="6">
+        <f>F18*J1 + F32*J1</f>
+        <v>546.37434749999989</v>
+      </c>
+      <c r="G6" s="6">
+        <f>G18*J1 + G32*J1</f>
+        <v>593.94539125000006</v>
+      </c>
+      <c r="H6" s="6">
+        <f>H18*J1 + H32*J1</f>
+        <v>405.76363375</v>
+      </c>
+      <c r="I6" s="6">
+        <f>I18*J1 + I32*J1</f>
+        <v>401.83127374999998</v>
+      </c>
+      <c r="J6" s="6">
+        <f>J18*J1 + J32*J1</f>
+        <v>439.59145125000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="6">
+        <v>379.43666374999998</v>
+      </c>
+      <c r="C7" s="6">
+        <v>531.51090124999996</v>
+      </c>
+      <c r="D7" s="6">
+        <v>531.51090124999996</v>
+      </c>
+      <c r="E7" s="6">
+        <v>547.21167999999898</v>
+      </c>
+      <c r="F7" s="6">
+        <v>397.70571749999999</v>
+      </c>
+      <c r="G7" s="3">
+        <v>516.76874124999995</v>
+      </c>
+      <c r="H7" s="3">
+        <v>368.63808375000002</v>
+      </c>
+      <c r="I7" s="3">
+        <v>364.305723749999</v>
+      </c>
+      <c r="J7" s="3">
+        <v>411.57</v>
+      </c>
+      <c r="K7" s="25"/>
+      <c r="L7" s="8"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="6">
+        <v>99.625481749999906</v>
+      </c>
+      <c r="C8" s="6">
+        <v>175.69336675</v>
+      </c>
+      <c r="D8" s="6">
+        <v>175.69336675</v>
+      </c>
+      <c r="E8" s="6">
+        <v>182.75414549999999</v>
+      </c>
+      <c r="F8" s="6">
+        <v>162.12954550000001</v>
+      </c>
+      <c r="G8" s="3">
+        <v>258.99036749999999</v>
+      </c>
+      <c r="H8" s="3">
+        <v>147.81978974999899</v>
+      </c>
+      <c r="I8" s="3">
+        <v>88.572379749999996</v>
+      </c>
+      <c r="J8" s="3">
+        <v>147.69999999999999</v>
+      </c>
+      <c r="K8" s="25"/>
+      <c r="L8" s="8"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>1</v>
+      </c>
+      <c r="B12" s="12">
+        <v>5.31</v>
+      </c>
+      <c r="C12" s="12">
+        <v>18.54</v>
+      </c>
+      <c r="D12" s="12">
+        <v>18.54</v>
+      </c>
+      <c r="E12" s="12">
+        <v>19.52</v>
+      </c>
+      <c r="F12" s="12">
+        <v>14.85</v>
+      </c>
+      <c r="G12" s="12">
+        <v>7.71</v>
+      </c>
+      <c r="H12" s="12">
+        <v>3.71</v>
+      </c>
+      <c r="I12" s="12">
+        <v>3.75</v>
+      </c>
+      <c r="J12" s="12">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>2</v>
+      </c>
+      <c r="B13" s="12">
+        <v>26.29</v>
+      </c>
+      <c r="C13" s="12">
+        <v>37.49</v>
+      </c>
+      <c r="D13" s="12">
+        <v>37.49</v>
+      </c>
+      <c r="E13" s="12">
+        <v>37.549999999999997</v>
+      </c>
+      <c r="F13" s="12">
+        <v>33.450000000000003</v>
+      </c>
+      <c r="G13" s="12">
+        <v>39.020000000000003</v>
+      </c>
+      <c r="H13" s="12">
+        <v>20.07</v>
+      </c>
+      <c r="I13" s="12">
+        <v>20.18</v>
+      </c>
+      <c r="J13" s="12">
+        <v>15.63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>3</v>
+      </c>
+      <c r="B14" s="12">
+        <v>6.3</v>
+      </c>
+      <c r="C14" s="12">
+        <v>10.71</v>
+      </c>
+      <c r="D14" s="12">
+        <v>10.71</v>
+      </c>
+      <c r="E14" s="12">
+        <v>11.93</v>
+      </c>
+      <c r="F14" s="12">
+        <v>2.84</v>
+      </c>
+      <c r="G14" s="12">
+        <v>7.11</v>
+      </c>
+      <c r="H14" s="12">
+        <v>10.71</v>
+      </c>
+      <c r="I14" s="12">
+        <v>11.03</v>
+      </c>
+      <c r="J14" s="12">
+        <v>19.05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>4</v>
+      </c>
+      <c r="B15" s="12">
+        <v>0.92</v>
+      </c>
+      <c r="C15" s="12">
+        <v>1.68</v>
+      </c>
+      <c r="D15" s="12">
+        <v>1.68</v>
+      </c>
+      <c r="E15" s="12">
+        <v>1.83</v>
+      </c>
+      <c r="F15" s="12">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G15" s="12">
+        <v>0.99</v>
+      </c>
+      <c r="H15" s="12">
+        <v>3.46</v>
+      </c>
+      <c r="I15" s="12">
+        <v>3.34</v>
+      </c>
+      <c r="J15" s="12">
+        <v>4.13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>5</v>
+      </c>
+      <c r="B16" s="12">
+        <v>2.27</v>
+      </c>
+      <c r="C16" s="12">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="D16" s="12">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="E16" s="12">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="F16" s="12">
+        <v>0.08</v>
+      </c>
+      <c r="G16" s="12">
+        <v>2.25</v>
+      </c>
+      <c r="H16" s="12">
+        <v>0.54</v>
+      </c>
+      <c r="I16" s="12">
+        <v>0.08</v>
+      </c>
+      <c r="J16" s="12">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <v>6</v>
+      </c>
+      <c r="B17" s="12">
+        <v>0.08</v>
+      </c>
+      <c r="C17" s="12">
+        <v>0.08</v>
+      </c>
+      <c r="D17" s="12">
+        <v>0.08</v>
+      </c>
+      <c r="E17" s="12">
+        <v>0.08</v>
+      </c>
+      <c r="F17" s="12">
+        <v>0</v>
+      </c>
+      <c r="G17" s="12">
+        <v>0.08</v>
+      </c>
+      <c r="H17" s="12">
+        <v>0.04</v>
+      </c>
+      <c r="I17" s="12">
+        <v>0</v>
+      </c>
+      <c r="J17" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="12">
+        <f>SUM(B12:B17)</f>
+        <v>41.17</v>
+      </c>
+      <c r="C18" s="12">
+        <f t="shared" ref="C18:J18" si="0">SUM(C12:C17)</f>
+        <v>69.640000000000015</v>
+      </c>
+      <c r="D18" s="12">
+        <f t="shared" si="0"/>
+        <v>69.640000000000015</v>
+      </c>
+      <c r="E18" s="12">
+        <f t="shared" si="0"/>
+        <v>72.05</v>
+      </c>
+      <c r="F18" s="12">
+        <f t="shared" si="0"/>
+        <v>52.37</v>
+      </c>
+      <c r="G18" s="12">
+        <f t="shared" si="0"/>
+        <v>57.160000000000004</v>
+      </c>
+      <c r="H18" s="12">
+        <f t="shared" si="0"/>
+        <v>38.53</v>
+      </c>
+      <c r="I18" s="12">
+        <f t="shared" si="0"/>
+        <v>38.379999999999995</v>
+      </c>
+      <c r="J18" s="12">
+        <f t="shared" si="0"/>
+        <v>41.650000000000006</v>
+      </c>
+      <c r="K18" s="12">
+        <f>SUM(B18:J18)*J1/9</f>
+        <v>533.98888888888894</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="I21" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="J21" s="17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
+        <v>1</v>
+      </c>
+      <c r="B22" s="16">
+        <f>B49/B59*D59</f>
+        <v>5.11E-3</v>
+      </c>
+      <c r="C22" s="16">
+        <f>C49/B59*D59</f>
+        <v>1.4308000000000001E-2</v>
+      </c>
+      <c r="D22" s="16">
+        <f>D49/B59*D59</f>
+        <v>1.4308000000000001E-2</v>
+      </c>
+      <c r="E22" s="16">
+        <f>E49/B59*D59</f>
+        <v>1.4308000000000001E-2</v>
+      </c>
+      <c r="F22" s="16">
+        <f>F49/B59*D59</f>
+        <v>1.6863E-2</v>
+      </c>
+      <c r="G22" s="16">
+        <f>G49/B59*D59</f>
+        <v>7.6649999999999999E-3</v>
+      </c>
+      <c r="H22" s="16">
+        <f>H49/B59*D59</f>
+        <v>2.555E-3</v>
+      </c>
+      <c r="I22" s="16">
+        <f>I49/B59*D59</f>
+        <v>2.555E-3</v>
+      </c>
+      <c r="J22" s="16">
+        <f>J49/B59*D59</f>
+        <v>2.2994999999999999E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
+        <v>2</v>
+      </c>
+      <c r="B23" s="16">
+        <f>B50/B59*D59</f>
+        <v>0.14818999999999999</v>
+      </c>
+      <c r="C23" s="16">
+        <f>C50/B59*D59</f>
+        <v>0.14818999999999999</v>
+      </c>
+      <c r="D23" s="16">
+        <f>D50/B59*D59</f>
+        <v>0.14818999999999999</v>
+      </c>
+      <c r="E23" s="16">
+        <f>E50/B59*D59</f>
+        <v>0.14818999999999999</v>
+      </c>
+      <c r="F23" s="16">
+        <f>F50/B59*D59</f>
+        <v>0.262654</v>
+      </c>
+      <c r="G23" s="16">
+        <f>G50/B59*D59</f>
+        <v>0.221774</v>
+      </c>
+      <c r="H23" s="16">
+        <f>H50/B59*D59</f>
+        <v>3.7302999999999996E-2</v>
+      </c>
+      <c r="I23" s="16">
+        <f>I50/B59*D59</f>
+        <v>3.7302999999999996E-2</v>
+      </c>
+      <c r="J23" s="16">
+        <f>J50/B59*D59</f>
+        <v>6.6430000000000003E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
+        <v>3</v>
+      </c>
+      <c r="B24" s="16">
+        <f>B51/B59*D59</f>
+        <v>0.44303700000000001</v>
+      </c>
+      <c r="C24" s="16">
+        <f>C51/B59*D59</f>
+        <v>0.47995675000000004</v>
+      </c>
+      <c r="D24" s="16">
+        <f>D51/B59*D59</f>
+        <v>0.47995675000000004</v>
+      </c>
+      <c r="E24" s="16">
+        <f>E51/B59*D59</f>
+        <v>0.47995675000000004</v>
+      </c>
+      <c r="F24" s="16">
+        <f>F51/B59*D59</f>
+        <v>1.3122480000000001</v>
+      </c>
+      <c r="G24" s="16">
+        <f>G51/B59*D59</f>
+        <v>0.47995675000000004</v>
+      </c>
+      <c r="H24" s="16">
+        <f>H51/B59*D59</f>
+        <v>0.14818999999999999</v>
+      </c>
+      <c r="I24" s="16">
+        <f>I51/B59*D59</f>
+        <v>0.14818999999999999</v>
+      </c>
+      <c r="J24" s="16">
+        <f>J51/B59*D59</f>
+        <v>0.26367600000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
+        <v>4</v>
+      </c>
+      <c r="B25" s="16">
+        <f>B52/B59*D59</f>
+        <v>0.40062400000000004</v>
+      </c>
+      <c r="C25" s="16">
+        <f>C52/B59*D59</f>
+        <v>0.85439199999999993</v>
+      </c>
+      <c r="D25" s="16">
+        <f>D52/B59*D59</f>
+        <v>0.85439199999999993</v>
+      </c>
+      <c r="E25" s="16">
+        <f>E52/B59*D59</f>
+        <v>0.85439199999999993</v>
+      </c>
+      <c r="F25" s="16">
+        <f>F52/B59*D59</f>
+        <v>0.52735200000000004</v>
+      </c>
+      <c r="G25" s="16">
+        <f>G52/B59*D59</f>
+        <v>0.43332799999999999</v>
+      </c>
+      <c r="H25" s="16">
+        <f>H52/B59*D59</f>
+        <v>1.5738800000000002</v>
+      </c>
+      <c r="I25" s="16">
+        <f>I52/B59*D59</f>
+        <v>1.5738800000000002</v>
+      </c>
+      <c r="J25" s="16">
+        <f>J52/B59*D59</f>
+        <v>1.9642839999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="4">
+        <v>5</v>
+      </c>
+      <c r="B26" s="16">
+        <f>B53/B59*D59</f>
+        <v>1.050616</v>
+      </c>
+      <c r="C26" s="16">
+        <f>C53/B59*D59</f>
+        <v>0.52735200000000004</v>
+      </c>
+      <c r="D26" s="16">
+        <f>D53/B59*D59</f>
+        <v>0.52735200000000004</v>
+      </c>
+      <c r="E26" s="16">
+        <f>E53/B59*D59</f>
+        <v>0.52735200000000004</v>
+      </c>
+      <c r="F26" s="16">
+        <f>F53/B59*D59</f>
+        <v>0.14831775</v>
+      </c>
+      <c r="G26" s="16">
+        <f>G53/B59*D59</f>
+        <v>1.050616</v>
+      </c>
+      <c r="H26" s="16">
+        <f>H53/B59*D59</f>
+        <v>0.26367600000000002</v>
+      </c>
+      <c r="I26" s="16">
+        <f>I53/B59*D59</f>
+        <v>4.1199375000000003E-2</v>
+      </c>
+      <c r="J26" s="16">
+        <f>J53/B59*D59</f>
+        <v>1.2455625000000001E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="4">
+        <v>6</v>
+      </c>
+      <c r="B27" s="16">
+        <f>B54/B59*D59</f>
+        <v>4.1199375000000003E-2</v>
+      </c>
+      <c r="C27" s="16">
+        <f>C54/B59*D59</f>
+        <v>4.1199375000000003E-2</v>
+      </c>
+      <c r="D27" s="16">
+        <f>D54/B59*D59</f>
+        <v>4.1199375000000003E-2</v>
+      </c>
+      <c r="E27" s="16">
+        <f>E54/B59*D59</f>
+        <v>0.18127725</v>
+      </c>
+      <c r="F27" s="16">
+        <f>F54/B59*D59</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="16">
+        <f>G54/B59*D59</f>
+        <v>4.1199375000000003E-2</v>
+      </c>
+      <c r="H27" s="16">
+        <f>H54/B59*D59</f>
+        <v>2.0759375E-2</v>
+      </c>
+      <c r="I27" s="16">
+        <f>I54/B59*D59</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="16">
+        <f>J54/B59*D59</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="16">
+        <f>SUM(B22:B27)</f>
+        <v>2.0887763750000001</v>
+      </c>
+      <c r="C28" s="16">
+        <f t="shared" ref="C28:I28" si="1">SUM(C22:C27)</f>
+        <v>2.0653981250000002</v>
+      </c>
+      <c r="D28" s="16">
+        <f t="shared" si="1"/>
+        <v>2.0653981250000002</v>
+      </c>
+      <c r="E28" s="16">
+        <f t="shared" si="1"/>
+        <v>2.205476</v>
+      </c>
+      <c r="F28" s="16">
+        <f t="shared" si="1"/>
+        <v>2.2674347500000001</v>
+      </c>
+      <c r="G28" s="16">
+        <f>SUM(G22:G27)</f>
+        <v>2.234539125</v>
+      </c>
+      <c r="H28" s="16">
+        <f t="shared" si="1"/>
+        <v>2.0463633750000003</v>
+      </c>
+      <c r="I28" s="16">
+        <f t="shared" si="1"/>
+        <v>1.8031273750000001</v>
+      </c>
+      <c r="J28" s="16">
+        <f>SUM(J22:J27)</f>
+        <v>2.3091451249999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G31" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="H31" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="I31" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="J31" s="17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="7">
+        <f>B55/B59*D59</f>
+        <v>2.0887763750000001</v>
+      </c>
+      <c r="C32" s="7">
+        <f>C55/B59*D59</f>
+        <v>2.0653981250000002</v>
+      </c>
+      <c r="D32" s="7">
+        <f>D55/B59*D59</f>
+        <v>2.0653981250000002</v>
+      </c>
+      <c r="E32" s="7">
+        <f>E55/B59*D59</f>
+        <v>2.205476</v>
+      </c>
+      <c r="F32" s="7">
+        <f>F55/B59*D59</f>
+        <v>2.2674347500000005</v>
+      </c>
+      <c r="G32" s="7">
+        <f>G55/B59*D59</f>
+        <v>2.2345391250000004</v>
+      </c>
+      <c r="H32" s="7">
+        <f>H55/B59*D59</f>
+        <v>2.0463633749999999</v>
+      </c>
+      <c r="I32" s="7">
+        <f>I55/B59*D59</f>
+        <v>1.8031273750000001</v>
+      </c>
+      <c r="J32" s="7">
+        <f>J55/B59*D59</f>
+        <v>2.3091451250000001</v>
+      </c>
+      <c r="K32">
+        <f>SUM(B32:J32)*J1/9</f>
+        <v>21.206287083333336</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G36" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="H36" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="I36" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="J36" s="17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="4">
+        <v>1</v>
+      </c>
+      <c r="B37" s="12">
+        <v>160</v>
+      </c>
+      <c r="C37" s="12">
+        <v>448</v>
+      </c>
+      <c r="D37" s="12">
+        <v>448</v>
+      </c>
+      <c r="E37" s="12">
+        <v>448</v>
+      </c>
+      <c r="F37" s="12">
+        <v>528</v>
+      </c>
+      <c r="G37" s="12">
+        <v>240</v>
+      </c>
+      <c r="H37" s="12">
+        <v>80</v>
+      </c>
+      <c r="I37" s="12">
+        <v>80</v>
+      </c>
+      <c r="J37" s="12">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="4">
+        <v>2</v>
+      </c>
+      <c r="B38" s="12">
+        <v>4640</v>
+      </c>
+      <c r="C38" s="12">
+        <v>4640</v>
+      </c>
+      <c r="D38" s="12">
+        <v>4640</v>
+      </c>
+      <c r="E38" s="12">
+        <v>4640</v>
+      </c>
+      <c r="F38" s="12">
+        <v>8224</v>
+      </c>
+      <c r="G38" s="12">
+        <v>6944</v>
+      </c>
+      <c r="H38" s="12">
+        <v>1168</v>
+      </c>
+      <c r="I38" s="12">
+        <v>1168</v>
+      </c>
+      <c r="J38" s="12">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="4">
+        <v>3</v>
+      </c>
+      <c r="B39" s="12">
+        <v>13872</v>
+      </c>
+      <c r="C39" s="12">
+        <v>15028</v>
+      </c>
+      <c r="D39" s="12">
+        <v>15028</v>
+      </c>
+      <c r="E39" s="12">
+        <v>15028</v>
+      </c>
+      <c r="F39" s="12">
+        <v>41088</v>
+      </c>
+      <c r="G39" s="12">
+        <v>15028</v>
+      </c>
+      <c r="H39" s="12">
+        <v>4640</v>
+      </c>
+      <c r="I39" s="12">
+        <v>4640</v>
+      </c>
+      <c r="J39" s="12">
+        <v>8256</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="4">
+        <v>4</v>
+      </c>
+      <c r="B40" s="12">
+        <v>12544</v>
+      </c>
+      <c r="C40" s="12">
+        <v>26752</v>
+      </c>
+      <c r="D40" s="12">
+        <v>26752</v>
+      </c>
+      <c r="E40" s="12">
+        <v>26752</v>
+      </c>
+      <c r="F40" s="12">
+        <v>16512</v>
+      </c>
+      <c r="G40" s="12">
+        <v>13568</v>
+      </c>
+      <c r="H40" s="12">
+        <v>49280</v>
+      </c>
+      <c r="I40" s="12">
+        <v>49280</v>
+      </c>
+      <c r="J40" s="12">
+        <v>61504</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="4">
+        <v>5</v>
+      </c>
+      <c r="B41" s="12">
+        <v>32896</v>
+      </c>
+      <c r="C41" s="12">
+        <v>16512</v>
+      </c>
+      <c r="D41" s="12">
+        <v>16512</v>
+      </c>
+      <c r="E41" s="12">
+        <v>16512</v>
+      </c>
+      <c r="F41" s="12">
+        <v>4644</v>
+      </c>
+      <c r="G41" s="12">
+        <v>32896</v>
+      </c>
+      <c r="H41" s="12">
+        <v>8256</v>
+      </c>
+      <c r="I41" s="12">
+        <v>1290</v>
+      </c>
+      <c r="J41" s="12">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="4">
+        <v>6</v>
+      </c>
+      <c r="B42" s="12">
+        <v>1290</v>
+      </c>
+      <c r="C42" s="12">
+        <v>1290</v>
+      </c>
+      <c r="D42" s="12">
+        <v>1290</v>
+      </c>
+      <c r="E42" s="12">
+        <v>5676</v>
+      </c>
+      <c r="F42" s="12">
+        <v>0</v>
+      </c>
+      <c r="G42" s="12">
+        <v>1290</v>
+      </c>
+      <c r="H42" s="12">
+        <v>650</v>
+      </c>
+      <c r="I42" s="12">
+        <v>0</v>
+      </c>
+      <c r="J42" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43" s="12">
+        <f>SUM(B37:B42)</f>
+        <v>65402</v>
+      </c>
+      <c r="C43" s="12">
+        <f t="shared" ref="C43:J43" si="2">SUM(C37:C42)</f>
+        <v>64670</v>
+      </c>
+      <c r="D43" s="12">
+        <f t="shared" si="2"/>
+        <v>64670</v>
+      </c>
+      <c r="E43" s="12">
+        <f t="shared" si="2"/>
+        <v>69056</v>
+      </c>
+      <c r="F43" s="12">
+        <f t="shared" si="2"/>
+        <v>70996</v>
+      </c>
+      <c r="G43" s="12">
+        <f t="shared" si="2"/>
+        <v>69966</v>
+      </c>
+      <c r="H43" s="12">
+        <f t="shared" si="2"/>
+        <v>64074</v>
+      </c>
+      <c r="I43" s="12">
+        <f t="shared" si="2"/>
+        <v>56458</v>
+      </c>
+      <c r="J43" s="12">
+        <f t="shared" si="2"/>
+        <v>72302</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B44" s="13">
+        <f>B43*2/1000</f>
+        <v>130.804</v>
+      </c>
+      <c r="C44" s="13">
+        <f t="shared" ref="C44:J44" si="3">C43*2/1000</f>
+        <v>129.34</v>
+      </c>
+      <c r="D44" s="13">
+        <f t="shared" si="3"/>
+        <v>129.34</v>
+      </c>
+      <c r="E44" s="13">
+        <f t="shared" si="3"/>
+        <v>138.11199999999999</v>
+      </c>
+      <c r="F44" s="13">
+        <f t="shared" si="3"/>
+        <v>141.99199999999999</v>
+      </c>
+      <c r="G44" s="13">
+        <f t="shared" si="3"/>
+        <v>139.93199999999999</v>
+      </c>
+      <c r="H44" s="13">
+        <f t="shared" si="3"/>
+        <v>128.148</v>
+      </c>
+      <c r="I44" s="13">
+        <f t="shared" si="3"/>
+        <v>112.916</v>
+      </c>
+      <c r="J44" s="13">
+        <f t="shared" si="3"/>
+        <v>144.60400000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="15"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="8"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="22"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="H48" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="I48" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="J48" s="17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="4">
+        <v>1</v>
+      </c>
+      <c r="B49" s="12">
+        <f>B37*2/1000</f>
+        <v>0.32</v>
+      </c>
+      <c r="C49" s="12">
+        <f t="shared" ref="C49:J49" si="4">C37*2/1000</f>
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="D49" s="12">
+        <f t="shared" si="4"/>
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="E49" s="12">
+        <f t="shared" si="4"/>
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="F49" s="12">
+        <f t="shared" si="4"/>
+        <v>1.056</v>
+      </c>
+      <c r="G49" s="12">
+        <f t="shared" si="4"/>
+        <v>0.48</v>
+      </c>
+      <c r="H49" s="12">
+        <f t="shared" si="4"/>
+        <v>0.16</v>
+      </c>
+      <c r="I49" s="12">
+        <f t="shared" si="4"/>
+        <v>0.16</v>
+      </c>
+      <c r="J49" s="12">
+        <f t="shared" si="4"/>
+        <v>0.14399999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" s="4">
+        <v>2</v>
+      </c>
+      <c r="B50" s="12">
+        <f t="shared" ref="B50:J54" si="5">B38*2/1000</f>
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="C50" s="12">
+        <f t="shared" si="5"/>
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="D50" s="12">
+        <f t="shared" si="5"/>
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="E50" s="12">
+        <f t="shared" si="5"/>
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="F50" s="12">
+        <f t="shared" si="5"/>
+        <v>16.448</v>
+      </c>
+      <c r="G50" s="12">
+        <f t="shared" si="5"/>
+        <v>13.888</v>
+      </c>
+      <c r="H50" s="12">
+        <f t="shared" si="5"/>
+        <v>2.3359999999999999</v>
+      </c>
+      <c r="I50" s="12">
+        <f t="shared" si="5"/>
+        <v>2.3359999999999999</v>
+      </c>
+      <c r="J50" s="12">
+        <f t="shared" si="5"/>
+        <v>4.16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" s="4">
+        <v>3</v>
+      </c>
+      <c r="B51" s="12">
+        <f t="shared" si="5"/>
+        <v>27.744</v>
+      </c>
+      <c r="C51" s="12">
+        <f t="shared" si="5"/>
+        <v>30.056000000000001</v>
+      </c>
+      <c r="D51" s="12">
+        <f t="shared" si="5"/>
+        <v>30.056000000000001</v>
+      </c>
+      <c r="E51" s="12">
+        <f t="shared" si="5"/>
+        <v>30.056000000000001</v>
+      </c>
+      <c r="F51" s="12">
+        <f t="shared" si="5"/>
+        <v>82.176000000000002</v>
+      </c>
+      <c r="G51" s="12">
+        <f t="shared" si="5"/>
+        <v>30.056000000000001</v>
+      </c>
+      <c r="H51" s="12">
+        <f t="shared" si="5"/>
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="I51" s="12">
+        <f t="shared" si="5"/>
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="J51" s="12">
+        <f t="shared" si="5"/>
+        <v>16.512</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="4">
+        <v>4</v>
+      </c>
+      <c r="B52" s="12">
+        <f t="shared" si="5"/>
+        <v>25.088000000000001</v>
+      </c>
+      <c r="C52" s="12">
+        <f t="shared" si="5"/>
+        <v>53.503999999999998</v>
+      </c>
+      <c r="D52" s="12">
+        <f t="shared" si="5"/>
+        <v>53.503999999999998</v>
+      </c>
+      <c r="E52" s="12">
+        <f t="shared" si="5"/>
+        <v>53.503999999999998</v>
+      </c>
+      <c r="F52" s="12">
+        <f t="shared" si="5"/>
+        <v>33.024000000000001</v>
+      </c>
+      <c r="G52" s="12">
+        <f t="shared" si="5"/>
+        <v>27.135999999999999</v>
+      </c>
+      <c r="H52" s="12">
+        <f t="shared" si="5"/>
+        <v>98.56</v>
+      </c>
+      <c r="I52" s="12">
+        <f t="shared" si="5"/>
+        <v>98.56</v>
+      </c>
+      <c r="J52" s="12">
+        <f t="shared" si="5"/>
+        <v>123.008</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" s="4">
+        <v>5</v>
+      </c>
+      <c r="B53" s="12">
+        <f t="shared" si="5"/>
+        <v>65.792000000000002</v>
+      </c>
+      <c r="C53" s="12">
+        <f t="shared" si="5"/>
+        <v>33.024000000000001</v>
+      </c>
+      <c r="D53" s="12">
+        <f t="shared" si="5"/>
+        <v>33.024000000000001</v>
+      </c>
+      <c r="E53" s="12">
+        <f t="shared" si="5"/>
+        <v>33.024000000000001</v>
+      </c>
+      <c r="F53" s="12">
+        <f t="shared" si="5"/>
+        <v>9.2880000000000003</v>
+      </c>
+      <c r="G53" s="12">
+        <f t="shared" si="5"/>
+        <v>65.792000000000002</v>
+      </c>
+      <c r="H53" s="12">
+        <f t="shared" si="5"/>
+        <v>16.512</v>
+      </c>
+      <c r="I53" s="12">
+        <f t="shared" si="5"/>
+        <v>2.58</v>
+      </c>
+      <c r="J53" s="12">
+        <f t="shared" si="5"/>
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" s="4">
+        <v>6</v>
+      </c>
+      <c r="B54" s="12">
+        <f t="shared" si="5"/>
+        <v>2.58</v>
+      </c>
+      <c r="C54" s="12">
+        <f t="shared" si="5"/>
+        <v>2.58</v>
+      </c>
+      <c r="D54" s="12">
+        <f t="shared" si="5"/>
+        <v>2.58</v>
+      </c>
+      <c r="E54" s="12">
+        <f t="shared" si="5"/>
+        <v>11.352</v>
+      </c>
+      <c r="F54" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G54" s="12">
+        <f t="shared" si="5"/>
+        <v>2.58</v>
+      </c>
+      <c r="H54" s="12">
+        <f t="shared" si="5"/>
+        <v>1.3</v>
+      </c>
+      <c r="I54" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J54" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B55" s="12">
+        <f>SUM(B49:B54)</f>
+        <v>130.804</v>
+      </c>
+      <c r="C55" s="12">
+        <f t="shared" ref="C55:F55" si="6">SUM(C49:C54)</f>
+        <v>129.34</v>
+      </c>
+      <c r="D55" s="12">
+        <f t="shared" si="6"/>
+        <v>129.34</v>
+      </c>
+      <c r="E55" s="12">
+        <f t="shared" si="6"/>
+        <v>138.11199999999999</v>
+      </c>
+      <c r="F55" s="12">
+        <f t="shared" si="6"/>
+        <v>141.99200000000002</v>
+      </c>
+      <c r="G55" s="12">
+        <f>SUM(G49:G54)</f>
+        <v>139.93200000000002</v>
+      </c>
+      <c r="H55" s="12">
+        <f t="shared" ref="H55:J55" si="7">SUM(H49:H54)</f>
+        <v>128.148</v>
+      </c>
+      <c r="I55" s="12">
+        <f t="shared" si="7"/>
+        <v>112.916</v>
+      </c>
+      <c r="J55" s="12">
+        <f t="shared" si="7"/>
+        <v>144.60400000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B58" s="22"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="22"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B59" s="2">
+        <v>64</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D59" s="2">
+        <v>1.022</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B62" s="22"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="22"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="22"/>
+      <c r="G62" s="22"/>
+      <c r="H62" s="22"/>
+      <c r="I62" s="22"/>
+      <c r="J62" s="22"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G63" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="H63" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="I63" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="J63" s="17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B64" s="6">
+        <v>14.33</v>
+      </c>
+      <c r="C64" s="6">
+        <v>2.04</v>
+      </c>
+      <c r="D64" s="6">
+        <v>24.57</v>
+      </c>
+      <c r="E64" s="6">
+        <v>11.26</v>
+      </c>
+      <c r="F64" s="6">
+        <v>2.04</v>
+      </c>
+      <c r="G64" s="3">
+        <v>12.28</v>
+      </c>
+      <c r="H64" s="3">
+        <v>12.28</v>
+      </c>
+      <c r="I64" s="3">
+        <v>3.07</v>
+      </c>
+      <c r="J64" s="3">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B65" s="9">
+        <f>B64/B59*D59</f>
+        <v>0.22883218750000001</v>
+      </c>
+      <c r="C65" s="9">
+        <f>C64/B59*D59</f>
+        <v>3.2576250000000001E-2</v>
+      </c>
+      <c r="D65" s="9">
+        <f>D64/B59*D59</f>
+        <v>0.3923521875</v>
+      </c>
+      <c r="E65" s="9">
+        <f>E64/B59*D59</f>
+        <v>0.17980812500000001</v>
+      </c>
+      <c r="F65" s="9">
+        <f>F64/B59*D59</f>
+        <v>3.2576250000000001E-2</v>
+      </c>
+      <c r="G65" s="9">
+        <f>G64/B59*D59</f>
+        <v>0.19609625</v>
+      </c>
+      <c r="H65" s="3">
+        <f>H64/B59*D59</f>
+        <v>0.19609625</v>
+      </c>
+      <c r="I65" s="3">
+        <f>I64/B59*D59</f>
+        <v>4.90240625E-2</v>
+      </c>
+      <c r="J65" s="3">
+        <f>J64/B59*D59</f>
+        <v>1.6288125000000001E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A58:D58"/>
+    <mergeCell ref="A62:J62"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="A47:J47"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09BB6D28-0DA4-6B47-9767-B86832CEED60}">
   <dimension ref="A1:F66"/>
   <sheetViews>
@@ -9180,12 +9394,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
       <c r="E1" s="11" t="s">
         <v>27</v>
       </c>
@@ -9352,14 +9566,14 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -9527,14 +9741,14 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
@@ -9732,14 +9946,14 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="21" t="s">
+      <c r="A31" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
@@ -9785,14 +9999,14 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="21" t="s">
+      <c r="A36" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
@@ -9995,14 +10209,14 @@
       <c r="A47" s="8"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="21" t="s">
+      <c r="A48" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B48" s="21"/>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="21"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
@@ -10207,12 +10421,12 @@
       <c r="F57" s="14"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="21" t="s">
+      <c r="A59" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B59" s="21"/>
-      <c r="C59" s="21"/>
-      <c r="D59" s="21"/>
+      <c r="B59" s="22"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="22"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
@@ -10229,14 +10443,14 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="21" t="s">
+      <c r="A63" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B63" s="21"/>
-      <c r="C63" s="21"/>
-      <c r="D63" s="21"/>
-      <c r="E63" s="21"/>
-      <c r="F63" s="21"/>
+      <c r="B63" s="22"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="22"/>
+      <c r="E63" s="22"/>
+      <c r="F63" s="22"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>

--- a/plot/system_evaluation/comparison.xlsx
+++ b/plot/system_evaluation/comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuboluo/Documents/PycharmProjects/SmartSwitch/plot/system_evaluation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC00F643-B095-1D4A-B77D-9C3E35986E86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F366ABBA-98A9-DB4D-8CEB-459E255CEF26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15860" activeTab="2" xr2:uid="{A33675B7-7F4F-C34D-AB6F-57998B81D61A}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="60">
   <si>
     <t>MNIST</t>
   </si>
@@ -332,6 +332,7 @@
     <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -341,7 +342,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -669,18 +669,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -931,18 +931,18 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
@@ -1071,24 +1071,24 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
@@ -1169,14 +1169,14 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1201,14 +1201,14 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -1257,12 +1257,12 @@
       <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="24"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="8"/>
@@ -1299,10 +1299,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{951637E0-D5A3-6945-9708-8015501B2B41}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="131" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" zoomScale="131" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1313,11 +1313,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -1341,59 +1341,59 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B4" s="6">
-        <v>61.83</v>
+        <v>75.63</v>
       </c>
       <c r="C4" s="6">
-        <v>9.44</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="6">
+        <v>61.83</v>
+      </c>
+      <c r="C5" s="6">
+        <v>9.44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B6" s="6">
         <v>21.48</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C6" s="6">
         <v>4.1900000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="22" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="6">
-        <v>12.77</v>
-      </c>
-      <c r="C9" s="6">
-        <v>0.39</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B10" s="6">
-        <v>10.24</v>
+        <v>12.77</v>
       </c>
       <c r="C10" s="6">
         <v>0.39</v>
@@ -1401,119 +1401,163 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="6">
+        <v>12.77</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="6">
+        <v>10.24</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B13" s="6">
         <v>3.61</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C13" s="6">
         <v>0.18</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="22" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="6">
-        <v>438.83</v>
-      </c>
-      <c r="C15" s="6">
-        <v>99.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="6">
-        <v>340.62</v>
-      </c>
-      <c r="C16" s="6">
-        <v>99.08</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="6">
+        <v>438.83</v>
+      </c>
+      <c r="C17" s="6">
+        <v>99.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="6">
+        <v>438.83</v>
+      </c>
+      <c r="C18" s="6">
+        <v>5.59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="6">
+        <v>340.62</v>
+      </c>
+      <c r="C19" s="6">
+        <v>99.08</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B20" s="6">
         <v>118.02</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C20" s="6">
         <v>43.97</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="22" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1" t="s">
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B24" s="6">
         <v>533.99</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C24" s="6">
         <v>21.21</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="6">
+        <v>533.99</v>
+      </c>
+      <c r="C25" s="6">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B26" s="6">
         <v>428.73</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C26" s="6">
         <v>21.12</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B27" s="6">
         <v>156</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C27" s="6">
         <v>9.6199999999999992</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A22:C22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1533,12 +1577,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
       <c r="E1" s="11" t="s">
         <v>27</v>
       </c>
@@ -1705,14 +1749,14 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
@@ -1878,14 +1922,14 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
@@ -1931,14 +1975,14 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
@@ -2007,12 +2051,12 @@
       <c r="A31" s="8"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="22" t="s">
+      <c r="A33" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
@@ -2029,14 +2073,14 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="22" t="s">
+      <c r="A37" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
@@ -2119,8 +2163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A77F0FD-FF90-6947-BEE6-0880C6726156}">
   <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="144" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView topLeftCell="A57" zoomScale="144" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="H80" sqref="H80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2129,16 +2173,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
       <c r="I1" s="11" t="s">
         <v>27</v>
       </c>
@@ -2401,18 +2445,18 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -2678,24 +2722,21 @@
         <f t="shared" si="0"/>
         <v>11.0905</v>
       </c>
-      <c r="K18" s="12">
-        <f>SUM(B18:J18)*J1/9</f>
-        <v>75.632111111111101</v>
-      </c>
+      <c r="K18" s="14"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
@@ -3017,18 +3058,18 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="22" t="s">
+      <c r="A30" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
@@ -3100,24 +3141,20 @@
         <f>J55/B59*D59</f>
         <v>1.0325629375000001</v>
       </c>
-      <c r="K32">
-        <f>SUM(B32:J32)*J1/9</f>
-        <v>9.4826547916666684</v>
-      </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="22" t="s">
+      <c r="A35" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="22"/>
-      <c r="J35" s="22"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
@@ -3436,18 +3473,18 @@
       <c r="A46" s="8"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="22" t="s">
+      <c r="A47" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B47" s="22"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="22"/>
-      <c r="J47" s="22"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="23"/>
+      <c r="I47" s="23"/>
+      <c r="J47" s="23"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
@@ -3776,12 +3813,12 @@
       <c r="F56" s="14"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="22" t="s">
+      <c r="A58" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B58" s="22"/>
-      <c r="C58" s="22"/>
-      <c r="D58" s="22"/>
+      <c r="B58" s="23"/>
+      <c r="C58" s="23"/>
+      <c r="D58" s="23"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
@@ -3798,18 +3835,18 @@
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" s="22" t="s">
+      <c r="A62" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B62" s="22"/>
-      <c r="C62" s="22"/>
-      <c r="D62" s="22"/>
-      <c r="E62" s="22"/>
-      <c r="F62" s="22"/>
-      <c r="G62" s="22"/>
-      <c r="H62" s="22"/>
-      <c r="I62" s="22"/>
-      <c r="J62" s="22"/>
+      <c r="B62" s="23"/>
+      <c r="C62" s="23"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="23"/>
+      <c r="F62" s="23"/>
+      <c r="G62" s="23"/>
+      <c r="H62" s="23"/>
+      <c r="I62" s="23"/>
+      <c r="J62" s="23"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
@@ -3936,8 +3973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4E9899-3E04-0747-82E9-ACEDBE639FB7}">
   <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="144" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView topLeftCell="A58" zoomScale="144" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="K65" sqref="K65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3946,16 +3983,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
       <c r="I1" s="11" t="s">
         <v>27</v>
       </c>
@@ -4184,7 +4221,7 @@
       <c r="J7" s="3">
         <v>9.83</v>
       </c>
-      <c r="K7" s="25"/>
+      <c r="K7" s="22"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -4217,21 +4254,21 @@
       <c r="J8" s="3">
         <v>3.51</v>
       </c>
-      <c r="K8" s="25"/>
+      <c r="K8" s="22"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -4497,24 +4534,21 @@
         <f t="shared" si="0"/>
         <v>1.008</v>
       </c>
-      <c r="K18" s="12">
-        <f>SUM(B18:J18)*J1/9</f>
-        <v>12.771111111111111</v>
-      </c>
+      <c r="K18" s="14"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
@@ -4836,18 +4870,18 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="22" t="s">
+      <c r="A30" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
@@ -4919,24 +4953,20 @@
         <f>J55/B59*D59</f>
         <v>4.2929312500000004E-2</v>
       </c>
-      <c r="K32">
-        <f>SUM(B32:J32)*J1/9</f>
-        <v>0.39424604166666666</v>
-      </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="22" t="s">
+      <c r="A35" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="22"/>
-      <c r="J35" s="22"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
@@ -5255,18 +5285,18 @@
       <c r="A46" s="8"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="22" t="s">
+      <c r="A47" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B47" s="22"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="22"/>
-      <c r="J47" s="22"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="23"/>
+      <c r="I47" s="23"/>
+      <c r="J47" s="23"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
@@ -5595,12 +5625,12 @@
       <c r="F56" s="14"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="22" t="s">
+      <c r="A58" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B58" s="22"/>
-      <c r="C58" s="22"/>
-      <c r="D58" s="22"/>
+      <c r="B58" s="23"/>
+      <c r="C58" s="23"/>
+      <c r="D58" s="23"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
@@ -5617,18 +5647,18 @@
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" s="22" t="s">
+      <c r="A62" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B62" s="22"/>
-      <c r="C62" s="22"/>
-      <c r="D62" s="22"/>
-      <c r="E62" s="22"/>
-      <c r="F62" s="22"/>
-      <c r="G62" s="22"/>
-      <c r="H62" s="22"/>
-      <c r="I62" s="22"/>
-      <c r="J62" s="22"/>
+      <c r="B62" s="23"/>
+      <c r="C62" s="23"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="23"/>
+      <c r="F62" s="23"/>
+      <c r="G62" s="23"/>
+      <c r="H62" s="23"/>
+      <c r="I62" s="23"/>
+      <c r="J62" s="23"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
@@ -5752,8 +5782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13C6D9F3-393E-3E4E-A142-A12E5051E586}">
   <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="144" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+    <sheetView topLeftCell="A50" zoomScale="144" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="K65" sqref="K65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5762,16 +5792,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
       <c r="I1" s="11" t="s">
         <v>27</v>
       </c>
@@ -6034,18 +6064,18 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -6311,24 +6341,21 @@
         <f t="shared" si="0"/>
         <v>61.56</v>
       </c>
-      <c r="K18" s="12">
-        <f>SUM(B18:J18)*J1/9</f>
-        <v>438.83333333333331</v>
-      </c>
+      <c r="K18" s="14"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
@@ -6650,18 +6677,18 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="22" t="s">
+      <c r="A30" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
@@ -6733,24 +6760,20 @@
         <f>J55/B59*D59</f>
         <v>10.834002812500001</v>
       </c>
-      <c r="K32">
-        <f>SUM(B32:J32)*J1/9</f>
-        <v>99.495251041666663</v>
-      </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="22" t="s">
+      <c r="A35" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="22"/>
-      <c r="J35" s="22"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
@@ -7069,18 +7092,18 @@
       <c r="A46" s="8"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="22" t="s">
+      <c r="A47" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B47" s="22"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="22"/>
-      <c r="J47" s="22"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="23"/>
+      <c r="I47" s="23"/>
+      <c r="J47" s="23"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
@@ -7409,12 +7432,12 @@
       <c r="F56" s="14"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="22" t="s">
+      <c r="A58" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="B58" s="22"/>
-      <c r="C58" s="22"/>
-      <c r="D58" s="22"/>
+      <c r="B58" s="23"/>
+      <c r="C58" s="23"/>
+      <c r="D58" s="23"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
@@ -7431,18 +7454,18 @@
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" s="22" t="s">
+      <c r="A62" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B62" s="22"/>
-      <c r="C62" s="22"/>
-      <c r="D62" s="22"/>
-      <c r="E62" s="22"/>
-      <c r="F62" s="22"/>
-      <c r="G62" s="22"/>
-      <c r="H62" s="22"/>
-      <c r="I62" s="22"/>
-      <c r="J62" s="22"/>
+      <c r="B62" s="23"/>
+      <c r="C62" s="23"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="23"/>
+      <c r="F62" s="23"/>
+      <c r="G62" s="23"/>
+      <c r="H62" s="23"/>
+      <c r="I62" s="23"/>
+      <c r="J62" s="23"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
@@ -7566,8 +7589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7722315-F6D9-6E45-A3E1-A77E98ECE9F6}">
   <dimension ref="A1:L65"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="144" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView topLeftCell="A49" zoomScale="144" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="K66" sqref="K66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7576,16 +7599,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
       <c r="I1" s="11" t="s">
         <v>27</v>
       </c>
@@ -7814,7 +7837,7 @@
       <c r="J7" s="3">
         <v>411.57</v>
       </c>
-      <c r="K7" s="25"/>
+      <c r="K7" s="22"/>
       <c r="L7" s="8"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -7848,22 +7871,22 @@
       <c r="J8" s="3">
         <v>147.69999999999999</v>
       </c>
-      <c r="K8" s="25"/>
+      <c r="K8" s="22"/>
       <c r="L8" s="8"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -8129,24 +8152,21 @@
         <f t="shared" si="0"/>
         <v>41.650000000000006</v>
       </c>
-      <c r="K18" s="12">
-        <f>SUM(B18:J18)*J1/9</f>
-        <v>533.98888888888894</v>
-      </c>
+      <c r="K18" s="14"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
@@ -8468,18 +8488,18 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="22" t="s">
+      <c r="A30" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
@@ -8551,24 +8571,20 @@
         <f>J55/B59*D59</f>
         <v>2.3091451250000001</v>
       </c>
-      <c r="K32">
-        <f>SUM(B32:J32)*J1/9</f>
-        <v>21.206287083333336</v>
-      </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="22" t="s">
+      <c r="A35" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="22"/>
-      <c r="J35" s="22"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
@@ -8887,18 +8903,18 @@
       <c r="A46" s="8"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="22" t="s">
+      <c r="A47" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B47" s="22"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="22"/>
-      <c r="J47" s="22"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="23"/>
+      <c r="I47" s="23"/>
+      <c r="J47" s="23"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
@@ -9227,12 +9243,12 @@
       <c r="F56" s="14"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="22" t="s">
+      <c r="A58" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="B58" s="22"/>
-      <c r="C58" s="22"/>
-      <c r="D58" s="22"/>
+      <c r="B58" s="23"/>
+      <c r="C58" s="23"/>
+      <c r="D58" s="23"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
@@ -9249,18 +9265,18 @@
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" s="22" t="s">
+      <c r="A62" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B62" s="22"/>
-      <c r="C62" s="22"/>
-      <c r="D62" s="22"/>
-      <c r="E62" s="22"/>
-      <c r="F62" s="22"/>
-      <c r="G62" s="22"/>
-      <c r="H62" s="22"/>
-      <c r="I62" s="22"/>
-      <c r="J62" s="22"/>
+      <c r="B62" s="23"/>
+      <c r="C62" s="23"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="23"/>
+      <c r="F62" s="23"/>
+      <c r="G62" s="23"/>
+      <c r="H62" s="23"/>
+      <c r="I62" s="23"/>
+      <c r="J62" s="23"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
@@ -9394,12 +9410,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
       <c r="E1" s="11" t="s">
         <v>27</v>
       </c>
@@ -9566,14 +9582,14 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -9741,14 +9757,14 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
@@ -9946,14 +9962,14 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
@@ -9999,14 +10015,14 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="22" t="s">
+      <c r="A36" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
@@ -10209,14 +10225,14 @@
       <c r="A47" s="8"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="22" t="s">
+      <c r="A48" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B48" s="22"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="22"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
@@ -10421,12 +10437,12 @@
       <c r="F57" s="14"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="22" t="s">
+      <c r="A59" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B59" s="22"/>
-      <c r="C59" s="22"/>
-      <c r="D59" s="22"/>
+      <c r="B59" s="23"/>
+      <c r="C59" s="23"/>
+      <c r="D59" s="23"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
@@ -10443,14 +10459,14 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="22" t="s">
+      <c r="A63" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B63" s="22"/>
-      <c r="C63" s="22"/>
-      <c r="D63" s="22"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="22"/>
+      <c r="B63" s="23"/>
+      <c r="C63" s="23"/>
+      <c r="D63" s="23"/>
+      <c r="E63" s="23"/>
+      <c r="F63" s="23"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>

--- a/plot/system_evaluation/comparison.xlsx
+++ b/plot/system_evaluation/comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuboluo/Documents/PycharmProjects/SmartSwitch/plot/system_evaluation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F366ABBA-98A9-DB4D-8CEB-459E255CEF26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4493FB98-EE7C-3149-8900-CD6661FE5484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15860" activeTab="2" xr2:uid="{A33675B7-7F4F-C34D-AB6F-57998B81D61A}"/>
+    <workbookView xWindow="0" yWindow="920" windowWidth="28800" windowHeight="15860" activeTab="1" xr2:uid="{A33675B7-7F4F-C34D-AB6F-57998B81D61A}"/>
   </bookViews>
   <sheets>
     <sheet name="accuracy" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="62">
   <si>
     <t>MNIST</t>
   </si>
@@ -222,6 +222,101 @@
   <si>
     <t>Overhead breakdown - energyoverhead_pico</t>
   </si>
+  <si>
+    <t xml:space="preserve">HHAR has only 6 tasks, we use a 1.667 multiplier. This result is after the multiplier is imposed </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Vanilla</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is calculated by - sum up all individual model sizes of 9 datasets and then time 10 and divide by 9; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Antler</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is calculated by the calc_memory() function in MTL_baseline.py; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>NWV</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is calculated by excluding the exclusive page size of OA dataset; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>YONO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is calculated by dividing Vanilla's result by 11.57; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>MTL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is calculated by only sharing the first layer.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -232,7 +327,7 @@
     <numFmt numFmtId="165" formatCode="0.00;[Red]0.00"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -251,6 +346,11 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri (Body)"/>
     </font>
   </fonts>
   <fills count="7">
@@ -303,7 +403,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -330,7 +430,6 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -339,7 +438,14 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -659,7 +765,7 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView zoomScale="138" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -669,18 +775,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -931,18 +1037,18 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
@@ -1071,24 +1177,24 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
@@ -1169,14 +1275,14 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1192,106 +1298,160 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37800737-DCBD-4E48-B8D1-0EDDFA6F61A2}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView zoomScale="132" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScale="132" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="17" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="20">
-        <v>1195</v>
-      </c>
-      <c r="C3" s="20">
+      <c r="B3" s="27">
+        <v>1328</v>
+      </c>
+      <c r="C3" s="27">
+        <v>1323</v>
+      </c>
+      <c r="D3" s="27">
         <v>587.5</v>
       </c>
-      <c r="D3" s="20">
+      <c r="E3" s="27">
         <v>213.7</v>
       </c>
-      <c r="E3" s="20">
-        <v>129.6</v>
-      </c>
-      <c r="F3" s="20">
-        <v>103.3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F3" s="27">
+        <v>144</v>
+      </c>
+      <c r="G3" s="27">
+        <v>114.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="13" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="26"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="26"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="26"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A13:H16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1301,8 +1461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{951637E0-D5A3-6945-9708-8015501B2B41}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="131" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView zoomScale="131" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1313,11 +1473,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -1373,11 +1533,11 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
@@ -1433,11 +1593,11 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
@@ -1493,11 +1653,11 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
@@ -1577,12 +1737,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
       <c r="E1" s="11" t="s">
         <v>27</v>
       </c>
@@ -1749,14 +1909,14 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
@@ -1922,14 +2082,14 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
@@ -1975,14 +2135,14 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
@@ -2051,12 +2211,12 @@
       <c r="A31" s="8"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="23" t="s">
+      <c r="A33" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
@@ -2073,14 +2233,14 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="23" t="s">
+      <c r="A37" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
@@ -2163,8 +2323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A77F0FD-FF90-6947-BEE6-0880C6726156}">
   <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" zoomScale="144" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H80" sqref="H80"/>
+    <sheetView topLeftCell="A37" zoomScale="144" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2172,17 +2332,17 @@
     <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
       <c r="I1" s="11" t="s">
         <v>27</v>
       </c>
@@ -2190,7 +2350,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -2220,7 +2380,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -2261,7 +2421,7 @@
         <v>110.905</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -2302,7 +2462,7 @@
         <v>110.977834375</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -2339,7 +2499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -2380,7 +2540,7 @@
         <v>121.23062937500001</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -2411,8 +2571,11 @@
       <c r="J7" s="3">
         <v>114.92</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K7" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>53</v>
       </c>
@@ -2443,22 +2606,25 @@
       <c r="J8" s="3">
         <v>42.58</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="23" t="s">
+      <c r="K8" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
@@ -2490,7 +2656,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>1</v>
       </c>
@@ -2522,7 +2688,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>2</v>
       </c>
@@ -2554,7 +2720,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>3</v>
       </c>
@@ -2586,7 +2752,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>4</v>
       </c>
@@ -2618,7 +2784,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>5</v>
       </c>
@@ -2725,18 +2891,18 @@
       <c r="K18" s="14"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
@@ -3058,18 +3224,18 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
@@ -3143,18 +3309,18 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="23" t="s">
+      <c r="A35" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
@@ -3473,18 +3639,18 @@
       <c r="A46" s="8"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="23" t="s">
+      <c r="A47" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B47" s="23"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="23"/>
-      <c r="I47" s="23"/>
-      <c r="J47" s="23"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="22"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
@@ -3518,7 +3684,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>1</v>
       </c>
@@ -3559,7 +3725,7 @@
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>2</v>
       </c>
@@ -3600,7 +3766,7 @@
         <v>4.16</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>3</v>
       </c>
@@ -3641,7 +3807,7 @@
         <v>16.512</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>4</v>
       </c>
@@ -3682,7 +3848,7 @@
         <v>123.008</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>5</v>
       </c>
@@ -3723,7 +3889,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>6</v>
       </c>
@@ -3764,7 +3930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>33</v>
       </c>
@@ -3804,23 +3970,29 @@
         <f t="shared" si="10"/>
         <v>144.60400000000001</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K55" s="25"/>
+    </row>
+    <row r="56" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B56" s="14"/>
       <c r="C56" s="14"/>
       <c r="D56" s="14"/>
       <c r="E56" s="14"/>
       <c r="F56" s="14"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="23" t="s">
+      <c r="G56" s="14"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="14"/>
+      <c r="J56" s="14"/>
+      <c r="K56" s="14"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B58" s="23"/>
-      <c r="C58" s="23"/>
-      <c r="D58" s="23"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B58" s="22"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="22"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>19</v>
       </c>
@@ -3834,21 +4006,21 @@
         <v>0.45700000000000002</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" s="23" t="s">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A62" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B62" s="23"/>
-      <c r="C62" s="23"/>
-      <c r="D62" s="23"/>
-      <c r="E62" s="23"/>
-      <c r="F62" s="23"/>
-      <c r="G62" s="23"/>
-      <c r="H62" s="23"/>
-      <c r="I62" s="23"/>
-      <c r="J62" s="23"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B62" s="22"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="22"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="22"/>
+      <c r="G62" s="22"/>
+      <c r="H62" s="22"/>
+      <c r="I62" s="22"/>
+      <c r="J62" s="22"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
       <c r="B63" s="1" t="s">
         <v>0</v>
@@ -3878,7 +4050,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3973,8 +4145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4E9899-3E04-0747-82E9-ACEDBE639FB7}">
   <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScale="144" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="K65" sqref="K65"/>
+    <sheetView topLeftCell="A36" zoomScale="144" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="L50" sqref="L50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3983,16 +4155,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
       <c r="I1" s="11" t="s">
         <v>27</v>
       </c>
@@ -4221,7 +4393,9 @@
       <c r="J7" s="3">
         <v>9.83</v>
       </c>
-      <c r="K7" s="22"/>
+      <c r="K7" s="21" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -4254,21 +4428,23 @@
       <c r="J8" s="3">
         <v>3.51</v>
       </c>
-      <c r="K8" s="22"/>
+      <c r="K8" s="21" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -4537,18 +4713,18 @@
       <c r="K18" s="14"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
@@ -4870,18 +5046,18 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
@@ -4955,18 +5131,18 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="23" t="s">
+      <c r="A35" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
@@ -5285,18 +5461,18 @@
       <c r="A46" s="8"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="23" t="s">
+      <c r="A47" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B47" s="23"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="23"/>
-      <c r="I47" s="23"/>
-      <c r="J47" s="23"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="22"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
@@ -5330,7 +5506,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>1</v>
       </c>
@@ -5371,7 +5547,7 @@
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>2</v>
       </c>
@@ -5412,7 +5588,7 @@
         <v>4.16</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>3</v>
       </c>
@@ -5453,7 +5629,7 @@
         <v>16.512</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>4</v>
       </c>
@@ -5494,7 +5670,7 @@
         <v>123.008</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>5</v>
       </c>
@@ -5535,7 +5711,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>6</v>
       </c>
@@ -5576,7 +5752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>33</v>
       </c>
@@ -5616,23 +5792,27 @@
         <f t="shared" si="7"/>
         <v>144.60400000000001</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K55" s="12">
+        <f>SUM(B55:J55)*10/9</f>
+        <v>1327.9866666666667</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B56" s="14"/>
       <c r="C56" s="14"/>
       <c r="D56" s="14"/>
       <c r="E56" s="14"/>
       <c r="F56" s="14"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="23" t="s">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B58" s="23"/>
-      <c r="C58" s="23"/>
-      <c r="D58" s="23"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B58" s="22"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="22"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>19</v>
       </c>
@@ -5646,21 +5826,21 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" s="23" t="s">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A62" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B62" s="23"/>
-      <c r="C62" s="23"/>
-      <c r="D62" s="23"/>
-      <c r="E62" s="23"/>
-      <c r="F62" s="23"/>
-      <c r="G62" s="23"/>
-      <c r="H62" s="23"/>
-      <c r="I62" s="23"/>
-      <c r="J62" s="23"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B62" s="22"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="22"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="22"/>
+      <c r="G62" s="22"/>
+      <c r="H62" s="22"/>
+      <c r="I62" s="22"/>
+      <c r="J62" s="22"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
       <c r="B63" s="1" t="s">
         <v>0</v>
@@ -5690,7 +5870,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>19</v>
       </c>
@@ -5782,8 +5962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13C6D9F3-393E-3E4E-A142-A12E5051E586}">
   <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" zoomScale="144" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="K65" sqref="K65"/>
+    <sheetView zoomScale="144" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5791,17 +5971,17 @@
     <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
       <c r="I1" s="11" t="s">
         <v>27</v>
       </c>
@@ -5809,7 +5989,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -5839,7 +6019,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -5880,7 +6060,7 @@
         <v>615.6</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -5921,7 +6101,7 @@
         <v>616.36420312500002</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -5958,7 +6138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -5999,7 +6179,7 @@
         <v>723.94002812500003</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -6030,8 +6210,11 @@
       <c r="J7" s="3">
         <v>675.63</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K7" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>53</v>
       </c>
@@ -6062,22 +6245,25 @@
       <c r="J8" s="3">
         <v>255.44</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="23" t="s">
+      <c r="K8" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
@@ -6109,7 +6295,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>1</v>
       </c>
@@ -6141,7 +6327,7 @@
         <v>4.82</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>2</v>
       </c>
@@ -6173,7 +6359,7 @@
         <v>20.53</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>3</v>
       </c>
@@ -6205,7 +6391,7 @@
         <v>27.52</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>4</v>
       </c>
@@ -6237,7 +6423,7 @@
         <v>8.69</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>5</v>
       </c>
@@ -6344,18 +6530,18 @@
       <c r="K18" s="14"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
@@ -6677,18 +6863,18 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
@@ -6762,18 +6948,18 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="23" t="s">
+      <c r="A35" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
@@ -7092,18 +7278,18 @@
       <c r="A46" s="8"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="23" t="s">
+      <c r="A47" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B47" s="23"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="23"/>
-      <c r="I47" s="23"/>
-      <c r="J47" s="23"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="22"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
@@ -7432,12 +7618,12 @@
       <c r="F56" s="14"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="23" t="s">
+      <c r="A58" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="B58" s="23"/>
-      <c r="C58" s="23"/>
-      <c r="D58" s="23"/>
+      <c r="B58" s="22"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="22"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
@@ -7454,18 +7640,18 @@
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" s="23" t="s">
+      <c r="A62" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B62" s="23"/>
-      <c r="C62" s="23"/>
-      <c r="D62" s="23"/>
-      <c r="E62" s="23"/>
-      <c r="F62" s="23"/>
-      <c r="G62" s="23"/>
-      <c r="H62" s="23"/>
-      <c r="I62" s="23"/>
-      <c r="J62" s="23"/>
+      <c r="B62" s="22"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="22"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="22"/>
+      <c r="G62" s="22"/>
+      <c r="H62" s="22"/>
+      <c r="I62" s="22"/>
+      <c r="J62" s="22"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
@@ -7589,8 +7775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7722315-F6D9-6E45-A3E1-A77E98ECE9F6}">
   <dimension ref="A1:L65"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="144" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="K66" sqref="K66"/>
+    <sheetView zoomScale="144" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7599,16 +7785,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
       <c r="I1" s="11" t="s">
         <v>27</v>
       </c>
@@ -7837,7 +8023,9 @@
       <c r="J7" s="3">
         <v>411.57</v>
       </c>
-      <c r="K7" s="22"/>
+      <c r="K7" s="21" t="s">
+        <v>60</v>
+      </c>
       <c r="L7" s="8"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -7871,22 +8059,24 @@
       <c r="J8" s="3">
         <v>147.69999999999999</v>
       </c>
-      <c r="K8" s="22"/>
+      <c r="K8" s="21" t="s">
+        <v>60</v>
+      </c>
       <c r="L8" s="8"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -8155,18 +8345,18 @@
       <c r="K18" s="14"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
@@ -8488,18 +8678,18 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
@@ -8573,18 +8763,18 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="23" t="s">
+      <c r="A35" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
@@ -8903,18 +9093,18 @@
       <c r="A46" s="8"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="23" t="s">
+      <c r="A47" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B47" s="23"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="23"/>
-      <c r="I47" s="23"/>
-      <c r="J47" s="23"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="22"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
@@ -9243,12 +9433,12 @@
       <c r="F56" s="14"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="23" t="s">
+      <c r="A58" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="B58" s="23"/>
-      <c r="C58" s="23"/>
-      <c r="D58" s="23"/>
+      <c r="B58" s="22"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="22"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
@@ -9265,18 +9455,18 @@
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" s="23" t="s">
+      <c r="A62" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B62" s="23"/>
-      <c r="C62" s="23"/>
-      <c r="D62" s="23"/>
-      <c r="E62" s="23"/>
-      <c r="F62" s="23"/>
-      <c r="G62" s="23"/>
-      <c r="H62" s="23"/>
-      <c r="I62" s="23"/>
-      <c r="J62" s="23"/>
+      <c r="B62" s="22"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="22"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="22"/>
+      <c r="G62" s="22"/>
+      <c r="H62" s="22"/>
+      <c r="I62" s="22"/>
+      <c r="J62" s="22"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
@@ -9410,12 +9600,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
       <c r="E1" s="11" t="s">
         <v>27</v>
       </c>
@@ -9582,14 +9772,14 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -9757,14 +9947,14 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
@@ -9962,14 +10152,14 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
@@ -10015,14 +10205,14 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="23" t="s">
+      <c r="A36" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
@@ -10225,14 +10415,14 @@
       <c r="A47" s="8"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="23" t="s">
+      <c r="A48" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B48" s="23"/>
-      <c r="C48" s="23"/>
-      <c r="D48" s="23"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="23"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
@@ -10437,12 +10627,12 @@
       <c r="F57" s="14"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="23" t="s">
+      <c r="A59" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B59" s="23"/>
-      <c r="C59" s="23"/>
-      <c r="D59" s="23"/>
+      <c r="B59" s="22"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="22"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
@@ -10459,14 +10649,14 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="23" t="s">
+      <c r="A63" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B63" s="23"/>
-      <c r="C63" s="23"/>
-      <c r="D63" s="23"/>
-      <c r="E63" s="23"/>
-      <c r="F63" s="23"/>
+      <c r="B63" s="22"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="22"/>
+      <c r="E63" s="22"/>
+      <c r="F63" s="22"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>

--- a/plot/system_evaluation/comparison.xlsx
+++ b/plot/system_evaluation/comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuboluo/Documents/PycharmProjects/SmartSwitch/plot/system_evaluation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4493FB98-EE7C-3149-8900-CD6661FE5484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1A51AFF-AE16-C147-9A94-A4DEFF228476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="920" windowWidth="28800" windowHeight="15860" activeTab="1" xr2:uid="{A33675B7-7F4F-C34D-AB6F-57998B81D61A}"/>
+    <workbookView xWindow="0" yWindow="920" windowWidth="28800" windowHeight="15860" xr2:uid="{A33675B7-7F4F-C34D-AB6F-57998B81D61A}"/>
   </bookViews>
   <sheets>
     <sheet name="accuracy" sheetId="1" r:id="rId1"/>
@@ -403,7 +403,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -432,22 +432,23 @@
     <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -764,8 +765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB8A6150-6557-DD49-A823-4DB21D694E8B}">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView zoomScale="138" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScale="138" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -775,18 +776,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -1036,19 +1037,123 @@
         <v>98.1</v>
       </c>
     </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <f>(MAX(B8,B6)-MIN(B8,B6))/MIN(B8,B6)*100</f>
+        <v>0.20100502512563098</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ref="C9:J9" si="2">(MAX(C8,C6)-MIN(C8,C6))/MIN(C8,C6)*100</f>
+        <v>2.9755579171094704</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="2"/>
+        <v>0.92975206611570838</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="2"/>
+        <v>2.0790020790020787</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>0.10204081632652481</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>0.82559339525283493</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>0.30581039755352846</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>1.4973262032085621</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="2"/>
+        <v>0.30674846625766583</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <f>(MAX(B8,B5)-MIN(B8,B5))/MIN(B8,B5)*100</f>
+        <v>1.7633907583656447</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ref="C10:J10" si="3">(MAX(C8,C5)-MIN(C8,C5))/MIN(C8,C5)*100</f>
+        <v>2.0602196245129405</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="3"/>
+        <v>1.2511843975364521</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="3"/>
+        <v>1.8698237960533222</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="3"/>
+        <v>1.2183019215311397</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <f>(MAX(B8,B4)-MIN(B8,B4))/MIN(B8,B4)*100</f>
+        <v>0.56815374582837908</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ref="C11:J11" si="4">(MAX(C8,C4)-MIN(C8,C4))/MIN(C8,C4)*100</f>
+        <v>1.5501594419755342</v>
+      </c>
+      <c r="D11">
+        <f>(MAX(D8,D4)-MIN(D8,D4))/MIN(D8,D4)*100</f>
+        <v>3.4184308841843292</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="4"/>
+        <v>2.0790020790020787</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="4"/>
+        <v>2.7187461525813044</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="4"/>
+        <v>0.19074420959297397</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="4"/>
+        <v>2.3676915125016844</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="4"/>
+        <v>1.0800117208056839</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="4"/>
+        <v>2.6222663134094133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I12">
+        <f>MAX(B9:J11)</f>
+        <v>3.4184308841843292</v>
+      </c>
+    </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
@@ -1177,24 +1282,24 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
@@ -1275,14 +1380,14 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1300,22 +1405,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37800737-DCBD-4E48-B8D1-0EDDFA6F61A2}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="132" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView zoomScale="132" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -1342,22 +1447,22 @@
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="27">
+      <c r="B3" s="24">
         <v>1328</v>
       </c>
-      <c r="C3" s="27">
+      <c r="C3" s="24">
         <v>1323</v>
       </c>
-      <c r="D3" s="27">
+      <c r="D3" s="24">
         <v>587.5</v>
       </c>
-      <c r="E3" s="27">
+      <c r="E3" s="24">
         <v>213.7</v>
       </c>
-      <c r="F3" s="27">
+      <c r="F3" s="24">
         <v>144</v>
       </c>
-      <c r="G3" s="27">
+      <c r="G3" s="24">
         <v>114.7</v>
       </c>
     </row>
@@ -1371,13 +1476,13 @@
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="24"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="8"/>
@@ -1407,46 +1512,46 @@
       <c r="G10" s="8"/>
     </row>
     <row r="13" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="26"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="26"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="26"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1459,10 +1564,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{951637E0-D5A3-6945-9708-8015501B2B41}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView zoomScale="131" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView topLeftCell="A3" zoomScale="131" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1472,14 +1577,14 @@
     <col min="3" max="3" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>54</v>
@@ -1488,7 +1593,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1498,8 +1603,9 @@
       <c r="C3" s="6">
         <v>9.48</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" s="28"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1509,8 +1615,9 @@
       <c r="C4" s="6">
         <v>0.66</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4" s="28"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -1520,8 +1627,9 @@
       <c r="C5" s="6">
         <v>9.44</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5" s="28"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>53</v>
       </c>
@@ -1531,15 +1639,23 @@
       <c r="C6" s="6">
         <v>4.1900000000000004</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="22" t="s">
+      <c r="D6" s="28">
+        <f>(C3-C6)/C3</f>
+        <v>0.55801687763713081</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D7" s="28"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="28"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>54</v>
@@ -1547,8 +1663,9 @@
       <c r="C9" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D9" s="28"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -1558,8 +1675,9 @@
       <c r="C10" s="6">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D10" s="28"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1569,8 +1687,9 @@
       <c r="C11" s="6">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D11" s="28"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
@@ -1580,8 +1699,9 @@
       <c r="C12" s="6">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D12" s="28"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>53</v>
       </c>
@@ -1591,15 +1711,23 @@
       <c r="C13" s="6">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="22" t="s">
+      <c r="D13" s="28">
+        <f>(C10-C13)/C10</f>
+        <v>0.53846153846153855</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D14" s="28"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="28"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
         <v>54</v>
@@ -1607,8 +1735,9 @@
       <c r="C16" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16" s="28"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>7</v>
       </c>
@@ -1618,8 +1747,9 @@
       <c r="C17" s="6">
         <v>99.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D17" s="28"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>6</v>
       </c>
@@ -1629,8 +1759,9 @@
       <c r="C18" s="6">
         <v>5.59</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D18" s="28"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -1640,8 +1771,9 @@
       <c r="C19" s="6">
         <v>99.08</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D19" s="28"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>53</v>
       </c>
@@ -1651,15 +1783,23 @@
       <c r="C20" s="6">
         <v>43.97</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="22" t="s">
+      <c r="D20" s="28">
+        <f>(C17-C20)/C17</f>
+        <v>0.55809045226130649</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D21" s="28"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="28"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
         <v>54</v>
@@ -1667,8 +1807,9 @@
       <c r="C23" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D23" s="28"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>7</v>
       </c>
@@ -1678,8 +1819,9 @@
       <c r="C24" s="6">
         <v>21.21</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D24" s="28"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>6</v>
       </c>
@@ -1689,8 +1831,9 @@
       <c r="C25" s="6">
         <v>1.47</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D25" s="28"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>16</v>
       </c>
@@ -1700,8 +1843,9 @@
       <c r="C26" s="6">
         <v>21.12</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D26" s="28"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>53</v>
       </c>
@@ -1710,6 +1854,10 @@
       </c>
       <c r="C27" s="6">
         <v>9.6199999999999992</v>
+      </c>
+      <c r="D27" s="28">
+        <f>(C24-C27)/C24</f>
+        <v>0.54644035832154647</v>
       </c>
     </row>
   </sheetData>
@@ -1737,12 +1885,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
       <c r="E1" s="11" t="s">
         <v>27</v>
       </c>
@@ -1909,14 +2057,14 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
@@ -2082,14 +2230,14 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
@@ -2135,14 +2283,14 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
@@ -2211,12 +2359,12 @@
       <c r="A31" s="8"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="22" t="s">
+      <c r="A33" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
@@ -2233,14 +2381,14 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="22" t="s">
+      <c r="A37" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
@@ -2323,8 +2471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A77F0FD-FF90-6947-BEE6-0880C6726156}">
   <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="144" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView zoomScale="144" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2333,16 +2481,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
       <c r="I1" s="11" t="s">
         <v>27</v>
       </c>
@@ -2611,18 +2759,18 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -2891,18 +3039,18 @@
       <c r="K18" s="14"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
@@ -3224,18 +3372,18 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="22" t="s">
+      <c r="A30" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
@@ -3309,18 +3457,18 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="22" t="s">
+      <c r="A35" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="22"/>
-      <c r="J35" s="22"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
@@ -3639,18 +3787,18 @@
       <c r="A46" s="8"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="22" t="s">
+      <c r="A47" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B47" s="22"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="22"/>
-      <c r="J47" s="22"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="25"/>
+      <c r="J47" s="25"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
@@ -3970,7 +4118,7 @@
         <f t="shared" si="10"/>
         <v>144.60400000000001</v>
       </c>
-      <c r="K55" s="25"/>
+      <c r="K55" s="23"/>
     </row>
     <row r="56" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B56" s="14"/>
@@ -3985,12 +4133,12 @@
       <c r="K56" s="14"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A58" s="22" t="s">
+      <c r="A58" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B58" s="22"/>
-      <c r="C58" s="22"/>
-      <c r="D58" s="22"/>
+      <c r="B58" s="25"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="25"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
@@ -4007,18 +4155,18 @@
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A62" s="22" t="s">
+      <c r="A62" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B62" s="22"/>
-      <c r="C62" s="22"/>
-      <c r="D62" s="22"/>
-      <c r="E62" s="22"/>
-      <c r="F62" s="22"/>
-      <c r="G62" s="22"/>
-      <c r="H62" s="22"/>
-      <c r="I62" s="22"/>
-      <c r="J62" s="22"/>
+      <c r="B62" s="25"/>
+      <c r="C62" s="25"/>
+      <c r="D62" s="25"/>
+      <c r="E62" s="25"/>
+      <c r="F62" s="25"/>
+      <c r="G62" s="25"/>
+      <c r="H62" s="25"/>
+      <c r="I62" s="25"/>
+      <c r="J62" s="25"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
@@ -4145,8 +4293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4E9899-3E04-0747-82E9-ACEDBE639FB7}">
   <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" zoomScale="144" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="L50" sqref="L50"/>
+    <sheetView zoomScale="144" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4155,16 +4303,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
       <c r="I1" s="11" t="s">
         <v>27</v>
       </c>
@@ -4433,18 +4581,18 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -4713,18 +4861,18 @@
       <c r="K18" s="14"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
@@ -5046,18 +5194,18 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="22" t="s">
+      <c r="A30" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
@@ -5131,18 +5279,18 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="22" t="s">
+      <c r="A35" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="22"/>
-      <c r="J35" s="22"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
@@ -5461,18 +5609,18 @@
       <c r="A46" s="8"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="22" t="s">
+      <c r="A47" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B47" s="22"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="22"/>
-      <c r="J47" s="22"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="25"/>
+      <c r="J47" s="25"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
@@ -5805,12 +5953,12 @@
       <c r="F56" s="14"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A58" s="22" t="s">
+      <c r="A58" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B58" s="22"/>
-      <c r="C58" s="22"/>
-      <c r="D58" s="22"/>
+      <c r="B58" s="25"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="25"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
@@ -5827,18 +5975,18 @@
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A62" s="22" t="s">
+      <c r="A62" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B62" s="22"/>
-      <c r="C62" s="22"/>
-      <c r="D62" s="22"/>
-      <c r="E62" s="22"/>
-      <c r="F62" s="22"/>
-      <c r="G62" s="22"/>
-      <c r="H62" s="22"/>
-      <c r="I62" s="22"/>
-      <c r="J62" s="22"/>
+      <c r="B62" s="25"/>
+      <c r="C62" s="25"/>
+      <c r="D62" s="25"/>
+      <c r="E62" s="25"/>
+      <c r="F62" s="25"/>
+      <c r="G62" s="25"/>
+      <c r="H62" s="25"/>
+      <c r="I62" s="25"/>
+      <c r="J62" s="25"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
@@ -5963,7 +6111,7 @@
   <dimension ref="A1:K65"/>
   <sheetViews>
     <sheetView zoomScale="144" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5972,16 +6120,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
       <c r="I1" s="11" t="s">
         <v>27</v>
       </c>
@@ -6250,18 +6398,18 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -6530,18 +6678,18 @@
       <c r="K18" s="14"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
@@ -6863,18 +7011,18 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="22" t="s">
+      <c r="A30" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
@@ -6948,18 +7096,18 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="22" t="s">
+      <c r="A35" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="22"/>
-      <c r="J35" s="22"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
@@ -7278,18 +7426,18 @@
       <c r="A46" s="8"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="22" t="s">
+      <c r="A47" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B47" s="22"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="22"/>
-      <c r="J47" s="22"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="25"/>
+      <c r="J47" s="25"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
@@ -7618,12 +7766,12 @@
       <c r="F56" s="14"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="22" t="s">
+      <c r="A58" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="B58" s="22"/>
-      <c r="C58" s="22"/>
-      <c r="D58" s="22"/>
+      <c r="B58" s="25"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="25"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
@@ -7640,18 +7788,18 @@
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" s="22" t="s">
+      <c r="A62" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B62" s="22"/>
-      <c r="C62" s="22"/>
-      <c r="D62" s="22"/>
-      <c r="E62" s="22"/>
-      <c r="F62" s="22"/>
-      <c r="G62" s="22"/>
-      <c r="H62" s="22"/>
-      <c r="I62" s="22"/>
-      <c r="J62" s="22"/>
+      <c r="B62" s="25"/>
+      <c r="C62" s="25"/>
+      <c r="D62" s="25"/>
+      <c r="E62" s="25"/>
+      <c r="F62" s="25"/>
+      <c r="G62" s="25"/>
+      <c r="H62" s="25"/>
+      <c r="I62" s="25"/>
+      <c r="J62" s="25"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
@@ -7776,7 +7924,7 @@
   <dimension ref="A1:L65"/>
   <sheetViews>
     <sheetView zoomScale="144" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="L9" sqref="B9:L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7785,16 +7933,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
       <c r="I1" s="11" t="s">
         <v>27</v>
       </c>
@@ -8065,18 +8213,18 @@
       <c r="L8" s="8"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -8345,18 +8493,18 @@
       <c r="K18" s="14"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
@@ -8678,18 +8826,18 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="22" t="s">
+      <c r="A30" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
@@ -8763,18 +8911,18 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="22" t="s">
+      <c r="A35" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="22"/>
-      <c r="J35" s="22"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
@@ -9093,18 +9241,18 @@
       <c r="A46" s="8"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="22" t="s">
+      <c r="A47" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B47" s="22"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="22"/>
-      <c r="J47" s="22"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="25"/>
+      <c r="J47" s="25"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
@@ -9433,12 +9581,12 @@
       <c r="F56" s="14"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="22" t="s">
+      <c r="A58" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="B58" s="22"/>
-      <c r="C58" s="22"/>
-      <c r="D58" s="22"/>
+      <c r="B58" s="25"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="25"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
@@ -9455,18 +9603,18 @@
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" s="22" t="s">
+      <c r="A62" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B62" s="22"/>
-      <c r="C62" s="22"/>
-      <c r="D62" s="22"/>
-      <c r="E62" s="22"/>
-      <c r="F62" s="22"/>
-      <c r="G62" s="22"/>
-      <c r="H62" s="22"/>
-      <c r="I62" s="22"/>
-      <c r="J62" s="22"/>
+      <c r="B62" s="25"/>
+      <c r="C62" s="25"/>
+      <c r="D62" s="25"/>
+      <c r="E62" s="25"/>
+      <c r="F62" s="25"/>
+      <c r="G62" s="25"/>
+      <c r="H62" s="25"/>
+      <c r="I62" s="25"/>
+      <c r="J62" s="25"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
@@ -9600,12 +9748,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
       <c r="E1" s="11" t="s">
         <v>27</v>
       </c>
@@ -9772,14 +9920,14 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -9947,14 +10095,14 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
@@ -10152,14 +10300,14 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
@@ -10205,14 +10353,14 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="22" t="s">
+      <c r="A36" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
@@ -10415,14 +10563,14 @@
       <c r="A47" s="8"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="22" t="s">
+      <c r="A48" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B48" s="22"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="22"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
@@ -10627,12 +10775,12 @@
       <c r="F57" s="14"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="22" t="s">
+      <c r="A59" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B59" s="22"/>
-      <c r="C59" s="22"/>
-      <c r="D59" s="22"/>
+      <c r="B59" s="25"/>
+      <c r="C59" s="25"/>
+      <c r="D59" s="25"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
@@ -10649,14 +10797,14 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="22" t="s">
+      <c r="A63" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B63" s="22"/>
-      <c r="C63" s="22"/>
-      <c r="D63" s="22"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="22"/>
+      <c r="B63" s="25"/>
+      <c r="C63" s="25"/>
+      <c r="D63" s="25"/>
+      <c r="E63" s="25"/>
+      <c r="F63" s="25"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>

--- a/plot/system_evaluation/comparison.xlsx
+++ b/plot/system_evaluation/comparison.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuboluo/Documents/PycharmProjects/SmartSwitch/plot/system_evaluation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1A51AFF-AE16-C147-9A94-A4DEFF228476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF769A3-72B6-7E43-A6CE-1666F548BD3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="920" windowWidth="28800" windowHeight="15860" xr2:uid="{A33675B7-7F4F-C34D-AB6F-57998B81D61A}"/>
+    <workbookView xWindow="-2400" yWindow="-20400" windowWidth="29400" windowHeight="17140" activeTab="2" xr2:uid="{A33675B7-7F4F-C34D-AB6F-57998B81D61A}"/>
   </bookViews>
   <sheets>
     <sheet name="accuracy" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,11 @@
     <sheet name="timeoverhead_backup" sheetId="3" state="hidden" r:id="rId4"/>
     <sheet name="timeoverhead_msp" sheetId="4" r:id="rId5"/>
     <sheet name="timeoverhead_pico" sheetId="6" r:id="rId6"/>
-    <sheet name="energyoverhead_msp" sheetId="8" r:id="rId7"/>
-    <sheet name="energyoverhead_pico" sheetId="9" r:id="rId8"/>
-    <sheet name="timeoverhead-task=5" sheetId="5" state="hidden" r:id="rId9"/>
+    <sheet name="timeoverhead_portenta" sheetId="11" r:id="rId7"/>
+    <sheet name="energyoverhead_portenta" sheetId="12" r:id="rId8"/>
+    <sheet name="energyoverhead_msp" sheetId="8" r:id="rId9"/>
+    <sheet name="energyoverhead_pico" sheetId="9" r:id="rId10"/>
+    <sheet name="timeoverhead-task=5" sheetId="5" state="hidden" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,9 +33,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -41,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="71">
   <si>
     <t>MNIST</t>
   </si>
@@ -211,18 +216,6 @@
     <t>Switching</t>
   </si>
   <si>
-    <t>Overhead breakdown - timeoverhead_msp</t>
-  </si>
-  <si>
-    <t>Overhead breakdown - energyoverhead_msp</t>
-  </si>
-  <si>
-    <t>Overhead breakdown - timeoverhead_pico</t>
-  </si>
-  <si>
-    <t>Overhead breakdown - energyoverhead_pico</t>
-  </si>
-  <si>
     <t xml:space="preserve">HHAR has only 6 tasks, we use a 1.667 multiplier. This result is after the multiplier is imposed </t>
   </si>
   <si>
@@ -317,15 +310,55 @@
       <t xml:space="preserve"> is calculated by only sharing the first layer.</t>
     </r>
   </si>
+  <si>
+    <t>Joey implemented</t>
+  </si>
+  <si>
+    <t>MSP is the same as Sensys</t>
+  </si>
+  <si>
+    <t>Overhead breakdown - timeoverhead_msp (s)</t>
+  </si>
+  <si>
+    <t>Overhead breakdown - timeoverhead_pico (s)</t>
+  </si>
+  <si>
+    <t>Overhead breakdown - timeoverhead_portenta (s)</t>
+  </si>
+  <si>
+    <t>Overhead breakdown - energyoverhead_msp (mJ)</t>
+  </si>
+  <si>
+    <t>Overhead breakdown - energyoverhead_pico (mJ)</t>
+  </si>
+  <si>
+    <t>Overhead breakdown - energyoverhead_portenta (mJ)</t>
+  </si>
+  <si>
+    <t>inference ratio = 16.57</t>
+  </si>
+  <si>
+    <t>switching ratio = 52.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">divide pico results by a ratio </t>
+  </si>
+  <si>
+    <t>multiply pico time with our own measured power</t>
+  </si>
+  <si>
+    <t>V_mcu = 3.3V, power = 99.6mW</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.00;[Red]0.00"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -403,7 +436,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -439,6 +472,9 @@
     <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -448,7 +484,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -765,8 +801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB8A6150-6557-DD49-A823-4DB21D694E8B}">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="138" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView zoomScale="138" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -776,18 +812,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -819,45 +855,39 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="3">
-        <f>B15/B17*B6</f>
-        <v>94.182435858432214</v>
+        <v>98.23</v>
       </c>
       <c r="C3" s="3">
-        <f>C15/C17*C6</f>
-        <v>68.88574600971549</v>
+        <v>76.73</v>
       </c>
       <c r="D3" s="3">
-        <f>D15/D17*D6</f>
-        <v>86.716666666666654</v>
+        <v>94.07</v>
       </c>
       <c r="E3" s="3">
-        <f>E15/E17*E6</f>
-        <v>93.786516853932582</v>
+        <v>98.67</v>
       </c>
       <c r="F3" s="3">
-        <f>F15/F17*F6</f>
-        <v>74.790867333153201</v>
+        <v>97.16</v>
       </c>
       <c r="G3" s="3">
-        <f t="shared" ref="G3:J3" si="0">G15/G17*G6</f>
-        <v>94.488663594470054</v>
+        <v>93.2</v>
       </c>
       <c r="H3" s="3">
-        <f t="shared" si="0"/>
-        <v>85.005243807267235</v>
+        <v>74.260000000000005</v>
       </c>
       <c r="I3" s="3">
-        <f t="shared" si="0"/>
-        <v>83.871585405818735</v>
+        <v>89</v>
       </c>
       <c r="J3" s="3">
-        <f t="shared" si="0"/>
-        <v>87.490879225440267</v>
+        <v>91.81</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -885,19 +915,19 @@
         <v>100.76708997568225</v>
       </c>
       <c r="G4" s="3">
-        <f t="shared" ref="G4:J4" si="1">G16/G17*G6</f>
+        <f t="shared" ref="G4:J4" si="0">G16/G17*G6</f>
         <v>97.513997695852538</v>
       </c>
       <c r="H4" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>95.831017140812932</v>
       </c>
       <c r="I4" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>92.500978589374796</v>
       </c>
       <c r="J4" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>95.593289374843494</v>
       </c>
     </row>
@@ -1043,35 +1073,35 @@
         <v>0.20100502512563098</v>
       </c>
       <c r="C9">
-        <f t="shared" ref="C9:J9" si="2">(MAX(C8,C6)-MIN(C8,C6))/MIN(C8,C6)*100</f>
+        <f t="shared" ref="C9:J9" si="1">(MAX(C8,C6)-MIN(C8,C6))/MIN(C8,C6)*100</f>
         <v>2.9755579171094704</v>
       </c>
       <c r="D9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.92975206611570838</v>
       </c>
       <c r="E9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.0790020790020787</v>
       </c>
       <c r="F9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.10204081632652481</v>
       </c>
       <c r="G9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.82559339525283493</v>
       </c>
       <c r="H9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.30581039755352846</v>
       </c>
       <c r="I9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.4973262032085621</v>
       </c>
       <c r="J9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.30674846625766583</v>
       </c>
     </row>
@@ -1081,19 +1111,19 @@
         <v>1.7633907583656447</v>
       </c>
       <c r="C10">
-        <f t="shared" ref="C10:J10" si="3">(MAX(C8,C5)-MIN(C8,C5))/MIN(C8,C5)*100</f>
+        <f t="shared" ref="C10:F10" si="2">(MAX(C8,C5)-MIN(C8,C5))/MIN(C8,C5)*100</f>
         <v>2.0602196245129405</v>
       </c>
       <c r="D10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.2511843975364521</v>
       </c>
       <c r="E10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.8698237960533222</v>
       </c>
       <c r="F10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.2183019215311397</v>
       </c>
     </row>
@@ -1103,7 +1133,7 @@
         <v>0.56815374582837908</v>
       </c>
       <c r="C11">
-        <f t="shared" ref="C11:J11" si="4">(MAX(C8,C4)-MIN(C8,C4))/MIN(C8,C4)*100</f>
+        <f t="shared" ref="C11:J11" si="3">(MAX(C8,C4)-MIN(C8,C4))/MIN(C8,C4)*100</f>
         <v>1.5501594419755342</v>
       </c>
       <c r="D11">
@@ -1111,27 +1141,27 @@
         <v>3.4184308841843292</v>
       </c>
       <c r="E11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2.0790020790020787</v>
       </c>
       <c r="F11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2.7187461525813044</v>
       </c>
       <c r="G11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.19074420959297397</v>
       </c>
       <c r="H11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2.3676915125016844</v>
       </c>
       <c r="I11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.0800117208056839</v>
       </c>
       <c r="J11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2.6222663134094133</v>
       </c>
     </row>
@@ -1142,18 +1172,18 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
@@ -1282,24 +1312,24 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
@@ -1380,14 +1410,14 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="26" t="s">
+      <c r="A27" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1396,6 +1426,2971 @@
     <mergeCell ref="A18:F18"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A13:J13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7722315-F6D9-6E45-A3E1-A77E98ECE9F6}">
+  <dimension ref="A1:L65"/>
+  <sheetViews>
+    <sheetView zoomScale="144" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="L9" sqref="B9:L9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="6">
+        <f>B18*J1</f>
+        <v>411.70000000000005</v>
+      </c>
+      <c r="C3" s="6">
+        <f>C18*J1</f>
+        <v>696.40000000000009</v>
+      </c>
+      <c r="D3" s="6">
+        <f>D18*J1</f>
+        <v>696.40000000000009</v>
+      </c>
+      <c r="E3" s="6">
+        <f>E18*J1</f>
+        <v>720.5</v>
+      </c>
+      <c r="F3" s="6">
+        <f>F18*J1</f>
+        <v>523.69999999999993</v>
+      </c>
+      <c r="G3" s="6">
+        <f>G18*J1</f>
+        <v>571.6</v>
+      </c>
+      <c r="H3" s="6">
+        <f>H18*J1</f>
+        <v>385.3</v>
+      </c>
+      <c r="I3" s="6">
+        <f>I18*J1</f>
+        <v>383.79999999999995</v>
+      </c>
+      <c r="J3" s="6">
+        <f>J18*J1</f>
+        <v>416.50000000000006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="6">
+        <f>B18*J1 +B65*J1</f>
+        <v>413.98832187500005</v>
+      </c>
+      <c r="C4" s="6">
+        <f>C18*J1 +C65*J1</f>
+        <v>696.72576250000009</v>
+      </c>
+      <c r="D4" s="6">
+        <f>D18*J1 +D65*J1</f>
+        <v>700.3235218750001</v>
+      </c>
+      <c r="E4" s="6">
+        <f>E18*J1 +E65*J1</f>
+        <v>722.29808125</v>
+      </c>
+      <c r="F4" s="6">
+        <f>F18*J1+F65*J1</f>
+        <v>524.02576249999993</v>
+      </c>
+      <c r="G4" s="6">
+        <f>G18*J1+G65*J1</f>
+        <v>573.56096250000007</v>
+      </c>
+      <c r="H4" s="6">
+        <f>H18*J1+H65*J1</f>
+        <v>387.26096250000001</v>
+      </c>
+      <c r="I4" s="6">
+        <f>I18*J1+I65*J1</f>
+        <v>384.29024062499997</v>
+      </c>
+      <c r="J4" s="6">
+        <f>J18*J1+J65*J1</f>
+        <v>416.66288125000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="6">
+        <f>B18*J1 + 0.024*J1</f>
+        <v>411.94000000000005</v>
+      </c>
+      <c r="C5" s="6">
+        <f>C18*J1 + 0.024*J1</f>
+        <v>696.6400000000001</v>
+      </c>
+      <c r="D5" s="6">
+        <f>D18*J1 + 0.024*J1</f>
+        <v>696.6400000000001</v>
+      </c>
+      <c r="E5" s="6">
+        <f>E18*J1 + 0.024*J1</f>
+        <v>720.74</v>
+      </c>
+      <c r="F5" s="6">
+        <f>F18*J1 + 0.024*J1</f>
+        <v>523.93999999999994</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="6">
+        <f>B18*J1 + B32*J1</f>
+        <v>432.58776375000002</v>
+      </c>
+      <c r="C6" s="6">
+        <f>C18*J1 + C32*J1</f>
+        <v>717.05398125000011</v>
+      </c>
+      <c r="D6" s="6">
+        <f>D18*J1 + D32*J1</f>
+        <v>717.05398125000011</v>
+      </c>
+      <c r="E6" s="6">
+        <f>E18*J1 + E32*J1</f>
+        <v>742.55475999999999</v>
+      </c>
+      <c r="F6" s="6">
+        <f>F18*J1 + F32*J1</f>
+        <v>546.37434749999989</v>
+      </c>
+      <c r="G6" s="6">
+        <f>G18*J1 + G32*J1</f>
+        <v>593.94539125000006</v>
+      </c>
+      <c r="H6" s="6">
+        <f>H18*J1 + H32*J1</f>
+        <v>405.76363375</v>
+      </c>
+      <c r="I6" s="6">
+        <f>I18*J1 + I32*J1</f>
+        <v>401.83127374999998</v>
+      </c>
+      <c r="J6" s="6">
+        <f>J18*J1 + J32*J1</f>
+        <v>439.59145125000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="6">
+        <v>379.43666374999998</v>
+      </c>
+      <c r="C7" s="6">
+        <v>531.51090124999996</v>
+      </c>
+      <c r="D7" s="6">
+        <v>531.51090124999996</v>
+      </c>
+      <c r="E7" s="6">
+        <v>547.21167999999898</v>
+      </c>
+      <c r="F7" s="6">
+        <v>397.70571749999999</v>
+      </c>
+      <c r="G7" s="3">
+        <v>516.76874124999995</v>
+      </c>
+      <c r="H7" s="3">
+        <v>368.63808375000002</v>
+      </c>
+      <c r="I7" s="3">
+        <v>364.305723749999</v>
+      </c>
+      <c r="J7" s="3">
+        <v>411.57</v>
+      </c>
+      <c r="K7" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="L7" s="8"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="6">
+        <v>99.625481749999906</v>
+      </c>
+      <c r="C8" s="6">
+        <v>175.69336675</v>
+      </c>
+      <c r="D8" s="6">
+        <v>175.69336675</v>
+      </c>
+      <c r="E8" s="6">
+        <v>182.75414549999999</v>
+      </c>
+      <c r="F8" s="6">
+        <v>162.12954550000001</v>
+      </c>
+      <c r="G8" s="3">
+        <v>258.99036749999999</v>
+      </c>
+      <c r="H8" s="3">
+        <v>147.81978974999899</v>
+      </c>
+      <c r="I8" s="3">
+        <v>88.572379749999996</v>
+      </c>
+      <c r="J8" s="3">
+        <v>147.69999999999999</v>
+      </c>
+      <c r="K8" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="L8" s="8"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>1</v>
+      </c>
+      <c r="B12" s="12">
+        <v>5.31</v>
+      </c>
+      <c r="C12" s="12">
+        <v>18.54</v>
+      </c>
+      <c r="D12" s="12">
+        <v>18.54</v>
+      </c>
+      <c r="E12" s="12">
+        <v>19.52</v>
+      </c>
+      <c r="F12" s="12">
+        <v>14.85</v>
+      </c>
+      <c r="G12" s="12">
+        <v>7.71</v>
+      </c>
+      <c r="H12" s="12">
+        <v>3.71</v>
+      </c>
+      <c r="I12" s="12">
+        <v>3.75</v>
+      </c>
+      <c r="J12" s="12">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>2</v>
+      </c>
+      <c r="B13" s="12">
+        <v>26.29</v>
+      </c>
+      <c r="C13" s="12">
+        <v>37.49</v>
+      </c>
+      <c r="D13" s="12">
+        <v>37.49</v>
+      </c>
+      <c r="E13" s="12">
+        <v>37.549999999999997</v>
+      </c>
+      <c r="F13" s="12">
+        <v>33.450000000000003</v>
+      </c>
+      <c r="G13" s="12">
+        <v>39.020000000000003</v>
+      </c>
+      <c r="H13" s="12">
+        <v>20.07</v>
+      </c>
+      <c r="I13" s="12">
+        <v>20.18</v>
+      </c>
+      <c r="J13" s="12">
+        <v>15.63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>3</v>
+      </c>
+      <c r="B14" s="12">
+        <v>6.3</v>
+      </c>
+      <c r="C14" s="12">
+        <v>10.71</v>
+      </c>
+      <c r="D14" s="12">
+        <v>10.71</v>
+      </c>
+      <c r="E14" s="12">
+        <v>11.93</v>
+      </c>
+      <c r="F14" s="12">
+        <v>2.84</v>
+      </c>
+      <c r="G14" s="12">
+        <v>7.11</v>
+      </c>
+      <c r="H14" s="12">
+        <v>10.71</v>
+      </c>
+      <c r="I14" s="12">
+        <v>11.03</v>
+      </c>
+      <c r="J14" s="12">
+        <v>19.05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>4</v>
+      </c>
+      <c r="B15" s="12">
+        <v>0.92</v>
+      </c>
+      <c r="C15" s="12">
+        <v>1.68</v>
+      </c>
+      <c r="D15" s="12">
+        <v>1.68</v>
+      </c>
+      <c r="E15" s="12">
+        <v>1.83</v>
+      </c>
+      <c r="F15" s="12">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G15" s="12">
+        <v>0.99</v>
+      </c>
+      <c r="H15" s="12">
+        <v>3.46</v>
+      </c>
+      <c r="I15" s="12">
+        <v>3.34</v>
+      </c>
+      <c r="J15" s="12">
+        <v>4.13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>5</v>
+      </c>
+      <c r="B16" s="12">
+        <v>2.27</v>
+      </c>
+      <c r="C16" s="12">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="D16" s="12">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="E16" s="12">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="F16" s="12">
+        <v>0.08</v>
+      </c>
+      <c r="G16" s="12">
+        <v>2.25</v>
+      </c>
+      <c r="H16" s="12">
+        <v>0.54</v>
+      </c>
+      <c r="I16" s="12">
+        <v>0.08</v>
+      </c>
+      <c r="J16" s="12">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <v>6</v>
+      </c>
+      <c r="B17" s="12">
+        <v>0.08</v>
+      </c>
+      <c r="C17" s="12">
+        <v>0.08</v>
+      </c>
+      <c r="D17" s="12">
+        <v>0.08</v>
+      </c>
+      <c r="E17" s="12">
+        <v>0.08</v>
+      </c>
+      <c r="F17" s="12">
+        <v>0</v>
+      </c>
+      <c r="G17" s="12">
+        <v>0.08</v>
+      </c>
+      <c r="H17" s="12">
+        <v>0.04</v>
+      </c>
+      <c r="I17" s="12">
+        <v>0</v>
+      </c>
+      <c r="J17" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="12">
+        <f>SUM(B12:B17)</f>
+        <v>41.17</v>
+      </c>
+      <c r="C18" s="12">
+        <f t="shared" ref="C18:J18" si="0">SUM(C12:C17)</f>
+        <v>69.640000000000015</v>
+      </c>
+      <c r="D18" s="12">
+        <f t="shared" si="0"/>
+        <v>69.640000000000015</v>
+      </c>
+      <c r="E18" s="12">
+        <f t="shared" si="0"/>
+        <v>72.05</v>
+      </c>
+      <c r="F18" s="12">
+        <f t="shared" si="0"/>
+        <v>52.37</v>
+      </c>
+      <c r="G18" s="12">
+        <f t="shared" si="0"/>
+        <v>57.160000000000004</v>
+      </c>
+      <c r="H18" s="12">
+        <f t="shared" si="0"/>
+        <v>38.53</v>
+      </c>
+      <c r="I18" s="12">
+        <f t="shared" si="0"/>
+        <v>38.379999999999995</v>
+      </c>
+      <c r="J18" s="12">
+        <f t="shared" si="0"/>
+        <v>41.650000000000006</v>
+      </c>
+      <c r="K18" s="14"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="I21" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="J21" s="17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
+        <v>1</v>
+      </c>
+      <c r="B22" s="16">
+        <f>B49/B59*D59</f>
+        <v>5.11E-3</v>
+      </c>
+      <c r="C22" s="16">
+        <f>C49/B59*D59</f>
+        <v>1.4308000000000001E-2</v>
+      </c>
+      <c r="D22" s="16">
+        <f>D49/B59*D59</f>
+        <v>1.4308000000000001E-2</v>
+      </c>
+      <c r="E22" s="16">
+        <f>E49/B59*D59</f>
+        <v>1.4308000000000001E-2</v>
+      </c>
+      <c r="F22" s="16">
+        <f>F49/B59*D59</f>
+        <v>1.6863E-2</v>
+      </c>
+      <c r="G22" s="16">
+        <f>G49/B59*D59</f>
+        <v>7.6649999999999999E-3</v>
+      </c>
+      <c r="H22" s="16">
+        <f>H49/B59*D59</f>
+        <v>2.555E-3</v>
+      </c>
+      <c r="I22" s="16">
+        <f>I49/B59*D59</f>
+        <v>2.555E-3</v>
+      </c>
+      <c r="J22" s="16">
+        <f>J49/B59*D59</f>
+        <v>2.2994999999999999E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
+        <v>2</v>
+      </c>
+      <c r="B23" s="16">
+        <f>B50/B59*D59</f>
+        <v>0.14818999999999999</v>
+      </c>
+      <c r="C23" s="16">
+        <f>C50/B59*D59</f>
+        <v>0.14818999999999999</v>
+      </c>
+      <c r="D23" s="16">
+        <f>D50/B59*D59</f>
+        <v>0.14818999999999999</v>
+      </c>
+      <c r="E23" s="16">
+        <f>E50/B59*D59</f>
+        <v>0.14818999999999999</v>
+      </c>
+      <c r="F23" s="16">
+        <f>F50/B59*D59</f>
+        <v>0.262654</v>
+      </c>
+      <c r="G23" s="16">
+        <f>G50/B59*D59</f>
+        <v>0.221774</v>
+      </c>
+      <c r="H23" s="16">
+        <f>H50/B59*D59</f>
+        <v>3.7302999999999996E-2</v>
+      </c>
+      <c r="I23" s="16">
+        <f>I50/B59*D59</f>
+        <v>3.7302999999999996E-2</v>
+      </c>
+      <c r="J23" s="16">
+        <f>J50/B59*D59</f>
+        <v>6.6430000000000003E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
+        <v>3</v>
+      </c>
+      <c r="B24" s="16">
+        <f>B51/B59*D59</f>
+        <v>0.44303700000000001</v>
+      </c>
+      <c r="C24" s="16">
+        <f>C51/B59*D59</f>
+        <v>0.47995675000000004</v>
+      </c>
+      <c r="D24" s="16">
+        <f>D51/B59*D59</f>
+        <v>0.47995675000000004</v>
+      </c>
+      <c r="E24" s="16">
+        <f>E51/B59*D59</f>
+        <v>0.47995675000000004</v>
+      </c>
+      <c r="F24" s="16">
+        <f>F51/B59*D59</f>
+        <v>1.3122480000000001</v>
+      </c>
+      <c r="G24" s="16">
+        <f>G51/B59*D59</f>
+        <v>0.47995675000000004</v>
+      </c>
+      <c r="H24" s="16">
+        <f>H51/B59*D59</f>
+        <v>0.14818999999999999</v>
+      </c>
+      <c r="I24" s="16">
+        <f>I51/B59*D59</f>
+        <v>0.14818999999999999</v>
+      </c>
+      <c r="J24" s="16">
+        <f>J51/B59*D59</f>
+        <v>0.26367600000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
+        <v>4</v>
+      </c>
+      <c r="B25" s="16">
+        <f>B52/B59*D59</f>
+        <v>0.40062400000000004</v>
+      </c>
+      <c r="C25" s="16">
+        <f>C52/B59*D59</f>
+        <v>0.85439199999999993</v>
+      </c>
+      <c r="D25" s="16">
+        <f>D52/B59*D59</f>
+        <v>0.85439199999999993</v>
+      </c>
+      <c r="E25" s="16">
+        <f>E52/B59*D59</f>
+        <v>0.85439199999999993</v>
+      </c>
+      <c r="F25" s="16">
+        <f>F52/B59*D59</f>
+        <v>0.52735200000000004</v>
+      </c>
+      <c r="G25" s="16">
+        <f>G52/B59*D59</f>
+        <v>0.43332799999999999</v>
+      </c>
+      <c r="H25" s="16">
+        <f>H52/B59*D59</f>
+        <v>1.5738800000000002</v>
+      </c>
+      <c r="I25" s="16">
+        <f>I52/B59*D59</f>
+        <v>1.5738800000000002</v>
+      </c>
+      <c r="J25" s="16">
+        <f>J52/B59*D59</f>
+        <v>1.9642839999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="4">
+        <v>5</v>
+      </c>
+      <c r="B26" s="16">
+        <f>B53/B59*D59</f>
+        <v>1.050616</v>
+      </c>
+      <c r="C26" s="16">
+        <f>C53/B59*D59</f>
+        <v>0.52735200000000004</v>
+      </c>
+      <c r="D26" s="16">
+        <f>D53/B59*D59</f>
+        <v>0.52735200000000004</v>
+      </c>
+      <c r="E26" s="16">
+        <f>E53/B59*D59</f>
+        <v>0.52735200000000004</v>
+      </c>
+      <c r="F26" s="16">
+        <f>F53/B59*D59</f>
+        <v>0.14831775</v>
+      </c>
+      <c r="G26" s="16">
+        <f>G53/B59*D59</f>
+        <v>1.050616</v>
+      </c>
+      <c r="H26" s="16">
+        <f>H53/B59*D59</f>
+        <v>0.26367600000000002</v>
+      </c>
+      <c r="I26" s="16">
+        <f>I53/B59*D59</f>
+        <v>4.1199375000000003E-2</v>
+      </c>
+      <c r="J26" s="16">
+        <f>J53/B59*D59</f>
+        <v>1.2455625000000001E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="4">
+        <v>6</v>
+      </c>
+      <c r="B27" s="16">
+        <f>B54/B59*D59</f>
+        <v>4.1199375000000003E-2</v>
+      </c>
+      <c r="C27" s="16">
+        <f>C54/B59*D59</f>
+        <v>4.1199375000000003E-2</v>
+      </c>
+      <c r="D27" s="16">
+        <f>D54/B59*D59</f>
+        <v>4.1199375000000003E-2</v>
+      </c>
+      <c r="E27" s="16">
+        <f>E54/B59*D59</f>
+        <v>0.18127725</v>
+      </c>
+      <c r="F27" s="16">
+        <f>F54/B59*D59</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="16">
+        <f>G54/B59*D59</f>
+        <v>4.1199375000000003E-2</v>
+      </c>
+      <c r="H27" s="16">
+        <f>H54/B59*D59</f>
+        <v>2.0759375E-2</v>
+      </c>
+      <c r="I27" s="16">
+        <f>I54/B59*D59</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="16">
+        <f>J54/B59*D59</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="16">
+        <f>SUM(B22:B27)</f>
+        <v>2.0887763750000001</v>
+      </c>
+      <c r="C28" s="16">
+        <f t="shared" ref="C28:I28" si="1">SUM(C22:C27)</f>
+        <v>2.0653981250000002</v>
+      </c>
+      <c r="D28" s="16">
+        <f t="shared" si="1"/>
+        <v>2.0653981250000002</v>
+      </c>
+      <c r="E28" s="16">
+        <f t="shared" si="1"/>
+        <v>2.205476</v>
+      </c>
+      <c r="F28" s="16">
+        <f t="shared" si="1"/>
+        <v>2.2674347500000001</v>
+      </c>
+      <c r="G28" s="16">
+        <f>SUM(G22:G27)</f>
+        <v>2.234539125</v>
+      </c>
+      <c r="H28" s="16">
+        <f t="shared" si="1"/>
+        <v>2.0463633750000003</v>
+      </c>
+      <c r="I28" s="16">
+        <f t="shared" si="1"/>
+        <v>1.8031273750000001</v>
+      </c>
+      <c r="J28" s="16">
+        <f>SUM(J22:J27)</f>
+        <v>2.3091451249999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G31" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="H31" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="I31" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="J31" s="17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="7">
+        <f>B55/B59*D59</f>
+        <v>2.0887763750000001</v>
+      </c>
+      <c r="C32" s="7">
+        <f>C55/B59*D59</f>
+        <v>2.0653981250000002</v>
+      </c>
+      <c r="D32" s="7">
+        <f>D55/B59*D59</f>
+        <v>2.0653981250000002</v>
+      </c>
+      <c r="E32" s="7">
+        <f>E55/B59*D59</f>
+        <v>2.205476</v>
+      </c>
+      <c r="F32" s="7">
+        <f>F55/B59*D59</f>
+        <v>2.2674347500000005</v>
+      </c>
+      <c r="G32" s="7">
+        <f>G55/B59*D59</f>
+        <v>2.2345391250000004</v>
+      </c>
+      <c r="H32" s="7">
+        <f>H55/B59*D59</f>
+        <v>2.0463633749999999</v>
+      </c>
+      <c r="I32" s="7">
+        <f>I55/B59*D59</f>
+        <v>1.8031273750000001</v>
+      </c>
+      <c r="J32" s="7">
+        <f>J55/B59*D59</f>
+        <v>2.3091451250000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G36" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="H36" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="I36" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="J36" s="17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="4">
+        <v>1</v>
+      </c>
+      <c r="B37" s="12">
+        <v>160</v>
+      </c>
+      <c r="C37" s="12">
+        <v>448</v>
+      </c>
+      <c r="D37" s="12">
+        <v>448</v>
+      </c>
+      <c r="E37" s="12">
+        <v>448</v>
+      </c>
+      <c r="F37" s="12">
+        <v>528</v>
+      </c>
+      <c r="G37" s="12">
+        <v>240</v>
+      </c>
+      <c r="H37" s="12">
+        <v>80</v>
+      </c>
+      <c r="I37" s="12">
+        <v>80</v>
+      </c>
+      <c r="J37" s="12">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="4">
+        <v>2</v>
+      </c>
+      <c r="B38" s="12">
+        <v>4640</v>
+      </c>
+      <c r="C38" s="12">
+        <v>4640</v>
+      </c>
+      <c r="D38" s="12">
+        <v>4640</v>
+      </c>
+      <c r="E38" s="12">
+        <v>4640</v>
+      </c>
+      <c r="F38" s="12">
+        <v>8224</v>
+      </c>
+      <c r="G38" s="12">
+        <v>6944</v>
+      </c>
+      <c r="H38" s="12">
+        <v>1168</v>
+      </c>
+      <c r="I38" s="12">
+        <v>1168</v>
+      </c>
+      <c r="J38" s="12">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="4">
+        <v>3</v>
+      </c>
+      <c r="B39" s="12">
+        <v>13872</v>
+      </c>
+      <c r="C39" s="12">
+        <v>15028</v>
+      </c>
+      <c r="D39" s="12">
+        <v>15028</v>
+      </c>
+      <c r="E39" s="12">
+        <v>15028</v>
+      </c>
+      <c r="F39" s="12">
+        <v>41088</v>
+      </c>
+      <c r="G39" s="12">
+        <v>15028</v>
+      </c>
+      <c r="H39" s="12">
+        <v>4640</v>
+      </c>
+      <c r="I39" s="12">
+        <v>4640</v>
+      </c>
+      <c r="J39" s="12">
+        <v>8256</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="4">
+        <v>4</v>
+      </c>
+      <c r="B40" s="12">
+        <v>12544</v>
+      </c>
+      <c r="C40" s="12">
+        <v>26752</v>
+      </c>
+      <c r="D40" s="12">
+        <v>26752</v>
+      </c>
+      <c r="E40" s="12">
+        <v>26752</v>
+      </c>
+      <c r="F40" s="12">
+        <v>16512</v>
+      </c>
+      <c r="G40" s="12">
+        <v>13568</v>
+      </c>
+      <c r="H40" s="12">
+        <v>49280</v>
+      </c>
+      <c r="I40" s="12">
+        <v>49280</v>
+      </c>
+      <c r="J40" s="12">
+        <v>61504</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="4">
+        <v>5</v>
+      </c>
+      <c r="B41" s="12">
+        <v>32896</v>
+      </c>
+      <c r="C41" s="12">
+        <v>16512</v>
+      </c>
+      <c r="D41" s="12">
+        <v>16512</v>
+      </c>
+      <c r="E41" s="12">
+        <v>16512</v>
+      </c>
+      <c r="F41" s="12">
+        <v>4644</v>
+      </c>
+      <c r="G41" s="12">
+        <v>32896</v>
+      </c>
+      <c r="H41" s="12">
+        <v>8256</v>
+      </c>
+      <c r="I41" s="12">
+        <v>1290</v>
+      </c>
+      <c r="J41" s="12">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="4">
+        <v>6</v>
+      </c>
+      <c r="B42" s="12">
+        <v>1290</v>
+      </c>
+      <c r="C42" s="12">
+        <v>1290</v>
+      </c>
+      <c r="D42" s="12">
+        <v>1290</v>
+      </c>
+      <c r="E42" s="12">
+        <v>5676</v>
+      </c>
+      <c r="F42" s="12">
+        <v>0</v>
+      </c>
+      <c r="G42" s="12">
+        <v>1290</v>
+      </c>
+      <c r="H42" s="12">
+        <v>650</v>
+      </c>
+      <c r="I42" s="12">
+        <v>0</v>
+      </c>
+      <c r="J42" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43" s="12">
+        <f>SUM(B37:B42)</f>
+        <v>65402</v>
+      </c>
+      <c r="C43" s="12">
+        <f t="shared" ref="C43:J43" si="2">SUM(C37:C42)</f>
+        <v>64670</v>
+      </c>
+      <c r="D43" s="12">
+        <f t="shared" si="2"/>
+        <v>64670</v>
+      </c>
+      <c r="E43" s="12">
+        <f t="shared" si="2"/>
+        <v>69056</v>
+      </c>
+      <c r="F43" s="12">
+        <f t="shared" si="2"/>
+        <v>70996</v>
+      </c>
+      <c r="G43" s="12">
+        <f t="shared" si="2"/>
+        <v>69966</v>
+      </c>
+      <c r="H43" s="12">
+        <f t="shared" si="2"/>
+        <v>64074</v>
+      </c>
+      <c r="I43" s="12">
+        <f t="shared" si="2"/>
+        <v>56458</v>
+      </c>
+      <c r="J43" s="12">
+        <f t="shared" si="2"/>
+        <v>72302</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B44" s="13">
+        <f>B43*2/1000</f>
+        <v>130.804</v>
+      </c>
+      <c r="C44" s="13">
+        <f t="shared" ref="C44:J44" si="3">C43*2/1000</f>
+        <v>129.34</v>
+      </c>
+      <c r="D44" s="13">
+        <f t="shared" si="3"/>
+        <v>129.34</v>
+      </c>
+      <c r="E44" s="13">
+        <f t="shared" si="3"/>
+        <v>138.11199999999999</v>
+      </c>
+      <c r="F44" s="13">
+        <f t="shared" si="3"/>
+        <v>141.99199999999999</v>
+      </c>
+      <c r="G44" s="13">
+        <f t="shared" si="3"/>
+        <v>139.93199999999999</v>
+      </c>
+      <c r="H44" s="13">
+        <f t="shared" si="3"/>
+        <v>128.148</v>
+      </c>
+      <c r="I44" s="13">
+        <f t="shared" si="3"/>
+        <v>112.916</v>
+      </c>
+      <c r="J44" s="13">
+        <f t="shared" si="3"/>
+        <v>144.60400000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="15"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="8"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B47" s="28"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="28"/>
+      <c r="J47" s="28"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="H48" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="I48" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="J48" s="17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="4">
+        <v>1</v>
+      </c>
+      <c r="B49" s="12">
+        <f>B37*2/1000</f>
+        <v>0.32</v>
+      </c>
+      <c r="C49" s="12">
+        <f t="shared" ref="C49:J49" si="4">C37*2/1000</f>
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="D49" s="12">
+        <f t="shared" si="4"/>
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="E49" s="12">
+        <f t="shared" si="4"/>
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="F49" s="12">
+        <f t="shared" si="4"/>
+        <v>1.056</v>
+      </c>
+      <c r="G49" s="12">
+        <f t="shared" si="4"/>
+        <v>0.48</v>
+      </c>
+      <c r="H49" s="12">
+        <f t="shared" si="4"/>
+        <v>0.16</v>
+      </c>
+      <c r="I49" s="12">
+        <f t="shared" si="4"/>
+        <v>0.16</v>
+      </c>
+      <c r="J49" s="12">
+        <f t="shared" si="4"/>
+        <v>0.14399999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" s="4">
+        <v>2</v>
+      </c>
+      <c r="B50" s="12">
+        <f t="shared" ref="B50:J54" si="5">B38*2/1000</f>
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="C50" s="12">
+        <f t="shared" si="5"/>
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="D50" s="12">
+        <f t="shared" si="5"/>
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="E50" s="12">
+        <f t="shared" si="5"/>
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="F50" s="12">
+        <f t="shared" si="5"/>
+        <v>16.448</v>
+      </c>
+      <c r="G50" s="12">
+        <f t="shared" si="5"/>
+        <v>13.888</v>
+      </c>
+      <c r="H50" s="12">
+        <f t="shared" si="5"/>
+        <v>2.3359999999999999</v>
+      </c>
+      <c r="I50" s="12">
+        <f t="shared" si="5"/>
+        <v>2.3359999999999999</v>
+      </c>
+      <c r="J50" s="12">
+        <f t="shared" si="5"/>
+        <v>4.16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" s="4">
+        <v>3</v>
+      </c>
+      <c r="B51" s="12">
+        <f t="shared" si="5"/>
+        <v>27.744</v>
+      </c>
+      <c r="C51" s="12">
+        <f t="shared" si="5"/>
+        <v>30.056000000000001</v>
+      </c>
+      <c r="D51" s="12">
+        <f t="shared" si="5"/>
+        <v>30.056000000000001</v>
+      </c>
+      <c r="E51" s="12">
+        <f t="shared" si="5"/>
+        <v>30.056000000000001</v>
+      </c>
+      <c r="F51" s="12">
+        <f t="shared" si="5"/>
+        <v>82.176000000000002</v>
+      </c>
+      <c r="G51" s="12">
+        <f t="shared" si="5"/>
+        <v>30.056000000000001</v>
+      </c>
+      <c r="H51" s="12">
+        <f t="shared" si="5"/>
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="I51" s="12">
+        <f t="shared" si="5"/>
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="J51" s="12">
+        <f t="shared" si="5"/>
+        <v>16.512</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="4">
+        <v>4</v>
+      </c>
+      <c r="B52" s="12">
+        <f t="shared" si="5"/>
+        <v>25.088000000000001</v>
+      </c>
+      <c r="C52" s="12">
+        <f t="shared" si="5"/>
+        <v>53.503999999999998</v>
+      </c>
+      <c r="D52" s="12">
+        <f t="shared" si="5"/>
+        <v>53.503999999999998</v>
+      </c>
+      <c r="E52" s="12">
+        <f t="shared" si="5"/>
+        <v>53.503999999999998</v>
+      </c>
+      <c r="F52" s="12">
+        <f t="shared" si="5"/>
+        <v>33.024000000000001</v>
+      </c>
+      <c r="G52" s="12">
+        <f t="shared" si="5"/>
+        <v>27.135999999999999</v>
+      </c>
+      <c r="H52" s="12">
+        <f t="shared" si="5"/>
+        <v>98.56</v>
+      </c>
+      <c r="I52" s="12">
+        <f t="shared" si="5"/>
+        <v>98.56</v>
+      </c>
+      <c r="J52" s="12">
+        <f t="shared" si="5"/>
+        <v>123.008</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" s="4">
+        <v>5</v>
+      </c>
+      <c r="B53" s="12">
+        <f t="shared" si="5"/>
+        <v>65.792000000000002</v>
+      </c>
+      <c r="C53" s="12">
+        <f t="shared" si="5"/>
+        <v>33.024000000000001</v>
+      </c>
+      <c r="D53" s="12">
+        <f t="shared" si="5"/>
+        <v>33.024000000000001</v>
+      </c>
+      <c r="E53" s="12">
+        <f t="shared" si="5"/>
+        <v>33.024000000000001</v>
+      </c>
+      <c r="F53" s="12">
+        <f t="shared" si="5"/>
+        <v>9.2880000000000003</v>
+      </c>
+      <c r="G53" s="12">
+        <f t="shared" si="5"/>
+        <v>65.792000000000002</v>
+      </c>
+      <c r="H53" s="12">
+        <f t="shared" si="5"/>
+        <v>16.512</v>
+      </c>
+      <c r="I53" s="12">
+        <f t="shared" si="5"/>
+        <v>2.58</v>
+      </c>
+      <c r="J53" s="12">
+        <f t="shared" si="5"/>
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" s="4">
+        <v>6</v>
+      </c>
+      <c r="B54" s="12">
+        <f t="shared" si="5"/>
+        <v>2.58</v>
+      </c>
+      <c r="C54" s="12">
+        <f t="shared" si="5"/>
+        <v>2.58</v>
+      </c>
+      <c r="D54" s="12">
+        <f t="shared" si="5"/>
+        <v>2.58</v>
+      </c>
+      <c r="E54" s="12">
+        <f t="shared" si="5"/>
+        <v>11.352</v>
+      </c>
+      <c r="F54" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G54" s="12">
+        <f t="shared" si="5"/>
+        <v>2.58</v>
+      </c>
+      <c r="H54" s="12">
+        <f t="shared" si="5"/>
+        <v>1.3</v>
+      </c>
+      <c r="I54" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J54" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B55" s="12">
+        <f>SUM(B49:B54)</f>
+        <v>130.804</v>
+      </c>
+      <c r="C55" s="12">
+        <f t="shared" ref="C55:F55" si="6">SUM(C49:C54)</f>
+        <v>129.34</v>
+      </c>
+      <c r="D55" s="12">
+        <f t="shared" si="6"/>
+        <v>129.34</v>
+      </c>
+      <c r="E55" s="12">
+        <f t="shared" si="6"/>
+        <v>138.11199999999999</v>
+      </c>
+      <c r="F55" s="12">
+        <f t="shared" si="6"/>
+        <v>141.99200000000002</v>
+      </c>
+      <c r="G55" s="12">
+        <f>SUM(G49:G54)</f>
+        <v>139.93200000000002</v>
+      </c>
+      <c r="H55" s="12">
+        <f t="shared" ref="H55:J55" si="7">SUM(H49:H54)</f>
+        <v>128.148</v>
+      </c>
+      <c r="I55" s="12">
+        <f t="shared" si="7"/>
+        <v>112.916</v>
+      </c>
+      <c r="J55" s="12">
+        <f t="shared" si="7"/>
+        <v>144.60400000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B58" s="28"/>
+      <c r="C58" s="28"/>
+      <c r="D58" s="28"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B59" s="2">
+        <v>64</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D59" s="2">
+        <v>1.022</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B62" s="28"/>
+      <c r="C62" s="28"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="28"/>
+      <c r="I62" s="28"/>
+      <c r="J62" s="28"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G63" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="H63" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="I63" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="J63" s="17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B64" s="6">
+        <v>14.33</v>
+      </c>
+      <c r="C64" s="6">
+        <v>2.04</v>
+      </c>
+      <c r="D64" s="6">
+        <v>24.57</v>
+      </c>
+      <c r="E64" s="6">
+        <v>11.26</v>
+      </c>
+      <c r="F64" s="6">
+        <v>2.04</v>
+      </c>
+      <c r="G64" s="3">
+        <v>12.28</v>
+      </c>
+      <c r="H64" s="3">
+        <v>12.28</v>
+      </c>
+      <c r="I64" s="3">
+        <v>3.07</v>
+      </c>
+      <c r="J64" s="3">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B65" s="9">
+        <f>B64/B59*D59</f>
+        <v>0.22883218750000001</v>
+      </c>
+      <c r="C65" s="9">
+        <f>C64/B59*D59</f>
+        <v>3.2576250000000001E-2</v>
+      </c>
+      <c r="D65" s="9">
+        <f>D64/B59*D59</f>
+        <v>0.3923521875</v>
+      </c>
+      <c r="E65" s="9">
+        <f>E64/B59*D59</f>
+        <v>0.17980812500000001</v>
+      </c>
+      <c r="F65" s="9">
+        <f>F64/B59*D59</f>
+        <v>3.2576250000000001E-2</v>
+      </c>
+      <c r="G65" s="9">
+        <f>G64/B59*D59</f>
+        <v>0.19609625</v>
+      </c>
+      <c r="H65" s="3">
+        <f>H64/B59*D59</f>
+        <v>0.19609625</v>
+      </c>
+      <c r="I65" s="3">
+        <f>I64/B59*D59</f>
+        <v>4.90240625E-2</v>
+      </c>
+      <c r="J65" s="3">
+        <f>J64/B59*D59</f>
+        <v>1.6288125000000001E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A58:D58"/>
+    <mergeCell ref="A62:J62"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="A47:J47"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09BB6D28-0DA4-6B47-9767-B86832CEED60}">
+  <dimension ref="A1:F66"/>
+  <sheetViews>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="6">
+        <f>B19*F1</f>
+        <v>29.305</v>
+      </c>
+      <c r="C3" s="6">
+        <f>C19*F1</f>
+        <v>48.844999999999999</v>
+      </c>
+      <c r="D3" s="6">
+        <f>D19*F1</f>
+        <v>48.844999999999999</v>
+      </c>
+      <c r="E3" s="6">
+        <f>E19*F1</f>
+        <v>49.164999999999999</v>
+      </c>
+      <c r="F3" s="6">
+        <f>F19*F1</f>
+        <v>21.735000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="6">
+        <f>B19*F1 +B66*F1</f>
+        <v>29.81662578125</v>
+      </c>
+      <c r="C4" s="6">
+        <f>C19*F1 +C66*F1</f>
+        <v>48.917834374999998</v>
+      </c>
+      <c r="D4" s="6">
+        <f>D19*F1 +D66*F1</f>
+        <v>49.722225781249996</v>
+      </c>
+      <c r="E4" s="6">
+        <f>E19*F1 +E66*F1</f>
+        <v>49.567017187499999</v>
+      </c>
+      <c r="F4" s="6">
+        <f>F19*F1+F66*F1</f>
+        <v>21.807834375000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="6">
+        <f>B19*F1 + 0.024*F1</f>
+        <v>29.425000000000001</v>
+      </c>
+      <c r="C5" s="6">
+        <f>C19*F1 + 0.024*F1</f>
+        <v>48.964999999999996</v>
+      </c>
+      <c r="D5" s="6">
+        <f>D19*F1 + 0.024*F1</f>
+        <v>48.964999999999996</v>
+      </c>
+      <c r="E5" s="6">
+        <f>E19*F1 + 0.024*F1</f>
+        <v>49.284999999999997</v>
+      </c>
+      <c r="F5" s="6">
+        <f>F19*F1 + 0.024*F1</f>
+        <v>21.855000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="6">
+        <f>B19*F1 + B33*F1</f>
+        <v>33.975111562499997</v>
+      </c>
+      <c r="C6" s="6">
+        <f>C19*F1 + C33*F1</f>
+        <v>53.462842187500002</v>
+      </c>
+      <c r="D6" s="6">
+        <f>D19*F1 + D33*F1</f>
+        <v>53.462842187500002</v>
+      </c>
+      <c r="E6" s="6">
+        <f>E19*F1 + E33*F1</f>
+        <v>54.096029999999999</v>
+      </c>
+      <c r="F6" s="6">
+        <f>F19*F1 + F33*F1</f>
+        <v>26.260728125000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="6">
+        <v>30.26</v>
+      </c>
+      <c r="C7" s="6">
+        <v>40.58</v>
+      </c>
+      <c r="D7" s="6">
+        <v>40.58</v>
+      </c>
+      <c r="E7" s="6">
+        <v>41.06</v>
+      </c>
+      <c r="F7" s="6">
+        <v>19.72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="6">
+        <v>18.21</v>
+      </c>
+      <c r="C8" s="6">
+        <v>17.73</v>
+      </c>
+      <c r="D8" s="6">
+        <v>17.73</v>
+      </c>
+      <c r="E8" s="6">
+        <v>18.09</v>
+      </c>
+      <c r="F8" s="6">
+        <v>8.81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>1</v>
+      </c>
+      <c r="B13" s="12">
+        <v>0.74</v>
+      </c>
+      <c r="C13" s="12">
+        <v>2.57</v>
+      </c>
+      <c r="D13" s="12">
+        <v>2.57</v>
+      </c>
+      <c r="E13" s="12">
+        <v>2.6</v>
+      </c>
+      <c r="F13" s="12">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>2</v>
+      </c>
+      <c r="B14" s="12">
+        <v>3.81</v>
+      </c>
+      <c r="C14" s="12">
+        <v>5.25</v>
+      </c>
+      <c r="D14" s="12">
+        <v>5.25</v>
+      </c>
+      <c r="E14" s="12">
+        <v>5.28</v>
+      </c>
+      <c r="F14" s="12">
+        <v>3.01</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>3</v>
+      </c>
+      <c r="B15" s="12">
+        <v>1.18</v>
+      </c>
+      <c r="C15" s="12">
+        <v>1.85</v>
+      </c>
+      <c r="D15" s="12">
+        <v>1.85</v>
+      </c>
+      <c r="E15" s="12">
+        <v>1.86</v>
+      </c>
+      <c r="F15" s="12">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>4</v>
+      </c>
+      <c r="B16" s="12">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="C16" s="12">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="D16" s="12">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="E16" s="12">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="F16" s="12">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <v>5</v>
+      </c>
+      <c r="B17" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="C17" s="12">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="D17" s="12">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="E17" s="12">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="F17" s="12">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
+        <v>6</v>
+      </c>
+      <c r="B18" s="12">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C18" s="12">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D18" s="12">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="E18" s="12">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F18" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="12">
+        <f>SUM(B13:B18)</f>
+        <v>5.8609999999999998</v>
+      </c>
+      <c r="C19" s="12">
+        <f t="shared" ref="C19:F19" si="0">SUM(C13:C18)</f>
+        <v>9.7690000000000001</v>
+      </c>
+      <c r="D19" s="12">
+        <f t="shared" si="0"/>
+        <v>9.7690000000000001</v>
+      </c>
+      <c r="E19" s="12">
+        <f t="shared" si="0"/>
+        <v>9.8330000000000002</v>
+      </c>
+      <c r="F19" s="12">
+        <f t="shared" si="0"/>
+        <v>4.3470000000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
+        <v>1</v>
+      </c>
+      <c r="B23" s="16">
+        <f>B50/B60*D60</f>
+        <v>2.2850000000000001E-3</v>
+      </c>
+      <c r="C23" s="16">
+        <f>C50/B60*D60</f>
+        <v>6.398E-3</v>
+      </c>
+      <c r="D23" s="16">
+        <f>D50/B60*D60</f>
+        <v>6.398E-3</v>
+      </c>
+      <c r="E23" s="16">
+        <f>E50/B60*D60</f>
+        <v>6.398E-3</v>
+      </c>
+      <c r="F23" s="16">
+        <f>F50/B60*D60</f>
+        <v>7.5405000000000003E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
+        <v>2</v>
+      </c>
+      <c r="B24" s="16">
+        <f>B51/B60*D60</f>
+        <v>6.6265000000000004E-2</v>
+      </c>
+      <c r="C24" s="16">
+        <f>C51/B60*D60</f>
+        <v>6.6265000000000004E-2</v>
+      </c>
+      <c r="D24" s="16">
+        <f>D51/B60*D60</f>
+        <v>6.6265000000000004E-2</v>
+      </c>
+      <c r="E24" s="16">
+        <f>E51/B60*D60</f>
+        <v>6.6265000000000004E-2</v>
+      </c>
+      <c r="F24" s="16">
+        <f>F51/B60*D60</f>
+        <v>0.23444100000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
+        <v>3</v>
+      </c>
+      <c r="B25" s="16">
+        <f>B52/B60*D60</f>
+        <v>0.19810949999999999</v>
+      </c>
+      <c r="C25" s="16">
+        <f>C52/B60*D60</f>
+        <v>0.21461862500000001</v>
+      </c>
+      <c r="D25" s="16">
+        <f>D52/B60*D60</f>
+        <v>0.21461862500000001</v>
+      </c>
+      <c r="E25" s="16">
+        <f>E52/B60*D60</f>
+        <v>0.21461862500000001</v>
+      </c>
+      <c r="F25" s="16">
+        <f>F52/B60*D60</f>
+        <v>0.29339400000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="4">
+        <v>4</v>
+      </c>
+      <c r="B26" s="16">
+        <f>B53/B60*D60</f>
+        <v>0.17914400000000003</v>
+      </c>
+      <c r="C26" s="16">
+        <f>C53/B60*D60</f>
+        <v>0.382052</v>
+      </c>
+      <c r="D26" s="16">
+        <f>D53/B60*D60</f>
+        <v>0.382052</v>
+      </c>
+      <c r="E26" s="16">
+        <f>E53/B60*D60</f>
+        <v>0.382052</v>
+      </c>
+      <c r="F26" s="16">
+        <f>F53/B60*D60</f>
+        <v>0.23764000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="4">
+        <v>5</v>
+      </c>
+      <c r="B27" s="16">
+        <f>B54/B60*D60</f>
+        <v>0.46979600000000005</v>
+      </c>
+      <c r="C27" s="16">
+        <f>C54/B60*D60</f>
+        <v>0.23581200000000002</v>
+      </c>
+      <c r="D27" s="16">
+        <f>D54/B60*D60</f>
+        <v>0.23581200000000002</v>
+      </c>
+      <c r="E27" s="16">
+        <f>E54/B60*D60</f>
+        <v>0.23581200000000002</v>
+      </c>
+      <c r="F27" s="16">
+        <f>F54/B60*D60</f>
+        <v>0.13213012500000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="4">
+        <v>6</v>
+      </c>
+      <c r="B28" s="16">
+        <f>B55/B60*D60</f>
+        <v>1.84228125E-2</v>
+      </c>
+      <c r="C28" s="16">
+        <f>C55/B60*D60</f>
+        <v>1.84228125E-2</v>
+      </c>
+      <c r="D28" s="16">
+        <f>D55/B60*D60</f>
+        <v>1.84228125E-2</v>
+      </c>
+      <c r="E28" s="16">
+        <f>E55/B60*D60</f>
+        <v>8.1060375000000004E-2</v>
+      </c>
+      <c r="F28" s="16">
+        <f>F55/B60*D60</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="16">
+        <f>SUM(B23:B28)</f>
+        <v>0.93402231250000012</v>
+      </c>
+      <c r="C29" s="16">
+        <f t="shared" ref="C29:F29" si="1">SUM(C23:C28)</f>
+        <v>0.92356843749999995</v>
+      </c>
+      <c r="D29" s="16">
+        <f t="shared" si="1"/>
+        <v>0.92356843749999995</v>
+      </c>
+      <c r="E29" s="16">
+        <f t="shared" si="1"/>
+        <v>0.98620599999999992</v>
+      </c>
+      <c r="F29" s="16">
+        <f t="shared" si="1"/>
+        <v>0.90514562500000006</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="7">
+        <f>B56/B60*D60</f>
+        <v>0.93402231250000001</v>
+      </c>
+      <c r="C33" s="7">
+        <f>C56/B60*D60</f>
+        <v>0.92356843750000006</v>
+      </c>
+      <c r="D33" s="7">
+        <f>D56/B60*D60</f>
+        <v>0.92356843750000006</v>
+      </c>
+      <c r="E33" s="7">
+        <f>E56/B60*D60</f>
+        <v>0.98620600000000003</v>
+      </c>
+      <c r="F33" s="7">
+        <f>F56/B60*D60</f>
+        <v>0.90514562500000006</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="4">
+        <v>1</v>
+      </c>
+      <c r="B38" s="12">
+        <v>160</v>
+      </c>
+      <c r="C38" s="12">
+        <v>448</v>
+      </c>
+      <c r="D38" s="12">
+        <v>448</v>
+      </c>
+      <c r="E38" s="12">
+        <v>448</v>
+      </c>
+      <c r="F38" s="12">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="4">
+        <v>2</v>
+      </c>
+      <c r="B39" s="12">
+        <v>4640</v>
+      </c>
+      <c r="C39" s="12">
+        <v>4640</v>
+      </c>
+      <c r="D39" s="12">
+        <v>4640</v>
+      </c>
+      <c r="E39" s="12">
+        <v>4640</v>
+      </c>
+      <c r="F39" s="12">
+        <v>16416</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="4">
+        <v>3</v>
+      </c>
+      <c r="B40" s="12">
+        <v>13872</v>
+      </c>
+      <c r="C40" s="12">
+        <v>15028</v>
+      </c>
+      <c r="D40" s="12">
+        <v>15028</v>
+      </c>
+      <c r="E40" s="12">
+        <v>15028</v>
+      </c>
+      <c r="F40" s="12">
+        <v>20544</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="4">
+        <v>4</v>
+      </c>
+      <c r="B41" s="12">
+        <v>12544</v>
+      </c>
+      <c r="C41" s="12">
+        <v>26752</v>
+      </c>
+      <c r="D41" s="12">
+        <v>26752</v>
+      </c>
+      <c r="E41" s="12">
+        <v>26752</v>
+      </c>
+      <c r="F41" s="12">
+        <v>16640</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="4">
+        <v>5</v>
+      </c>
+      <c r="B42" s="12">
+        <v>32896</v>
+      </c>
+      <c r="C42" s="12">
+        <v>16512</v>
+      </c>
+      <c r="D42" s="12">
+        <v>16512</v>
+      </c>
+      <c r="E42" s="12">
+        <v>16512</v>
+      </c>
+      <c r="F42" s="12">
+        <v>9252</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="4">
+        <v>6</v>
+      </c>
+      <c r="B43" s="12">
+        <v>1290</v>
+      </c>
+      <c r="C43" s="12">
+        <v>1290</v>
+      </c>
+      <c r="D43" s="12">
+        <v>1290</v>
+      </c>
+      <c r="E43" s="12">
+        <v>5676</v>
+      </c>
+      <c r="F43" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44" s="12">
+        <f>SUM(B38:B43)</f>
+        <v>65402</v>
+      </c>
+      <c r="C44" s="12">
+        <f t="shared" ref="C44:F44" si="2">SUM(C38:C43)</f>
+        <v>64670</v>
+      </c>
+      <c r="D44" s="12">
+        <f t="shared" si="2"/>
+        <v>64670</v>
+      </c>
+      <c r="E44" s="12">
+        <f t="shared" si="2"/>
+        <v>69056</v>
+      </c>
+      <c r="F44" s="12">
+        <f t="shared" si="2"/>
+        <v>63380</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B45" s="13">
+        <f>B44*2/1000</f>
+        <v>130.804</v>
+      </c>
+      <c r="C45" s="13">
+        <f t="shared" ref="C45:F45" si="3">C44*2/1000</f>
+        <v>129.34</v>
+      </c>
+      <c r="D45" s="13">
+        <f t="shared" si="3"/>
+        <v>129.34</v>
+      </c>
+      <c r="E45" s="13">
+        <f t="shared" si="3"/>
+        <v>138.11199999999999</v>
+      </c>
+      <c r="F45" s="13">
+        <f t="shared" si="3"/>
+        <v>126.76</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="15"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="8"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B48" s="28"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="28"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="4">
+        <v>1</v>
+      </c>
+      <c r="B50" s="12">
+        <f>B38*2/1000</f>
+        <v>0.32</v>
+      </c>
+      <c r="C50" s="12">
+        <f t="shared" ref="C50:F50" si="4">C38*2/1000</f>
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="D50" s="12">
+        <f t="shared" si="4"/>
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="E50" s="12">
+        <f t="shared" si="4"/>
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="F50" s="12">
+        <f t="shared" si="4"/>
+        <v>1.056</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="4">
+        <v>2</v>
+      </c>
+      <c r="B51" s="12">
+        <f t="shared" ref="B51:F55" si="5">B39*2/1000</f>
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="C51" s="12">
+        <f t="shared" si="5"/>
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="D51" s="12">
+        <f t="shared" si="5"/>
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="E51" s="12">
+        <f t="shared" si="5"/>
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="F51" s="12">
+        <f t="shared" si="5"/>
+        <v>32.832000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="4">
+        <v>3</v>
+      </c>
+      <c r="B52" s="12">
+        <f t="shared" si="5"/>
+        <v>27.744</v>
+      </c>
+      <c r="C52" s="12">
+        <f t="shared" si="5"/>
+        <v>30.056000000000001</v>
+      </c>
+      <c r="D52" s="12">
+        <f t="shared" si="5"/>
+        <v>30.056000000000001</v>
+      </c>
+      <c r="E52" s="12">
+        <f t="shared" si="5"/>
+        <v>30.056000000000001</v>
+      </c>
+      <c r="F52" s="12">
+        <f t="shared" si="5"/>
+        <v>41.088000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="4">
+        <v>4</v>
+      </c>
+      <c r="B53" s="12">
+        <f t="shared" si="5"/>
+        <v>25.088000000000001</v>
+      </c>
+      <c r="C53" s="12">
+        <f t="shared" si="5"/>
+        <v>53.503999999999998</v>
+      </c>
+      <c r="D53" s="12">
+        <f t="shared" si="5"/>
+        <v>53.503999999999998</v>
+      </c>
+      <c r="E53" s="12">
+        <f t="shared" si="5"/>
+        <v>53.503999999999998</v>
+      </c>
+      <c r="F53" s="12">
+        <f t="shared" si="5"/>
+        <v>33.28</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="4">
+        <v>5</v>
+      </c>
+      <c r="B54" s="12">
+        <f t="shared" si="5"/>
+        <v>65.792000000000002</v>
+      </c>
+      <c r="C54" s="12">
+        <f t="shared" si="5"/>
+        <v>33.024000000000001</v>
+      </c>
+      <c r="D54" s="12">
+        <f t="shared" si="5"/>
+        <v>33.024000000000001</v>
+      </c>
+      <c r="E54" s="12">
+        <f t="shared" si="5"/>
+        <v>33.024000000000001</v>
+      </c>
+      <c r="F54" s="12">
+        <f t="shared" si="5"/>
+        <v>18.504000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="4">
+        <v>6</v>
+      </c>
+      <c r="B55" s="12">
+        <f t="shared" si="5"/>
+        <v>2.58</v>
+      </c>
+      <c r="C55" s="12">
+        <f t="shared" si="5"/>
+        <v>2.58</v>
+      </c>
+      <c r="D55" s="12">
+        <f t="shared" si="5"/>
+        <v>2.58</v>
+      </c>
+      <c r="E55" s="12">
+        <f t="shared" si="5"/>
+        <v>11.352</v>
+      </c>
+      <c r="F55" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B56" s="12">
+        <f>SUM(B50:B55)</f>
+        <v>130.804</v>
+      </c>
+      <c r="C56" s="12">
+        <f t="shared" ref="C56:F56" si="6">SUM(C50:C55)</f>
+        <v>129.34</v>
+      </c>
+      <c r="D56" s="12">
+        <f t="shared" si="6"/>
+        <v>129.34</v>
+      </c>
+      <c r="E56" s="12">
+        <f t="shared" si="6"/>
+        <v>138.11199999999999</v>
+      </c>
+      <c r="F56" s="12">
+        <f t="shared" si="6"/>
+        <v>126.76</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B59" s="28"/>
+      <c r="C59" s="28"/>
+      <c r="D59" s="28"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B60" s="2">
+        <v>64</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D60" s="2">
+        <v>0.45700000000000002</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B63" s="28"/>
+      <c r="C63" s="28"/>
+      <c r="D63" s="28"/>
+      <c r="E63" s="28"/>
+      <c r="F63" s="28"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B65" s="6">
+        <v>14.33</v>
+      </c>
+      <c r="C65" s="6">
+        <v>2.04</v>
+      </c>
+      <c r="D65" s="6">
+        <v>24.57</v>
+      </c>
+      <c r="E65" s="6">
+        <v>11.26</v>
+      </c>
+      <c r="F65" s="6">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B66" s="9">
+        <f>B65/B60*D60</f>
+        <v>0.10232515625000001</v>
+      </c>
+      <c r="C66" s="9">
+        <f>C65/B60*D60</f>
+        <v>1.4566875E-2</v>
+      </c>
+      <c r="D66" s="9">
+        <f>D65/B60*D60</f>
+        <v>0.17544515625000001</v>
+      </c>
+      <c r="E66" s="9">
+        <f>E65/B60*D60</f>
+        <v>8.0403437500000008E-2</v>
+      </c>
+      <c r="F66" s="9">
+        <f>F65/B60*D60</f>
+        <v>1.4566875E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="A48:F48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1412,15 +4407,15 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -1512,46 +4507,46 @@
       <c r="G10" s="8"/>
     </row>
     <row r="13" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
+      <c r="A13" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
+      <c r="A16" s="30"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1564,10 +4559,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{951637E0-D5A3-6945-9708-8015501B2B41}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="131" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="131" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1575,16 +4570,26 @@
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="14.5" customWidth="1"/>
     <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="8" max="8" width="24.33203125" customWidth="1"/>
+    <col min="9" max="9" width="26.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="F1" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>54</v>
@@ -1592,8 +4597,15 @@
       <c r="C2" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1603,9 +4615,18 @@
       <c r="C3" s="6">
         <v>9.48</v>
       </c>
-      <c r="D3" s="28"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D3" s="25"/>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="6">
+        <v>75.63</v>
+      </c>
+      <c r="H3" s="6">
+        <v>9.48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1615,9 +4636,18 @@
       <c r="C4" s="6">
         <v>0.66</v>
       </c>
-      <c r="D4" s="28"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D4" s="25"/>
+      <c r="F4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="6">
+        <v>75.63</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -1627,9 +4657,18 @@
       <c r="C5" s="6">
         <v>9.44</v>
       </c>
-      <c r="D5" s="28"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D5" s="25"/>
+      <c r="F5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="6">
+        <v>61.83</v>
+      </c>
+      <c r="H5" s="6">
+        <v>9.44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>53</v>
       </c>
@@ -1639,23 +4678,37 @@
       <c r="C6" s="6">
         <v>4.1900000000000004</v>
       </c>
-      <c r="D6" s="28">
-        <f>(C3-C6)/C3</f>
-        <v>0.55801687763713081</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D7" s="28"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="28"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D6" s="25"/>
+      <c r="F6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="6">
+        <v>21.48</v>
+      </c>
+      <c r="H6" s="6">
+        <v>4.1900000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D7" s="25"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="25"/>
+      <c r="F8" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>54</v>
@@ -1663,9 +4716,19 @@
       <c r="C9" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="28"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D9" s="25"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -1675,9 +4738,23 @@
       <c r="C10" s="6">
         <v>0.39</v>
       </c>
-      <c r="D10" s="28"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D10" s="25"/>
+      <c r="F10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="6">
+        <f>B10/16.57</f>
+        <v>0.77066988533494263</v>
+      </c>
+      <c r="H10" s="31">
+        <f>C10/52.5</f>
+        <v>7.4285714285714285E-3</v>
+      </c>
+      <c r="I10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1687,9 +4764,20 @@
       <c r="C11" s="6">
         <v>0.03</v>
       </c>
-      <c r="D11" s="28"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D11" s="25"/>
+      <c r="F11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="6">
+        <f t="shared" ref="G11:G13" si="0">B11/16.57</f>
+        <v>0.77066988533494263</v>
+      </c>
+      <c r="H11" s="31">
+        <f>C11/52.5</f>
+        <v>5.7142857142857136E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
@@ -1699,9 +4787,20 @@
       <c r="C12" s="6">
         <v>0.39</v>
       </c>
-      <c r="D12" s="28"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D12" s="25"/>
+      <c r="F12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="6">
+        <f t="shared" si="0"/>
+        <v>0.61798430899215451</v>
+      </c>
+      <c r="H12" s="31">
+        <f t="shared" ref="H11:H13" si="1">C12/52.5</f>
+        <v>7.4285714285714285E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>53</v>
       </c>
@@ -1711,23 +4810,39 @@
       <c r="C13" s="6">
         <v>0.18</v>
       </c>
-      <c r="D13" s="28">
-        <f>(C10-C13)/C10</f>
-        <v>0.53846153846153855</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D14" s="28"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="28"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D13" s="25"/>
+      <c r="F13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="6">
+        <f t="shared" si="0"/>
+        <v>0.21786360893180445</v>
+      </c>
+      <c r="H13" s="31">
+        <f t="shared" si="1"/>
+        <v>3.4285714285714284E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D14" s="25"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="25"/>
+      <c r="F15" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
         <v>54</v>
@@ -1735,9 +4850,16 @@
       <c r="C16" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="28"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D16" s="25"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>7</v>
       </c>
@@ -1747,9 +4869,18 @@
       <c r="C17" s="6">
         <v>99.5</v>
       </c>
-      <c r="D17" s="28"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D17" s="25"/>
+      <c r="F17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="6">
+        <v>438.83</v>
+      </c>
+      <c r="H17" s="6">
+        <v>99.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>6</v>
       </c>
@@ -1759,9 +4890,18 @@
       <c r="C18" s="6">
         <v>5.59</v>
       </c>
-      <c r="D18" s="28"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D18" s="25"/>
+      <c r="F18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="6">
+        <v>438.83</v>
+      </c>
+      <c r="H18" s="6">
+        <v>5.59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -1771,9 +4911,18 @@
       <c r="C19" s="6">
         <v>99.08</v>
       </c>
-      <c r="D19" s="28"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D19" s="25"/>
+      <c r="F19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="6">
+        <v>340.62</v>
+      </c>
+      <c r="H19" s="6">
+        <v>99.08</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>53</v>
       </c>
@@ -1783,23 +4932,37 @@
       <c r="C20" s="6">
         <v>43.97</v>
       </c>
-      <c r="D20" s="28">
-        <f>(C17-C20)/C17</f>
-        <v>0.55809045226130649</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D21" s="28"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="28"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D20" s="25"/>
+      <c r="F20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" s="6">
+        <v>118.02</v>
+      </c>
+      <c r="H20" s="6">
+        <v>43.97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D21" s="25"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="25"/>
+      <c r="F22" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
         <v>54</v>
@@ -1807,9 +4970,19 @@
       <c r="C23" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D23" s="28"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D23" s="25"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>7</v>
       </c>
@@ -1819,9 +4992,20 @@
       <c r="C24" s="6">
         <v>21.21</v>
       </c>
-      <c r="D24" s="28"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D24" s="25"/>
+      <c r="F24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" s="6">
+        <f>G10*99.6</f>
+        <v>76.758720579360286</v>
+      </c>
+      <c r="H24" s="6">
+        <f>H10*99.6</f>
+        <v>0.73988571428571426</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>6</v>
       </c>
@@ -1831,9 +5015,20 @@
       <c r="C25" s="6">
         <v>1.47</v>
       </c>
-      <c r="D25" s="28"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D25" s="25"/>
+      <c r="F25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" s="6">
+        <f t="shared" ref="G25:H27" si="2">G11*99.6</f>
+        <v>76.758720579360286</v>
+      </c>
+      <c r="H25" s="6">
+        <f t="shared" si="2"/>
+        <v>5.6914285714285702E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>16</v>
       </c>
@@ -1843,9 +5038,20 @@
       <c r="C26" s="6">
         <v>21.12</v>
       </c>
-      <c r="D26" s="28"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D26" s="25"/>
+      <c r="F26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" s="6">
+        <f t="shared" si="2"/>
+        <v>61.551237175618589</v>
+      </c>
+      <c r="H26" s="6">
+        <f t="shared" si="2"/>
+        <v>0.73988571428571426</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>53</v>
       </c>
@@ -1855,17 +5061,29 @@
       <c r="C27" s="6">
         <v>9.6199999999999992</v>
       </c>
-      <c r="D27" s="28">
-        <f>(C24-C27)/C24</f>
-        <v>0.54644035832154647</v>
+      <c r="D27" s="25"/>
+      <c r="F27" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G27" s="6">
+        <f t="shared" si="2"/>
+        <v>21.699215449607724</v>
+      </c>
+      <c r="H27" s="6">
+        <f t="shared" si="2"/>
+        <v>0.34148571428571423</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="8">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="A22:C22"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="F22:H22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1885,12 +5103,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
       <c r="E1" s="11" t="s">
         <v>27</v>
       </c>
@@ -2057,14 +5275,14 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
@@ -2230,14 +5448,14 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
@@ -2283,14 +5501,14 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
@@ -2359,12 +5577,12 @@
       <c r="A31" s="8"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="25" t="s">
+      <c r="A33" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
@@ -2381,14 +5599,14 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="25" t="s">
+      <c r="A37" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B37" s="25"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
@@ -2481,16 +5699,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
       <c r="I1" s="11" t="s">
         <v>27</v>
       </c>
@@ -2720,7 +5938,7 @@
         <v>114.92</v>
       </c>
       <c r="K7" s="21" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -2755,22 +5973,22 @@
         <v>42.58</v>
       </c>
       <c r="K8" s="21" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -3039,18 +6257,18 @@
       <c r="K18" s="14"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
@@ -3372,18 +6590,18 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="25" t="s">
+      <c r="A30" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="25"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
@@ -3457,18 +6675,18 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="25" t="s">
+      <c r="A35" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="25"/>
-      <c r="J35" s="25"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
@@ -3787,18 +7005,18 @@
       <c r="A46" s="8"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="25" t="s">
+      <c r="A47" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="B47" s="25"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
-      <c r="H47" s="25"/>
-      <c r="I47" s="25"/>
-      <c r="J47" s="25"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="28"/>
+      <c r="J47" s="28"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
@@ -4133,12 +7351,12 @@
       <c r="K56" s="14"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A58" s="25" t="s">
+      <c r="A58" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B58" s="25"/>
-      <c r="C58" s="25"/>
-      <c r="D58" s="25"/>
+      <c r="B58" s="28"/>
+      <c r="C58" s="28"/>
+      <c r="D58" s="28"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
@@ -4155,18 +7373,18 @@
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A62" s="25" t="s">
+      <c r="A62" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B62" s="25"/>
-      <c r="C62" s="25"/>
-      <c r="D62" s="25"/>
-      <c r="E62" s="25"/>
-      <c r="F62" s="25"/>
-      <c r="G62" s="25"/>
-      <c r="H62" s="25"/>
-      <c r="I62" s="25"/>
-      <c r="J62" s="25"/>
+      <c r="B62" s="28"/>
+      <c r="C62" s="28"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="28"/>
+      <c r="I62" s="28"/>
+      <c r="J62" s="28"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
@@ -4294,7 +7512,7 @@
   <dimension ref="A1:K65"/>
   <sheetViews>
     <sheetView zoomScale="144" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4303,16 +7521,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
       <c r="I1" s="11" t="s">
         <v>27</v>
       </c>
@@ -4542,7 +7760,7 @@
         <v>9.83</v>
       </c>
       <c r="K7" s="21" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -4577,22 +7795,22 @@
         <v>3.51</v>
       </c>
       <c r="K8" s="21" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -4861,18 +8079,18 @@
       <c r="K18" s="14"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
@@ -5194,18 +8412,18 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="25" t="s">
+      <c r="A30" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="25"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
@@ -5279,18 +8497,18 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="25" t="s">
+      <c r="A35" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="25"/>
-      <c r="J35" s="25"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
@@ -5609,18 +8827,18 @@
       <c r="A46" s="8"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="25" t="s">
+      <c r="A47" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="B47" s="25"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
-      <c r="H47" s="25"/>
-      <c r="I47" s="25"/>
-      <c r="J47" s="25"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="28"/>
+      <c r="J47" s="28"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
@@ -5953,12 +9171,12 @@
       <c r="F56" s="14"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A58" s="25" t="s">
+      <c r="A58" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B58" s="25"/>
-      <c r="C58" s="25"/>
-      <c r="D58" s="25"/>
+      <c r="B58" s="28"/>
+      <c r="C58" s="28"/>
+      <c r="D58" s="28"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
@@ -5975,18 +9193,18 @@
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A62" s="25" t="s">
+      <c r="A62" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B62" s="25"/>
-      <c r="C62" s="25"/>
-      <c r="D62" s="25"/>
-      <c r="E62" s="25"/>
-      <c r="F62" s="25"/>
-      <c r="G62" s="25"/>
-      <c r="H62" s="25"/>
-      <c r="I62" s="25"/>
-      <c r="J62" s="25"/>
+      <c r="B62" s="28"/>
+      <c r="C62" s="28"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="28"/>
+      <c r="I62" s="28"/>
+      <c r="J62" s="28"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
@@ -6107,11 +9325,1116 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF1C228-D93B-1B44-B6A5-331E6B4EF13B}">
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView zoomScale="165" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="6">
+        <f>B14/16.57</f>
+        <v>0.59686179843089926</v>
+      </c>
+      <c r="C3" s="6">
+        <f t="shared" ref="C3:J3" si="0">C14/16.57</f>
+        <v>1.0078455039227519</v>
+      </c>
+      <c r="D3" s="6">
+        <f t="shared" si="0"/>
+        <v>1.0078455039227519</v>
+      </c>
+      <c r="E3" s="6">
+        <f t="shared" si="0"/>
+        <v>1.0277610138805069</v>
+      </c>
+      <c r="F3" s="6">
+        <f t="shared" si="0"/>
+        <v>0.7519613759806878</v>
+      </c>
+      <c r="G3" s="6">
+        <f t="shared" si="0"/>
+        <v>0.83343391671695821</v>
+      </c>
+      <c r="H3" s="6">
+        <f t="shared" si="0"/>
+        <v>0.55703077851538918</v>
+      </c>
+      <c r="I3" s="6">
+        <f t="shared" si="0"/>
+        <v>0.54556427278213637</v>
+      </c>
+      <c r="J3" s="6">
+        <f t="shared" si="0"/>
+        <v>0.60832830416415207</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="6">
+        <f t="shared" ref="B4:J4" si="1">B15/16.57</f>
+        <v>0.59942922073023541</v>
+      </c>
+      <c r="C4" s="6">
+        <f t="shared" si="1"/>
+        <v>1.0082109987929992</v>
+      </c>
+      <c r="D4" s="6">
+        <f t="shared" si="1"/>
+        <v>1.0122475671394084</v>
+      </c>
+      <c r="E4" s="6">
+        <f t="shared" si="1"/>
+        <v>1.0297784022329513</v>
+      </c>
+      <c r="F4" s="6">
+        <f t="shared" si="1"/>
+        <v>0.7523268708509353</v>
+      </c>
+      <c r="G4" s="6">
+        <f t="shared" si="1"/>
+        <v>0.83563405250452616</v>
+      </c>
+      <c r="H4" s="6">
+        <f t="shared" si="1"/>
+        <v>0.55923091430295713</v>
+      </c>
+      <c r="I4" s="6">
+        <f t="shared" si="1"/>
+        <v>0.54611430672902828</v>
+      </c>
+      <c r="J4" s="6">
+        <f t="shared" si="1"/>
+        <v>0.60851105159927577</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="6">
+        <f t="shared" ref="B5:J5" si="2">B16/16.57</f>
+        <v>0.61134580567290286</v>
+      </c>
+      <c r="C5" s="6">
+        <f t="shared" si="2"/>
+        <v>1.0223295111647555</v>
+      </c>
+      <c r="D5" s="6">
+        <f t="shared" si="2"/>
+        <v>1.0223295111647555</v>
+      </c>
+      <c r="E5" s="6">
+        <f t="shared" si="2"/>
+        <v>1.0422450211225105</v>
+      </c>
+      <c r="F5" s="6">
+        <f t="shared" si="2"/>
+        <v>0.7664453832226914</v>
+      </c>
+      <c r="G5" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="6">
+        <f t="shared" ref="B6:J6" si="3">B17/16.57</f>
+        <v>0.62029718617984309</v>
+      </c>
+      <c r="C6" s="6">
+        <f t="shared" si="3"/>
+        <v>1.0310185953530475</v>
+      </c>
+      <c r="D6" s="6">
+        <f t="shared" si="3"/>
+        <v>1.0310185953530475</v>
+      </c>
+      <c r="E6" s="6">
+        <f t="shared" si="3"/>
+        <v>1.0525057332528667</v>
+      </c>
+      <c r="F6" s="6">
+        <f t="shared" si="3"/>
+        <v>0.77740125226312595</v>
+      </c>
+      <c r="G6" s="6">
+        <f t="shared" si="3"/>
+        <v>0.85850471484610735</v>
+      </c>
+      <c r="H6" s="6">
+        <f t="shared" si="3"/>
+        <v>0.57999030627640302</v>
+      </c>
+      <c r="I6" s="6">
+        <f t="shared" si="3"/>
+        <v>0.56579477217863594</v>
+      </c>
+      <c r="J6" s="6">
+        <f t="shared" si="3"/>
+        <v>0.63423615721182858</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="6">
+        <f t="shared" ref="B7:J7" si="4">B18/16.57</f>
+        <v>0.54178481442365722</v>
+      </c>
+      <c r="C7" s="6">
+        <f t="shared" si="4"/>
+        <v>0.75928292848520818</v>
+      </c>
+      <c r="D7" s="6">
+        <f t="shared" si="4"/>
+        <v>0.75928292848520818</v>
+      </c>
+      <c r="E7" s="6">
+        <f t="shared" si="4"/>
+        <v>0.77473506336753173</v>
+      </c>
+      <c r="F7" s="6">
+        <f t="shared" si="4"/>
+        <v>0.56598694930597404</v>
+      </c>
+      <c r="G7" s="6">
+        <f t="shared" si="4"/>
+        <v>0.74375365872057331</v>
+      </c>
+      <c r="H7" s="6">
+        <f t="shared" si="4"/>
+        <v>0.5268536134580567</v>
+      </c>
+      <c r="I7" s="6">
+        <f t="shared" si="4"/>
+        <v>0.51084757845503859</v>
+      </c>
+      <c r="J7" s="6">
+        <f t="shared" si="4"/>
+        <v>0.5932407966203983</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="6">
+        <f t="shared" ref="B8:J8" si="5">B19/16.57</f>
+        <v>0.14134190555220277</v>
+      </c>
+      <c r="C8" s="6">
+        <f t="shared" si="5"/>
+        <v>0.25083692667471336</v>
+      </c>
+      <c r="D8" s="6">
+        <f t="shared" si="5"/>
+        <v>0.25083692667471275</v>
+      </c>
+      <c r="E8" s="6">
+        <f t="shared" si="5"/>
+        <v>0.25856425769462826</v>
+      </c>
+      <c r="F8" s="6">
+        <f t="shared" si="5"/>
+        <v>0.23033854858177369</v>
+      </c>
+      <c r="G8" s="6">
+        <f t="shared" si="5"/>
+        <v>0.37271145141822509</v>
+      </c>
+      <c r="H8" s="6">
+        <f t="shared" si="5"/>
+        <v>0.2112432936028962</v>
+      </c>
+      <c r="I8" s="6">
+        <f t="shared" si="5"/>
+        <v>0.12346749396499698</v>
+      </c>
+      <c r="J8" s="6">
+        <f t="shared" si="5"/>
+        <v>0.21182860591430294</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" s="26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3">
+        <v>9.89</v>
+      </c>
+      <c r="C14" s="3">
+        <v>16.7</v>
+      </c>
+      <c r="D14" s="3">
+        <v>16.7</v>
+      </c>
+      <c r="E14" s="3">
+        <v>17.03</v>
+      </c>
+      <c r="F14" s="3">
+        <v>12.459999999999997</v>
+      </c>
+      <c r="G14" s="3">
+        <v>13.809999999999999</v>
+      </c>
+      <c r="H14" s="3">
+        <v>9.2299999999999986</v>
+      </c>
+      <c r="I14" s="3">
+        <v>9.0399999999999991</v>
+      </c>
+      <c r="J14" s="3">
+        <v>10.08</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3">
+        <v>9.9325421875000011</v>
+      </c>
+      <c r="C15" s="3">
+        <v>16.70605625</v>
+      </c>
+      <c r="D15" s="3">
+        <v>16.7729421875</v>
+      </c>
+      <c r="E15" s="3">
+        <v>17.063428125000002</v>
+      </c>
+      <c r="F15" s="3">
+        <v>12.466056249999998</v>
+      </c>
+      <c r="G15" s="3">
+        <v>13.846456249999999</v>
+      </c>
+      <c r="H15" s="3">
+        <v>9.2664562499999992</v>
+      </c>
+      <c r="I15" s="3">
+        <v>9.0491140624999993</v>
+      </c>
+      <c r="J15" s="3">
+        <v>10.083028125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="3">
+        <v>10.130000000000001</v>
+      </c>
+      <c r="C16" s="3">
+        <v>16.939999999999998</v>
+      </c>
+      <c r="D16" s="3">
+        <v>16.939999999999998</v>
+      </c>
+      <c r="E16" s="3">
+        <v>17.27</v>
+      </c>
+      <c r="F16" s="3">
+        <v>12.699999999999998</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0</v>
+      </c>
+      <c r="J16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="3">
+        <v>10.278324375</v>
+      </c>
+      <c r="C17" s="3">
+        <v>17.083978124999998</v>
+      </c>
+      <c r="D17" s="3">
+        <v>17.083978124999998</v>
+      </c>
+      <c r="E17" s="3">
+        <v>17.440020000000001</v>
+      </c>
+      <c r="F17" s="3">
+        <v>12.881538749999997</v>
+      </c>
+      <c r="G17" s="3">
+        <v>14.225423124999999</v>
+      </c>
+      <c r="H17" s="3">
+        <v>9.6104393749999986</v>
+      </c>
+      <c r="I17" s="3">
+        <v>9.3752193749999986</v>
+      </c>
+      <c r="J17" s="3">
+        <v>10.509293124999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3">
+        <v>8.9773743750000001</v>
+      </c>
+      <c r="C18" s="3">
+        <v>12.5813181249999</v>
+      </c>
+      <c r="D18" s="3">
+        <v>12.5813181249999</v>
+      </c>
+      <c r="E18" s="3">
+        <v>12.83736</v>
+      </c>
+      <c r="F18" s="3">
+        <v>9.3784037499999897</v>
+      </c>
+      <c r="G18" s="3">
+        <v>12.3239981249999</v>
+      </c>
+      <c r="H18" s="3">
+        <v>8.7299643749999998</v>
+      </c>
+      <c r="I18" s="3">
+        <v>8.4647443749999898</v>
+      </c>
+      <c r="J18" s="3">
+        <v>9.83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="3">
+        <v>2.342035375</v>
+      </c>
+      <c r="C19" s="3">
+        <v>4.1563678749999999</v>
+      </c>
+      <c r="D19" s="3">
+        <v>4.1563678749999902</v>
+      </c>
+      <c r="E19" s="3">
+        <v>4.2844097499999902</v>
+      </c>
+      <c r="F19" s="3">
+        <v>3.81670974999999</v>
+      </c>
+      <c r="G19" s="3">
+        <v>6.1758287499999902</v>
+      </c>
+      <c r="H19" s="3">
+        <v>3.5003013749999901</v>
+      </c>
+      <c r="I19" s="3">
+        <v>2.0458563750000001</v>
+      </c>
+      <c r="J19" s="3">
+        <v>3.51</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EB5370A-6E90-0245-9D0B-EAF88806F517}">
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView zoomScale="162" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="6">
+        <f>B13*43</f>
+        <v>25.665057332528669</v>
+      </c>
+      <c r="C3" s="6">
+        <f t="shared" ref="C3:J3" si="0">C13*43</f>
+        <v>43.337356668678332</v>
+      </c>
+      <c r="D3" s="6">
+        <f t="shared" si="0"/>
+        <v>43.337356668678332</v>
+      </c>
+      <c r="E3" s="6">
+        <f t="shared" si="0"/>
+        <v>44.193723596861794</v>
+      </c>
+      <c r="F3" s="6">
+        <f t="shared" si="0"/>
+        <v>32.334339167169574</v>
+      </c>
+      <c r="G3" s="6">
+        <f t="shared" si="0"/>
+        <v>35.8376584188292</v>
+      </c>
+      <c r="H3" s="6">
+        <f t="shared" si="0"/>
+        <v>23.952323476161734</v>
+      </c>
+      <c r="I3" s="6">
+        <f t="shared" si="0"/>
+        <v>23.459263729631864</v>
+      </c>
+      <c r="J3" s="6">
+        <f t="shared" si="0"/>
+        <v>26.158117079058538</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="6">
+        <f t="shared" ref="B4:J8" si="1">B14*43</f>
+        <v>25.775456491400124</v>
+      </c>
+      <c r="C4" s="6">
+        <f t="shared" si="1"/>
+        <v>43.353072948098969</v>
+      </c>
+      <c r="D4" s="6">
+        <f t="shared" si="1"/>
+        <v>43.526645386994566</v>
+      </c>
+      <c r="E4" s="6">
+        <f t="shared" si="1"/>
+        <v>44.280471296016906</v>
+      </c>
+      <c r="F4" s="6">
+        <f t="shared" si="1"/>
+        <v>32.350055446590218</v>
+      </c>
+      <c r="G4" s="6">
+        <f t="shared" si="1"/>
+        <v>35.932264257694627</v>
+      </c>
+      <c r="H4" s="6">
+        <f t="shared" si="1"/>
+        <v>24.046929315027157</v>
+      </c>
+      <c r="I4" s="6">
+        <f t="shared" si="1"/>
+        <v>23.482915189348216</v>
+      </c>
+      <c r="J4" s="6">
+        <f t="shared" si="1"/>
+        <v>26.165975218768857</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="6">
+        <f t="shared" si="1"/>
+        <v>26.287869643934823</v>
+      </c>
+      <c r="C5" s="6">
+        <f t="shared" si="1"/>
+        <v>43.960168980084482</v>
+      </c>
+      <c r="D5" s="6">
+        <f t="shared" si="1"/>
+        <v>43.960168980084482</v>
+      </c>
+      <c r="E5" s="6">
+        <f t="shared" si="1"/>
+        <v>44.816535908267952</v>
+      </c>
+      <c r="F5" s="6">
+        <f t="shared" si="1"/>
+        <v>32.957151478575732</v>
+      </c>
+      <c r="G5" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="6">
+        <f t="shared" si="1"/>
+        <v>26.672779005733254</v>
+      </c>
+      <c r="C6" s="6">
+        <f t="shared" si="1"/>
+        <v>44.333799600181045</v>
+      </c>
+      <c r="D6" s="6">
+        <f t="shared" si="1"/>
+        <v>44.333799600181045</v>
+      </c>
+      <c r="E6" s="6">
+        <f t="shared" si="1"/>
+        <v>45.257746529873266</v>
+      </c>
+      <c r="F6" s="6">
+        <f t="shared" si="1"/>
+        <v>33.428253847314416</v>
+      </c>
+      <c r="G6" s="6">
+        <f t="shared" si="1"/>
+        <v>36.915702738382613</v>
+      </c>
+      <c r="H6" s="6">
+        <f t="shared" si="1"/>
+        <v>24.939583169885331</v>
+      </c>
+      <c r="I6" s="6">
+        <f t="shared" si="1"/>
+        <v>24.329175203681345</v>
+      </c>
+      <c r="J6" s="6">
+        <f t="shared" si="1"/>
+        <v>27.272154760108627</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="6">
+        <f t="shared" si="1"/>
+        <v>23.296747020217261</v>
+      </c>
+      <c r="C7" s="6">
+        <f t="shared" si="1"/>
+        <v>32.649165924863951</v>
+      </c>
+      <c r="D7" s="6">
+        <f t="shared" si="1"/>
+        <v>32.649165924863951</v>
+      </c>
+      <c r="E7" s="6">
+        <f t="shared" si="1"/>
+        <v>33.313607724803866</v>
+      </c>
+      <c r="F7" s="6">
+        <f t="shared" si="1"/>
+        <v>24.337438820156883</v>
+      </c>
+      <c r="G7" s="6">
+        <f t="shared" si="1"/>
+        <v>31.981407324984652</v>
+      </c>
+      <c r="H7" s="6">
+        <f t="shared" si="1"/>
+        <v>22.654705378696438</v>
+      </c>
+      <c r="I7" s="6">
+        <f t="shared" si="1"/>
+        <v>21.966445873566659</v>
+      </c>
+      <c r="J7" s="6">
+        <f t="shared" si="1"/>
+        <v>25.509354254677127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="6">
+        <f t="shared" si="1"/>
+        <v>6.0777019387447195</v>
+      </c>
+      <c r="C8" s="6">
+        <f t="shared" si="1"/>
+        <v>10.785987847012674</v>
+      </c>
+      <c r="D8" s="6">
+        <f t="shared" si="1"/>
+        <v>10.785987847012649</v>
+      </c>
+      <c r="E8" s="6">
+        <f t="shared" si="1"/>
+        <v>11.118263080869015</v>
+      </c>
+      <c r="F8" s="6">
+        <f t="shared" si="1"/>
+        <v>9.9045575890162691</v>
+      </c>
+      <c r="G8" s="6">
+        <f t="shared" si="1"/>
+        <v>16.026592410983678</v>
+      </c>
+      <c r="H8" s="6">
+        <f t="shared" si="1"/>
+        <v>9.0834616249245368</v>
+      </c>
+      <c r="I8" s="6">
+        <f t="shared" si="1"/>
+        <v>5.3091022404948705</v>
+      </c>
+      <c r="J8" s="6">
+        <f t="shared" si="1"/>
+        <v>9.1086300543150269</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" s="26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.59686179843089926</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1.0078455039227519</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1.0078455039227519</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1.0277610138805069</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0.7519613759806878</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.83343391671695821</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0.55703077851538918</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0.54556427278213637</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0.60832830416415207</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.59942922073023541</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1.0082109987929992</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1.0122475671394084</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1.0297784022329513</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0.7523268708509353</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0.83563405250452616</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0.55923091430295713</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0.54611430672902828</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0.60851105159927577</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.61134580567290286</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1.0223295111647555</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1.0223295111647555</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1.0422450211225105</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0.7664453832226914</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0.62029718617984309</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1.0310185953530475</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1.0310185953530475</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1.0525057332528667</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0.77740125226312595</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.85850471484610735</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0.57999030627640302</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0.56579477217863594</v>
+      </c>
+      <c r="J16" s="3">
+        <v>0.63423615721182858</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0.54178481442365722</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.75928292848520818</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.75928292848520818</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0.77473506336753173</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0.56598694930597404</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0.74375365872057331</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0.5268536134580567</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0.51084757845503859</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0.5932407966203983</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0.14134190555220277</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.25083692667471336</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.25083692667471275</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0.25856425769462826</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0.23033854858177369</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0.37271145141822509</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0.2112432936028962</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0.12346749396499698</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0.21182860591430294</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A11:H11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13C6D9F3-393E-3E4E-A142-A12E5051E586}">
   <dimension ref="A1:K65"/>
   <sheetViews>
     <sheetView zoomScale="144" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6120,16 +10443,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
       <c r="I1" s="11" t="s">
         <v>27</v>
       </c>
@@ -6359,7 +10682,7 @@
         <v>675.63</v>
       </c>
       <c r="K7" s="21" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -6394,22 +10717,22 @@
         <v>255.44</v>
       </c>
       <c r="K8" s="21" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -6678,18 +11001,18 @@
       <c r="K18" s="14"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
@@ -7011,18 +11334,18 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="25" t="s">
+      <c r="A30" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="25"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
@@ -7096,18 +11419,18 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="25" t="s">
+      <c r="A35" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="25"/>
-      <c r="J35" s="25"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
@@ -7426,18 +11749,18 @@
       <c r="A46" s="8"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="25" t="s">
+      <c r="A47" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="B47" s="25"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
-      <c r="H47" s="25"/>
-      <c r="I47" s="25"/>
-      <c r="J47" s="25"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="28"/>
+      <c r="J47" s="28"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
@@ -7766,12 +12089,12 @@
       <c r="F56" s="14"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="25" t="s">
+      <c r="A58" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="B58" s="25"/>
-      <c r="C58" s="25"/>
-      <c r="D58" s="25"/>
+      <c r="B58" s="28"/>
+      <c r="C58" s="28"/>
+      <c r="D58" s="28"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
@@ -7788,18 +12111,18 @@
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" s="25" t="s">
+      <c r="A62" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B62" s="25"/>
-      <c r="C62" s="25"/>
-      <c r="D62" s="25"/>
-      <c r="E62" s="25"/>
-      <c r="F62" s="25"/>
-      <c r="G62" s="25"/>
-      <c r="H62" s="25"/>
-      <c r="I62" s="25"/>
-      <c r="J62" s="25"/>
+      <c r="B62" s="28"/>
+      <c r="C62" s="28"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="28"/>
+      <c r="I62" s="28"/>
+      <c r="J62" s="28"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
@@ -7917,2969 +12240,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7722315-F6D9-6E45-A3E1-A77E98ECE9F6}">
-  <dimension ref="A1:L65"/>
-  <sheetViews>
-    <sheetView zoomScale="144" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="L9" sqref="B9:L9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" s="11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="6">
-        <f>B18*J1</f>
-        <v>411.70000000000005</v>
-      </c>
-      <c r="C3" s="6">
-        <f>C18*J1</f>
-        <v>696.40000000000009</v>
-      </c>
-      <c r="D3" s="6">
-        <f>D18*J1</f>
-        <v>696.40000000000009</v>
-      </c>
-      <c r="E3" s="6">
-        <f>E18*J1</f>
-        <v>720.5</v>
-      </c>
-      <c r="F3" s="6">
-        <f>F18*J1</f>
-        <v>523.69999999999993</v>
-      </c>
-      <c r="G3" s="6">
-        <f>G18*J1</f>
-        <v>571.6</v>
-      </c>
-      <c r="H3" s="6">
-        <f>H18*J1</f>
-        <v>385.3</v>
-      </c>
-      <c r="I3" s="6">
-        <f>I18*J1</f>
-        <v>383.79999999999995</v>
-      </c>
-      <c r="J3" s="6">
-        <f>J18*J1</f>
-        <v>416.50000000000006</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="6">
-        <f>B18*J1 +B65*J1</f>
-        <v>413.98832187500005</v>
-      </c>
-      <c r="C4" s="6">
-        <f>C18*J1 +C65*J1</f>
-        <v>696.72576250000009</v>
-      </c>
-      <c r="D4" s="6">
-        <f>D18*J1 +D65*J1</f>
-        <v>700.3235218750001</v>
-      </c>
-      <c r="E4" s="6">
-        <f>E18*J1 +E65*J1</f>
-        <v>722.29808125</v>
-      </c>
-      <c r="F4" s="6">
-        <f>F18*J1+F65*J1</f>
-        <v>524.02576249999993</v>
-      </c>
-      <c r="G4" s="6">
-        <f>G18*J1+G65*J1</f>
-        <v>573.56096250000007</v>
-      </c>
-      <c r="H4" s="6">
-        <f>H18*J1+H65*J1</f>
-        <v>387.26096250000001</v>
-      </c>
-      <c r="I4" s="6">
-        <f>I18*J1+I65*J1</f>
-        <v>384.29024062499997</v>
-      </c>
-      <c r="J4" s="6">
-        <f>J18*J1+J65*J1</f>
-        <v>416.66288125000005</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="6">
-        <f>B18*J1 + 0.024*J1</f>
-        <v>411.94000000000005</v>
-      </c>
-      <c r="C5" s="6">
-        <f>C18*J1 + 0.024*J1</f>
-        <v>696.6400000000001</v>
-      </c>
-      <c r="D5" s="6">
-        <f>D18*J1 + 0.024*J1</f>
-        <v>696.6400000000001</v>
-      </c>
-      <c r="E5" s="6">
-        <f>E18*J1 + 0.024*J1</f>
-        <v>720.74</v>
-      </c>
-      <c r="F5" s="6">
-        <f>F18*J1 + 0.024*J1</f>
-        <v>523.93999999999994</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0</v>
-      </c>
-      <c r="I5" s="3">
-        <v>0</v>
-      </c>
-      <c r="J5" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="6">
-        <f>B18*J1 + B32*J1</f>
-        <v>432.58776375000002</v>
-      </c>
-      <c r="C6" s="6">
-        <f>C18*J1 + C32*J1</f>
-        <v>717.05398125000011</v>
-      </c>
-      <c r="D6" s="6">
-        <f>D18*J1 + D32*J1</f>
-        <v>717.05398125000011</v>
-      </c>
-      <c r="E6" s="6">
-        <f>E18*J1 + E32*J1</f>
-        <v>742.55475999999999</v>
-      </c>
-      <c r="F6" s="6">
-        <f>F18*J1 + F32*J1</f>
-        <v>546.37434749999989</v>
-      </c>
-      <c r="G6" s="6">
-        <f>G18*J1 + G32*J1</f>
-        <v>593.94539125000006</v>
-      </c>
-      <c r="H6" s="6">
-        <f>H18*J1 + H32*J1</f>
-        <v>405.76363375</v>
-      </c>
-      <c r="I6" s="6">
-        <f>I18*J1 + I32*J1</f>
-        <v>401.83127374999998</v>
-      </c>
-      <c r="J6" s="6">
-        <f>J18*J1 + J32*J1</f>
-        <v>439.59145125000003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="6">
-        <v>379.43666374999998</v>
-      </c>
-      <c r="C7" s="6">
-        <v>531.51090124999996</v>
-      </c>
-      <c r="D7" s="6">
-        <v>531.51090124999996</v>
-      </c>
-      <c r="E7" s="6">
-        <v>547.21167999999898</v>
-      </c>
-      <c r="F7" s="6">
-        <v>397.70571749999999</v>
-      </c>
-      <c r="G7" s="3">
-        <v>516.76874124999995</v>
-      </c>
-      <c r="H7" s="3">
-        <v>368.63808375000002</v>
-      </c>
-      <c r="I7" s="3">
-        <v>364.305723749999</v>
-      </c>
-      <c r="J7" s="3">
-        <v>411.57</v>
-      </c>
-      <c r="K7" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="L7" s="8"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" s="6">
-        <v>99.625481749999906</v>
-      </c>
-      <c r="C8" s="6">
-        <v>175.69336675</v>
-      </c>
-      <c r="D8" s="6">
-        <v>175.69336675</v>
-      </c>
-      <c r="E8" s="6">
-        <v>182.75414549999999</v>
-      </c>
-      <c r="F8" s="6">
-        <v>162.12954550000001</v>
-      </c>
-      <c r="G8" s="3">
-        <v>258.99036749999999</v>
-      </c>
-      <c r="H8" s="3">
-        <v>147.81978974999899</v>
-      </c>
-      <c r="I8" s="3">
-        <v>88.572379749999996</v>
-      </c>
-      <c r="J8" s="3">
-        <v>147.69999999999999</v>
-      </c>
-      <c r="K8" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="L8" s="8"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="I11" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="J11" s="17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
-        <v>1</v>
-      </c>
-      <c r="B12" s="12">
-        <v>5.31</v>
-      </c>
-      <c r="C12" s="12">
-        <v>18.54</v>
-      </c>
-      <c r="D12" s="12">
-        <v>18.54</v>
-      </c>
-      <c r="E12" s="12">
-        <v>19.52</v>
-      </c>
-      <c r="F12" s="12">
-        <v>14.85</v>
-      </c>
-      <c r="G12" s="12">
-        <v>7.71</v>
-      </c>
-      <c r="H12" s="12">
-        <v>3.71</v>
-      </c>
-      <c r="I12" s="12">
-        <v>3.75</v>
-      </c>
-      <c r="J12" s="12">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
-        <v>2</v>
-      </c>
-      <c r="B13" s="12">
-        <v>26.29</v>
-      </c>
-      <c r="C13" s="12">
-        <v>37.49</v>
-      </c>
-      <c r="D13" s="12">
-        <v>37.49</v>
-      </c>
-      <c r="E13" s="12">
-        <v>37.549999999999997</v>
-      </c>
-      <c r="F13" s="12">
-        <v>33.450000000000003</v>
-      </c>
-      <c r="G13" s="12">
-        <v>39.020000000000003</v>
-      </c>
-      <c r="H13" s="12">
-        <v>20.07</v>
-      </c>
-      <c r="I13" s="12">
-        <v>20.18</v>
-      </c>
-      <c r="J13" s="12">
-        <v>15.63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
-        <v>3</v>
-      </c>
-      <c r="B14" s="12">
-        <v>6.3</v>
-      </c>
-      <c r="C14" s="12">
-        <v>10.71</v>
-      </c>
-      <c r="D14" s="12">
-        <v>10.71</v>
-      </c>
-      <c r="E14" s="12">
-        <v>11.93</v>
-      </c>
-      <c r="F14" s="12">
-        <v>2.84</v>
-      </c>
-      <c r="G14" s="12">
-        <v>7.11</v>
-      </c>
-      <c r="H14" s="12">
-        <v>10.71</v>
-      </c>
-      <c r="I14" s="12">
-        <v>11.03</v>
-      </c>
-      <c r="J14" s="12">
-        <v>19.05</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
-        <v>4</v>
-      </c>
-      <c r="B15" s="12">
-        <v>0.92</v>
-      </c>
-      <c r="C15" s="12">
-        <v>1.68</v>
-      </c>
-      <c r="D15" s="12">
-        <v>1.68</v>
-      </c>
-      <c r="E15" s="12">
-        <v>1.83</v>
-      </c>
-      <c r="F15" s="12">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="G15" s="12">
-        <v>0.99</v>
-      </c>
-      <c r="H15" s="12">
-        <v>3.46</v>
-      </c>
-      <c r="I15" s="12">
-        <v>3.34</v>
-      </c>
-      <c r="J15" s="12">
-        <v>4.13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
-        <v>5</v>
-      </c>
-      <c r="B16" s="12">
-        <v>2.27</v>
-      </c>
-      <c r="C16" s="12">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="D16" s="12">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="E16" s="12">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="F16" s="12">
-        <v>0.08</v>
-      </c>
-      <c r="G16" s="12">
-        <v>2.25</v>
-      </c>
-      <c r="H16" s="12">
-        <v>0.54</v>
-      </c>
-      <c r="I16" s="12">
-        <v>0.08</v>
-      </c>
-      <c r="J16" s="12">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
-        <v>6</v>
-      </c>
-      <c r="B17" s="12">
-        <v>0.08</v>
-      </c>
-      <c r="C17" s="12">
-        <v>0.08</v>
-      </c>
-      <c r="D17" s="12">
-        <v>0.08</v>
-      </c>
-      <c r="E17" s="12">
-        <v>0.08</v>
-      </c>
-      <c r="F17" s="12">
-        <v>0</v>
-      </c>
-      <c r="G17" s="12">
-        <v>0.08</v>
-      </c>
-      <c r="H17" s="12">
-        <v>0.04</v>
-      </c>
-      <c r="I17" s="12">
-        <v>0</v>
-      </c>
-      <c r="J17" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="12">
-        <f>SUM(B12:B17)</f>
-        <v>41.17</v>
-      </c>
-      <c r="C18" s="12">
-        <f t="shared" ref="C18:J18" si="0">SUM(C12:C17)</f>
-        <v>69.640000000000015</v>
-      </c>
-      <c r="D18" s="12">
-        <f t="shared" si="0"/>
-        <v>69.640000000000015</v>
-      </c>
-      <c r="E18" s="12">
-        <f t="shared" si="0"/>
-        <v>72.05</v>
-      </c>
-      <c r="F18" s="12">
-        <f t="shared" si="0"/>
-        <v>52.37</v>
-      </c>
-      <c r="G18" s="12">
-        <f t="shared" si="0"/>
-        <v>57.160000000000004</v>
-      </c>
-      <c r="H18" s="12">
-        <f t="shared" si="0"/>
-        <v>38.53</v>
-      </c>
-      <c r="I18" s="12">
-        <f t="shared" si="0"/>
-        <v>38.379999999999995</v>
-      </c>
-      <c r="J18" s="12">
-        <f t="shared" si="0"/>
-        <v>41.650000000000006</v>
-      </c>
-      <c r="K18" s="14"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="H21" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="I21" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="J21" s="17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="4">
-        <v>1</v>
-      </c>
-      <c r="B22" s="16">
-        <f>B49/B59*D59</f>
-        <v>5.11E-3</v>
-      </c>
-      <c r="C22" s="16">
-        <f>C49/B59*D59</f>
-        <v>1.4308000000000001E-2</v>
-      </c>
-      <c r="D22" s="16">
-        <f>D49/B59*D59</f>
-        <v>1.4308000000000001E-2</v>
-      </c>
-      <c r="E22" s="16">
-        <f>E49/B59*D59</f>
-        <v>1.4308000000000001E-2</v>
-      </c>
-      <c r="F22" s="16">
-        <f>F49/B59*D59</f>
-        <v>1.6863E-2</v>
-      </c>
-      <c r="G22" s="16">
-        <f>G49/B59*D59</f>
-        <v>7.6649999999999999E-3</v>
-      </c>
-      <c r="H22" s="16">
-        <f>H49/B59*D59</f>
-        <v>2.555E-3</v>
-      </c>
-      <c r="I22" s="16">
-        <f>I49/B59*D59</f>
-        <v>2.555E-3</v>
-      </c>
-      <c r="J22" s="16">
-        <f>J49/B59*D59</f>
-        <v>2.2994999999999999E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="4">
-        <v>2</v>
-      </c>
-      <c r="B23" s="16">
-        <f>B50/B59*D59</f>
-        <v>0.14818999999999999</v>
-      </c>
-      <c r="C23" s="16">
-        <f>C50/B59*D59</f>
-        <v>0.14818999999999999</v>
-      </c>
-      <c r="D23" s="16">
-        <f>D50/B59*D59</f>
-        <v>0.14818999999999999</v>
-      </c>
-      <c r="E23" s="16">
-        <f>E50/B59*D59</f>
-        <v>0.14818999999999999</v>
-      </c>
-      <c r="F23" s="16">
-        <f>F50/B59*D59</f>
-        <v>0.262654</v>
-      </c>
-      <c r="G23" s="16">
-        <f>G50/B59*D59</f>
-        <v>0.221774</v>
-      </c>
-      <c r="H23" s="16">
-        <f>H50/B59*D59</f>
-        <v>3.7302999999999996E-2</v>
-      </c>
-      <c r="I23" s="16">
-        <f>I50/B59*D59</f>
-        <v>3.7302999999999996E-2</v>
-      </c>
-      <c r="J23" s="16">
-        <f>J50/B59*D59</f>
-        <v>6.6430000000000003E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="4">
-        <v>3</v>
-      </c>
-      <c r="B24" s="16">
-        <f>B51/B59*D59</f>
-        <v>0.44303700000000001</v>
-      </c>
-      <c r="C24" s="16">
-        <f>C51/B59*D59</f>
-        <v>0.47995675000000004</v>
-      </c>
-      <c r="D24" s="16">
-        <f>D51/B59*D59</f>
-        <v>0.47995675000000004</v>
-      </c>
-      <c r="E24" s="16">
-        <f>E51/B59*D59</f>
-        <v>0.47995675000000004</v>
-      </c>
-      <c r="F24" s="16">
-        <f>F51/B59*D59</f>
-        <v>1.3122480000000001</v>
-      </c>
-      <c r="G24" s="16">
-        <f>G51/B59*D59</f>
-        <v>0.47995675000000004</v>
-      </c>
-      <c r="H24" s="16">
-        <f>H51/B59*D59</f>
-        <v>0.14818999999999999</v>
-      </c>
-      <c r="I24" s="16">
-        <f>I51/B59*D59</f>
-        <v>0.14818999999999999</v>
-      </c>
-      <c r="J24" s="16">
-        <f>J51/B59*D59</f>
-        <v>0.26367600000000002</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="4">
-        <v>4</v>
-      </c>
-      <c r="B25" s="16">
-        <f>B52/B59*D59</f>
-        <v>0.40062400000000004</v>
-      </c>
-      <c r="C25" s="16">
-        <f>C52/B59*D59</f>
-        <v>0.85439199999999993</v>
-      </c>
-      <c r="D25" s="16">
-        <f>D52/B59*D59</f>
-        <v>0.85439199999999993</v>
-      </c>
-      <c r="E25" s="16">
-        <f>E52/B59*D59</f>
-        <v>0.85439199999999993</v>
-      </c>
-      <c r="F25" s="16">
-        <f>F52/B59*D59</f>
-        <v>0.52735200000000004</v>
-      </c>
-      <c r="G25" s="16">
-        <f>G52/B59*D59</f>
-        <v>0.43332799999999999</v>
-      </c>
-      <c r="H25" s="16">
-        <f>H52/B59*D59</f>
-        <v>1.5738800000000002</v>
-      </c>
-      <c r="I25" s="16">
-        <f>I52/B59*D59</f>
-        <v>1.5738800000000002</v>
-      </c>
-      <c r="J25" s="16">
-        <f>J52/B59*D59</f>
-        <v>1.9642839999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="4">
-        <v>5</v>
-      </c>
-      <c r="B26" s="16">
-        <f>B53/B59*D59</f>
-        <v>1.050616</v>
-      </c>
-      <c r="C26" s="16">
-        <f>C53/B59*D59</f>
-        <v>0.52735200000000004</v>
-      </c>
-      <c r="D26" s="16">
-        <f>D53/B59*D59</f>
-        <v>0.52735200000000004</v>
-      </c>
-      <c r="E26" s="16">
-        <f>E53/B59*D59</f>
-        <v>0.52735200000000004</v>
-      </c>
-      <c r="F26" s="16">
-        <f>F53/B59*D59</f>
-        <v>0.14831775</v>
-      </c>
-      <c r="G26" s="16">
-        <f>G53/B59*D59</f>
-        <v>1.050616</v>
-      </c>
-      <c r="H26" s="16">
-        <f>H53/B59*D59</f>
-        <v>0.26367600000000002</v>
-      </c>
-      <c r="I26" s="16">
-        <f>I53/B59*D59</f>
-        <v>4.1199375000000003E-2</v>
-      </c>
-      <c r="J26" s="16">
-        <f>J53/B59*D59</f>
-        <v>1.2455625000000001E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="4">
-        <v>6</v>
-      </c>
-      <c r="B27" s="16">
-        <f>B54/B59*D59</f>
-        <v>4.1199375000000003E-2</v>
-      </c>
-      <c r="C27" s="16">
-        <f>C54/B59*D59</f>
-        <v>4.1199375000000003E-2</v>
-      </c>
-      <c r="D27" s="16">
-        <f>D54/B59*D59</f>
-        <v>4.1199375000000003E-2</v>
-      </c>
-      <c r="E27" s="16">
-        <f>E54/B59*D59</f>
-        <v>0.18127725</v>
-      </c>
-      <c r="F27" s="16">
-        <f>F54/B59*D59</f>
-        <v>0</v>
-      </c>
-      <c r="G27" s="16">
-        <f>G54/B59*D59</f>
-        <v>4.1199375000000003E-2</v>
-      </c>
-      <c r="H27" s="16">
-        <f>H54/B59*D59</f>
-        <v>2.0759375E-2</v>
-      </c>
-      <c r="I27" s="16">
-        <f>I54/B59*D59</f>
-        <v>0</v>
-      </c>
-      <c r="J27" s="16">
-        <f>J54/B59*D59</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B28" s="16">
-        <f>SUM(B22:B27)</f>
-        <v>2.0887763750000001</v>
-      </c>
-      <c r="C28" s="16">
-        <f t="shared" ref="C28:I28" si="1">SUM(C22:C27)</f>
-        <v>2.0653981250000002</v>
-      </c>
-      <c r="D28" s="16">
-        <f t="shared" si="1"/>
-        <v>2.0653981250000002</v>
-      </c>
-      <c r="E28" s="16">
-        <f t="shared" si="1"/>
-        <v>2.205476</v>
-      </c>
-      <c r="F28" s="16">
-        <f t="shared" si="1"/>
-        <v>2.2674347500000001</v>
-      </c>
-      <c r="G28" s="16">
-        <f>SUM(G22:G27)</f>
-        <v>2.234539125</v>
-      </c>
-      <c r="H28" s="16">
-        <f t="shared" si="1"/>
-        <v>2.0463633750000003</v>
-      </c>
-      <c r="I28" s="16">
-        <f t="shared" si="1"/>
-        <v>1.8031273750000001</v>
-      </c>
-      <c r="J28" s="16">
-        <f>SUM(J22:J27)</f>
-        <v>2.3091451249999997</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="25"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G31" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="H31" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="I31" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="J31" s="17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B32" s="7">
-        <f>B55/B59*D59</f>
-        <v>2.0887763750000001</v>
-      </c>
-      <c r="C32" s="7">
-        <f>C55/B59*D59</f>
-        <v>2.0653981250000002</v>
-      </c>
-      <c r="D32" s="7">
-        <f>D55/B59*D59</f>
-        <v>2.0653981250000002</v>
-      </c>
-      <c r="E32" s="7">
-        <f>E55/B59*D59</f>
-        <v>2.205476</v>
-      </c>
-      <c r="F32" s="7">
-        <f>F55/B59*D59</f>
-        <v>2.2674347500000005</v>
-      </c>
-      <c r="G32" s="7">
-        <f>G55/B59*D59</f>
-        <v>2.2345391250000004</v>
-      </c>
-      <c r="H32" s="7">
-        <f>H55/B59*D59</f>
-        <v>2.0463633749999999</v>
-      </c>
-      <c r="I32" s="7">
-        <f>I55/B59*D59</f>
-        <v>1.8031273750000001</v>
-      </c>
-      <c r="J32" s="7">
-        <f>J55/B59*D59</f>
-        <v>2.3091451250000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="25"/>
-      <c r="J35" s="25"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G36" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="H36" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="I36" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="J36" s="17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="4">
-        <v>1</v>
-      </c>
-      <c r="B37" s="12">
-        <v>160</v>
-      </c>
-      <c r="C37" s="12">
-        <v>448</v>
-      </c>
-      <c r="D37" s="12">
-        <v>448</v>
-      </c>
-      <c r="E37" s="12">
-        <v>448</v>
-      </c>
-      <c r="F37" s="12">
-        <v>528</v>
-      </c>
-      <c r="G37" s="12">
-        <v>240</v>
-      </c>
-      <c r="H37" s="12">
-        <v>80</v>
-      </c>
-      <c r="I37" s="12">
-        <v>80</v>
-      </c>
-      <c r="J37" s="12">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="4">
-        <v>2</v>
-      </c>
-      <c r="B38" s="12">
-        <v>4640</v>
-      </c>
-      <c r="C38" s="12">
-        <v>4640</v>
-      </c>
-      <c r="D38" s="12">
-        <v>4640</v>
-      </c>
-      <c r="E38" s="12">
-        <v>4640</v>
-      </c>
-      <c r="F38" s="12">
-        <v>8224</v>
-      </c>
-      <c r="G38" s="12">
-        <v>6944</v>
-      </c>
-      <c r="H38" s="12">
-        <v>1168</v>
-      </c>
-      <c r="I38" s="12">
-        <v>1168</v>
-      </c>
-      <c r="J38" s="12">
-        <v>2080</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="4">
-        <v>3</v>
-      </c>
-      <c r="B39" s="12">
-        <v>13872</v>
-      </c>
-      <c r="C39" s="12">
-        <v>15028</v>
-      </c>
-      <c r="D39" s="12">
-        <v>15028</v>
-      </c>
-      <c r="E39" s="12">
-        <v>15028</v>
-      </c>
-      <c r="F39" s="12">
-        <v>41088</v>
-      </c>
-      <c r="G39" s="12">
-        <v>15028</v>
-      </c>
-      <c r="H39" s="12">
-        <v>4640</v>
-      </c>
-      <c r="I39" s="12">
-        <v>4640</v>
-      </c>
-      <c r="J39" s="12">
-        <v>8256</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="4">
-        <v>4</v>
-      </c>
-      <c r="B40" s="12">
-        <v>12544</v>
-      </c>
-      <c r="C40" s="12">
-        <v>26752</v>
-      </c>
-      <c r="D40" s="12">
-        <v>26752</v>
-      </c>
-      <c r="E40" s="12">
-        <v>26752</v>
-      </c>
-      <c r="F40" s="12">
-        <v>16512</v>
-      </c>
-      <c r="G40" s="12">
-        <v>13568</v>
-      </c>
-      <c r="H40" s="12">
-        <v>49280</v>
-      </c>
-      <c r="I40" s="12">
-        <v>49280</v>
-      </c>
-      <c r="J40" s="12">
-        <v>61504</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="4">
-        <v>5</v>
-      </c>
-      <c r="B41" s="12">
-        <v>32896</v>
-      </c>
-      <c r="C41" s="12">
-        <v>16512</v>
-      </c>
-      <c r="D41" s="12">
-        <v>16512</v>
-      </c>
-      <c r="E41" s="12">
-        <v>16512</v>
-      </c>
-      <c r="F41" s="12">
-        <v>4644</v>
-      </c>
-      <c r="G41" s="12">
-        <v>32896</v>
-      </c>
-      <c r="H41" s="12">
-        <v>8256</v>
-      </c>
-      <c r="I41" s="12">
-        <v>1290</v>
-      </c>
-      <c r="J41" s="12">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="4">
-        <v>6</v>
-      </c>
-      <c r="B42" s="12">
-        <v>1290</v>
-      </c>
-      <c r="C42" s="12">
-        <v>1290</v>
-      </c>
-      <c r="D42" s="12">
-        <v>1290</v>
-      </c>
-      <c r="E42" s="12">
-        <v>5676</v>
-      </c>
-      <c r="F42" s="12">
-        <v>0</v>
-      </c>
-      <c r="G42" s="12">
-        <v>1290</v>
-      </c>
-      <c r="H42" s="12">
-        <v>650</v>
-      </c>
-      <c r="I42" s="12">
-        <v>0</v>
-      </c>
-      <c r="J42" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B43" s="12">
-        <f>SUM(B37:B42)</f>
-        <v>65402</v>
-      </c>
-      <c r="C43" s="12">
-        <f t="shared" ref="C43:J43" si="2">SUM(C37:C42)</f>
-        <v>64670</v>
-      </c>
-      <c r="D43" s="12">
-        <f t="shared" si="2"/>
-        <v>64670</v>
-      </c>
-      <c r="E43" s="12">
-        <f t="shared" si="2"/>
-        <v>69056</v>
-      </c>
-      <c r="F43" s="12">
-        <f t="shared" si="2"/>
-        <v>70996</v>
-      </c>
-      <c r="G43" s="12">
-        <f t="shared" si="2"/>
-        <v>69966</v>
-      </c>
-      <c r="H43" s="12">
-        <f t="shared" si="2"/>
-        <v>64074</v>
-      </c>
-      <c r="I43" s="12">
-        <f t="shared" si="2"/>
-        <v>56458</v>
-      </c>
-      <c r="J43" s="12">
-        <f t="shared" si="2"/>
-        <v>72302</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B44" s="13">
-        <f>B43*2/1000</f>
-        <v>130.804</v>
-      </c>
-      <c r="C44" s="13">
-        <f t="shared" ref="C44:J44" si="3">C43*2/1000</f>
-        <v>129.34</v>
-      </c>
-      <c r="D44" s="13">
-        <f t="shared" si="3"/>
-        <v>129.34</v>
-      </c>
-      <c r="E44" s="13">
-        <f t="shared" si="3"/>
-        <v>138.11199999999999</v>
-      </c>
-      <c r="F44" s="13">
-        <f t="shared" si="3"/>
-        <v>141.99199999999999</v>
-      </c>
-      <c r="G44" s="13">
-        <f t="shared" si="3"/>
-        <v>139.93199999999999</v>
-      </c>
-      <c r="H44" s="13">
-        <f t="shared" si="3"/>
-        <v>128.148</v>
-      </c>
-      <c r="I44" s="13">
-        <f t="shared" si="3"/>
-        <v>112.916</v>
-      </c>
-      <c r="J44" s="13">
-        <f t="shared" si="3"/>
-        <v>144.60400000000001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="15"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="8"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="B47" s="25"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
-      <c r="H47" s="25"/>
-      <c r="I47" s="25"/>
-      <c r="J47" s="25"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G48" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="H48" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="I48" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="J48" s="17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="4">
-        <v>1</v>
-      </c>
-      <c r="B49" s="12">
-        <f>B37*2/1000</f>
-        <v>0.32</v>
-      </c>
-      <c r="C49" s="12">
-        <f t="shared" ref="C49:J49" si="4">C37*2/1000</f>
-        <v>0.89600000000000002</v>
-      </c>
-      <c r="D49" s="12">
-        <f t="shared" si="4"/>
-        <v>0.89600000000000002</v>
-      </c>
-      <c r="E49" s="12">
-        <f t="shared" si="4"/>
-        <v>0.89600000000000002</v>
-      </c>
-      <c r="F49" s="12">
-        <f t="shared" si="4"/>
-        <v>1.056</v>
-      </c>
-      <c r="G49" s="12">
-        <f t="shared" si="4"/>
-        <v>0.48</v>
-      </c>
-      <c r="H49" s="12">
-        <f t="shared" si="4"/>
-        <v>0.16</v>
-      </c>
-      <c r="I49" s="12">
-        <f t="shared" si="4"/>
-        <v>0.16</v>
-      </c>
-      <c r="J49" s="12">
-        <f t="shared" si="4"/>
-        <v>0.14399999999999999</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="4">
-        <v>2</v>
-      </c>
-      <c r="B50" s="12">
-        <f t="shared" ref="B50:J54" si="5">B38*2/1000</f>
-        <v>9.2799999999999994</v>
-      </c>
-      <c r="C50" s="12">
-        <f t="shared" si="5"/>
-        <v>9.2799999999999994</v>
-      </c>
-      <c r="D50" s="12">
-        <f t="shared" si="5"/>
-        <v>9.2799999999999994</v>
-      </c>
-      <c r="E50" s="12">
-        <f t="shared" si="5"/>
-        <v>9.2799999999999994</v>
-      </c>
-      <c r="F50" s="12">
-        <f t="shared" si="5"/>
-        <v>16.448</v>
-      </c>
-      <c r="G50" s="12">
-        <f t="shared" si="5"/>
-        <v>13.888</v>
-      </c>
-      <c r="H50" s="12">
-        <f t="shared" si="5"/>
-        <v>2.3359999999999999</v>
-      </c>
-      <c r="I50" s="12">
-        <f t="shared" si="5"/>
-        <v>2.3359999999999999</v>
-      </c>
-      <c r="J50" s="12">
-        <f t="shared" si="5"/>
-        <v>4.16</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="4">
-        <v>3</v>
-      </c>
-      <c r="B51" s="12">
-        <f t="shared" si="5"/>
-        <v>27.744</v>
-      </c>
-      <c r="C51" s="12">
-        <f t="shared" si="5"/>
-        <v>30.056000000000001</v>
-      </c>
-      <c r="D51" s="12">
-        <f t="shared" si="5"/>
-        <v>30.056000000000001</v>
-      </c>
-      <c r="E51" s="12">
-        <f t="shared" si="5"/>
-        <v>30.056000000000001</v>
-      </c>
-      <c r="F51" s="12">
-        <f t="shared" si="5"/>
-        <v>82.176000000000002</v>
-      </c>
-      <c r="G51" s="12">
-        <f t="shared" si="5"/>
-        <v>30.056000000000001</v>
-      </c>
-      <c r="H51" s="12">
-        <f t="shared" si="5"/>
-        <v>9.2799999999999994</v>
-      </c>
-      <c r="I51" s="12">
-        <f t="shared" si="5"/>
-        <v>9.2799999999999994</v>
-      </c>
-      <c r="J51" s="12">
-        <f t="shared" si="5"/>
-        <v>16.512</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" s="4">
-        <v>4</v>
-      </c>
-      <c r="B52" s="12">
-        <f t="shared" si="5"/>
-        <v>25.088000000000001</v>
-      </c>
-      <c r="C52" s="12">
-        <f t="shared" si="5"/>
-        <v>53.503999999999998</v>
-      </c>
-      <c r="D52" s="12">
-        <f t="shared" si="5"/>
-        <v>53.503999999999998</v>
-      </c>
-      <c r="E52" s="12">
-        <f t="shared" si="5"/>
-        <v>53.503999999999998</v>
-      </c>
-      <c r="F52" s="12">
-        <f t="shared" si="5"/>
-        <v>33.024000000000001</v>
-      </c>
-      <c r="G52" s="12">
-        <f t="shared" si="5"/>
-        <v>27.135999999999999</v>
-      </c>
-      <c r="H52" s="12">
-        <f t="shared" si="5"/>
-        <v>98.56</v>
-      </c>
-      <c r="I52" s="12">
-        <f t="shared" si="5"/>
-        <v>98.56</v>
-      </c>
-      <c r="J52" s="12">
-        <f t="shared" si="5"/>
-        <v>123.008</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="4">
-        <v>5</v>
-      </c>
-      <c r="B53" s="12">
-        <f t="shared" si="5"/>
-        <v>65.792000000000002</v>
-      </c>
-      <c r="C53" s="12">
-        <f t="shared" si="5"/>
-        <v>33.024000000000001</v>
-      </c>
-      <c r="D53" s="12">
-        <f t="shared" si="5"/>
-        <v>33.024000000000001</v>
-      </c>
-      <c r="E53" s="12">
-        <f t="shared" si="5"/>
-        <v>33.024000000000001</v>
-      </c>
-      <c r="F53" s="12">
-        <f t="shared" si="5"/>
-        <v>9.2880000000000003</v>
-      </c>
-      <c r="G53" s="12">
-        <f t="shared" si="5"/>
-        <v>65.792000000000002</v>
-      </c>
-      <c r="H53" s="12">
-        <f t="shared" si="5"/>
-        <v>16.512</v>
-      </c>
-      <c r="I53" s="12">
-        <f t="shared" si="5"/>
-        <v>2.58</v>
-      </c>
-      <c r="J53" s="12">
-        <f t="shared" si="5"/>
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="4">
-        <v>6</v>
-      </c>
-      <c r="B54" s="12">
-        <f t="shared" si="5"/>
-        <v>2.58</v>
-      </c>
-      <c r="C54" s="12">
-        <f t="shared" si="5"/>
-        <v>2.58</v>
-      </c>
-      <c r="D54" s="12">
-        <f t="shared" si="5"/>
-        <v>2.58</v>
-      </c>
-      <c r="E54" s="12">
-        <f t="shared" si="5"/>
-        <v>11.352</v>
-      </c>
-      <c r="F54" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G54" s="12">
-        <f t="shared" si="5"/>
-        <v>2.58</v>
-      </c>
-      <c r="H54" s="12">
-        <f t="shared" si="5"/>
-        <v>1.3</v>
-      </c>
-      <c r="I54" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J54" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B55" s="12">
-        <f>SUM(B49:B54)</f>
-        <v>130.804</v>
-      </c>
-      <c r="C55" s="12">
-        <f t="shared" ref="C55:F55" si="6">SUM(C49:C54)</f>
-        <v>129.34</v>
-      </c>
-      <c r="D55" s="12">
-        <f t="shared" si="6"/>
-        <v>129.34</v>
-      </c>
-      <c r="E55" s="12">
-        <f t="shared" si="6"/>
-        <v>138.11199999999999</v>
-      </c>
-      <c r="F55" s="12">
-        <f t="shared" si="6"/>
-        <v>141.99200000000002</v>
-      </c>
-      <c r="G55" s="12">
-        <f>SUM(G49:G54)</f>
-        <v>139.93200000000002</v>
-      </c>
-      <c r="H55" s="12">
-        <f t="shared" ref="H55:J55" si="7">SUM(H49:H54)</f>
-        <v>128.148</v>
-      </c>
-      <c r="I55" s="12">
-        <f t="shared" si="7"/>
-        <v>112.916</v>
-      </c>
-      <c r="J55" s="12">
-        <f t="shared" si="7"/>
-        <v>144.60400000000001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="B58" s="25"/>
-      <c r="C58" s="25"/>
-      <c r="D58" s="25"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B59" s="2">
-        <v>64</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D59" s="2">
-        <v>1.022</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B62" s="25"/>
-      <c r="C62" s="25"/>
-      <c r="D62" s="25"/>
-      <c r="E62" s="25"/>
-      <c r="F62" s="25"/>
-      <c r="G62" s="25"/>
-      <c r="H62" s="25"/>
-      <c r="I62" s="25"/>
-      <c r="J62" s="25"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G63" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="H63" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="I63" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="J63" s="17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B64" s="6">
-        <v>14.33</v>
-      </c>
-      <c r="C64" s="6">
-        <v>2.04</v>
-      </c>
-      <c r="D64" s="6">
-        <v>24.57</v>
-      </c>
-      <c r="E64" s="6">
-        <v>11.26</v>
-      </c>
-      <c r="F64" s="6">
-        <v>2.04</v>
-      </c>
-      <c r="G64" s="3">
-        <v>12.28</v>
-      </c>
-      <c r="H64" s="3">
-        <v>12.28</v>
-      </c>
-      <c r="I64" s="3">
-        <v>3.07</v>
-      </c>
-      <c r="J64" s="3">
-        <v>1.02</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B65" s="9">
-        <f>B64/B59*D59</f>
-        <v>0.22883218750000001</v>
-      </c>
-      <c r="C65" s="9">
-        <f>C64/B59*D59</f>
-        <v>3.2576250000000001E-2</v>
-      </c>
-      <c r="D65" s="9">
-        <f>D64/B59*D59</f>
-        <v>0.3923521875</v>
-      </c>
-      <c r="E65" s="9">
-        <f>E64/B59*D59</f>
-        <v>0.17980812500000001</v>
-      </c>
-      <c r="F65" s="9">
-        <f>F64/B59*D59</f>
-        <v>3.2576250000000001E-2</v>
-      </c>
-      <c r="G65" s="9">
-        <f>G64/B59*D59</f>
-        <v>0.19609625</v>
-      </c>
-      <c r="H65" s="3">
-        <f>H64/B59*D59</f>
-        <v>0.19609625</v>
-      </c>
-      <c r="I65" s="3">
-        <f>I64/B59*D59</f>
-        <v>4.90240625E-2</v>
-      </c>
-      <c r="J65" s="3">
-        <f>J64/B59*D59</f>
-        <v>1.6288125000000001E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A58:D58"/>
-    <mergeCell ref="A62:J62"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="A47:J47"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09BB6D28-0DA4-6B47-9767-B86832CEED60}">
-  <dimension ref="A1:F66"/>
-  <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="6">
-        <f>B19*F1</f>
-        <v>29.305</v>
-      </c>
-      <c r="C3" s="6">
-        <f>C19*F1</f>
-        <v>48.844999999999999</v>
-      </c>
-      <c r="D3" s="6">
-        <f>D19*F1</f>
-        <v>48.844999999999999</v>
-      </c>
-      <c r="E3" s="6">
-        <f>E19*F1</f>
-        <v>49.164999999999999</v>
-      </c>
-      <c r="F3" s="6">
-        <f>F19*F1</f>
-        <v>21.735000000000003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="6">
-        <f>B19*F1 +B66*F1</f>
-        <v>29.81662578125</v>
-      </c>
-      <c r="C4" s="6">
-        <f>C19*F1 +C66*F1</f>
-        <v>48.917834374999998</v>
-      </c>
-      <c r="D4" s="6">
-        <f>D19*F1 +D66*F1</f>
-        <v>49.722225781249996</v>
-      </c>
-      <c r="E4" s="6">
-        <f>E19*F1 +E66*F1</f>
-        <v>49.567017187499999</v>
-      </c>
-      <c r="F4" s="6">
-        <f>F19*F1+F66*F1</f>
-        <v>21.807834375000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="6">
-        <f>B19*F1 + 0.024*F1</f>
-        <v>29.425000000000001</v>
-      </c>
-      <c r="C5" s="6">
-        <f>C19*F1 + 0.024*F1</f>
-        <v>48.964999999999996</v>
-      </c>
-      <c r="D5" s="6">
-        <f>D19*F1 + 0.024*F1</f>
-        <v>48.964999999999996</v>
-      </c>
-      <c r="E5" s="6">
-        <f>E19*F1 + 0.024*F1</f>
-        <v>49.284999999999997</v>
-      </c>
-      <c r="F5" s="6">
-        <f>F19*F1 + 0.024*F1</f>
-        <v>21.855000000000004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="6">
-        <f>B19*F1 + B33*F1</f>
-        <v>33.975111562499997</v>
-      </c>
-      <c r="C6" s="6">
-        <f>C19*F1 + C33*F1</f>
-        <v>53.462842187500002</v>
-      </c>
-      <c r="D6" s="6">
-        <f>D19*F1 + D33*F1</f>
-        <v>53.462842187500002</v>
-      </c>
-      <c r="E6" s="6">
-        <f>E19*F1 + E33*F1</f>
-        <v>54.096029999999999</v>
-      </c>
-      <c r="F6" s="6">
-        <f>F19*F1 + F33*F1</f>
-        <v>26.260728125000004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="6">
-        <v>30.26</v>
-      </c>
-      <c r="C7" s="6">
-        <v>40.58</v>
-      </c>
-      <c r="D7" s="6">
-        <v>40.58</v>
-      </c>
-      <c r="E7" s="6">
-        <v>41.06</v>
-      </c>
-      <c r="F7" s="6">
-        <v>19.72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="6">
-        <v>18.21</v>
-      </c>
-      <c r="C8" s="6">
-        <v>17.73</v>
-      </c>
-      <c r="D8" s="6">
-        <v>17.73</v>
-      </c>
-      <c r="E8" s="6">
-        <v>18.09</v>
-      </c>
-      <c r="F8" s="6">
-        <v>8.81</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
-        <v>1</v>
-      </c>
-      <c r="B13" s="12">
-        <v>0.74</v>
-      </c>
-      <c r="C13" s="12">
-        <v>2.57</v>
-      </c>
-      <c r="D13" s="12">
-        <v>2.57</v>
-      </c>
-      <c r="E13" s="12">
-        <v>2.6</v>
-      </c>
-      <c r="F13" s="12">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
-        <v>2</v>
-      </c>
-      <c r="B14" s="12">
-        <v>3.81</v>
-      </c>
-      <c r="C14" s="12">
-        <v>5.25</v>
-      </c>
-      <c r="D14" s="12">
-        <v>5.25</v>
-      </c>
-      <c r="E14" s="12">
-        <v>5.28</v>
-      </c>
-      <c r="F14" s="12">
-        <v>3.01</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
-        <v>3</v>
-      </c>
-      <c r="B15" s="12">
-        <v>1.18</v>
-      </c>
-      <c r="C15" s="12">
-        <v>1.85</v>
-      </c>
-      <c r="D15" s="12">
-        <v>1.85</v>
-      </c>
-      <c r="E15" s="12">
-        <v>1.86</v>
-      </c>
-      <c r="F15" s="12">
-        <v>1.4E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
-        <v>4</v>
-      </c>
-      <c r="B16" s="12">
-        <v>7.2999999999999995E-2</v>
-      </c>
-      <c r="C16" s="12">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="D16" s="12">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="E16" s="12">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="F16" s="12">
-        <v>1.7000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
-        <v>5</v>
-      </c>
-      <c r="B17" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="C17" s="12">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="D17" s="12">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="E17" s="12">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="F17" s="12">
-        <v>6.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="4">
-        <v>6</v>
-      </c>
-      <c r="B18" s="12">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="C18" s="12">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="D18" s="12">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="E18" s="12">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="F18" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="12">
-        <f>SUM(B13:B18)</f>
-        <v>5.8609999999999998</v>
-      </c>
-      <c r="C19" s="12">
-        <f t="shared" ref="C19:F19" si="0">SUM(C13:C18)</f>
-        <v>9.7690000000000001</v>
-      </c>
-      <c r="D19" s="12">
-        <f t="shared" si="0"/>
-        <v>9.7690000000000001</v>
-      </c>
-      <c r="E19" s="12">
-        <f t="shared" si="0"/>
-        <v>9.8330000000000002</v>
-      </c>
-      <c r="F19" s="12">
-        <f t="shared" si="0"/>
-        <v>4.3470000000000004</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="4">
-        <v>1</v>
-      </c>
-      <c r="B23" s="16">
-        <f>B50/B60*D60</f>
-        <v>2.2850000000000001E-3</v>
-      </c>
-      <c r="C23" s="16">
-        <f>C50/B60*D60</f>
-        <v>6.398E-3</v>
-      </c>
-      <c r="D23" s="16">
-        <f>D50/B60*D60</f>
-        <v>6.398E-3</v>
-      </c>
-      <c r="E23" s="16">
-        <f>E50/B60*D60</f>
-        <v>6.398E-3</v>
-      </c>
-      <c r="F23" s="16">
-        <f>F50/B60*D60</f>
-        <v>7.5405000000000003E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="4">
-        <v>2</v>
-      </c>
-      <c r="B24" s="16">
-        <f>B51/B60*D60</f>
-        <v>6.6265000000000004E-2</v>
-      </c>
-      <c r="C24" s="16">
-        <f>C51/B60*D60</f>
-        <v>6.6265000000000004E-2</v>
-      </c>
-      <c r="D24" s="16">
-        <f>D51/B60*D60</f>
-        <v>6.6265000000000004E-2</v>
-      </c>
-      <c r="E24" s="16">
-        <f>E51/B60*D60</f>
-        <v>6.6265000000000004E-2</v>
-      </c>
-      <c r="F24" s="16">
-        <f>F51/B60*D60</f>
-        <v>0.23444100000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="4">
-        <v>3</v>
-      </c>
-      <c r="B25" s="16">
-        <f>B52/B60*D60</f>
-        <v>0.19810949999999999</v>
-      </c>
-      <c r="C25" s="16">
-        <f>C52/B60*D60</f>
-        <v>0.21461862500000001</v>
-      </c>
-      <c r="D25" s="16">
-        <f>D52/B60*D60</f>
-        <v>0.21461862500000001</v>
-      </c>
-      <c r="E25" s="16">
-        <f>E52/B60*D60</f>
-        <v>0.21461862500000001</v>
-      </c>
-      <c r="F25" s="16">
-        <f>F52/B60*D60</f>
-        <v>0.29339400000000004</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="4">
-        <v>4</v>
-      </c>
-      <c r="B26" s="16">
-        <f>B53/B60*D60</f>
-        <v>0.17914400000000003</v>
-      </c>
-      <c r="C26" s="16">
-        <f>C53/B60*D60</f>
-        <v>0.382052</v>
-      </c>
-      <c r="D26" s="16">
-        <f>D53/B60*D60</f>
-        <v>0.382052</v>
-      </c>
-      <c r="E26" s="16">
-        <f>E53/B60*D60</f>
-        <v>0.382052</v>
-      </c>
-      <c r="F26" s="16">
-        <f>F53/B60*D60</f>
-        <v>0.23764000000000002</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="4">
-        <v>5</v>
-      </c>
-      <c r="B27" s="16">
-        <f>B54/B60*D60</f>
-        <v>0.46979600000000005</v>
-      </c>
-      <c r="C27" s="16">
-        <f>C54/B60*D60</f>
-        <v>0.23581200000000002</v>
-      </c>
-      <c r="D27" s="16">
-        <f>D54/B60*D60</f>
-        <v>0.23581200000000002</v>
-      </c>
-      <c r="E27" s="16">
-        <f>E54/B60*D60</f>
-        <v>0.23581200000000002</v>
-      </c>
-      <c r="F27" s="16">
-        <f>F54/B60*D60</f>
-        <v>0.13213012500000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="4">
-        <v>6</v>
-      </c>
-      <c r="B28" s="16">
-        <f>B55/B60*D60</f>
-        <v>1.84228125E-2</v>
-      </c>
-      <c r="C28" s="16">
-        <f>C55/B60*D60</f>
-        <v>1.84228125E-2</v>
-      </c>
-      <c r="D28" s="16">
-        <f>D55/B60*D60</f>
-        <v>1.84228125E-2</v>
-      </c>
-      <c r="E28" s="16">
-        <f>E55/B60*D60</f>
-        <v>8.1060375000000004E-2</v>
-      </c>
-      <c r="F28" s="16">
-        <f>F55/B60*D60</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B29" s="16">
-        <f>SUM(B23:B28)</f>
-        <v>0.93402231250000012</v>
-      </c>
-      <c r="C29" s="16">
-        <f t="shared" ref="C29:F29" si="1">SUM(C23:C28)</f>
-        <v>0.92356843749999995</v>
-      </c>
-      <c r="D29" s="16">
-        <f t="shared" si="1"/>
-        <v>0.92356843749999995</v>
-      </c>
-      <c r="E29" s="16">
-        <f t="shared" si="1"/>
-        <v>0.98620599999999992</v>
-      </c>
-      <c r="F29" s="16">
-        <f t="shared" si="1"/>
-        <v>0.90514562500000006</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B33" s="7">
-        <f>B56/B60*D60</f>
-        <v>0.93402231250000001</v>
-      </c>
-      <c r="C33" s="7">
-        <f>C56/B60*D60</f>
-        <v>0.92356843750000006</v>
-      </c>
-      <c r="D33" s="7">
-        <f>D56/B60*D60</f>
-        <v>0.92356843750000006</v>
-      </c>
-      <c r="E33" s="7">
-        <f>E56/B60*D60</f>
-        <v>0.98620600000000003</v>
-      </c>
-      <c r="F33" s="7">
-        <f>F56/B60*D60</f>
-        <v>0.90514562500000006</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="4">
-        <v>1</v>
-      </c>
-      <c r="B38" s="12">
-        <v>160</v>
-      </c>
-      <c r="C38" s="12">
-        <v>448</v>
-      </c>
-      <c r="D38" s="12">
-        <v>448</v>
-      </c>
-      <c r="E38" s="12">
-        <v>448</v>
-      </c>
-      <c r="F38" s="12">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="4">
-        <v>2</v>
-      </c>
-      <c r="B39" s="12">
-        <v>4640</v>
-      </c>
-      <c r="C39" s="12">
-        <v>4640</v>
-      </c>
-      <c r="D39" s="12">
-        <v>4640</v>
-      </c>
-      <c r="E39" s="12">
-        <v>4640</v>
-      </c>
-      <c r="F39" s="12">
-        <v>16416</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="4">
-        <v>3</v>
-      </c>
-      <c r="B40" s="12">
-        <v>13872</v>
-      </c>
-      <c r="C40" s="12">
-        <v>15028</v>
-      </c>
-      <c r="D40" s="12">
-        <v>15028</v>
-      </c>
-      <c r="E40" s="12">
-        <v>15028</v>
-      </c>
-      <c r="F40" s="12">
-        <v>20544</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="4">
-        <v>4</v>
-      </c>
-      <c r="B41" s="12">
-        <v>12544</v>
-      </c>
-      <c r="C41" s="12">
-        <v>26752</v>
-      </c>
-      <c r="D41" s="12">
-        <v>26752</v>
-      </c>
-      <c r="E41" s="12">
-        <v>26752</v>
-      </c>
-      <c r="F41" s="12">
-        <v>16640</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="4">
-        <v>5</v>
-      </c>
-      <c r="B42" s="12">
-        <v>32896</v>
-      </c>
-      <c r="C42" s="12">
-        <v>16512</v>
-      </c>
-      <c r="D42" s="12">
-        <v>16512</v>
-      </c>
-      <c r="E42" s="12">
-        <v>16512</v>
-      </c>
-      <c r="F42" s="12">
-        <v>9252</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="4">
-        <v>6</v>
-      </c>
-      <c r="B43" s="12">
-        <v>1290</v>
-      </c>
-      <c r="C43" s="12">
-        <v>1290</v>
-      </c>
-      <c r="D43" s="12">
-        <v>1290</v>
-      </c>
-      <c r="E43" s="12">
-        <v>5676</v>
-      </c>
-      <c r="F43" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B44" s="12">
-        <f>SUM(B38:B43)</f>
-        <v>65402</v>
-      </c>
-      <c r="C44" s="12">
-        <f t="shared" ref="C44:F44" si="2">SUM(C38:C43)</f>
-        <v>64670</v>
-      </c>
-      <c r="D44" s="12">
-        <f t="shared" si="2"/>
-        <v>64670</v>
-      </c>
-      <c r="E44" s="12">
-        <f t="shared" si="2"/>
-        <v>69056</v>
-      </c>
-      <c r="F44" s="12">
-        <f t="shared" si="2"/>
-        <v>63380</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B45" s="13">
-        <f>B44*2/1000</f>
-        <v>130.804</v>
-      </c>
-      <c r="C45" s="13">
-        <f t="shared" ref="C45:F45" si="3">C44*2/1000</f>
-        <v>129.34</v>
-      </c>
-      <c r="D45" s="13">
-        <f t="shared" si="3"/>
-        <v>129.34</v>
-      </c>
-      <c r="E45" s="13">
-        <f t="shared" si="3"/>
-        <v>138.11199999999999</v>
-      </c>
-      <c r="F45" s="13">
-        <f t="shared" si="3"/>
-        <v>126.76</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="15"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="8"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="B48" s="25"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="25"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="4">
-        <v>1</v>
-      </c>
-      <c r="B50" s="12">
-        <f>B38*2/1000</f>
-        <v>0.32</v>
-      </c>
-      <c r="C50" s="12">
-        <f t="shared" ref="C50:F50" si="4">C38*2/1000</f>
-        <v>0.89600000000000002</v>
-      </c>
-      <c r="D50" s="12">
-        <f t="shared" si="4"/>
-        <v>0.89600000000000002</v>
-      </c>
-      <c r="E50" s="12">
-        <f t="shared" si="4"/>
-        <v>0.89600000000000002</v>
-      </c>
-      <c r="F50" s="12">
-        <f t="shared" si="4"/>
-        <v>1.056</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="4">
-        <v>2</v>
-      </c>
-      <c r="B51" s="12">
-        <f t="shared" ref="B51:F55" si="5">B39*2/1000</f>
-        <v>9.2799999999999994</v>
-      </c>
-      <c r="C51" s="12">
-        <f t="shared" si="5"/>
-        <v>9.2799999999999994</v>
-      </c>
-      <c r="D51" s="12">
-        <f t="shared" si="5"/>
-        <v>9.2799999999999994</v>
-      </c>
-      <c r="E51" s="12">
-        <f t="shared" si="5"/>
-        <v>9.2799999999999994</v>
-      </c>
-      <c r="F51" s="12">
-        <f t="shared" si="5"/>
-        <v>32.832000000000001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="4">
-        <v>3</v>
-      </c>
-      <c r="B52" s="12">
-        <f t="shared" si="5"/>
-        <v>27.744</v>
-      </c>
-      <c r="C52" s="12">
-        <f t="shared" si="5"/>
-        <v>30.056000000000001</v>
-      </c>
-      <c r="D52" s="12">
-        <f t="shared" si="5"/>
-        <v>30.056000000000001</v>
-      </c>
-      <c r="E52" s="12">
-        <f t="shared" si="5"/>
-        <v>30.056000000000001</v>
-      </c>
-      <c r="F52" s="12">
-        <f t="shared" si="5"/>
-        <v>41.088000000000001</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="4">
-        <v>4</v>
-      </c>
-      <c r="B53" s="12">
-        <f t="shared" si="5"/>
-        <v>25.088000000000001</v>
-      </c>
-      <c r="C53" s="12">
-        <f t="shared" si="5"/>
-        <v>53.503999999999998</v>
-      </c>
-      <c r="D53" s="12">
-        <f t="shared" si="5"/>
-        <v>53.503999999999998</v>
-      </c>
-      <c r="E53" s="12">
-        <f t="shared" si="5"/>
-        <v>53.503999999999998</v>
-      </c>
-      <c r="F53" s="12">
-        <f t="shared" si="5"/>
-        <v>33.28</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="4">
-        <v>5</v>
-      </c>
-      <c r="B54" s="12">
-        <f t="shared" si="5"/>
-        <v>65.792000000000002</v>
-      </c>
-      <c r="C54" s="12">
-        <f t="shared" si="5"/>
-        <v>33.024000000000001</v>
-      </c>
-      <c r="D54" s="12">
-        <f t="shared" si="5"/>
-        <v>33.024000000000001</v>
-      </c>
-      <c r="E54" s="12">
-        <f t="shared" si="5"/>
-        <v>33.024000000000001</v>
-      </c>
-      <c r="F54" s="12">
-        <f t="shared" si="5"/>
-        <v>18.504000000000001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="4">
-        <v>6</v>
-      </c>
-      <c r="B55" s="12">
-        <f t="shared" si="5"/>
-        <v>2.58</v>
-      </c>
-      <c r="C55" s="12">
-        <f t="shared" si="5"/>
-        <v>2.58</v>
-      </c>
-      <c r="D55" s="12">
-        <f t="shared" si="5"/>
-        <v>2.58</v>
-      </c>
-      <c r="E55" s="12">
-        <f t="shared" si="5"/>
-        <v>11.352</v>
-      </c>
-      <c r="F55" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B56" s="12">
-        <f>SUM(B50:B55)</f>
-        <v>130.804</v>
-      </c>
-      <c r="C56" s="12">
-        <f t="shared" ref="C56:F56" si="6">SUM(C50:C55)</f>
-        <v>129.34</v>
-      </c>
-      <c r="D56" s="12">
-        <f t="shared" si="6"/>
-        <v>129.34</v>
-      </c>
-      <c r="E56" s="12">
-        <f t="shared" si="6"/>
-        <v>138.11199999999999</v>
-      </c>
-      <c r="F56" s="12">
-        <f t="shared" si="6"/>
-        <v>126.76</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="B59" s="25"/>
-      <c r="C59" s="25"/>
-      <c r="D59" s="25"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B60" s="2">
-        <v>64</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D60" s="2">
-        <v>0.45700000000000002</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B63" s="25"/>
-      <c r="C63" s="25"/>
-      <c r="D63" s="25"/>
-      <c r="E63" s="25"/>
-      <c r="F63" s="25"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B65" s="6">
-        <v>14.33</v>
-      </c>
-      <c r="C65" s="6">
-        <v>2.04</v>
-      </c>
-      <c r="D65" s="6">
-        <v>24.57</v>
-      </c>
-      <c r="E65" s="6">
-        <v>11.26</v>
-      </c>
-      <c r="F65" s="6">
-        <v>2.04</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B66" s="9">
-        <f>B65/B60*D60</f>
-        <v>0.10232515625000001</v>
-      </c>
-      <c r="C66" s="9">
-        <f>C65/B60*D60</f>
-        <v>1.4566875E-2</v>
-      </c>
-      <c r="D66" s="9">
-        <f>D65/B60*D60</f>
-        <v>0.17544515625000001</v>
-      </c>
-      <c r="E66" s="9">
-        <f>E65/B60*D60</f>
-        <v>8.0403437500000008E-2</v>
-      </c>
-      <c r="F66" s="9">
-        <f>F65/B60*D60</f>
-        <v>1.4566875E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="A48:F48"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/plot/system_evaluation/comparison.xlsx
+++ b/plot/system_evaluation/comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuboluo/Documents/PycharmProjects/SmartSwitch/plot/system_evaluation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF769A3-72B6-7E43-A6CE-1666F548BD3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D41383B5-57E9-8040-94CE-BC3607FF78D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2400" yWindow="-20400" windowWidth="29400" windowHeight="17140" activeTab="2" xr2:uid="{A33675B7-7F4F-C34D-AB6F-57998B81D61A}"/>
+    <workbookView xWindow="-2820" yWindow="-18720" windowWidth="29400" windowHeight="17220" activeTab="6" xr2:uid="{A33675B7-7F4F-C34D-AB6F-57998B81D61A}"/>
   </bookViews>
   <sheets>
     <sheet name="accuracy" sheetId="1" r:id="rId1"/>
@@ -4561,8 +4561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{951637E0-D5A3-6945-9708-8015501B2B41}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="131" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12:G13"/>
+    <sheetView zoomScale="131" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4815,8 +4815,7 @@
         <v>53</v>
       </c>
       <c r="G13" s="6">
-        <f t="shared" si="0"/>
-        <v>0.21786360893180445</v>
+        <v>1</v>
       </c>
       <c r="H13" s="31">
         <f t="shared" si="1"/>
@@ -5067,7 +5066,7 @@
       </c>
       <c r="G27" s="6">
         <f t="shared" si="2"/>
-        <v>21.699215449607724</v>
+        <v>99.6</v>
       </c>
       <c r="H27" s="6">
         <f t="shared" si="2"/>
@@ -9328,8 +9327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF1C228-D93B-1B44-B6A5-331E6B4EF13B}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView zoomScale="165" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView tabSelected="1" zoomScale="165" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/plot/system_evaluation/comparison.xlsx
+++ b/plot/system_evaluation/comparison.xlsx
@@ -8,25 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuboluo/Documents/PycharmProjects/SmartSwitch/plot/system_evaluation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{697A6042-E02A-5646-B535-7054C5C04AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ECED44E-9932-6C44-94AE-2236C9E01538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="740" windowWidth="29400" windowHeight="17040" firstSheet="1" activeTab="10" xr2:uid="{A33675B7-7F4F-C34D-AB6F-57998B81D61A}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16880" xr2:uid="{A33675B7-7F4F-C34D-AB6F-57998B81D61A}"/>
   </bookViews>
   <sheets>
-    <sheet name="accuracy" sheetId="1" r:id="rId1"/>
-    <sheet name="memory" sheetId="2" r:id="rId2"/>
-    <sheet name="breakdown" sheetId="10" r:id="rId3"/>
-    <sheet name="timeoverhead_backup" sheetId="3" state="hidden" r:id="rId4"/>
-    <sheet name="timeoverhead_msp" sheetId="4" r:id="rId5"/>
-    <sheet name="timeoverhead_pico" sheetId="6" r:id="rId6"/>
-    <sheet name="timeoverhead_portenta" sheetId="11" r:id="rId7"/>
-    <sheet name="energyoverhead_portenta" sheetId="12" r:id="rId8"/>
-    <sheet name="energyoverhead_msp" sheetId="8" r:id="rId9"/>
-    <sheet name="energyoverhead_pico" sheetId="9" r:id="rId10"/>
-    <sheet name="knowledge_distillation" sheetId="13" r:id="rId11"/>
-    <sheet name="timeoverhead-task=5" sheetId="5" state="hidden" r:id="rId12"/>
+    <sheet name="accuracy" sheetId="14" r:id="rId1"/>
+    <sheet name="accuracy_old" sheetId="1" r:id="rId2"/>
+    <sheet name="memory" sheetId="2" r:id="rId3"/>
+    <sheet name="breakdown" sheetId="10" r:id="rId4"/>
+    <sheet name="timeoverhead_backup" sheetId="3" state="hidden" r:id="rId5"/>
+    <sheet name="timeoverhead_msp" sheetId="4" r:id="rId6"/>
+    <sheet name="timeoverhead_pico" sheetId="6" r:id="rId7"/>
+    <sheet name="timeoverhead_portenta" sheetId="11" r:id="rId8"/>
+    <sheet name="energyoverhead_portenta" sheetId="12" r:id="rId9"/>
+    <sheet name="energyoverhead_msp" sheetId="8" r:id="rId10"/>
+    <sheet name="energyoverhead_pico" sheetId="9" r:id="rId11"/>
+    <sheet name="knowledge_distillation" sheetId="13" r:id="rId12"/>
+    <sheet name="timeoverhead-task=5" sheetId="5" state="hidden" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,12 +35,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -47,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="83">
   <si>
     <t>MNIST</t>
   </si>
@@ -369,7 +367,22 @@
     <t>CIFAR10</t>
   </si>
   <si>
-    <t>Accuracy (%)</t>
+    <t>Student-Distilled</t>
+  </si>
+  <si>
+    <t>Student-Labeled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accuracy (%) - Old way </t>
+  </si>
+  <si>
+    <t>Accuracy (%) - New way</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accuracy measurement old way: for each task, we just calculate its accuracy individually. Then for N tasks, we use the averaged accuracy as the result.  </t>
+  </si>
+  <si>
+    <t>Accuracy measurement new way: extract the probabilities from all N tasks and then pick the biggest probabililty and use its corresponding class as the final predicted label. If this predicted label is the same as the true label, we count this prediction as a correctly predicted one.</t>
   </si>
 </sst>
 </file>
@@ -458,7 +471,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -503,6 +516,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -817,11 +833,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB8A6150-6557-DD49-A823-4DB21D694E8B}">
-  <dimension ref="A1:K27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C61A806-6461-3740-B276-0AA0C9BA20D0}">
+  <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView zoomScale="138" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView tabSelected="1" zoomScale="138" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -879,31 +895,40 @@
         <v>5</v>
       </c>
       <c r="B3" s="3">
-        <v>98.23</v>
+        <f>B14/B16*B6</f>
+        <v>93.690226143393176</v>
       </c>
       <c r="C3" s="3">
-        <v>76.73</v>
+        <f t="shared" ref="C3:J3" si="0">C14/C16*C6</f>
+        <v>53.423775156141581</v>
       </c>
       <c r="D3" s="3">
-        <v>94.07</v>
+        <f t="shared" si="0"/>
+        <v>77.659791666666663</v>
       </c>
       <c r="E3" s="3">
-        <v>98.67</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="F3" s="3">
-        <v>97.16</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="G3" s="3">
-        <v>93.2</v>
+        <f t="shared" si="0"/>
+        <v>87.360571428571433</v>
       </c>
       <c r="H3" s="3">
-        <v>74.260000000000005</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="I3" s="3">
-        <v>89</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="J3" s="3">
-        <v>91.81</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="K3" t="s">
         <v>58</v>
@@ -914,40 +939,40 @@
         <v>6</v>
       </c>
       <c r="B4" s="3">
-        <f>B16/B17*B6</f>
-        <v>99.136750836629147</v>
+        <f t="shared" ref="B4:J4" si="1">B15/B16*B6</f>
+        <v>98.618649224216611</v>
       </c>
       <c r="C4" s="3">
-        <f>C16/C17*C6</f>
-        <v>92.663566967383773</v>
+        <f t="shared" si="1"/>
+        <v>71.8644691186676</v>
       </c>
       <c r="D4" s="3">
-        <f>D16/D17*D6</f>
-        <v>94.470588235294102</v>
+        <f t="shared" si="1"/>
+        <v>84.603877005347584</v>
       </c>
       <c r="E4" s="3">
-        <f>E16/E17*E6</f>
-        <v>98.2</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="F4" s="3">
-        <f>F16/F17*F6</f>
-        <v>100.76708997568225</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="G4" s="3">
-        <f t="shared" ref="G4:J4" si="0">G16/G17*G6</f>
-        <v>97.513997695852538</v>
+        <f t="shared" si="1"/>
+        <v>90.157678571428576</v>
       </c>
       <c r="H4" s="3">
-        <f t="shared" si="0"/>
-        <v>95.831017140812932</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="I4" s="3">
-        <f t="shared" si="0"/>
-        <v>92.500978589374796</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="J4" s="3">
-        <f t="shared" si="0"/>
-        <v>95.593289374843494</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -955,24 +980,24 @@
         <v>8</v>
       </c>
       <c r="B5" s="3">
-        <f>B25/B26*B6</f>
-        <v>97.972364380757412</v>
+        <f>B24/B25*B6</f>
+        <v>97.460348004094172</v>
       </c>
       <c r="C5" s="3">
-        <f>C25/C26*C6</f>
-        <v>96.038666666666671</v>
+        <f>C24/C25*C6</f>
+        <v>74.482000000000014</v>
       </c>
       <c r="D5" s="3">
-        <f>D25/D26*D6</f>
-        <v>96.492698412698417</v>
+        <f>D24/D25*D6</f>
+        <v>86.414793650793655</v>
       </c>
       <c r="E5" s="3">
-        <f>E25/E26*E6</f>
-        <v>97.998770491803299</v>
+        <f>E24/E25*E6</f>
+        <v>0</v>
       </c>
       <c r="F5" s="3">
-        <f>F25/F26*F6</f>
-        <v>99.295154185022042</v>
+        <f>F24/F25*F6</f>
+        <v>0</v>
       </c>
       <c r="G5" s="14">
         <v>0</v>
@@ -995,467 +1020,311 @@
         <v>7</v>
       </c>
       <c r="B6" s="3">
-        <v>99.5</v>
+        <v>98.98</v>
       </c>
       <c r="C6" s="3">
-        <v>96.9</v>
+        <v>75.150000000000006</v>
       </c>
       <c r="D6" s="3">
-        <v>96.8</v>
-      </c>
-      <c r="E6" s="3">
-        <v>98.2</v>
-      </c>
-      <c r="F6" s="3">
-        <v>98</v>
-      </c>
+        <v>86.69</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
       <c r="G6" s="3">
-        <v>96.9</v>
-      </c>
-      <c r="H6" s="3">
-        <v>98.4</v>
-      </c>
-      <c r="I6" s="3">
-        <v>94.9</v>
-      </c>
-      <c r="J6" s="3">
-        <v>97.8</v>
-      </c>
+        <v>89.59</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="15">
-        <v>99.6</v>
-      </c>
-      <c r="C7" s="15">
-        <v>94.6</v>
-      </c>
-      <c r="D7" s="15">
-        <v>98.4</v>
-      </c>
-      <c r="E7" s="15">
-        <v>100</v>
-      </c>
-      <c r="F7" s="15">
-        <v>98.4</v>
-      </c>
-      <c r="G7" s="15">
-        <v>99.7</v>
-      </c>
-      <c r="H7" s="15">
-        <v>99.4</v>
-      </c>
-      <c r="I7" s="15">
-        <v>97.1</v>
-      </c>
-      <c r="J7" s="15">
-        <v>96.4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="3">
-        <v>99.7</v>
-      </c>
-      <c r="C8" s="3">
-        <v>94.1</v>
-      </c>
-      <c r="D8" s="3">
-        <v>97.7</v>
-      </c>
-      <c r="E8" s="3">
-        <v>96.2</v>
-      </c>
-      <c r="F8" s="3">
-        <v>98.1</v>
-      </c>
-      <c r="G8" s="3">
-        <v>97.7</v>
-      </c>
-      <c r="H8" s="3">
-        <v>98.1</v>
-      </c>
-      <c r="I8" s="3">
-        <v>93.5</v>
-      </c>
-      <c r="J8" s="3">
-        <v>98.1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B9">
-        <f>(MAX(B8,B6)-MIN(B8,B6))/MIN(B8,B6)*100</f>
-        <v>0.20100502512563098</v>
-      </c>
-      <c r="C9">
-        <f t="shared" ref="C9:J9" si="1">(MAX(C8,C6)-MIN(C8,C6))/MIN(C8,C6)*100</f>
-        <v>2.9755579171094704</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="1"/>
-        <v>0.92975206611570838</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="1"/>
-        <v>2.0790020790020787</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="1"/>
-        <v>0.10204081632652481</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="1"/>
-        <v>0.82559339525283493</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="1"/>
-        <v>0.30581039755352846</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="1"/>
-        <v>1.4973262032085621</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="1"/>
-        <v>0.30674846625766583</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B10">
-        <f>(MAX(B8,B5)-MIN(B8,B5))/MIN(B8,B5)*100</f>
-        <v>1.7633907583656447</v>
-      </c>
-      <c r="C10">
-        <f t="shared" ref="C10:F10" si="2">(MAX(C8,C5)-MIN(C8,C5))/MIN(C8,C5)*100</f>
-        <v>2.0602196245129405</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="2"/>
-        <v>1.2511843975364521</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="2"/>
-        <v>1.8698237960533222</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="2"/>
-        <v>1.2183019215311397</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B11">
-        <f>(MAX(B8,B4)-MIN(B8,B4))/MIN(B8,B4)*100</f>
-        <v>0.56815374582837908</v>
-      </c>
-      <c r="C11">
-        <f t="shared" ref="C11:J11" si="3">(MAX(C8,C4)-MIN(C8,C4))/MIN(C8,C4)*100</f>
-        <v>1.5501594419755342</v>
-      </c>
-      <c r="D11">
-        <f>(MAX(D8,D4)-MIN(D8,D4))/MIN(D8,D4)*100</f>
-        <v>3.4184308841843292</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="3"/>
-        <v>2.0790020790020787</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="3"/>
-        <v>2.7187461525813044</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="3"/>
-        <v>0.19074420959297397</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="3"/>
-        <v>2.3676915125016844</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="3"/>
-        <v>1.0800117208056839</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="3"/>
-        <v>2.6222663134094133</v>
-      </c>
+      <c r="B7" s="3">
+        <v>98.8</v>
+      </c>
+      <c r="C7" s="3">
+        <v>74.25</v>
+      </c>
+      <c r="D7" s="3">
+        <v>87.27</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3">
+        <v>88.99</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I12">
-        <f>MAX(B9:J11)</f>
-        <v>3.4184308841843292</v>
-      </c>
+      <c r="A12" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="J14" s="13" t="s">
-        <v>39</v>
+      <c r="A14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3">
+        <v>93.34</v>
+      </c>
+      <c r="C14" s="3">
+        <v>51.22</v>
+      </c>
+      <c r="D14" s="3">
+        <v>80.41</v>
+      </c>
+      <c r="E14" s="3">
+        <v>90.1</v>
+      </c>
+      <c r="F14" s="3">
+        <v>56.49</v>
+      </c>
+      <c r="G14" s="3">
+        <v>84.64</v>
+      </c>
+      <c r="H14" s="3">
+        <v>70.512799999999999</v>
+      </c>
+      <c r="I14" s="3">
+        <v>38.834400000000002</v>
+      </c>
+      <c r="J14" s="3">
+        <v>80.385599999999997</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B15" s="3">
-        <v>93.34</v>
+        <v>98.25</v>
       </c>
       <c r="C15" s="3">
-        <v>51.22</v>
+        <v>68.900000000000006</v>
       </c>
       <c r="D15" s="3">
-        <v>80.41</v>
+        <v>87.6</v>
       </c>
       <c r="E15" s="3">
-        <v>90.1</v>
+        <v>94.34</v>
       </c>
       <c r="F15" s="3">
-        <v>56.49</v>
+        <v>76.11</v>
       </c>
       <c r="G15" s="3">
-        <v>84.64</v>
+        <v>87.35</v>
       </c>
       <c r="H15" s="3">
-        <v>70.512799999999999</v>
+        <v>79.492900000000006</v>
       </c>
       <c r="I15" s="3">
-        <v>38.834400000000002</v>
+        <v>42.83</v>
       </c>
       <c r="J15" s="3">
-        <v>80.385599999999997</v>
+        <v>87.83</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B16" s="3">
-        <v>98.25</v>
+        <v>98.61</v>
       </c>
       <c r="C16" s="3">
-        <v>68.900000000000006</v>
+        <v>72.05</v>
       </c>
       <c r="D16" s="3">
-        <v>87.6</v>
+        <v>89.76</v>
       </c>
       <c r="E16" s="3">
         <v>94.34</v>
       </c>
       <c r="F16" s="3">
-        <v>76.11</v>
+        <v>74.02</v>
       </c>
       <c r="G16" s="3">
-        <v>87.35</v>
+        <v>86.8</v>
       </c>
       <c r="H16" s="3">
-        <v>79.492900000000006</v>
+        <v>81.623900000000006</v>
       </c>
       <c r="I16" s="3">
-        <v>42.83</v>
+        <v>43.940800000000003</v>
       </c>
       <c r="J16" s="3">
-        <v>87.83</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="3">
-        <v>98.61</v>
-      </c>
-      <c r="C17" s="3">
-        <v>72.05</v>
-      </c>
-      <c r="D17" s="3">
-        <v>89.76</v>
-      </c>
-      <c r="E17" s="3">
-        <v>94.34</v>
-      </c>
-      <c r="F17" s="3">
-        <v>74.02</v>
-      </c>
-      <c r="G17" s="3">
-        <v>86.8</v>
-      </c>
-      <c r="H17" s="3">
-        <v>81.623900000000006</v>
-      </c>
-      <c r="I17" s="3">
-        <v>43.940800000000003</v>
-      </c>
-      <c r="J17" s="3">
         <v>89.857500000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="24" t="s">
+    <row r="17" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="23" t="s">
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="1" t="s">
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="2">
+        <v>98.5</v>
+      </c>
+      <c r="C23" s="2">
+        <v>59.3</v>
+      </c>
+      <c r="D23" s="2">
+        <v>85.7</v>
+      </c>
+      <c r="E23" s="2">
+        <v>95.8</v>
+      </c>
+      <c r="F23" s="2">
+        <v>78.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B24" s="2">
-        <v>98.5</v>
+        <v>96.2</v>
       </c>
       <c r="C24" s="2">
-        <v>59.3</v>
+        <v>89.2</v>
       </c>
       <c r="D24" s="2">
-        <v>85.7</v>
+        <v>94.2</v>
       </c>
       <c r="E24" s="2">
-        <v>95.8</v>
+        <v>97.4</v>
       </c>
       <c r="F24" s="2">
-        <v>78.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B25" s="2">
-        <v>96.2</v>
+        <v>97.7</v>
       </c>
       <c r="C25" s="2">
-        <v>89.2</v>
+        <v>90</v>
       </c>
       <c r="D25" s="2">
-        <v>94.2</v>
+        <v>94.5</v>
       </c>
       <c r="E25" s="2">
-        <v>97.4</v>
+        <v>97.6</v>
       </c>
       <c r="F25" s="2">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26" s="2">
-        <v>97.7</v>
-      </c>
-      <c r="C26" s="2">
-        <v>90</v>
-      </c>
-      <c r="D26" s="2">
-        <v>94.5</v>
-      </c>
-      <c r="E26" s="2">
-        <v>97.6</v>
-      </c>
-      <c r="F26" s="2">
         <v>90.8</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="24" t="s">
+    <row r="26" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="A18:F18"/>
     <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A26:F26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7722315-F6D9-6E45-A3E1-A77E98ECE9F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13C6D9F3-393E-3E4E-A142-A12E5051E586}">
   <dimension ref="A1:K65"/>
   <sheetViews>
     <sheetView zoomScale="144" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="L9" sqref="B9:L9"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1517,39 +1386,39 @@
       </c>
       <c r="B3" s="3">
         <f>B18*J1</f>
-        <v>411.70000000000005</v>
+        <v>335.29999999999984</v>
       </c>
       <c r="C3" s="3">
         <f>C18*J1</f>
-        <v>696.40000000000009</v>
+        <v>578.70000000000016</v>
       </c>
       <c r="D3" s="3">
         <f>D18*J1</f>
-        <v>696.40000000000009</v>
+        <v>578.70000000000016</v>
       </c>
       <c r="E3" s="3">
         <f>E18*J1</f>
-        <v>720.5</v>
+        <v>578.70000000000016</v>
       </c>
       <c r="F3" s="3">
         <f>F18*J1</f>
-        <v>523.69999999999993</v>
+        <v>198.39999999999998</v>
       </c>
       <c r="G3" s="3">
         <f>G18*J1</f>
-        <v>571.6</v>
+        <v>466.89999999999992</v>
       </c>
       <c r="H3" s="3">
         <f>H18*J1</f>
-        <v>385.3</v>
+        <v>295.79999999999995</v>
       </c>
       <c r="I3" s="3">
         <f>I18*J1</f>
-        <v>383.79999999999995</v>
+        <v>301.39999999999998</v>
       </c>
       <c r="J3" s="3">
         <f>J18*J1</f>
-        <v>416.50000000000006</v>
+        <v>615.6</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -1558,39 +1427,39 @@
       </c>
       <c r="B4" s="3">
         <f>B18*J1 +B65*J1</f>
-        <v>413.98832187500005</v>
+        <v>346.03630468749986</v>
       </c>
       <c r="C4" s="3">
         <f>C18*J1 +C65*J1</f>
-        <v>696.72576250000009</v>
+        <v>580.22840625000015</v>
       </c>
       <c r="D4" s="3">
         <f>D18*J1 +D65*J1</f>
-        <v>700.3235218750001</v>
+        <v>597.10830468750021</v>
       </c>
       <c r="E4" s="3">
         <f>E18*J1 +E65*J1</f>
-        <v>722.29808125</v>
+        <v>587.13620312500018</v>
       </c>
       <c r="F4" s="3">
         <f>F18*J1+F65*J1</f>
-        <v>524.02576249999993</v>
+        <v>199.92840624999997</v>
       </c>
       <c r="G4" s="3">
         <f>G18*J1+G65*J1</f>
-        <v>573.56096250000007</v>
+        <v>476.10040624999993</v>
       </c>
       <c r="H4" s="3">
         <f>H18*J1+H65*J1</f>
-        <v>387.26096250000001</v>
+        <v>305.00040624999997</v>
       </c>
       <c r="I4" s="3">
         <f>I18*J1+I65*J1</f>
-        <v>384.29024062499997</v>
+        <v>303.70010156249998</v>
       </c>
       <c r="J4" s="3">
         <f>J18*J1+J65*J1</f>
-        <v>416.66288125000005</v>
+        <v>616.36420312500002</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -1599,23 +1468,23 @@
       </c>
       <c r="B5" s="3">
         <f>B18*J1 + 0.024*J1</f>
-        <v>411.94000000000005</v>
+        <v>335.53999999999985</v>
       </c>
       <c r="C5" s="3">
         <f>C18*J1 + 0.024*J1</f>
-        <v>696.6400000000001</v>
+        <v>578.94000000000017</v>
       </c>
       <c r="D5" s="3">
         <f>D18*J1 + 0.024*J1</f>
-        <v>696.6400000000001</v>
+        <v>578.94000000000017</v>
       </c>
       <c r="E5" s="3">
         <f>E18*J1 + 0.024*J1</f>
-        <v>720.74</v>
+        <v>578.94000000000017</v>
       </c>
       <c r="F5" s="3">
         <f>F18*J1 + 0.024*J1</f>
-        <v>523.93999999999994</v>
+        <v>198.64</v>
       </c>
       <c r="G5" s="3">
         <v>0</v>
@@ -1636,39 +1505,39 @@
       </c>
       <c r="B6" s="3">
         <f>B18*J1 + B32*J1</f>
-        <v>432.58776375000002</v>
+        <v>433.30080937499986</v>
       </c>
       <c r="C6" s="3">
         <f>C18*J1 + C32*J1</f>
-        <v>717.05398125000011</v>
+        <v>675.6039531250002</v>
       </c>
       <c r="D6" s="3">
         <f>D18*J1 + D32*J1</f>
-        <v>717.05398125000011</v>
+        <v>675.6039531250002</v>
       </c>
       <c r="E6" s="3">
         <f>E18*J1 + E32*J1</f>
-        <v>742.55475999999999</v>
+        <v>682.17610000000013</v>
       </c>
       <c r="F6" s="3">
         <f>F18*J1 + F32*J1</f>
-        <v>546.37434749999989</v>
+        <v>304.78306874999998</v>
       </c>
       <c r="G6" s="3">
         <f>G18*J1 + G32*J1</f>
-        <v>593.94539125000006</v>
+        <v>571.73967812499995</v>
       </c>
       <c r="H6" s="3">
         <f>H18*J1 + H32*J1</f>
-        <v>405.76363375</v>
+        <v>391.81088437499994</v>
       </c>
       <c r="I6" s="3">
         <f>I18*J1 + I32*J1</f>
-        <v>401.83127374999998</v>
+        <v>385.99878437500001</v>
       </c>
       <c r="J6" s="3">
         <f>J18*J1 + J32*J1</f>
-        <v>439.59145125000003</v>
+        <v>723.94002812500003</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -1676,31 +1545,31 @@
         <v>16</v>
       </c>
       <c r="B7" s="3">
-        <v>379.43666374999998</v>
+        <v>383.761059375</v>
       </c>
       <c r="C7" s="3">
-        <v>531.51090124999996</v>
+        <v>493.53265312500002</v>
       </c>
       <c r="D7" s="3">
-        <v>531.51090124999996</v>
+        <v>493.53265312500002</v>
       </c>
       <c r="E7" s="3">
-        <v>547.21167999999898</v>
+        <v>500.10480000000001</v>
       </c>
       <c r="F7" s="3">
-        <v>397.70571749999999</v>
+        <v>224.091893749999</v>
       </c>
       <c r="G7" s="3">
-        <v>516.76874124999995</v>
+        <v>490.88005312500002</v>
       </c>
       <c r="H7" s="3">
-        <v>368.63808375000002</v>
+        <v>353.39100937500001</v>
       </c>
       <c r="I7" s="3">
-        <v>364.305723749999</v>
+        <v>342.37890937499998</v>
       </c>
       <c r="J7" s="3">
-        <v>411.57</v>
+        <v>675.63</v>
       </c>
       <c r="K7" s="17" t="s">
         <v>56</v>
@@ -1711,31 +1580,31 @@
         <v>53</v>
       </c>
       <c r="B8" s="3">
-        <v>99.625481749999906</v>
+        <v>110.773664374999</v>
       </c>
       <c r="C8" s="3">
-        <v>175.69336675</v>
+        <v>168.96757687499999</v>
       </c>
       <c r="D8" s="3">
-        <v>175.69336675</v>
+        <v>168.96757687499999</v>
       </c>
       <c r="E8" s="3">
-        <v>182.75414549999999</v>
+        <v>175.53972375000001</v>
       </c>
       <c r="F8" s="3">
-        <v>162.12954550000001</v>
+        <v>96.646223750000004</v>
       </c>
       <c r="G8" s="3">
-        <v>258.99036749999999</v>
+        <v>246.606518749999</v>
       </c>
       <c r="H8" s="3">
-        <v>147.81978974999899</v>
+        <v>141.940794375</v>
       </c>
       <c r="I8" s="3">
-        <v>88.572379749999996</v>
+        <v>93.105069374999999</v>
       </c>
       <c r="J8" s="3">
-        <v>147.69999999999999</v>
+        <v>255.44</v>
       </c>
       <c r="K8" s="17" t="s">
         <v>56</v>
@@ -1792,31 +1661,31 @@
         <v>1</v>
       </c>
       <c r="B12" s="8">
-        <v>5.31</v>
+        <v>4.93</v>
       </c>
       <c r="C12" s="8">
-        <v>18.54</v>
+        <v>18.14</v>
       </c>
       <c r="D12" s="8">
-        <v>18.54</v>
+        <v>18.14</v>
       </c>
       <c r="E12" s="8">
-        <v>19.52</v>
+        <v>18.14</v>
       </c>
       <c r="F12" s="8">
-        <v>14.85</v>
+        <v>7.99</v>
       </c>
       <c r="G12" s="8">
-        <v>7.71</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="H12" s="8">
-        <v>3.71</v>
+        <v>3.83</v>
       </c>
       <c r="I12" s="8">
-        <v>3.75</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="J12" s="8">
-        <v>2.8</v>
+        <v>4.82</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -1824,31 +1693,31 @@
         <v>2</v>
       </c>
       <c r="B13" s="8">
-        <v>26.29</v>
+        <v>21.4</v>
       </c>
       <c r="C13" s="8">
-        <v>37.49</v>
+        <v>29.03</v>
       </c>
       <c r="D13" s="8">
-        <v>37.49</v>
+        <v>29.03</v>
       </c>
       <c r="E13" s="8">
-        <v>37.549999999999997</v>
+        <v>29.03</v>
       </c>
       <c r="F13" s="8">
-        <v>33.450000000000003</v>
+        <v>11.28</v>
       </c>
       <c r="G13" s="8">
-        <v>39.020000000000003</v>
+        <v>30.95</v>
       </c>
       <c r="H13" s="8">
-        <v>20.07</v>
+        <v>15.89</v>
       </c>
       <c r="I13" s="8">
-        <v>20.18</v>
+        <v>15.95</v>
       </c>
       <c r="J13" s="8">
-        <v>15.63</v>
+        <v>20.53</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -1856,31 +1725,31 @@
         <v>3</v>
       </c>
       <c r="B14" s="8">
-        <v>6.3</v>
+        <v>6.52</v>
       </c>
       <c r="C14" s="8">
-        <v>10.71</v>
+        <v>10.17</v>
       </c>
       <c r="D14" s="8">
-        <v>10.71</v>
+        <v>10.17</v>
       </c>
       <c r="E14" s="8">
-        <v>11.93</v>
+        <v>10.17</v>
       </c>
       <c r="F14" s="8">
-        <v>2.84</v>
+        <v>0.31</v>
       </c>
       <c r="G14" s="8">
-        <v>7.11</v>
+        <v>7.02</v>
       </c>
       <c r="H14" s="8">
-        <v>10.71</v>
+        <v>9.43</v>
       </c>
       <c r="I14" s="8">
-        <v>11.03</v>
+        <v>9.5299999999999994</v>
       </c>
       <c r="J14" s="8">
-        <v>19.05</v>
+        <v>27.52</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -1888,31 +1757,31 @@
         <v>4</v>
       </c>
       <c r="B15" s="8">
-        <v>0.92</v>
+        <v>0.37</v>
       </c>
       <c r="C15" s="8">
-        <v>1.68</v>
+        <v>0.27</v>
       </c>
       <c r="D15" s="8">
-        <v>1.68</v>
+        <v>0.27</v>
       </c>
       <c r="E15" s="8">
-        <v>1.83</v>
+        <v>0.27</v>
       </c>
       <c r="F15" s="8">
-        <v>1.1499999999999999</v>
+        <v>0.24</v>
       </c>
       <c r="G15" s="8">
-        <v>0.99</v>
+        <v>0.37</v>
       </c>
       <c r="H15" s="8">
-        <v>3.46</v>
+        <v>0.32</v>
       </c>
       <c r="I15" s="8">
-        <v>3.34</v>
+        <v>0.31</v>
       </c>
       <c r="J15" s="8">
-        <v>4.13</v>
+        <v>8.69</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -1920,31 +1789,31 @@
         <v>5</v>
       </c>
       <c r="B16" s="8">
-        <v>2.27</v>
+        <v>0.26</v>
       </c>
       <c r="C16" s="8">
-        <v>1.1399999999999999</v>
+        <v>0.24</v>
       </c>
       <c r="D16" s="8">
-        <v>1.1399999999999999</v>
+        <v>0.24</v>
       </c>
       <c r="E16" s="8">
-        <v>1.1399999999999999</v>
+        <v>0.24</v>
       </c>
       <c r="F16" s="8">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
       <c r="G16" s="8">
-        <v>2.25</v>
+        <v>0.26</v>
       </c>
       <c r="H16" s="8">
-        <v>0.54</v>
+        <v>0.11</v>
       </c>
       <c r="I16" s="8">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="J16" s="8">
-        <v>0.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -1952,25 +1821,25 @@
         <v>6</v>
       </c>
       <c r="B17" s="8">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="C17" s="8">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
       <c r="D17" s="8">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
       <c r="E17" s="8">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
       <c r="F17" s="8">
         <v>0</v>
       </c>
       <c r="G17" s="8">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="H17" s="8">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="I17" s="8">
         <v>0</v>
@@ -1985,39 +1854,39 @@
       </c>
       <c r="B18" s="8">
         <f>SUM(B12:B17)</f>
-        <v>41.17</v>
+        <v>33.529999999999987</v>
       </c>
       <c r="C18" s="8">
         <f t="shared" ref="C18:J18" si="0">SUM(C12:C17)</f>
-        <v>69.640000000000015</v>
+        <v>57.870000000000012</v>
       </c>
       <c r="D18" s="8">
         <f t="shared" si="0"/>
-        <v>69.640000000000015</v>
+        <v>57.870000000000012</v>
       </c>
       <c r="E18" s="8">
         <f t="shared" si="0"/>
-        <v>72.05</v>
+        <v>57.870000000000012</v>
       </c>
       <c r="F18" s="8">
         <f t="shared" si="0"/>
-        <v>52.37</v>
+        <v>19.839999999999996</v>
       </c>
       <c r="G18" s="8">
         <f t="shared" si="0"/>
-        <v>57.160000000000004</v>
+        <v>46.689999999999991</v>
       </c>
       <c r="H18" s="8">
         <f t="shared" si="0"/>
-        <v>38.53</v>
+        <v>29.58</v>
       </c>
       <c r="I18" s="8">
         <f t="shared" si="0"/>
-        <v>38.379999999999995</v>
+        <v>30.139999999999997</v>
       </c>
       <c r="J18" s="8">
         <f t="shared" si="0"/>
-        <v>41.650000000000006</v>
+        <v>61.56</v>
       </c>
       <c r="K18" s="10"/>
     </row>
@@ -2073,39 +1942,39 @@
       </c>
       <c r="B22" s="12">
         <f>B49/B59*D59</f>
-        <v>5.11E-3</v>
+        <v>2.3975E-2</v>
       </c>
       <c r="C22" s="12">
         <f>C49/B59*D59</f>
-        <v>1.4308000000000001E-2</v>
+        <v>6.7129999999999995E-2</v>
       </c>
       <c r="D22" s="12">
         <f>D49/B59*D59</f>
-        <v>1.4308000000000001E-2</v>
+        <v>6.7129999999999995E-2</v>
       </c>
       <c r="E22" s="12">
         <f>E49/B59*D59</f>
-        <v>1.4308000000000001E-2</v>
+        <v>6.7129999999999995E-2</v>
       </c>
       <c r="F22" s="12">
         <f>F49/B59*D59</f>
-        <v>1.6863E-2</v>
+        <v>7.9117500000000007E-2</v>
       </c>
       <c r="G22" s="12">
         <f>G49/B59*D59</f>
-        <v>7.6649999999999999E-3</v>
+        <v>3.5962500000000001E-2</v>
       </c>
       <c r="H22" s="12">
         <f>H49/B59*D59</f>
-        <v>2.555E-3</v>
+        <v>1.19875E-2</v>
       </c>
       <c r="I22" s="12">
         <f>I49/B59*D59</f>
-        <v>2.555E-3</v>
+        <v>1.19875E-2</v>
       </c>
       <c r="J22" s="12">
         <f>J49/B59*D59</f>
-        <v>2.2994999999999999E-3</v>
+        <v>1.078875E-2</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
@@ -2114,39 +1983,39 @@
       </c>
       <c r="B23" s="12">
         <f>B50/B59*D59</f>
-        <v>0.14818999999999999</v>
+        <v>0.69527499999999998</v>
       </c>
       <c r="C23" s="12">
         <f>C50/B59*D59</f>
-        <v>0.14818999999999999</v>
+        <v>0.69527499999999998</v>
       </c>
       <c r="D23" s="12">
         <f>D50/B59*D59</f>
-        <v>0.14818999999999999</v>
+        <v>0.69527499999999998</v>
       </c>
       <c r="E23" s="12">
         <f>E50/B59*D59</f>
-        <v>0.14818999999999999</v>
+        <v>0.69527499999999998</v>
       </c>
       <c r="F23" s="12">
         <f>F50/B59*D59</f>
-        <v>0.262654</v>
+        <v>1.232315</v>
       </c>
       <c r="G23" s="12">
         <f>G50/B59*D59</f>
-        <v>0.221774</v>
+        <v>1.0405150000000001</v>
       </c>
       <c r="H23" s="12">
         <f>H50/B59*D59</f>
-        <v>3.7302999999999996E-2</v>
+        <v>0.17501749999999999</v>
       </c>
       <c r="I23" s="12">
         <f>I50/B59*D59</f>
-        <v>3.7302999999999996E-2</v>
+        <v>0.17501749999999999</v>
       </c>
       <c r="J23" s="12">
         <f>J50/B59*D59</f>
-        <v>6.6430000000000003E-2</v>
+        <v>0.31167499999999998</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
@@ -2155,39 +2024,39 @@
       </c>
       <c r="B24" s="12">
         <f>B51/B59*D59</f>
-        <v>0.44303700000000001</v>
+        <v>2.0786324999999999</v>
       </c>
       <c r="C24" s="12">
         <f>C51/B59*D59</f>
-        <v>0.47995675000000004</v>
+        <v>2.2518518749999998</v>
       </c>
       <c r="D24" s="12">
         <f>D51/B59*D59</f>
-        <v>0.47995675000000004</v>
+        <v>2.2518518749999998</v>
       </c>
       <c r="E24" s="12">
         <f>E51/B59*D59</f>
-        <v>0.47995675000000004</v>
+        <v>2.2518518749999998</v>
       </c>
       <c r="F24" s="12">
         <f>F51/B59*D59</f>
-        <v>1.3122480000000001</v>
+        <v>6.1567800000000004</v>
       </c>
       <c r="G24" s="12">
         <f>G51/B59*D59</f>
-        <v>0.47995675000000004</v>
+        <v>2.2518518749999998</v>
       </c>
       <c r="H24" s="12">
         <f>H51/B59*D59</f>
-        <v>0.14818999999999999</v>
+        <v>0.69527499999999998</v>
       </c>
       <c r="I24" s="12">
         <f>I51/B59*D59</f>
-        <v>0.14818999999999999</v>
+        <v>0.69527499999999998</v>
       </c>
       <c r="J24" s="12">
         <f>J51/B59*D59</f>
-        <v>0.26367600000000002</v>
+        <v>1.2371099999999999</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
@@ -2196,39 +2065,39 @@
       </c>
       <c r="B25" s="12">
         <f>B52/B59*D59</f>
-        <v>0.40062400000000004</v>
+        <v>1.87964</v>
       </c>
       <c r="C25" s="12">
         <f>C52/B59*D59</f>
-        <v>0.85439199999999993</v>
+        <v>4.0086199999999996</v>
       </c>
       <c r="D25" s="12">
         <f>D52/B59*D59</f>
-        <v>0.85439199999999993</v>
+        <v>4.0086199999999996</v>
       </c>
       <c r="E25" s="12">
         <f>E52/B59*D59</f>
-        <v>0.85439199999999993</v>
+        <v>4.0086199999999996</v>
       </c>
       <c r="F25" s="12">
         <f>F52/B59*D59</f>
-        <v>0.52735200000000004</v>
+        <v>2.4742199999999999</v>
       </c>
       <c r="G25" s="12">
         <f>G52/B59*D59</f>
-        <v>0.43332799999999999</v>
+        <v>2.03308</v>
       </c>
       <c r="H25" s="12">
         <f>H52/B59*D59</f>
-        <v>1.5738800000000002</v>
+        <v>7.3842999999999996</v>
       </c>
       <c r="I25" s="12">
         <f>I52/B59*D59</f>
-        <v>1.5738800000000002</v>
+        <v>7.3842999999999996</v>
       </c>
       <c r="J25" s="12">
         <f>J52/B59*D59</f>
-        <v>1.9642839999999999</v>
+        <v>9.2159899999999997</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
@@ -2237,39 +2106,39 @@
       </c>
       <c r="B26" s="12">
         <f>B53/B59*D59</f>
-        <v>1.050616</v>
+        <v>4.9292600000000002</v>
       </c>
       <c r="C26" s="12">
         <f>C53/B59*D59</f>
-        <v>0.52735200000000004</v>
+        <v>2.4742199999999999</v>
       </c>
       <c r="D26" s="12">
         <f>D53/B59*D59</f>
-        <v>0.52735200000000004</v>
+        <v>2.4742199999999999</v>
       </c>
       <c r="E26" s="12">
         <f>E53/B59*D59</f>
-        <v>0.52735200000000004</v>
+        <v>2.4742199999999999</v>
       </c>
       <c r="F26" s="12">
         <f>F53/B59*D59</f>
-        <v>0.14831775</v>
+        <v>0.69587437500000004</v>
       </c>
       <c r="G26" s="12">
         <f>G53/B59*D59</f>
-        <v>1.050616</v>
+        <v>4.9292600000000002</v>
       </c>
       <c r="H26" s="12">
         <f>H53/B59*D59</f>
-        <v>0.26367600000000002</v>
+        <v>1.2371099999999999</v>
       </c>
       <c r="I26" s="12">
         <f>I53/B59*D59</f>
-        <v>4.1199375000000003E-2</v>
+        <v>0.1932984375</v>
       </c>
       <c r="J26" s="12">
         <f>J53/B59*D59</f>
-        <v>1.2455625000000001E-2</v>
+        <v>5.84390625E-2</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
@@ -2278,19 +2147,19 @@
       </c>
       <c r="B27" s="12">
         <f>B54/B59*D59</f>
-        <v>4.1199375000000003E-2</v>
+        <v>0.1932984375</v>
       </c>
       <c r="C27" s="12">
         <f>C54/B59*D59</f>
-        <v>4.1199375000000003E-2</v>
+        <v>0.1932984375</v>
       </c>
       <c r="D27" s="12">
         <f>D54/B59*D59</f>
-        <v>4.1199375000000003E-2</v>
+        <v>0.1932984375</v>
       </c>
       <c r="E27" s="12">
         <f>E54/B59*D59</f>
-        <v>0.18127725</v>
+        <v>0.85051312499999998</v>
       </c>
       <c r="F27" s="12">
         <f>F54/B59*D59</f>
@@ -2298,11 +2167,11 @@
       </c>
       <c r="G27" s="12">
         <f>G54/B59*D59</f>
-        <v>4.1199375000000003E-2</v>
+        <v>0.1932984375</v>
       </c>
       <c r="H27" s="12">
         <f>H54/B59*D59</f>
-        <v>2.0759375E-2</v>
+        <v>9.7398437500000004E-2</v>
       </c>
       <c r="I27" s="12">
         <f>I54/B59*D59</f>
@@ -2319,39 +2188,39 @@
       </c>
       <c r="B28" s="12">
         <f>SUM(B22:B27)</f>
-        <v>2.0887763750000001</v>
+        <v>9.8000809375000006</v>
       </c>
       <c r="C28" s="12">
         <f t="shared" ref="C28:I28" si="1">SUM(C22:C27)</f>
-        <v>2.0653981250000002</v>
+        <v>9.6903953124999997</v>
       </c>
       <c r="D28" s="12">
         <f t="shared" si="1"/>
-        <v>2.0653981250000002</v>
+        <v>9.6903953124999997</v>
       </c>
       <c r="E28" s="12">
         <f t="shared" si="1"/>
-        <v>2.205476</v>
+        <v>10.34761</v>
       </c>
       <c r="F28" s="12">
         <f t="shared" si="1"/>
-        <v>2.2674347500000001</v>
+        <v>10.638306875</v>
       </c>
       <c r="G28" s="12">
         <f>SUM(G22:G27)</f>
-        <v>2.234539125</v>
+        <v>10.4839678125</v>
       </c>
       <c r="H28" s="12">
         <f t="shared" si="1"/>
-        <v>2.0463633750000003</v>
+        <v>9.6010884374999996</v>
       </c>
       <c r="I28" s="12">
         <f t="shared" si="1"/>
-        <v>1.8031273750000001</v>
+        <v>8.4598784374999987</v>
       </c>
       <c r="J28" s="12">
         <f>SUM(J22:J27)</f>
-        <v>2.3091451249999997</v>
+        <v>10.8340028125</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
@@ -2404,39 +2273,39 @@
       </c>
       <c r="B32" s="5">
         <f>B55/B59*D59</f>
-        <v>2.0887763750000001</v>
+        <v>9.8000809375000006</v>
       </c>
       <c r="C32" s="5">
         <f>C55/B59*D59</f>
-        <v>2.0653981250000002</v>
+        <v>9.6903953124999997</v>
       </c>
       <c r="D32" s="5">
         <f>D55/B59*D59</f>
-        <v>2.0653981250000002</v>
+        <v>9.6903953124999997</v>
       </c>
       <c r="E32" s="5">
         <f>E55/B59*D59</f>
-        <v>2.205476</v>
+        <v>10.34761</v>
       </c>
       <c r="F32" s="5">
         <f>F55/B59*D59</f>
-        <v>2.2674347500000005</v>
+        <v>10.638306875000001</v>
       </c>
       <c r="G32" s="5">
         <f>G55/B59*D59</f>
-        <v>2.2345391250000004</v>
+        <v>10.483967812500001</v>
       </c>
       <c r="H32" s="5">
         <f>H55/B59*D59</f>
-        <v>2.0463633749999999</v>
+        <v>9.6010884374999996</v>
       </c>
       <c r="I32" s="5">
         <f>I55/B59*D59</f>
-        <v>1.8031273750000001</v>
+        <v>8.4598784375000005</v>
       </c>
       <c r="J32" s="5">
         <f>J55/B59*D59</f>
-        <v>2.3091451250000001</v>
+        <v>10.834002812500001</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
@@ -3125,7 +2994,7 @@
         <v>45</v>
       </c>
       <c r="D59" s="2">
-        <v>1.022</v>
+        <v>4.7949999999999999</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
@@ -3210,39 +3079,39 @@
       </c>
       <c r="B65" s="5">
         <f>B64/B59*D59</f>
-        <v>0.22883218750000001</v>
+        <v>1.07363046875</v>
       </c>
       <c r="C65" s="5">
         <f>C64/B59*D59</f>
-        <v>3.2576250000000001E-2</v>
+        <v>0.15284062500000001</v>
       </c>
       <c r="D65" s="5">
         <f>D64/B59*D59</f>
-        <v>0.3923521875</v>
+        <v>1.8408304687499999</v>
       </c>
       <c r="E65" s="5">
         <f>E64/B59*D59</f>
-        <v>0.17980812500000001</v>
+        <v>0.84362031250000002</v>
       </c>
       <c r="F65" s="5">
         <f>F64/B59*D59</f>
-        <v>3.2576250000000001E-2</v>
+        <v>0.15284062500000001</v>
       </c>
       <c r="G65" s="5">
         <f>G64/B59*D59</f>
-        <v>0.19609625</v>
+        <v>0.92004062499999995</v>
       </c>
       <c r="H65" s="3">
         <f>H64/B59*D59</f>
-        <v>0.19609625</v>
+        <v>0.92004062499999995</v>
       </c>
       <c r="I65" s="3">
         <f>I64/B59*D59</f>
-        <v>4.90240625E-2</v>
+        <v>0.23001015624999999</v>
       </c>
       <c r="J65" s="3">
         <f>J64/B59*D59</f>
-        <v>1.6288125000000001E-2</v>
+        <v>7.6420312500000004E-2</v>
       </c>
     </row>
   </sheetData>
@@ -3261,142 +3130,2076 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFEAE946-F7A6-BE48-92F8-ACF8AB61E6B0}">
-  <dimension ref="A1:E8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7722315-F6D9-6E45-A3E1-A77E98ECE9F6}">
+  <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="161" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView zoomScale="144" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="L9" sqref="B9:L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
       <c r="D1" s="23"/>
       <c r="E1" s="23"/>
-    </row>
-    <row r="2" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="2">
-        <v>93.85</v>
-      </c>
-      <c r="D3" s="2">
-        <v>94.97</v>
-      </c>
-      <c r="E3" s="2">
-        <v>93.9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="26"/>
-      <c r="B4" s="1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3">
+        <f>B18*J1</f>
+        <v>411.70000000000005</v>
+      </c>
+      <c r="C3" s="3">
+        <f>C18*J1</f>
+        <v>696.40000000000009</v>
+      </c>
+      <c r="D3" s="3">
+        <f>D18*J1</f>
+        <v>696.40000000000009</v>
+      </c>
+      <c r="E3" s="3">
+        <f>E18*J1</f>
+        <v>720.5</v>
+      </c>
+      <c r="F3" s="3">
+        <f>F18*J1</f>
+        <v>523.69999999999993</v>
+      </c>
+      <c r="G3" s="3">
+        <f>G18*J1</f>
+        <v>571.6</v>
+      </c>
+      <c r="H3" s="3">
+        <f>H18*J1</f>
+        <v>385.3</v>
+      </c>
+      <c r="I3" s="3">
+        <f>I18*J1</f>
+        <v>383.79999999999995</v>
+      </c>
+      <c r="J3" s="3">
+        <f>J18*J1</f>
+        <v>416.50000000000006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3">
+        <f>B18*J1 +B65*J1</f>
+        <v>413.98832187500005</v>
+      </c>
+      <c r="C4" s="3">
+        <f>C18*J1 +C65*J1</f>
+        <v>696.72576250000009</v>
+      </c>
+      <c r="D4" s="3">
+        <f>D18*J1 +D65*J1</f>
+        <v>700.3235218750001</v>
+      </c>
+      <c r="E4" s="3">
+        <f>E18*J1 +E65*J1</f>
+        <v>722.29808125</v>
+      </c>
+      <c r="F4" s="3">
+        <f>F18*J1+F65*J1</f>
+        <v>524.02576249999993</v>
+      </c>
+      <c r="G4" s="3">
+        <f>G18*J1+G65*J1</f>
+        <v>573.56096250000007</v>
+      </c>
+      <c r="H4" s="3">
+        <f>H18*J1+H65*J1</f>
+        <v>387.26096250000001</v>
+      </c>
+      <c r="I4" s="3">
+        <f>I18*J1+I65*J1</f>
+        <v>384.29024062499997</v>
+      </c>
+      <c r="J4" s="3">
+        <f>J18*J1+J65*J1</f>
+        <v>416.66288125000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3">
+        <f>B18*J1 + 0.024*J1</f>
+        <v>411.94000000000005</v>
+      </c>
+      <c r="C5" s="3">
+        <f>C18*J1 + 0.024*J1</f>
+        <v>696.6400000000001</v>
+      </c>
+      <c r="D5" s="3">
+        <f>D18*J1 + 0.024*J1</f>
+        <v>696.6400000000001</v>
+      </c>
+      <c r="E5" s="3">
+        <f>E18*J1 + 0.024*J1</f>
+        <v>720.74</v>
+      </c>
+      <c r="F5" s="3">
+        <f>F18*J1 + 0.024*J1</f>
+        <v>523.93999999999994</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3">
+        <f>B18*J1 + B32*J1</f>
+        <v>432.58776375000002</v>
+      </c>
+      <c r="C6" s="3">
+        <f>C18*J1 + C32*J1</f>
+        <v>717.05398125000011</v>
+      </c>
+      <c r="D6" s="3">
+        <f>D18*J1 + D32*J1</f>
+        <v>717.05398125000011</v>
+      </c>
+      <c r="E6" s="3">
+        <f>E18*J1 + E32*J1</f>
+        <v>742.55475999999999</v>
+      </c>
+      <c r="F6" s="3">
+        <f>F18*J1 + F32*J1</f>
+        <v>546.37434749999989</v>
+      </c>
+      <c r="G6" s="3">
+        <f>G18*J1 + G32*J1</f>
+        <v>593.94539125000006</v>
+      </c>
+      <c r="H6" s="3">
+        <f>H18*J1 + H32*J1</f>
+        <v>405.76363375</v>
+      </c>
+      <c r="I6" s="3">
+        <f>I18*J1 + I32*J1</f>
+        <v>401.83127374999998</v>
+      </c>
+      <c r="J6" s="3">
+        <f>J18*J1 + J32*J1</f>
+        <v>439.59145125000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="3">
+        <v>379.43666374999998</v>
+      </c>
+      <c r="C7" s="3">
+        <v>531.51090124999996</v>
+      </c>
+      <c r="D7" s="3">
+        <v>531.51090124999996</v>
+      </c>
+      <c r="E7" s="3">
+        <v>547.21167999999898</v>
+      </c>
+      <c r="F7" s="3">
+        <v>397.70571749999999</v>
+      </c>
+      <c r="G7" s="3">
+        <v>516.76874124999995</v>
+      </c>
+      <c r="H7" s="3">
+        <v>368.63808375000002</v>
+      </c>
+      <c r="I7" s="3">
+        <v>364.305723749999</v>
+      </c>
+      <c r="J7" s="3">
+        <v>411.57</v>
+      </c>
+      <c r="K7" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="3">
+        <v>99.625481749999906</v>
+      </c>
+      <c r="C8" s="3">
+        <v>175.69336675</v>
+      </c>
+      <c r="D8" s="3">
+        <v>175.69336675</v>
+      </c>
+      <c r="E8" s="3">
+        <v>182.75414549999999</v>
+      </c>
+      <c r="F8" s="3">
+        <v>162.12954550000001</v>
+      </c>
+      <c r="G8" s="3">
+        <v>258.99036749999999</v>
+      </c>
+      <c r="H8" s="3">
+        <v>147.81978974999899</v>
+      </c>
+      <c r="I8" s="3">
+        <v>88.572379749999996</v>
+      </c>
+      <c r="J8" s="3">
+        <v>147.69999999999999</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>1</v>
+      </c>
+      <c r="B12" s="8">
+        <v>5.31</v>
+      </c>
+      <c r="C12" s="8">
+        <v>18.54</v>
+      </c>
+      <c r="D12" s="8">
+        <v>18.54</v>
+      </c>
+      <c r="E12" s="8">
+        <v>19.52</v>
+      </c>
+      <c r="F12" s="8">
+        <v>14.85</v>
+      </c>
+      <c r="G12" s="8">
+        <v>7.71</v>
+      </c>
+      <c r="H12" s="8">
+        <v>3.71</v>
+      </c>
+      <c r="I12" s="8">
+        <v>3.75</v>
+      </c>
+      <c r="J12" s="8">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>2</v>
+      </c>
+      <c r="B13" s="8">
+        <v>26.29</v>
+      </c>
+      <c r="C13" s="8">
+        <v>37.49</v>
+      </c>
+      <c r="D13" s="8">
+        <v>37.49</v>
+      </c>
+      <c r="E13" s="8">
+        <v>37.549999999999997</v>
+      </c>
+      <c r="F13" s="8">
+        <v>33.450000000000003</v>
+      </c>
+      <c r="G13" s="8">
+        <v>39.020000000000003</v>
+      </c>
+      <c r="H13" s="8">
+        <v>20.07</v>
+      </c>
+      <c r="I13" s="8">
+        <v>20.18</v>
+      </c>
+      <c r="J13" s="8">
+        <v>15.63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>3</v>
+      </c>
+      <c r="B14" s="8">
+        <v>6.3</v>
+      </c>
+      <c r="C14" s="8">
+        <v>10.71</v>
+      </c>
+      <c r="D14" s="8">
+        <v>10.71</v>
+      </c>
+      <c r="E14" s="8">
+        <v>11.93</v>
+      </c>
+      <c r="F14" s="8">
+        <v>2.84</v>
+      </c>
+      <c r="G14" s="8">
+        <v>7.11</v>
+      </c>
+      <c r="H14" s="8">
+        <v>10.71</v>
+      </c>
+      <c r="I14" s="8">
+        <v>11.03</v>
+      </c>
+      <c r="J14" s="8">
+        <v>19.05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>4</v>
+      </c>
+      <c r="B15" s="8">
+        <v>0.92</v>
+      </c>
+      <c r="C15" s="8">
+        <v>1.68</v>
+      </c>
+      <c r="D15" s="8">
+        <v>1.68</v>
+      </c>
+      <c r="E15" s="8">
+        <v>1.83</v>
+      </c>
+      <c r="F15" s="8">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G15" s="8">
+        <v>0.99</v>
+      </c>
+      <c r="H15" s="8">
+        <v>3.46</v>
+      </c>
+      <c r="I15" s="8">
+        <v>3.34</v>
+      </c>
+      <c r="J15" s="8">
+        <v>4.13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>5</v>
+      </c>
+      <c r="B16" s="8">
+        <v>2.27</v>
+      </c>
+      <c r="C16" s="8">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="D16" s="8">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="E16" s="8">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="F16" s="8">
+        <v>0.08</v>
+      </c>
+      <c r="G16" s="8">
+        <v>2.25</v>
+      </c>
+      <c r="H16" s="8">
+        <v>0.54</v>
+      </c>
+      <c r="I16" s="8">
+        <v>0.08</v>
+      </c>
+      <c r="J16" s="8">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <v>6</v>
+      </c>
+      <c r="B17" s="8">
+        <v>0.08</v>
+      </c>
+      <c r="C17" s="8">
+        <v>0.08</v>
+      </c>
+      <c r="D17" s="8">
+        <v>0.08</v>
+      </c>
+      <c r="E17" s="8">
+        <v>0.08</v>
+      </c>
+      <c r="F17" s="8">
+        <v>0</v>
+      </c>
+      <c r="G17" s="8">
+        <v>0.08</v>
+      </c>
+      <c r="H17" s="8">
+        <v>0.04</v>
+      </c>
+      <c r="I17" s="8">
+        <v>0</v>
+      </c>
+      <c r="J17" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="8">
+        <f>SUM(B12:B17)</f>
+        <v>41.17</v>
+      </c>
+      <c r="C18" s="8">
+        <f t="shared" ref="C18:J18" si="0">SUM(C12:C17)</f>
+        <v>69.640000000000015</v>
+      </c>
+      <c r="D18" s="8">
+        <f t="shared" si="0"/>
+        <v>69.640000000000015</v>
+      </c>
+      <c r="E18" s="8">
+        <f t="shared" si="0"/>
+        <v>72.05</v>
+      </c>
+      <c r="F18" s="8">
+        <f t="shared" si="0"/>
+        <v>52.37</v>
+      </c>
+      <c r="G18" s="8">
+        <f t="shared" si="0"/>
+        <v>57.160000000000004</v>
+      </c>
+      <c r="H18" s="8">
+        <f t="shared" si="0"/>
+        <v>38.53</v>
+      </c>
+      <c r="I18" s="8">
+        <f t="shared" si="0"/>
+        <v>38.379999999999995</v>
+      </c>
+      <c r="J18" s="8">
+        <f t="shared" si="0"/>
+        <v>41.650000000000006</v>
+      </c>
+      <c r="K18" s="10"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="J21" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
+        <v>1</v>
+      </c>
+      <c r="B22" s="12">
+        <f>B49/B59*D59</f>
+        <v>5.11E-3</v>
+      </c>
+      <c r="C22" s="12">
+        <f>C49/B59*D59</f>
+        <v>1.4308000000000001E-2</v>
+      </c>
+      <c r="D22" s="12">
+        <f>D49/B59*D59</f>
+        <v>1.4308000000000001E-2</v>
+      </c>
+      <c r="E22" s="12">
+        <f>E49/B59*D59</f>
+        <v>1.4308000000000001E-2</v>
+      </c>
+      <c r="F22" s="12">
+        <f>F49/B59*D59</f>
+        <v>1.6863E-2</v>
+      </c>
+      <c r="G22" s="12">
+        <f>G49/B59*D59</f>
+        <v>7.6649999999999999E-3</v>
+      </c>
+      <c r="H22" s="12">
+        <f>H49/B59*D59</f>
+        <v>2.555E-3</v>
+      </c>
+      <c r="I22" s="12">
+        <f>I49/B59*D59</f>
+        <v>2.555E-3</v>
+      </c>
+      <c r="J22" s="12">
+        <f>J49/B59*D59</f>
+        <v>2.2994999999999999E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
+        <v>2</v>
+      </c>
+      <c r="B23" s="12">
+        <f>B50/B59*D59</f>
+        <v>0.14818999999999999</v>
+      </c>
+      <c r="C23" s="12">
+        <f>C50/B59*D59</f>
+        <v>0.14818999999999999</v>
+      </c>
+      <c r="D23" s="12">
+        <f>D50/B59*D59</f>
+        <v>0.14818999999999999</v>
+      </c>
+      <c r="E23" s="12">
+        <f>E50/B59*D59</f>
+        <v>0.14818999999999999</v>
+      </c>
+      <c r="F23" s="12">
+        <f>F50/B59*D59</f>
+        <v>0.262654</v>
+      </c>
+      <c r="G23" s="12">
+        <f>G50/B59*D59</f>
+        <v>0.221774</v>
+      </c>
+      <c r="H23" s="12">
+        <f>H50/B59*D59</f>
+        <v>3.7302999999999996E-2</v>
+      </c>
+      <c r="I23" s="12">
+        <f>I50/B59*D59</f>
+        <v>3.7302999999999996E-2</v>
+      </c>
+      <c r="J23" s="12">
+        <f>J50/B59*D59</f>
+        <v>6.6430000000000003E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
+        <v>3</v>
+      </c>
+      <c r="B24" s="12">
+        <f>B51/B59*D59</f>
+        <v>0.44303700000000001</v>
+      </c>
+      <c r="C24" s="12">
+        <f>C51/B59*D59</f>
+        <v>0.47995675000000004</v>
+      </c>
+      <c r="D24" s="12">
+        <f>D51/B59*D59</f>
+        <v>0.47995675000000004</v>
+      </c>
+      <c r="E24" s="12">
+        <f>E51/B59*D59</f>
+        <v>0.47995675000000004</v>
+      </c>
+      <c r="F24" s="12">
+        <f>F51/B59*D59</f>
+        <v>1.3122480000000001</v>
+      </c>
+      <c r="G24" s="12">
+        <f>G51/B59*D59</f>
+        <v>0.47995675000000004</v>
+      </c>
+      <c r="H24" s="12">
+        <f>H51/B59*D59</f>
+        <v>0.14818999999999999</v>
+      </c>
+      <c r="I24" s="12">
+        <f>I51/B59*D59</f>
+        <v>0.14818999999999999</v>
+      </c>
+      <c r="J24" s="12">
+        <f>J51/B59*D59</f>
+        <v>0.26367600000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
+        <v>4</v>
+      </c>
+      <c r="B25" s="12">
+        <f>B52/B59*D59</f>
+        <v>0.40062400000000004</v>
+      </c>
+      <c r="C25" s="12">
+        <f>C52/B59*D59</f>
+        <v>0.85439199999999993</v>
+      </c>
+      <c r="D25" s="12">
+        <f>D52/B59*D59</f>
+        <v>0.85439199999999993</v>
+      </c>
+      <c r="E25" s="12">
+        <f>E52/B59*D59</f>
+        <v>0.85439199999999993</v>
+      </c>
+      <c r="F25" s="12">
+        <f>F52/B59*D59</f>
+        <v>0.52735200000000004</v>
+      </c>
+      <c r="G25" s="12">
+        <f>G52/B59*D59</f>
+        <v>0.43332799999999999</v>
+      </c>
+      <c r="H25" s="12">
+        <f>H52/B59*D59</f>
+        <v>1.5738800000000002</v>
+      </c>
+      <c r="I25" s="12">
+        <f>I52/B59*D59</f>
+        <v>1.5738800000000002</v>
+      </c>
+      <c r="J25" s="12">
+        <f>J52/B59*D59</f>
+        <v>1.9642839999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="4">
+        <v>5</v>
+      </c>
+      <c r="B26" s="12">
+        <f>B53/B59*D59</f>
+        <v>1.050616</v>
+      </c>
+      <c r="C26" s="12">
+        <f>C53/B59*D59</f>
+        <v>0.52735200000000004</v>
+      </c>
+      <c r="D26" s="12">
+        <f>D53/B59*D59</f>
+        <v>0.52735200000000004</v>
+      </c>
+      <c r="E26" s="12">
+        <f>E53/B59*D59</f>
+        <v>0.52735200000000004</v>
+      </c>
+      <c r="F26" s="12">
+        <f>F53/B59*D59</f>
+        <v>0.14831775</v>
+      </c>
+      <c r="G26" s="12">
+        <f>G53/B59*D59</f>
+        <v>1.050616</v>
+      </c>
+      <c r="H26" s="12">
+        <f>H53/B59*D59</f>
+        <v>0.26367600000000002</v>
+      </c>
+      <c r="I26" s="12">
+        <f>I53/B59*D59</f>
+        <v>4.1199375000000003E-2</v>
+      </c>
+      <c r="J26" s="12">
+        <f>J53/B59*D59</f>
+        <v>1.2455625000000001E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="4">
+        <v>6</v>
+      </c>
+      <c r="B27" s="12">
+        <f>B54/B59*D59</f>
+        <v>4.1199375000000003E-2</v>
+      </c>
+      <c r="C27" s="12">
+        <f>C54/B59*D59</f>
+        <v>4.1199375000000003E-2</v>
+      </c>
+      <c r="D27" s="12">
+        <f>D54/B59*D59</f>
+        <v>4.1199375000000003E-2</v>
+      </c>
+      <c r="E27" s="12">
+        <f>E54/B59*D59</f>
+        <v>0.18127725</v>
+      </c>
+      <c r="F27" s="12">
+        <f>F54/B59*D59</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="12">
+        <f>G54/B59*D59</f>
+        <v>4.1199375000000003E-2</v>
+      </c>
+      <c r="H27" s="12">
+        <f>H54/B59*D59</f>
+        <v>2.0759375E-2</v>
+      </c>
+      <c r="I27" s="12">
+        <f>I54/B59*D59</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="12">
+        <f>J54/B59*D59</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="12">
+        <f>SUM(B22:B27)</f>
+        <v>2.0887763750000001</v>
+      </c>
+      <c r="C28" s="12">
+        <f t="shared" ref="C28:I28" si="1">SUM(C22:C27)</f>
+        <v>2.0653981250000002</v>
+      </c>
+      <c r="D28" s="12">
+        <f t="shared" si="1"/>
+        <v>2.0653981250000002</v>
+      </c>
+      <c r="E28" s="12">
+        <f t="shared" si="1"/>
+        <v>2.205476</v>
+      </c>
+      <c r="F28" s="12">
+        <f t="shared" si="1"/>
+        <v>2.2674347500000001</v>
+      </c>
+      <c r="G28" s="12">
+        <f>SUM(G22:G27)</f>
+        <v>2.234539125</v>
+      </c>
+      <c r="H28" s="12">
+        <f t="shared" si="1"/>
+        <v>2.0463633750000003</v>
+      </c>
+      <c r="I28" s="12">
+        <f t="shared" si="1"/>
+        <v>1.8031273750000001</v>
+      </c>
+      <c r="J28" s="12">
+        <f>SUM(J22:J27)</f>
+        <v>2.3091451249999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I31" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="J31" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="5">
+        <f>B55/B59*D59</f>
+        <v>2.0887763750000001</v>
+      </c>
+      <c r="C32" s="5">
+        <f>C55/B59*D59</f>
+        <v>2.0653981250000002</v>
+      </c>
+      <c r="D32" s="5">
+        <f>D55/B59*D59</f>
+        <v>2.0653981250000002</v>
+      </c>
+      <c r="E32" s="5">
+        <f>E55/B59*D59</f>
+        <v>2.205476</v>
+      </c>
+      <c r="F32" s="5">
+        <f>F55/B59*D59</f>
+        <v>2.2674347500000005</v>
+      </c>
+      <c r="G32" s="5">
+        <f>G55/B59*D59</f>
+        <v>2.2345391250000004</v>
+      </c>
+      <c r="H32" s="5">
+        <f>H55/B59*D59</f>
+        <v>2.0463633749999999</v>
+      </c>
+      <c r="I32" s="5">
+        <f>I55/B59*D59</f>
+        <v>1.8031273750000001</v>
+      </c>
+      <c r="J32" s="5">
+        <f>J55/B59*D59</f>
+        <v>2.3091451250000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H36" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I36" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="J36" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="4">
+        <v>1</v>
+      </c>
+      <c r="B37" s="8">
+        <v>160</v>
+      </c>
+      <c r="C37" s="8">
+        <v>448</v>
+      </c>
+      <c r="D37" s="8">
+        <v>448</v>
+      </c>
+      <c r="E37" s="8">
+        <v>448</v>
+      </c>
+      <c r="F37" s="8">
+        <v>528</v>
+      </c>
+      <c r="G37" s="8">
+        <v>240</v>
+      </c>
+      <c r="H37" s="8">
+        <v>80</v>
+      </c>
+      <c r="I37" s="8">
+        <v>80</v>
+      </c>
+      <c r="J37" s="8">
         <v>72</v>
       </c>
-      <c r="C4" s="2">
-        <v>95.04</v>
-      </c>
-      <c r="D4" s="2">
-        <v>95.14</v>
-      </c>
-      <c r="E4" s="2">
-        <v>95.05</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="26"/>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="2">
-        <v>96.9</v>
-      </c>
-      <c r="D5" s="2">
-        <v>96.9</v>
-      </c>
-      <c r="E5" s="2">
-        <v>96.9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="2">
-        <v>99.38</v>
-      </c>
-      <c r="D6" s="2">
-        <v>99.1</v>
-      </c>
-      <c r="E6" s="2">
-        <v>99.28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="26"/>
-      <c r="B7" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C7" s="2">
-        <v>99.7</v>
-      </c>
-      <c r="D7" s="2">
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="4">
+        <v>2</v>
+      </c>
+      <c r="B38" s="8">
+        <v>4640</v>
+      </c>
+      <c r="C38" s="8">
+        <v>4640</v>
+      </c>
+      <c r="D38" s="8">
+        <v>4640</v>
+      </c>
+      <c r="E38" s="8">
+        <v>4640</v>
+      </c>
+      <c r="F38" s="8">
+        <v>8224</v>
+      </c>
+      <c r="G38" s="8">
+        <v>6944</v>
+      </c>
+      <c r="H38" s="8">
+        <v>1168</v>
+      </c>
+      <c r="I38" s="8">
+        <v>1168</v>
+      </c>
+      <c r="J38" s="8">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="4">
+        <v>3</v>
+      </c>
+      <c r="B39" s="8">
+        <v>13872</v>
+      </c>
+      <c r="C39" s="8">
+        <v>15028</v>
+      </c>
+      <c r="D39" s="8">
+        <v>15028</v>
+      </c>
+      <c r="E39" s="8">
+        <v>15028</v>
+      </c>
+      <c r="F39" s="8">
+        <v>41088</v>
+      </c>
+      <c r="G39" s="8">
+        <v>15028</v>
+      </c>
+      <c r="H39" s="8">
+        <v>4640</v>
+      </c>
+      <c r="I39" s="8">
+        <v>4640</v>
+      </c>
+      <c r="J39" s="8">
+        <v>8256</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="4">
+        <v>4</v>
+      </c>
+      <c r="B40" s="8">
+        <v>12544</v>
+      </c>
+      <c r="C40" s="8">
+        <v>26752</v>
+      </c>
+      <c r="D40" s="8">
+        <v>26752</v>
+      </c>
+      <c r="E40" s="8">
+        <v>26752</v>
+      </c>
+      <c r="F40" s="8">
+        <v>16512</v>
+      </c>
+      <c r="G40" s="8">
+        <v>13568</v>
+      </c>
+      <c r="H40" s="8">
+        <v>49280</v>
+      </c>
+      <c r="I40" s="8">
+        <v>49280</v>
+      </c>
+      <c r="J40" s="8">
+        <v>61504</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="4">
+        <v>5</v>
+      </c>
+      <c r="B41" s="8">
+        <v>32896</v>
+      </c>
+      <c r="C41" s="8">
+        <v>16512</v>
+      </c>
+      <c r="D41" s="8">
+        <v>16512</v>
+      </c>
+      <c r="E41" s="8">
+        <v>16512</v>
+      </c>
+      <c r="F41" s="8">
+        <v>4644</v>
+      </c>
+      <c r="G41" s="8">
+        <v>32896</v>
+      </c>
+      <c r="H41" s="8">
+        <v>8256</v>
+      </c>
+      <c r="I41" s="8">
+        <v>1290</v>
+      </c>
+      <c r="J41" s="8">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="4">
+        <v>6</v>
+      </c>
+      <c r="B42" s="8">
+        <v>1290</v>
+      </c>
+      <c r="C42" s="8">
+        <v>1290</v>
+      </c>
+      <c r="D42" s="8">
+        <v>1290</v>
+      </c>
+      <c r="E42" s="8">
+        <v>5676</v>
+      </c>
+      <c r="F42" s="8">
+        <v>0</v>
+      </c>
+      <c r="G42" s="8">
+        <v>1290</v>
+      </c>
+      <c r="H42" s="8">
+        <v>650</v>
+      </c>
+      <c r="I42" s="8">
+        <v>0</v>
+      </c>
+      <c r="J42" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43" s="8">
+        <f>SUM(B37:B42)</f>
+        <v>65402</v>
+      </c>
+      <c r="C43" s="8">
+        <f t="shared" ref="C43:J43" si="2">SUM(C37:C42)</f>
+        <v>64670</v>
+      </c>
+      <c r="D43" s="8">
+        <f t="shared" si="2"/>
+        <v>64670</v>
+      </c>
+      <c r="E43" s="8">
+        <f t="shared" si="2"/>
+        <v>69056</v>
+      </c>
+      <c r="F43" s="8">
+        <f t="shared" si="2"/>
+        <v>70996</v>
+      </c>
+      <c r="G43" s="8">
+        <f t="shared" si="2"/>
+        <v>69966</v>
+      </c>
+      <c r="H43" s="8">
+        <f t="shared" si="2"/>
+        <v>64074</v>
+      </c>
+      <c r="I43" s="8">
+        <f t="shared" si="2"/>
+        <v>56458</v>
+      </c>
+      <c r="J43" s="8">
+        <f t="shared" si="2"/>
+        <v>72302</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B44" s="9">
+        <f>B43*2/1000</f>
+        <v>130.804</v>
+      </c>
+      <c r="C44" s="9">
+        <f t="shared" ref="C44:J44" si="3">C43*2/1000</f>
+        <v>129.34</v>
+      </c>
+      <c r="D44" s="9">
+        <f t="shared" si="3"/>
+        <v>129.34</v>
+      </c>
+      <c r="E44" s="9">
+        <f t="shared" si="3"/>
+        <v>138.11199999999999</v>
+      </c>
+      <c r="F44" s="9">
+        <f t="shared" si="3"/>
+        <v>141.99199999999999</v>
+      </c>
+      <c r="G44" s="9">
+        <f t="shared" si="3"/>
+        <v>139.93199999999999</v>
+      </c>
+      <c r="H44" s="9">
+        <f t="shared" si="3"/>
+        <v>128.148</v>
+      </c>
+      <c r="I44" s="9">
+        <f t="shared" si="3"/>
+        <v>112.916</v>
+      </c>
+      <c r="J44" s="9">
+        <f t="shared" si="3"/>
+        <v>144.60400000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B47" s="23"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="23"/>
+      <c r="I47" s="23"/>
+      <c r="J47" s="23"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="2">
+      <c r="D48" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H48" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I48" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="J48" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="26"/>
-      <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="2">
-        <v>99.5</v>
-      </c>
-      <c r="D8" s="2">
-        <v>99.5</v>
-      </c>
-      <c r="E8" s="2">
-        <v>99.5</v>
+      <c r="B49" s="8">
+        <f>B37*2/1000</f>
+        <v>0.32</v>
+      </c>
+      <c r="C49" s="8">
+        <f t="shared" ref="C49:J49" si="4">C37*2/1000</f>
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="D49" s="8">
+        <f t="shared" si="4"/>
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="E49" s="8">
+        <f t="shared" si="4"/>
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="F49" s="8">
+        <f t="shared" si="4"/>
+        <v>1.056</v>
+      </c>
+      <c r="G49" s="8">
+        <f t="shared" si="4"/>
+        <v>0.48</v>
+      </c>
+      <c r="H49" s="8">
+        <f t="shared" si="4"/>
+        <v>0.16</v>
+      </c>
+      <c r="I49" s="8">
+        <f t="shared" si="4"/>
+        <v>0.16</v>
+      </c>
+      <c r="J49" s="8">
+        <f t="shared" si="4"/>
+        <v>0.14399999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" s="4">
+        <v>2</v>
+      </c>
+      <c r="B50" s="8">
+        <f t="shared" ref="B50:J54" si="5">B38*2/1000</f>
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="C50" s="8">
+        <f t="shared" si="5"/>
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="D50" s="8">
+        <f t="shared" si="5"/>
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="E50" s="8">
+        <f t="shared" si="5"/>
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="F50" s="8">
+        <f t="shared" si="5"/>
+        <v>16.448</v>
+      </c>
+      <c r="G50" s="8">
+        <f t="shared" si="5"/>
+        <v>13.888</v>
+      </c>
+      <c r="H50" s="8">
+        <f t="shared" si="5"/>
+        <v>2.3359999999999999</v>
+      </c>
+      <c r="I50" s="8">
+        <f t="shared" si="5"/>
+        <v>2.3359999999999999</v>
+      </c>
+      <c r="J50" s="8">
+        <f t="shared" si="5"/>
+        <v>4.16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" s="4">
+        <v>3</v>
+      </c>
+      <c r="B51" s="8">
+        <f t="shared" si="5"/>
+        <v>27.744</v>
+      </c>
+      <c r="C51" s="8">
+        <f t="shared" si="5"/>
+        <v>30.056000000000001</v>
+      </c>
+      <c r="D51" s="8">
+        <f t="shared" si="5"/>
+        <v>30.056000000000001</v>
+      </c>
+      <c r="E51" s="8">
+        <f t="shared" si="5"/>
+        <v>30.056000000000001</v>
+      </c>
+      <c r="F51" s="8">
+        <f t="shared" si="5"/>
+        <v>82.176000000000002</v>
+      </c>
+      <c r="G51" s="8">
+        <f t="shared" si="5"/>
+        <v>30.056000000000001</v>
+      </c>
+      <c r="H51" s="8">
+        <f t="shared" si="5"/>
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="I51" s="8">
+        <f t="shared" si="5"/>
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="J51" s="8">
+        <f t="shared" si="5"/>
+        <v>16.512</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="4">
+        <v>4</v>
+      </c>
+      <c r="B52" s="8">
+        <f t="shared" si="5"/>
+        <v>25.088000000000001</v>
+      </c>
+      <c r="C52" s="8">
+        <f t="shared" si="5"/>
+        <v>53.503999999999998</v>
+      </c>
+      <c r="D52" s="8">
+        <f t="shared" si="5"/>
+        <v>53.503999999999998</v>
+      </c>
+      <c r="E52" s="8">
+        <f t="shared" si="5"/>
+        <v>53.503999999999998</v>
+      </c>
+      <c r="F52" s="8">
+        <f t="shared" si="5"/>
+        <v>33.024000000000001</v>
+      </c>
+      <c r="G52" s="8">
+        <f t="shared" si="5"/>
+        <v>27.135999999999999</v>
+      </c>
+      <c r="H52" s="8">
+        <f t="shared" si="5"/>
+        <v>98.56</v>
+      </c>
+      <c r="I52" s="8">
+        <f t="shared" si="5"/>
+        <v>98.56</v>
+      </c>
+      <c r="J52" s="8">
+        <f t="shared" si="5"/>
+        <v>123.008</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" s="4">
+        <v>5</v>
+      </c>
+      <c r="B53" s="8">
+        <f t="shared" si="5"/>
+        <v>65.792000000000002</v>
+      </c>
+      <c r="C53" s="8">
+        <f t="shared" si="5"/>
+        <v>33.024000000000001</v>
+      </c>
+      <c r="D53" s="8">
+        <f t="shared" si="5"/>
+        <v>33.024000000000001</v>
+      </c>
+      <c r="E53" s="8">
+        <f t="shared" si="5"/>
+        <v>33.024000000000001</v>
+      </c>
+      <c r="F53" s="8">
+        <f t="shared" si="5"/>
+        <v>9.2880000000000003</v>
+      </c>
+      <c r="G53" s="8">
+        <f t="shared" si="5"/>
+        <v>65.792000000000002</v>
+      </c>
+      <c r="H53" s="8">
+        <f t="shared" si="5"/>
+        <v>16.512</v>
+      </c>
+      <c r="I53" s="8">
+        <f t="shared" si="5"/>
+        <v>2.58</v>
+      </c>
+      <c r="J53" s="8">
+        <f t="shared" si="5"/>
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" s="4">
+        <v>6</v>
+      </c>
+      <c r="B54" s="8">
+        <f t="shared" si="5"/>
+        <v>2.58</v>
+      </c>
+      <c r="C54" s="8">
+        <f t="shared" si="5"/>
+        <v>2.58</v>
+      </c>
+      <c r="D54" s="8">
+        <f t="shared" si="5"/>
+        <v>2.58</v>
+      </c>
+      <c r="E54" s="8">
+        <f t="shared" si="5"/>
+        <v>11.352</v>
+      </c>
+      <c r="F54" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G54" s="8">
+        <f t="shared" si="5"/>
+        <v>2.58</v>
+      </c>
+      <c r="H54" s="8">
+        <f t="shared" si="5"/>
+        <v>1.3</v>
+      </c>
+      <c r="I54" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J54" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B55" s="8">
+        <f>SUM(B49:B54)</f>
+        <v>130.804</v>
+      </c>
+      <c r="C55" s="8">
+        <f t="shared" ref="C55:F55" si="6">SUM(C49:C54)</f>
+        <v>129.34</v>
+      </c>
+      <c r="D55" s="8">
+        <f t="shared" si="6"/>
+        <v>129.34</v>
+      </c>
+      <c r="E55" s="8">
+        <f t="shared" si="6"/>
+        <v>138.11199999999999</v>
+      </c>
+      <c r="F55" s="8">
+        <f t="shared" si="6"/>
+        <v>141.99200000000002</v>
+      </c>
+      <c r="G55" s="8">
+        <f>SUM(G49:G54)</f>
+        <v>139.93200000000002</v>
+      </c>
+      <c r="H55" s="8">
+        <f t="shared" ref="H55:J55" si="7">SUM(H49:H54)</f>
+        <v>128.148</v>
+      </c>
+      <c r="I55" s="8">
+        <f t="shared" si="7"/>
+        <v>112.916</v>
+      </c>
+      <c r="J55" s="8">
+        <f t="shared" si="7"/>
+        <v>144.60400000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B58" s="23"/>
+      <c r="C58" s="23"/>
+      <c r="D58" s="23"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B59" s="2">
+        <v>64</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D59" s="2">
+        <v>1.022</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B62" s="23"/>
+      <c r="C62" s="23"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="23"/>
+      <c r="F62" s="23"/>
+      <c r="G62" s="23"/>
+      <c r="H62" s="23"/>
+      <c r="I62" s="23"/>
+      <c r="J62" s="23"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G63" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H63" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I63" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="J63" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B64" s="3">
+        <v>14.33</v>
+      </c>
+      <c r="C64" s="3">
+        <v>2.04</v>
+      </c>
+      <c r="D64" s="3">
+        <v>24.57</v>
+      </c>
+      <c r="E64" s="3">
+        <v>11.26</v>
+      </c>
+      <c r="F64" s="3">
+        <v>2.04</v>
+      </c>
+      <c r="G64" s="3">
+        <v>12.28</v>
+      </c>
+      <c r="H64" s="3">
+        <v>12.28</v>
+      </c>
+      <c r="I64" s="3">
+        <v>3.07</v>
+      </c>
+      <c r="J64" s="3">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B65" s="5">
+        <f>B64/B59*D59</f>
+        <v>0.22883218750000001</v>
+      </c>
+      <c r="C65" s="5">
+        <f>C64/B59*D59</f>
+        <v>3.2576250000000001E-2</v>
+      </c>
+      <c r="D65" s="5">
+        <f>D64/B59*D59</f>
+        <v>0.3923521875</v>
+      </c>
+      <c r="E65" s="5">
+        <f>E64/B59*D59</f>
+        <v>0.17980812500000001</v>
+      </c>
+      <c r="F65" s="5">
+        <f>F64/B59*D59</f>
+        <v>3.2576250000000001E-2</v>
+      </c>
+      <c r="G65" s="5">
+        <f>G64/B59*D59</f>
+        <v>0.19609625</v>
+      </c>
+      <c r="H65" s="3">
+        <f>H64/B59*D59</f>
+        <v>0.19609625</v>
+      </c>
+      <c r="I65" s="3">
+        <f>I64/B59*D59</f>
+        <v>4.90240625E-2</v>
+      </c>
+      <c r="J65" s="3">
+        <f>J64/B59*D59</f>
+        <v>1.6288125000000001E-2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A1:E1"/>
+  <mergeCells count="8">
+    <mergeCell ref="A58:D58"/>
+    <mergeCell ref="A62:J62"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="A47:J47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFEAE946-F7A6-BE48-92F8-ACF8AB61E6B0}">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView zoomScale="161" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="17.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+    </row>
+    <row r="2" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="2">
+        <v>93.9</v>
+      </c>
+      <c r="D3" s="2">
+        <v>93.85</v>
+      </c>
+      <c r="E3" s="2">
+        <v>94.97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="26"/>
+      <c r="B4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="2">
+        <v>75.17</v>
+      </c>
+      <c r="D4" s="2">
+        <v>74.209999999999994</v>
+      </c>
+      <c r="E4" s="2">
+        <v>73.930000000000007</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="26"/>
+      <c r="B5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="2">
+        <v>74.819999999999993</v>
+      </c>
+      <c r="D5" s="2">
+        <v>74.819999999999993</v>
+      </c>
+      <c r="E5" s="2">
+        <v>74.819999999999993</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="26"/>
+      <c r="B7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="26"/>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="2">
+        <v>93.9</v>
+      </c>
+      <c r="D15" s="2">
+        <v>93.85</v>
+      </c>
+      <c r="E15" s="2">
+        <v>94.97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="26"/>
+      <c r="B16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="2">
+        <v>95.05</v>
+      </c>
+      <c r="D16" s="2">
+        <v>95.04</v>
+      </c>
+      <c r="E16" s="2">
+        <v>95.14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="26"/>
+      <c r="B17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="2">
+        <v>96.9</v>
+      </c>
+      <c r="D17" s="2">
+        <v>96.9</v>
+      </c>
+      <c r="E17" s="2">
+        <v>96.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="2">
+        <v>99.28</v>
+      </c>
+      <c r="D18" s="2">
+        <v>99.38</v>
+      </c>
+      <c r="E18" s="2">
+        <v>99.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="26"/>
+      <c r="B19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="2">
+        <v>99.72</v>
+      </c>
+      <c r="D19" s="2">
+        <v>99.7</v>
+      </c>
+      <c r="E19" s="2">
+        <v>99.73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="26"/>
+      <c r="B20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="2">
+        <v>99.5</v>
+      </c>
+      <c r="D20" s="2">
+        <v>99.5</v>
+      </c>
+      <c r="E20" s="2">
+        <v>99.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A9:E9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09BB6D28-0DA4-6B47-9767-B86832CEED60}">
   <dimension ref="A1:F66"/>
   <sheetViews>
@@ -4544,6 +6347,640 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB8A6150-6557-DD49-A823-4DB21D694E8B}">
+  <dimension ref="A1:K27"/>
+  <sheetViews>
+    <sheetView zoomScale="138" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="36.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3">
+        <v>98.23</v>
+      </c>
+      <c r="C3" s="3">
+        <v>76.73</v>
+      </c>
+      <c r="D3" s="3">
+        <v>94.07</v>
+      </c>
+      <c r="E3" s="3">
+        <v>98.67</v>
+      </c>
+      <c r="F3" s="3">
+        <v>97.16</v>
+      </c>
+      <c r="G3" s="3">
+        <v>93.2</v>
+      </c>
+      <c r="H3" s="3">
+        <v>74.260000000000005</v>
+      </c>
+      <c r="I3" s="3">
+        <v>89</v>
+      </c>
+      <c r="J3" s="3">
+        <v>91.81</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3">
+        <f>B16/B17*B6</f>
+        <v>99.136750836629147</v>
+      </c>
+      <c r="C4" s="3">
+        <f>C16/C17*C6</f>
+        <v>92.663566967383773</v>
+      </c>
+      <c r="D4" s="3">
+        <f>D16/D17*D6</f>
+        <v>94.470588235294102</v>
+      </c>
+      <c r="E4" s="3">
+        <f>E16/E17*E6</f>
+        <v>98.2</v>
+      </c>
+      <c r="F4" s="3">
+        <f>F16/F17*F6</f>
+        <v>100.76708997568225</v>
+      </c>
+      <c r="G4" s="3">
+        <f t="shared" ref="G4:J4" si="0">G16/G17*G6</f>
+        <v>97.513997695852538</v>
+      </c>
+      <c r="H4" s="3">
+        <f t="shared" si="0"/>
+        <v>95.831017140812932</v>
+      </c>
+      <c r="I4" s="3">
+        <f t="shared" si="0"/>
+        <v>92.500978589374796</v>
+      </c>
+      <c r="J4" s="3">
+        <f t="shared" si="0"/>
+        <v>95.593289374843494</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3">
+        <f>B25/B26*B6</f>
+        <v>97.972364380757412</v>
+      </c>
+      <c r="C5" s="3">
+        <f>C25/C26*C6</f>
+        <v>96.038666666666671</v>
+      </c>
+      <c r="D5" s="3">
+        <f>D25/D26*D6</f>
+        <v>96.492698412698417</v>
+      </c>
+      <c r="E5" s="3">
+        <f>E25/E26*E6</f>
+        <v>97.998770491803299</v>
+      </c>
+      <c r="F5" s="3">
+        <f>F25/F26*F6</f>
+        <v>99.295154185022042</v>
+      </c>
+      <c r="G5" s="14">
+        <v>0</v>
+      </c>
+      <c r="H5" s="14">
+        <v>0</v>
+      </c>
+      <c r="I5" s="14">
+        <v>0</v>
+      </c>
+      <c r="J5" s="14">
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3">
+        <v>99.5</v>
+      </c>
+      <c r="C6" s="3">
+        <v>96.9</v>
+      </c>
+      <c r="D6" s="3">
+        <v>96.8</v>
+      </c>
+      <c r="E6" s="3">
+        <v>98.2</v>
+      </c>
+      <c r="F6" s="3">
+        <v>98</v>
+      </c>
+      <c r="G6" s="3">
+        <v>96.9</v>
+      </c>
+      <c r="H6" s="3">
+        <v>98.4</v>
+      </c>
+      <c r="I6" s="3">
+        <v>94.9</v>
+      </c>
+      <c r="J6" s="3">
+        <v>97.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="15">
+        <v>99.6</v>
+      </c>
+      <c r="C7" s="15">
+        <v>94.6</v>
+      </c>
+      <c r="D7" s="15">
+        <v>98.4</v>
+      </c>
+      <c r="E7" s="15">
+        <v>100</v>
+      </c>
+      <c r="F7" s="15">
+        <v>98.4</v>
+      </c>
+      <c r="G7" s="15">
+        <v>99.7</v>
+      </c>
+      <c r="H7" s="15">
+        <v>99.4</v>
+      </c>
+      <c r="I7" s="15">
+        <v>97.1</v>
+      </c>
+      <c r="J7" s="15">
+        <v>96.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="3">
+        <v>99.7</v>
+      </c>
+      <c r="C8" s="3">
+        <v>94.1</v>
+      </c>
+      <c r="D8" s="3">
+        <v>97.7</v>
+      </c>
+      <c r="E8" s="3">
+        <v>96.2</v>
+      </c>
+      <c r="F8" s="3">
+        <v>98.1</v>
+      </c>
+      <c r="G8" s="3">
+        <v>97.7</v>
+      </c>
+      <c r="H8" s="3">
+        <v>98.1</v>
+      </c>
+      <c r="I8" s="3">
+        <v>93.5</v>
+      </c>
+      <c r="J8" s="3">
+        <v>98.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <f>(MAX(B8,B6)-MIN(B8,B6))/MIN(B8,B6)*100</f>
+        <v>0.20100502512563098</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ref="C9:J9" si="1">(MAX(C8,C6)-MIN(C8,C6))/MIN(C8,C6)*100</f>
+        <v>2.9755579171094704</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>0.92975206611570838</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>2.0790020790020787</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>0.10204081632652481</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>0.82559339525283493</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>0.30581039755352846</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>1.4973262032085621</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>0.30674846625766583</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <f>(MAX(B8,B5)-MIN(B8,B5))/MIN(B8,B5)*100</f>
+        <v>1.7633907583656447</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ref="C10:F10" si="2">(MAX(C8,C5)-MIN(C8,C5))/MIN(C8,C5)*100</f>
+        <v>2.0602196245129405</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="2"/>
+        <v>1.2511843975364521</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="2"/>
+        <v>1.8698237960533222</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>1.2183019215311397</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <f>(MAX(B8,B4)-MIN(B8,B4))/MIN(B8,B4)*100</f>
+        <v>0.56815374582837908</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ref="C11:J11" si="3">(MAX(C8,C4)-MIN(C8,C4))/MIN(C8,C4)*100</f>
+        <v>1.5501594419755342</v>
+      </c>
+      <c r="D11">
+        <f>(MAX(D8,D4)-MIN(D8,D4))/MIN(D8,D4)*100</f>
+        <v>3.4184308841843292</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="3"/>
+        <v>2.0790020790020787</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="3"/>
+        <v>2.7187461525813044</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="3"/>
+        <v>0.19074420959297397</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="3"/>
+        <v>2.3676915125016844</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="3"/>
+        <v>1.0800117208056839</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="3"/>
+        <v>2.6222663134094133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I12">
+        <f>MAX(B9:J11)</f>
+        <v>3.4184308841843292</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="3">
+        <v>93.34</v>
+      </c>
+      <c r="C15" s="3">
+        <v>51.22</v>
+      </c>
+      <c r="D15" s="3">
+        <v>80.41</v>
+      </c>
+      <c r="E15" s="3">
+        <v>90.1</v>
+      </c>
+      <c r="F15" s="3">
+        <v>56.49</v>
+      </c>
+      <c r="G15" s="3">
+        <v>84.64</v>
+      </c>
+      <c r="H15" s="3">
+        <v>70.512799999999999</v>
+      </c>
+      <c r="I15" s="3">
+        <v>38.834400000000002</v>
+      </c>
+      <c r="J15" s="3">
+        <v>80.385599999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="3">
+        <v>98.25</v>
+      </c>
+      <c r="C16" s="3">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="D16" s="3">
+        <v>87.6</v>
+      </c>
+      <c r="E16" s="3">
+        <v>94.34</v>
+      </c>
+      <c r="F16" s="3">
+        <v>76.11</v>
+      </c>
+      <c r="G16" s="3">
+        <v>87.35</v>
+      </c>
+      <c r="H16" s="3">
+        <v>79.492900000000006</v>
+      </c>
+      <c r="I16" s="3">
+        <v>42.83</v>
+      </c>
+      <c r="J16" s="3">
+        <v>87.83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="3">
+        <v>98.61</v>
+      </c>
+      <c r="C17" s="3">
+        <v>72.05</v>
+      </c>
+      <c r="D17" s="3">
+        <v>89.76</v>
+      </c>
+      <c r="E17" s="3">
+        <v>94.34</v>
+      </c>
+      <c r="F17" s="3">
+        <v>74.02</v>
+      </c>
+      <c r="G17" s="3">
+        <v>86.8</v>
+      </c>
+      <c r="H17" s="3">
+        <v>81.623900000000006</v>
+      </c>
+      <c r="I17" s="3">
+        <v>43.940800000000003</v>
+      </c>
+      <c r="J17" s="3">
+        <v>89.857500000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="2">
+        <v>98.5</v>
+      </c>
+      <c r="C24" s="2">
+        <v>59.3</v>
+      </c>
+      <c r="D24" s="2">
+        <v>85.7</v>
+      </c>
+      <c r="E24" s="2">
+        <v>95.8</v>
+      </c>
+      <c r="F24" s="2">
+        <v>78.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="2">
+        <v>96.2</v>
+      </c>
+      <c r="C25" s="2">
+        <v>89.2</v>
+      </c>
+      <c r="D25" s="2">
+        <v>94.2</v>
+      </c>
+      <c r="E25" s="2">
+        <v>97.4</v>
+      </c>
+      <c r="F25" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="2">
+        <v>97.7</v>
+      </c>
+      <c r="C26" s="2">
+        <v>90</v>
+      </c>
+      <c r="D26" s="2">
+        <v>94.5</v>
+      </c>
+      <c r="E26" s="2">
+        <v>97.6</v>
+      </c>
+      <c r="F26" s="2">
+        <v>90.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A13:J13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37800737-DCBD-4E48-B8D1-0EDDFA6F61A2}">
   <dimension ref="A1:H16"/>
   <sheetViews>
@@ -4667,7 +7104,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{951637E0-D5A3-6945-9708-8015501B2B41}">
   <dimension ref="A1:I27"/>
   <sheetViews>
@@ -5198,7 +7635,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{803D7DDF-C6E5-DB46-8AC4-11520FE3D49F}">
   <dimension ref="A1:F40"/>
   <sheetViews>
@@ -5791,7 +8228,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A77F0FD-FF90-6947-BEE6-0880C6726156}">
   <dimension ref="A1:K65"/>
   <sheetViews>
@@ -7610,7 +10047,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4E9899-3E04-0747-82E9-ACEDBE639FB7}">
   <dimension ref="A1:K65"/>
   <sheetViews>
@@ -9424,7 +11861,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF1C228-D93B-1B44-B6A5-331E6B4EF13B}">
   <dimension ref="A1:J19"/>
   <sheetViews>
@@ -9976,7 +12413,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EB5370A-6E90-0245-9D0B-EAF88806F517}">
   <dimension ref="A1:J18"/>
   <sheetViews>
@@ -10527,1814 +12964,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13C6D9F3-393E-3E4E-A142-A12E5051E586}">
-  <dimension ref="A1:K65"/>
-  <sheetViews>
-    <sheetView zoomScale="144" zoomScaleNormal="150" workbookViewId="0">
-      <selection sqref="A1:H1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="3">
-        <f>B18*J1</f>
-        <v>335.29999999999984</v>
-      </c>
-      <c r="C3" s="3">
-        <f>C18*J1</f>
-        <v>578.70000000000016</v>
-      </c>
-      <c r="D3" s="3">
-        <f>D18*J1</f>
-        <v>578.70000000000016</v>
-      </c>
-      <c r="E3" s="3">
-        <f>E18*J1</f>
-        <v>578.70000000000016</v>
-      </c>
-      <c r="F3" s="3">
-        <f>F18*J1</f>
-        <v>198.39999999999998</v>
-      </c>
-      <c r="G3" s="3">
-        <f>G18*J1</f>
-        <v>466.89999999999992</v>
-      </c>
-      <c r="H3" s="3">
-        <f>H18*J1</f>
-        <v>295.79999999999995</v>
-      </c>
-      <c r="I3" s="3">
-        <f>I18*J1</f>
-        <v>301.39999999999998</v>
-      </c>
-      <c r="J3" s="3">
-        <f>J18*J1</f>
-        <v>615.6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3">
-        <f>B18*J1 +B65*J1</f>
-        <v>346.03630468749986</v>
-      </c>
-      <c r="C4" s="3">
-        <f>C18*J1 +C65*J1</f>
-        <v>580.22840625000015</v>
-      </c>
-      <c r="D4" s="3">
-        <f>D18*J1 +D65*J1</f>
-        <v>597.10830468750021</v>
-      </c>
-      <c r="E4" s="3">
-        <f>E18*J1 +E65*J1</f>
-        <v>587.13620312500018</v>
-      </c>
-      <c r="F4" s="3">
-        <f>F18*J1+F65*J1</f>
-        <v>199.92840624999997</v>
-      </c>
-      <c r="G4" s="3">
-        <f>G18*J1+G65*J1</f>
-        <v>476.10040624999993</v>
-      </c>
-      <c r="H4" s="3">
-        <f>H18*J1+H65*J1</f>
-        <v>305.00040624999997</v>
-      </c>
-      <c r="I4" s="3">
-        <f>I18*J1+I65*J1</f>
-        <v>303.70010156249998</v>
-      </c>
-      <c r="J4" s="3">
-        <f>J18*J1+J65*J1</f>
-        <v>616.36420312500002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="3">
-        <f>B18*J1 + 0.024*J1</f>
-        <v>335.53999999999985</v>
-      </c>
-      <c r="C5" s="3">
-        <f>C18*J1 + 0.024*J1</f>
-        <v>578.94000000000017</v>
-      </c>
-      <c r="D5" s="3">
-        <f>D18*J1 + 0.024*J1</f>
-        <v>578.94000000000017</v>
-      </c>
-      <c r="E5" s="3">
-        <f>E18*J1 + 0.024*J1</f>
-        <v>578.94000000000017</v>
-      </c>
-      <c r="F5" s="3">
-        <f>F18*J1 + 0.024*J1</f>
-        <v>198.64</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0</v>
-      </c>
-      <c r="I5" s="3">
-        <v>0</v>
-      </c>
-      <c r="J5" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="3">
-        <f>B18*J1 + B32*J1</f>
-        <v>433.30080937499986</v>
-      </c>
-      <c r="C6" s="3">
-        <f>C18*J1 + C32*J1</f>
-        <v>675.6039531250002</v>
-      </c>
-      <c r="D6" s="3">
-        <f>D18*J1 + D32*J1</f>
-        <v>675.6039531250002</v>
-      </c>
-      <c r="E6" s="3">
-        <f>E18*J1 + E32*J1</f>
-        <v>682.17610000000013</v>
-      </c>
-      <c r="F6" s="3">
-        <f>F18*J1 + F32*J1</f>
-        <v>304.78306874999998</v>
-      </c>
-      <c r="G6" s="3">
-        <f>G18*J1 + G32*J1</f>
-        <v>571.73967812499995</v>
-      </c>
-      <c r="H6" s="3">
-        <f>H18*J1 + H32*J1</f>
-        <v>391.81088437499994</v>
-      </c>
-      <c r="I6" s="3">
-        <f>I18*J1 + I32*J1</f>
-        <v>385.99878437500001</v>
-      </c>
-      <c r="J6" s="3">
-        <f>J18*J1 + J32*J1</f>
-        <v>723.94002812500003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="3">
-        <v>383.761059375</v>
-      </c>
-      <c r="C7" s="3">
-        <v>493.53265312500002</v>
-      </c>
-      <c r="D7" s="3">
-        <v>493.53265312500002</v>
-      </c>
-      <c r="E7" s="3">
-        <v>500.10480000000001</v>
-      </c>
-      <c r="F7" s="3">
-        <v>224.091893749999</v>
-      </c>
-      <c r="G7" s="3">
-        <v>490.88005312500002</v>
-      </c>
-      <c r="H7" s="3">
-        <v>353.39100937500001</v>
-      </c>
-      <c r="I7" s="3">
-        <v>342.37890937499998</v>
-      </c>
-      <c r="J7" s="3">
-        <v>675.63</v>
-      </c>
-      <c r="K7" s="17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" s="3">
-        <v>110.773664374999</v>
-      </c>
-      <c r="C8" s="3">
-        <v>168.96757687499999</v>
-      </c>
-      <c r="D8" s="3">
-        <v>168.96757687499999</v>
-      </c>
-      <c r="E8" s="3">
-        <v>175.53972375000001</v>
-      </c>
-      <c r="F8" s="3">
-        <v>96.646223750000004</v>
-      </c>
-      <c r="G8" s="3">
-        <v>246.606518749999</v>
-      </c>
-      <c r="H8" s="3">
-        <v>141.940794375</v>
-      </c>
-      <c r="I8" s="3">
-        <v>93.105069374999999</v>
-      </c>
-      <c r="J8" s="3">
-        <v>255.44</v>
-      </c>
-      <c r="K8" s="17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="J11" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
-        <v>1</v>
-      </c>
-      <c r="B12" s="8">
-        <v>4.93</v>
-      </c>
-      <c r="C12" s="8">
-        <v>18.14</v>
-      </c>
-      <c r="D12" s="8">
-        <v>18.14</v>
-      </c>
-      <c r="E12" s="8">
-        <v>18.14</v>
-      </c>
-      <c r="F12" s="8">
-        <v>7.99</v>
-      </c>
-      <c r="G12" s="8">
-        <v>8.0500000000000007</v>
-      </c>
-      <c r="H12" s="8">
-        <v>3.83</v>
-      </c>
-      <c r="I12" s="8">
-        <v>4.3499999999999996</v>
-      </c>
-      <c r="J12" s="8">
-        <v>4.82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
-        <v>2</v>
-      </c>
-      <c r="B13" s="8">
-        <v>21.4</v>
-      </c>
-      <c r="C13" s="8">
-        <v>29.03</v>
-      </c>
-      <c r="D13" s="8">
-        <v>29.03</v>
-      </c>
-      <c r="E13" s="8">
-        <v>29.03</v>
-      </c>
-      <c r="F13" s="8">
-        <v>11.28</v>
-      </c>
-      <c r="G13" s="8">
-        <v>30.95</v>
-      </c>
-      <c r="H13" s="8">
-        <v>15.89</v>
-      </c>
-      <c r="I13" s="8">
-        <v>15.95</v>
-      </c>
-      <c r="J13" s="8">
-        <v>20.53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
-        <v>3</v>
-      </c>
-      <c r="B14" s="8">
-        <v>6.52</v>
-      </c>
-      <c r="C14" s="8">
-        <v>10.17</v>
-      </c>
-      <c r="D14" s="8">
-        <v>10.17</v>
-      </c>
-      <c r="E14" s="8">
-        <v>10.17</v>
-      </c>
-      <c r="F14" s="8">
-        <v>0.31</v>
-      </c>
-      <c r="G14" s="8">
-        <v>7.02</v>
-      </c>
-      <c r="H14" s="8">
-        <v>9.43</v>
-      </c>
-      <c r="I14" s="8">
-        <v>9.5299999999999994</v>
-      </c>
-      <c r="J14" s="8">
-        <v>27.52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
-        <v>4</v>
-      </c>
-      <c r="B15" s="8">
-        <v>0.37</v>
-      </c>
-      <c r="C15" s="8">
-        <v>0.27</v>
-      </c>
-      <c r="D15" s="8">
-        <v>0.27</v>
-      </c>
-      <c r="E15" s="8">
-        <v>0.27</v>
-      </c>
-      <c r="F15" s="8">
-        <v>0.24</v>
-      </c>
-      <c r="G15" s="8">
-        <v>0.37</v>
-      </c>
-      <c r="H15" s="8">
-        <v>0.32</v>
-      </c>
-      <c r="I15" s="8">
-        <v>0.31</v>
-      </c>
-      <c r="J15" s="8">
-        <v>8.69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
-        <v>5</v>
-      </c>
-      <c r="B16" s="8">
-        <v>0.26</v>
-      </c>
-      <c r="C16" s="8">
-        <v>0.24</v>
-      </c>
-      <c r="D16" s="8">
-        <v>0.24</v>
-      </c>
-      <c r="E16" s="8">
-        <v>0.24</v>
-      </c>
-      <c r="F16" s="8">
-        <v>0.02</v>
-      </c>
-      <c r="G16" s="8">
-        <v>0.26</v>
-      </c>
-      <c r="H16" s="8">
-        <v>0.11</v>
-      </c>
-      <c r="I16" s="8">
-        <v>0</v>
-      </c>
-      <c r="J16" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
-        <v>6</v>
-      </c>
-      <c r="B17" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="C17" s="8">
-        <v>0.02</v>
-      </c>
-      <c r="D17" s="8">
-        <v>0.02</v>
-      </c>
-      <c r="E17" s="8">
-        <v>0.02</v>
-      </c>
-      <c r="F17" s="8">
-        <v>0</v>
-      </c>
-      <c r="G17" s="8">
-        <v>0.04</v>
-      </c>
-      <c r="H17" s="8">
-        <v>0</v>
-      </c>
-      <c r="I17" s="8">
-        <v>0</v>
-      </c>
-      <c r="J17" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="8">
-        <f>SUM(B12:B17)</f>
-        <v>33.529999999999987</v>
-      </c>
-      <c r="C18" s="8">
-        <f t="shared" ref="C18:J18" si="0">SUM(C12:C17)</f>
-        <v>57.870000000000012</v>
-      </c>
-      <c r="D18" s="8">
-        <f t="shared" si="0"/>
-        <v>57.870000000000012</v>
-      </c>
-      <c r="E18" s="8">
-        <f t="shared" si="0"/>
-        <v>57.870000000000012</v>
-      </c>
-      <c r="F18" s="8">
-        <f t="shared" si="0"/>
-        <v>19.839999999999996</v>
-      </c>
-      <c r="G18" s="8">
-        <f t="shared" si="0"/>
-        <v>46.689999999999991</v>
-      </c>
-      <c r="H18" s="8">
-        <f t="shared" si="0"/>
-        <v>29.58</v>
-      </c>
-      <c r="I18" s="8">
-        <f t="shared" si="0"/>
-        <v>30.139999999999997</v>
-      </c>
-      <c r="J18" s="8">
-        <f t="shared" si="0"/>
-        <v>61.56</v>
-      </c>
-      <c r="K18" s="10"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I21" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="J21" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="4">
-        <v>1</v>
-      </c>
-      <c r="B22" s="12">
-        <f>B49/B59*D59</f>
-        <v>2.3975E-2</v>
-      </c>
-      <c r="C22" s="12">
-        <f>C49/B59*D59</f>
-        <v>6.7129999999999995E-2</v>
-      </c>
-      <c r="D22" s="12">
-        <f>D49/B59*D59</f>
-        <v>6.7129999999999995E-2</v>
-      </c>
-      <c r="E22" s="12">
-        <f>E49/B59*D59</f>
-        <v>6.7129999999999995E-2</v>
-      </c>
-      <c r="F22" s="12">
-        <f>F49/B59*D59</f>
-        <v>7.9117500000000007E-2</v>
-      </c>
-      <c r="G22" s="12">
-        <f>G49/B59*D59</f>
-        <v>3.5962500000000001E-2</v>
-      </c>
-      <c r="H22" s="12">
-        <f>H49/B59*D59</f>
-        <v>1.19875E-2</v>
-      </c>
-      <c r="I22" s="12">
-        <f>I49/B59*D59</f>
-        <v>1.19875E-2</v>
-      </c>
-      <c r="J22" s="12">
-        <f>J49/B59*D59</f>
-        <v>1.078875E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="4">
-        <v>2</v>
-      </c>
-      <c r="B23" s="12">
-        <f>B50/B59*D59</f>
-        <v>0.69527499999999998</v>
-      </c>
-      <c r="C23" s="12">
-        <f>C50/B59*D59</f>
-        <v>0.69527499999999998</v>
-      </c>
-      <c r="D23" s="12">
-        <f>D50/B59*D59</f>
-        <v>0.69527499999999998</v>
-      </c>
-      <c r="E23" s="12">
-        <f>E50/B59*D59</f>
-        <v>0.69527499999999998</v>
-      </c>
-      <c r="F23" s="12">
-        <f>F50/B59*D59</f>
-        <v>1.232315</v>
-      </c>
-      <c r="G23" s="12">
-        <f>G50/B59*D59</f>
-        <v>1.0405150000000001</v>
-      </c>
-      <c r="H23" s="12">
-        <f>H50/B59*D59</f>
-        <v>0.17501749999999999</v>
-      </c>
-      <c r="I23" s="12">
-        <f>I50/B59*D59</f>
-        <v>0.17501749999999999</v>
-      </c>
-      <c r="J23" s="12">
-        <f>J50/B59*D59</f>
-        <v>0.31167499999999998</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="4">
-        <v>3</v>
-      </c>
-      <c r="B24" s="12">
-        <f>B51/B59*D59</f>
-        <v>2.0786324999999999</v>
-      </c>
-      <c r="C24" s="12">
-        <f>C51/B59*D59</f>
-        <v>2.2518518749999998</v>
-      </c>
-      <c r="D24" s="12">
-        <f>D51/B59*D59</f>
-        <v>2.2518518749999998</v>
-      </c>
-      <c r="E24" s="12">
-        <f>E51/B59*D59</f>
-        <v>2.2518518749999998</v>
-      </c>
-      <c r="F24" s="12">
-        <f>F51/B59*D59</f>
-        <v>6.1567800000000004</v>
-      </c>
-      <c r="G24" s="12">
-        <f>G51/B59*D59</f>
-        <v>2.2518518749999998</v>
-      </c>
-      <c r="H24" s="12">
-        <f>H51/B59*D59</f>
-        <v>0.69527499999999998</v>
-      </c>
-      <c r="I24" s="12">
-        <f>I51/B59*D59</f>
-        <v>0.69527499999999998</v>
-      </c>
-      <c r="J24" s="12">
-        <f>J51/B59*D59</f>
-        <v>1.2371099999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="4">
-        <v>4</v>
-      </c>
-      <c r="B25" s="12">
-        <f>B52/B59*D59</f>
-        <v>1.87964</v>
-      </c>
-      <c r="C25" s="12">
-        <f>C52/B59*D59</f>
-        <v>4.0086199999999996</v>
-      </c>
-      <c r="D25" s="12">
-        <f>D52/B59*D59</f>
-        <v>4.0086199999999996</v>
-      </c>
-      <c r="E25" s="12">
-        <f>E52/B59*D59</f>
-        <v>4.0086199999999996</v>
-      </c>
-      <c r="F25" s="12">
-        <f>F52/B59*D59</f>
-        <v>2.4742199999999999</v>
-      </c>
-      <c r="G25" s="12">
-        <f>G52/B59*D59</f>
-        <v>2.03308</v>
-      </c>
-      <c r="H25" s="12">
-        <f>H52/B59*D59</f>
-        <v>7.3842999999999996</v>
-      </c>
-      <c r="I25" s="12">
-        <f>I52/B59*D59</f>
-        <v>7.3842999999999996</v>
-      </c>
-      <c r="J25" s="12">
-        <f>J52/B59*D59</f>
-        <v>9.2159899999999997</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="4">
-        <v>5</v>
-      </c>
-      <c r="B26" s="12">
-        <f>B53/B59*D59</f>
-        <v>4.9292600000000002</v>
-      </c>
-      <c r="C26" s="12">
-        <f>C53/B59*D59</f>
-        <v>2.4742199999999999</v>
-      </c>
-      <c r="D26" s="12">
-        <f>D53/B59*D59</f>
-        <v>2.4742199999999999</v>
-      </c>
-      <c r="E26" s="12">
-        <f>E53/B59*D59</f>
-        <v>2.4742199999999999</v>
-      </c>
-      <c r="F26" s="12">
-        <f>F53/B59*D59</f>
-        <v>0.69587437500000004</v>
-      </c>
-      <c r="G26" s="12">
-        <f>G53/B59*D59</f>
-        <v>4.9292600000000002</v>
-      </c>
-      <c r="H26" s="12">
-        <f>H53/B59*D59</f>
-        <v>1.2371099999999999</v>
-      </c>
-      <c r="I26" s="12">
-        <f>I53/B59*D59</f>
-        <v>0.1932984375</v>
-      </c>
-      <c r="J26" s="12">
-        <f>J53/B59*D59</f>
-        <v>5.84390625E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="4">
-        <v>6</v>
-      </c>
-      <c r="B27" s="12">
-        <f>B54/B59*D59</f>
-        <v>0.1932984375</v>
-      </c>
-      <c r="C27" s="12">
-        <f>C54/B59*D59</f>
-        <v>0.1932984375</v>
-      </c>
-      <c r="D27" s="12">
-        <f>D54/B59*D59</f>
-        <v>0.1932984375</v>
-      </c>
-      <c r="E27" s="12">
-        <f>E54/B59*D59</f>
-        <v>0.85051312499999998</v>
-      </c>
-      <c r="F27" s="12">
-        <f>F54/B59*D59</f>
-        <v>0</v>
-      </c>
-      <c r="G27" s="12">
-        <f>G54/B59*D59</f>
-        <v>0.1932984375</v>
-      </c>
-      <c r="H27" s="12">
-        <f>H54/B59*D59</f>
-        <v>9.7398437500000004E-2</v>
-      </c>
-      <c r="I27" s="12">
-        <f>I54/B59*D59</f>
-        <v>0</v>
-      </c>
-      <c r="J27" s="12">
-        <f>J54/B59*D59</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B28" s="12">
-        <f>SUM(B22:B27)</f>
-        <v>9.8000809375000006</v>
-      </c>
-      <c r="C28" s="12">
-        <f t="shared" ref="C28:I28" si="1">SUM(C22:C27)</f>
-        <v>9.6903953124999997</v>
-      </c>
-      <c r="D28" s="12">
-        <f t="shared" si="1"/>
-        <v>9.6903953124999997</v>
-      </c>
-      <c r="E28" s="12">
-        <f t="shared" si="1"/>
-        <v>10.34761</v>
-      </c>
-      <c r="F28" s="12">
-        <f t="shared" si="1"/>
-        <v>10.638306875</v>
-      </c>
-      <c r="G28" s="12">
-        <f>SUM(G22:G27)</f>
-        <v>10.4839678125</v>
-      </c>
-      <c r="H28" s="12">
-        <f t="shared" si="1"/>
-        <v>9.6010884374999996</v>
-      </c>
-      <c r="I28" s="12">
-        <f t="shared" si="1"/>
-        <v>8.4598784374999987</v>
-      </c>
-      <c r="J28" s="12">
-        <f>SUM(J22:J27)</f>
-        <v>10.8340028125</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G31" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="H31" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I31" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="J31" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B32" s="5">
-        <f>B55/B59*D59</f>
-        <v>9.8000809375000006</v>
-      </c>
-      <c r="C32" s="5">
-        <f>C55/B59*D59</f>
-        <v>9.6903953124999997</v>
-      </c>
-      <c r="D32" s="5">
-        <f>D55/B59*D59</f>
-        <v>9.6903953124999997</v>
-      </c>
-      <c r="E32" s="5">
-        <f>E55/B59*D59</f>
-        <v>10.34761</v>
-      </c>
-      <c r="F32" s="5">
-        <f>F55/B59*D59</f>
-        <v>10.638306875000001</v>
-      </c>
-      <c r="G32" s="5">
-        <f>G55/B59*D59</f>
-        <v>10.483967812500001</v>
-      </c>
-      <c r="H32" s="5">
-        <f>H55/B59*D59</f>
-        <v>9.6010884374999996</v>
-      </c>
-      <c r="I32" s="5">
-        <f>I55/B59*D59</f>
-        <v>8.4598784375000005</v>
-      </c>
-      <c r="J32" s="5">
-        <f>J55/B59*D59</f>
-        <v>10.834002812500001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G36" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="H36" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I36" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="J36" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="4">
-        <v>1</v>
-      </c>
-      <c r="B37" s="8">
-        <v>160</v>
-      </c>
-      <c r="C37" s="8">
-        <v>448</v>
-      </c>
-      <c r="D37" s="8">
-        <v>448</v>
-      </c>
-      <c r="E37" s="8">
-        <v>448</v>
-      </c>
-      <c r="F37" s="8">
-        <v>528</v>
-      </c>
-      <c r="G37" s="8">
-        <v>240</v>
-      </c>
-      <c r="H37" s="8">
-        <v>80</v>
-      </c>
-      <c r="I37" s="8">
-        <v>80</v>
-      </c>
-      <c r="J37" s="8">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="4">
-        <v>2</v>
-      </c>
-      <c r="B38" s="8">
-        <v>4640</v>
-      </c>
-      <c r="C38" s="8">
-        <v>4640</v>
-      </c>
-      <c r="D38" s="8">
-        <v>4640</v>
-      </c>
-      <c r="E38" s="8">
-        <v>4640</v>
-      </c>
-      <c r="F38" s="8">
-        <v>8224</v>
-      </c>
-      <c r="G38" s="8">
-        <v>6944</v>
-      </c>
-      <c r="H38" s="8">
-        <v>1168</v>
-      </c>
-      <c r="I38" s="8">
-        <v>1168</v>
-      </c>
-      <c r="J38" s="8">
-        <v>2080</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="4">
-        <v>3</v>
-      </c>
-      <c r="B39" s="8">
-        <v>13872</v>
-      </c>
-      <c r="C39" s="8">
-        <v>15028</v>
-      </c>
-      <c r="D39" s="8">
-        <v>15028</v>
-      </c>
-      <c r="E39" s="8">
-        <v>15028</v>
-      </c>
-      <c r="F39" s="8">
-        <v>41088</v>
-      </c>
-      <c r="G39" s="8">
-        <v>15028</v>
-      </c>
-      <c r="H39" s="8">
-        <v>4640</v>
-      </c>
-      <c r="I39" s="8">
-        <v>4640</v>
-      </c>
-      <c r="J39" s="8">
-        <v>8256</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="4">
-        <v>4</v>
-      </c>
-      <c r="B40" s="8">
-        <v>12544</v>
-      </c>
-      <c r="C40" s="8">
-        <v>26752</v>
-      </c>
-      <c r="D40" s="8">
-        <v>26752</v>
-      </c>
-      <c r="E40" s="8">
-        <v>26752</v>
-      </c>
-      <c r="F40" s="8">
-        <v>16512</v>
-      </c>
-      <c r="G40" s="8">
-        <v>13568</v>
-      </c>
-      <c r="H40" s="8">
-        <v>49280</v>
-      </c>
-      <c r="I40" s="8">
-        <v>49280</v>
-      </c>
-      <c r="J40" s="8">
-        <v>61504</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="4">
-        <v>5</v>
-      </c>
-      <c r="B41" s="8">
-        <v>32896</v>
-      </c>
-      <c r="C41" s="8">
-        <v>16512</v>
-      </c>
-      <c r="D41" s="8">
-        <v>16512</v>
-      </c>
-      <c r="E41" s="8">
-        <v>16512</v>
-      </c>
-      <c r="F41" s="8">
-        <v>4644</v>
-      </c>
-      <c r="G41" s="8">
-        <v>32896</v>
-      </c>
-      <c r="H41" s="8">
-        <v>8256</v>
-      </c>
-      <c r="I41" s="8">
-        <v>1290</v>
-      </c>
-      <c r="J41" s="8">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="4">
-        <v>6</v>
-      </c>
-      <c r="B42" s="8">
-        <v>1290</v>
-      </c>
-      <c r="C42" s="8">
-        <v>1290</v>
-      </c>
-      <c r="D42" s="8">
-        <v>1290</v>
-      </c>
-      <c r="E42" s="8">
-        <v>5676</v>
-      </c>
-      <c r="F42" s="8">
-        <v>0</v>
-      </c>
-      <c r="G42" s="8">
-        <v>1290</v>
-      </c>
-      <c r="H42" s="8">
-        <v>650</v>
-      </c>
-      <c r="I42" s="8">
-        <v>0</v>
-      </c>
-      <c r="J42" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B43" s="8">
-        <f>SUM(B37:B42)</f>
-        <v>65402</v>
-      </c>
-      <c r="C43" s="8">
-        <f t="shared" ref="C43:J43" si="2">SUM(C37:C42)</f>
-        <v>64670</v>
-      </c>
-      <c r="D43" s="8">
-        <f t="shared" si="2"/>
-        <v>64670</v>
-      </c>
-      <c r="E43" s="8">
-        <f t="shared" si="2"/>
-        <v>69056</v>
-      </c>
-      <c r="F43" s="8">
-        <f t="shared" si="2"/>
-        <v>70996</v>
-      </c>
-      <c r="G43" s="8">
-        <f t="shared" si="2"/>
-        <v>69966</v>
-      </c>
-      <c r="H43" s="8">
-        <f t="shared" si="2"/>
-        <v>64074</v>
-      </c>
-      <c r="I43" s="8">
-        <f t="shared" si="2"/>
-        <v>56458</v>
-      </c>
-      <c r="J43" s="8">
-        <f t="shared" si="2"/>
-        <v>72302</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B44" s="9">
-        <f>B43*2/1000</f>
-        <v>130.804</v>
-      </c>
-      <c r="C44" s="9">
-        <f t="shared" ref="C44:J44" si="3">C43*2/1000</f>
-        <v>129.34</v>
-      </c>
-      <c r="D44" s="9">
-        <f t="shared" si="3"/>
-        <v>129.34</v>
-      </c>
-      <c r="E44" s="9">
-        <f t="shared" si="3"/>
-        <v>138.11199999999999</v>
-      </c>
-      <c r="F44" s="9">
-        <f t="shared" si="3"/>
-        <v>141.99199999999999</v>
-      </c>
-      <c r="G44" s="9">
-        <f t="shared" si="3"/>
-        <v>139.93199999999999</v>
-      </c>
-      <c r="H44" s="9">
-        <f t="shared" si="3"/>
-        <v>128.148</v>
-      </c>
-      <c r="I44" s="9">
-        <f t="shared" si="3"/>
-        <v>112.916</v>
-      </c>
-      <c r="J44" s="9">
-        <f t="shared" si="3"/>
-        <v>144.60400000000001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="B47" s="23"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="23"/>
-      <c r="I47" s="23"/>
-      <c r="J47" s="23"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G48" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="H48" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I48" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="J48" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="4">
-        <v>1</v>
-      </c>
-      <c r="B49" s="8">
-        <f>B37*2/1000</f>
-        <v>0.32</v>
-      </c>
-      <c r="C49" s="8">
-        <f t="shared" ref="C49:J49" si="4">C37*2/1000</f>
-        <v>0.89600000000000002</v>
-      </c>
-      <c r="D49" s="8">
-        <f t="shared" si="4"/>
-        <v>0.89600000000000002</v>
-      </c>
-      <c r="E49" s="8">
-        <f t="shared" si="4"/>
-        <v>0.89600000000000002</v>
-      </c>
-      <c r="F49" s="8">
-        <f t="shared" si="4"/>
-        <v>1.056</v>
-      </c>
-      <c r="G49" s="8">
-        <f t="shared" si="4"/>
-        <v>0.48</v>
-      </c>
-      <c r="H49" s="8">
-        <f t="shared" si="4"/>
-        <v>0.16</v>
-      </c>
-      <c r="I49" s="8">
-        <f t="shared" si="4"/>
-        <v>0.16</v>
-      </c>
-      <c r="J49" s="8">
-        <f t="shared" si="4"/>
-        <v>0.14399999999999999</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="4">
-        <v>2</v>
-      </c>
-      <c r="B50" s="8">
-        <f t="shared" ref="B50:J54" si="5">B38*2/1000</f>
-        <v>9.2799999999999994</v>
-      </c>
-      <c r="C50" s="8">
-        <f t="shared" si="5"/>
-        <v>9.2799999999999994</v>
-      </c>
-      <c r="D50" s="8">
-        <f t="shared" si="5"/>
-        <v>9.2799999999999994</v>
-      </c>
-      <c r="E50" s="8">
-        <f t="shared" si="5"/>
-        <v>9.2799999999999994</v>
-      </c>
-      <c r="F50" s="8">
-        <f t="shared" si="5"/>
-        <v>16.448</v>
-      </c>
-      <c r="G50" s="8">
-        <f t="shared" si="5"/>
-        <v>13.888</v>
-      </c>
-      <c r="H50" s="8">
-        <f t="shared" si="5"/>
-        <v>2.3359999999999999</v>
-      </c>
-      <c r="I50" s="8">
-        <f t="shared" si="5"/>
-        <v>2.3359999999999999</v>
-      </c>
-      <c r="J50" s="8">
-        <f t="shared" si="5"/>
-        <v>4.16</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="4">
-        <v>3</v>
-      </c>
-      <c r="B51" s="8">
-        <f t="shared" si="5"/>
-        <v>27.744</v>
-      </c>
-      <c r="C51" s="8">
-        <f t="shared" si="5"/>
-        <v>30.056000000000001</v>
-      </c>
-      <c r="D51" s="8">
-        <f t="shared" si="5"/>
-        <v>30.056000000000001</v>
-      </c>
-      <c r="E51" s="8">
-        <f t="shared" si="5"/>
-        <v>30.056000000000001</v>
-      </c>
-      <c r="F51" s="8">
-        <f t="shared" si="5"/>
-        <v>82.176000000000002</v>
-      </c>
-      <c r="G51" s="8">
-        <f t="shared" si="5"/>
-        <v>30.056000000000001</v>
-      </c>
-      <c r="H51" s="8">
-        <f t="shared" si="5"/>
-        <v>9.2799999999999994</v>
-      </c>
-      <c r="I51" s="8">
-        <f t="shared" si="5"/>
-        <v>9.2799999999999994</v>
-      </c>
-      <c r="J51" s="8">
-        <f t="shared" si="5"/>
-        <v>16.512</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" s="4">
-        <v>4</v>
-      </c>
-      <c r="B52" s="8">
-        <f t="shared" si="5"/>
-        <v>25.088000000000001</v>
-      </c>
-      <c r="C52" s="8">
-        <f t="shared" si="5"/>
-        <v>53.503999999999998</v>
-      </c>
-      <c r="D52" s="8">
-        <f t="shared" si="5"/>
-        <v>53.503999999999998</v>
-      </c>
-      <c r="E52" s="8">
-        <f t="shared" si="5"/>
-        <v>53.503999999999998</v>
-      </c>
-      <c r="F52" s="8">
-        <f t="shared" si="5"/>
-        <v>33.024000000000001</v>
-      </c>
-      <c r="G52" s="8">
-        <f t="shared" si="5"/>
-        <v>27.135999999999999</v>
-      </c>
-      <c r="H52" s="8">
-        <f t="shared" si="5"/>
-        <v>98.56</v>
-      </c>
-      <c r="I52" s="8">
-        <f t="shared" si="5"/>
-        <v>98.56</v>
-      </c>
-      <c r="J52" s="8">
-        <f t="shared" si="5"/>
-        <v>123.008</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="4">
-        <v>5</v>
-      </c>
-      <c r="B53" s="8">
-        <f t="shared" si="5"/>
-        <v>65.792000000000002</v>
-      </c>
-      <c r="C53" s="8">
-        <f t="shared" si="5"/>
-        <v>33.024000000000001</v>
-      </c>
-      <c r="D53" s="8">
-        <f t="shared" si="5"/>
-        <v>33.024000000000001</v>
-      </c>
-      <c r="E53" s="8">
-        <f t="shared" si="5"/>
-        <v>33.024000000000001</v>
-      </c>
-      <c r="F53" s="8">
-        <f t="shared" si="5"/>
-        <v>9.2880000000000003</v>
-      </c>
-      <c r="G53" s="8">
-        <f t="shared" si="5"/>
-        <v>65.792000000000002</v>
-      </c>
-      <c r="H53" s="8">
-        <f t="shared" si="5"/>
-        <v>16.512</v>
-      </c>
-      <c r="I53" s="8">
-        <f t="shared" si="5"/>
-        <v>2.58</v>
-      </c>
-      <c r="J53" s="8">
-        <f t="shared" si="5"/>
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="4">
-        <v>6</v>
-      </c>
-      <c r="B54" s="8">
-        <f t="shared" si="5"/>
-        <v>2.58</v>
-      </c>
-      <c r="C54" s="8">
-        <f t="shared" si="5"/>
-        <v>2.58</v>
-      </c>
-      <c r="D54" s="8">
-        <f t="shared" si="5"/>
-        <v>2.58</v>
-      </c>
-      <c r="E54" s="8">
-        <f t="shared" si="5"/>
-        <v>11.352</v>
-      </c>
-      <c r="F54" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G54" s="8">
-        <f t="shared" si="5"/>
-        <v>2.58</v>
-      </c>
-      <c r="H54" s="8">
-        <f t="shared" si="5"/>
-        <v>1.3</v>
-      </c>
-      <c r="I54" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J54" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B55" s="8">
-        <f>SUM(B49:B54)</f>
-        <v>130.804</v>
-      </c>
-      <c r="C55" s="8">
-        <f t="shared" ref="C55:F55" si="6">SUM(C49:C54)</f>
-        <v>129.34</v>
-      </c>
-      <c r="D55" s="8">
-        <f t="shared" si="6"/>
-        <v>129.34</v>
-      </c>
-      <c r="E55" s="8">
-        <f t="shared" si="6"/>
-        <v>138.11199999999999</v>
-      </c>
-      <c r="F55" s="8">
-        <f t="shared" si="6"/>
-        <v>141.99200000000002</v>
-      </c>
-      <c r="G55" s="8">
-        <f>SUM(G49:G54)</f>
-        <v>139.93200000000002</v>
-      </c>
-      <c r="H55" s="8">
-        <f t="shared" ref="H55:J55" si="7">SUM(H49:H54)</f>
-        <v>128.148</v>
-      </c>
-      <c r="I55" s="8">
-        <f t="shared" si="7"/>
-        <v>112.916</v>
-      </c>
-      <c r="J55" s="8">
-        <f t="shared" si="7"/>
-        <v>144.60400000000001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B56" s="10"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="B58" s="23"/>
-      <c r="C58" s="23"/>
-      <c r="D58" s="23"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B59" s="2">
-        <v>64</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D59" s="2">
-        <v>4.7949999999999999</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B62" s="23"/>
-      <c r="C62" s="23"/>
-      <c r="D62" s="23"/>
-      <c r="E62" s="23"/>
-      <c r="F62" s="23"/>
-      <c r="G62" s="23"/>
-      <c r="H62" s="23"/>
-      <c r="I62" s="23"/>
-      <c r="J62" s="23"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G63" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="H63" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I63" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="J63" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B64" s="3">
-        <v>14.33</v>
-      </c>
-      <c r="C64" s="3">
-        <v>2.04</v>
-      </c>
-      <c r="D64" s="3">
-        <v>24.57</v>
-      </c>
-      <c r="E64" s="3">
-        <v>11.26</v>
-      </c>
-      <c r="F64" s="3">
-        <v>2.04</v>
-      </c>
-      <c r="G64" s="3">
-        <v>12.28</v>
-      </c>
-      <c r="H64" s="3">
-        <v>12.28</v>
-      </c>
-      <c r="I64" s="3">
-        <v>3.07</v>
-      </c>
-      <c r="J64" s="3">
-        <v>1.02</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B65" s="5">
-        <f>B64/B59*D59</f>
-        <v>1.07363046875</v>
-      </c>
-      <c r="C65" s="5">
-        <f>C64/B59*D59</f>
-        <v>0.15284062500000001</v>
-      </c>
-      <c r="D65" s="5">
-        <f>D64/B59*D59</f>
-        <v>1.8408304687499999</v>
-      </c>
-      <c r="E65" s="5">
-        <f>E64/B59*D59</f>
-        <v>0.84362031250000002</v>
-      </c>
-      <c r="F65" s="5">
-        <f>F64/B59*D59</f>
-        <v>0.15284062500000001</v>
-      </c>
-      <c r="G65" s="5">
-        <f>G64/B59*D59</f>
-        <v>0.92004062499999995</v>
-      </c>
-      <c r="H65" s="3">
-        <f>H64/B59*D59</f>
-        <v>0.92004062499999995</v>
-      </c>
-      <c r="I65" s="3">
-        <f>I64/B59*D59</f>
-        <v>0.23001015624999999</v>
-      </c>
-      <c r="J65" s="3">
-        <f>J64/B59*D59</f>
-        <v>7.6420312500000004E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A58:D58"/>
-    <mergeCell ref="A62:J62"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="A47:J47"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/plot/system_evaluation/comparison.xlsx
+++ b/plot/system_evaluation/comparison.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuboluo/Documents/PycharmProjects/SmartSwitch/plot/system_evaluation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ECED44E-9932-6C44-94AE-2236C9E01538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D357124-EACF-FC4D-AB45-54FF984A1EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16880" xr2:uid="{A33675B7-7F4F-C34D-AB6F-57998B81D61A}"/>
   </bookViews>
@@ -27,7 +27,7 @@
     <sheet name="knowledge_distillation" sheetId="13" r:id="rId12"/>
     <sheet name="timeoverhead-task=5" sheetId="5" state="hidden" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,9 +35,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -514,11 +517,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -837,7 +840,7 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="138" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -908,7 +911,7 @@
       </c>
       <c r="E3" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>94.999438202247177</v>
       </c>
       <c r="F3" s="3">
         <f t="shared" si="0"/>
@@ -952,7 +955,7 @@
       </c>
       <c r="E4" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>99.47</v>
       </c>
       <c r="F4" s="3">
         <f t="shared" si="1"/>
@@ -993,7 +996,7 @@
       </c>
       <c r="E5" s="3">
         <f>E24/E25*E6</f>
-        <v>0</v>
+        <v>99.266168032786894</v>
       </c>
       <c r="F5" s="3">
         <f>F24/F25*F6</f>
@@ -1028,7 +1031,9 @@
       <c r="D6" s="3">
         <v>86.69</v>
       </c>
-      <c r="E6" s="3"/>
+      <c r="E6" s="3">
+        <v>99.47</v>
+      </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3">
         <v>89.59</v>
@@ -1050,7 +1055,9 @@
       <c r="D7" s="3">
         <v>87.27</v>
       </c>
-      <c r="E7" s="3"/>
+      <c r="E7" s="3">
+        <v>99.47</v>
+      </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3">
         <v>88.99</v>
@@ -4975,7 +4982,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="27" t="s">
         <v>76</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -4992,7 +4999,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="26"/>
+      <c r="A4" s="27"/>
       <c r="B4" s="1" t="s">
         <v>77</v>
       </c>
@@ -5007,7 +5014,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="26"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="1" t="s">
         <v>78</v>
       </c>
@@ -5022,7 +5029,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="27" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -5033,7 +5040,7 @@
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="26"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="1" t="s">
         <v>72</v>
       </c>
@@ -5042,7 +5049,7 @@
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="26"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
@@ -5051,13 +5058,13 @@
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="23" t="s">
@@ -5082,7 +5089,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="27" t="s">
         <v>76</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -5099,7 +5106,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="26"/>
+      <c r="A16" s="27"/>
       <c r="B16" s="1" t="s">
         <v>72</v>
       </c>
@@ -5114,7 +5121,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="26"/>
+      <c r="A17" s="27"/>
       <c r="B17" s="1" t="s">
         <v>7</v>
       </c>
@@ -5129,7 +5136,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="27" t="s">
         <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -5146,7 +5153,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="26"/>
+      <c r="A19" s="27"/>
       <c r="B19" s="1" t="s">
         <v>72</v>
       </c>
@@ -5161,7 +5168,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="26"/>
+      <c r="A20" s="27"/>
       <c r="B20" s="1" t="s">
         <v>7</v>
       </c>
@@ -5176,13 +5183,13 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="27" t="s">
+      <c r="A21" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/plot/system_evaluation/comparison.xlsx
+++ b/plot/system_evaluation/comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuboluo/Documents/PycharmProjects/SmartSwitch/plot/system_evaluation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D357124-EACF-FC4D-AB45-54FF984A1EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467E6E32-5142-AE45-8370-B247B8995272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16880" xr2:uid="{A33675B7-7F4F-C34D-AB6F-57998B81D61A}"/>
+    <workbookView xWindow="60" yWindow="-18580" windowWidth="29400" windowHeight="16880" xr2:uid="{A33675B7-7F4F-C34D-AB6F-57998B81D61A}"/>
   </bookViews>
   <sheets>
     <sheet name="accuracy" sheetId="14" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="83">
   <si>
     <t>MNIST</t>
   </si>
@@ -840,7 +840,7 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="138" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -915,7 +915,7 @@
       </c>
       <c r="F3" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>65.442008916509053</v>
       </c>
       <c r="G3" s="3">
         <f t="shared" si="0"/>
@@ -923,18 +923,15 @@
       </c>
       <c r="H3" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>78.828541640377381</v>
       </c>
       <c r="I3" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>57.631887084440876</v>
       </c>
       <c r="J3" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K3" t="s">
-        <v>58</v>
+        <v>81.828125999499193</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -959,7 +956,7 @@
       </c>
       <c r="F4" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>88.171203728721977</v>
       </c>
       <c r="G4" s="3">
         <f t="shared" si="1"/>
@@ -967,15 +964,15 @@
       </c>
       <c r="H4" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>88.867686118894099</v>
       </c>
       <c r="I4" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>63.561525962203682</v>
       </c>
       <c r="J4" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>89.406116350888908</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -1000,7 +997,7 @@
       </c>
       <c r="F5" s="3">
         <f>F24/F25*F6</f>
-        <v>0</v>
+        <v>86.883259911894285</v>
       </c>
       <c r="G5" s="14">
         <v>0</v>
@@ -1034,13 +1031,21 @@
       <c r="E6" s="3">
         <v>99.47</v>
       </c>
-      <c r="F6" s="3"/>
+      <c r="F6" s="3">
+        <v>85.75</v>
+      </c>
       <c r="G6" s="3">
         <v>89.59</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
+      <c r="H6" s="3">
+        <v>91.25</v>
+      </c>
+      <c r="I6" s="3">
+        <v>65.209999999999994</v>
+      </c>
+      <c r="J6" s="3">
+        <v>91.47</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -1058,13 +1063,21 @@
       <c r="E7" s="3">
         <v>99.47</v>
       </c>
-      <c r="F7" s="3"/>
+      <c r="F7" s="3">
+        <v>82.48</v>
+      </c>
       <c r="G7" s="3">
         <v>88.99</v>
       </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
+      <c r="H7" s="3">
+        <v>98.75</v>
+      </c>
+      <c r="I7" s="3">
+        <v>63.22</v>
+      </c>
+      <c r="J7" s="3">
+        <v>90.91</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="23" t="s">
